--- a/Начальное приближение по темп.xlsx
+++ b/Начальное приближение по темп.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEFBEA5-CAF8-456B-9298-EBB1A28FD271}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A5CBF7-2E64-4BF9-BA21-D634B26B019D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,11 @@
     <sheet name="проверка" sheetId="5" r:id="rId3"/>
     <sheet name="Лист3" sheetId="3" r:id="rId4"/>
     <sheet name="Метод секущих" sheetId="4" r:id="rId5"/>
+    <sheet name="Энтальпия идеал.газа" sheetId="6" r:id="rId6"/>
+    <sheet name="Теплоемкость идеал.газа" sheetId="7" r:id="rId7"/>
+    <sheet name="метод Лимана-Деннера" sheetId="8" r:id="rId8"/>
+    <sheet name="Энтальпия парообразования" sheetId="9" r:id="rId9"/>
+    <sheet name="dHf_298" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="141">
   <si>
     <t>CritT</t>
   </si>
@@ -318,6 +323,164 @@
   <si>
     <t>yij</t>
   </si>
+  <si>
+    <t>Y = a + bx + cx^2 + dx^3 + ex^4 + fx^5</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>kJ / kg</t>
+  </si>
+  <si>
+    <t>dH, kJ/kg</t>
+  </si>
+  <si>
+    <t>T, K</t>
+  </si>
+  <si>
+    <t>Ср, кал / (моль К)</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>A + B * T + C * T^2 + D * T^3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Cp</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>Коэффициент ассоциации (k)</t>
+  </si>
+  <si>
+    <t>Радиус вращения, А</t>
+  </si>
+  <si>
+    <t>Т, К</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>Csl, cal/(mole K)</t>
+  </si>
+  <si>
+    <t>Энтальпия парообразования, кал / моль</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>кал / (моль К)</t>
+  </si>
+  <si>
+    <t>CritT, °C</t>
+  </si>
+  <si>
+    <t>Crit P, kPa</t>
+  </si>
+  <si>
+    <t>Tbp, °C</t>
+  </si>
+  <si>
+    <t>Метод Чена</t>
+  </si>
+  <si>
+    <r>
+      <t>ΔH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>vap, cal / mole</t>
+    </r>
+  </si>
+  <si>
+    <t>Метод Риделя</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>dHf_298, kJ / kmole</t>
+  </si>
+  <si>
+    <t>Mr, g / mole</t>
+  </si>
 </sst>
 </file>
 
@@ -325,9 +488,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +529,28 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -458,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -477,7 +662,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -49400,11 +49591,238 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52F2061-8160-46CD-A059-42AB15B34130}">
+  <dimension ref="A2:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>-74900</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-84738</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-103890</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-134590</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-126190</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-154590</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-146490</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-167290</v>
+      </c>
+      <c r="J3" s="4">
+        <v>-187890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>16.042900085449201</v>
+      </c>
+      <c r="C6" s="4">
+        <v>30.069900512695298</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44.097000122070298</v>
+      </c>
+      <c r="E6" s="4">
+        <v>58.124000549316399</v>
+      </c>
+      <c r="F6" s="4">
+        <v>58.124000549316399</v>
+      </c>
+      <c r="G6" s="4">
+        <v>72.1510009765625</v>
+      </c>
+      <c r="H6" s="4">
+        <v>72.1510009765625</v>
+      </c>
+      <c r="I6" s="4">
+        <v>86.177902221679702</v>
+      </c>
+      <c r="J6" s="4">
+        <v>100.205001831055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f>CONCATENATE($A$8,B3,$B$8)</f>
+        <v>(-74900,</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE(C3,$B$8)</f>
+        <v>-84738,</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ref="D9:J10" si="0">CONCATENATE(D3,$B$8)</f>
+        <v>-103890,</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>-134590,</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>-126190,</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>-154590,</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>-146490,</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>-167290,</v>
+      </c>
+      <c r="J9" t="str">
+        <f>CONCATENATE(J3,$C$8)</f>
+        <v>-187890);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f>CONCATENATE($A$8,B6,$B$8)</f>
+        <v>(16.0429000854492,</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE(C6,$B$8)</f>
+        <v>30.0699005126953,</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ref="D10:I10" si="1">CONCATENATE(D6,$B$8)</f>
+        <v>44.0970001220703,</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>58.1240005493164,</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>58.1240005493164,</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>72.1510009765625,</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>72.1510009765625,</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>86.1779022216797,</v>
+      </c>
+      <c r="J10" t="str">
+        <f>CONCATENATE(J6,$C$8)</f>
+        <v>100.205001831055);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ217"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A160" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -58049,8 +58467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53891847-565C-426E-9113-71B784AA110A}">
   <dimension ref="A1:AZ240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="J263" sqref="J263"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66779,7 +67197,7 @@
         <v>3.6523100489637898E-8</v>
       </c>
       <c r="K229">
-        <f>SUM(B229:J229)</f>
+        <f t="shared" ref="K229:K240" si="51">SUM(B229:J229)</f>
         <v>0.99999999999823386</v>
       </c>
       <c r="L229" s="17"/>
@@ -66816,7 +67234,7 @@
         <v>1.06561018337243E-6</v>
       </c>
       <c r="K230">
-        <f>SUM(B230:J230)</f>
+        <f t="shared" si="51"/>
         <v>0.99999999999999711</v>
       </c>
       <c r="L230" s="17"/>
@@ -66853,7 +67271,7 @@
         <v>2.7232680634122102E-5</v>
       </c>
       <c r="K231">
-        <f>SUM(B231:J231)</f>
+        <f t="shared" si="51"/>
         <v>0.99999999999834621</v>
       </c>
       <c r="L231" s="17"/>
@@ -66890,7 +67308,7 @@
         <v>5.5797749686569797E-4</v>
       </c>
       <c r="K232">
-        <f>SUM(B232:J232)</f>
+        <f t="shared" si="51"/>
         <v>0.99999999999983047</v>
       </c>
     </row>
@@ -66926,7 +67344,7 @@
         <v>8.9356233103960892E-3</v>
       </c>
       <c r="K233">
-        <f>SUM(B233:J233)</f>
+        <f t="shared" si="51"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -66962,7 +67380,7 @@
         <v>1.1191309188150299E-2</v>
       </c>
       <c r="K234">
-        <f>SUM(B234:J234)</f>
+        <f t="shared" si="51"/>
         <v>1.0000000000000013</v>
       </c>
     </row>
@@ -66998,7 +67416,7 @@
         <v>1.16946342534394E-2</v>
       </c>
       <c r="K235">
-        <f>SUM(B235:J235)</f>
+        <f t="shared" si="51"/>
         <v>0.99999999999997025</v>
       </c>
     </row>
@@ -67034,7 +67452,7 @@
         <v>1.2550412523175699E-2</v>
       </c>
       <c r="K236">
-        <f>SUM(B236:J236)</f>
+        <f t="shared" si="51"/>
         <v>0.99999999999996891</v>
       </c>
     </row>
@@ -67070,7 +67488,7 @@
         <v>1.52034649403317E-2</v>
       </c>
       <c r="K237">
-        <f>SUM(B237:J237)</f>
+        <f t="shared" si="51"/>
         <v>0.99999999999259026</v>
       </c>
     </row>
@@ -67106,7 +67524,7 @@
         <v>2.18727566536468E-2</v>
       </c>
       <c r="K238">
-        <f>SUM(B238:J238)</f>
+        <f t="shared" si="51"/>
         <v>0.99999999999981526</v>
       </c>
     </row>
@@ -67142,7 +67560,7 @@
         <v>3.7773091170864699E-2</v>
       </c>
       <c r="K239">
-        <f>SUM(B239:J239)</f>
+        <f t="shared" si="51"/>
         <v>0.99999999999999245</v>
       </c>
     </row>
@@ -67178,7 +67596,7 @@
         <v>7.5202820906392104E-2</v>
       </c>
       <c r="K240">
-        <f>SUM(B240:J240)</f>
+        <f t="shared" si="51"/>
         <v>0.99999999999474054</v>
       </c>
     </row>
@@ -67193,7 +67611,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L53" sqref="A53:L61"/>
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68413,7 +68831,7 @@
         <v>0.47741487143849881</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F12" si="0">ABS(E4-E3)</f>
+        <f t="shared" ref="F3:F11" si="0">ABS(E4-E3)</f>
         <v>0.79603214135319511</v>
       </c>
     </row>
@@ -68650,4 +69068,2116 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD17241-631E-4A23-9204-C54A0C89680A}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3">
+        <v>-12.98</v>
+      </c>
+      <c r="C3">
+        <v>-1.7675000000000001</v>
+      </c>
+      <c r="D3">
+        <v>39.488900000000001</v>
+      </c>
+      <c r="E3">
+        <v>30.902999999999999</v>
+      </c>
+      <c r="F3">
+        <v>67.721000000000004</v>
+      </c>
+      <c r="G3">
+        <v>64.25</v>
+      </c>
+      <c r="H3">
+        <v>63.198</v>
+      </c>
+      <c r="I3">
+        <v>74.513000000000005</v>
+      </c>
+      <c r="J3">
+        <v>71.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4">
+        <v>2.3645900000000002</v>
+      </c>
+      <c r="C4">
+        <v>1.1429</v>
+      </c>
+      <c r="D4">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="F4">
+        <v>8.5405800000000007E-3</v>
+      </c>
+      <c r="G4">
+        <v>-0.131798</v>
+      </c>
+      <c r="H4" s="17">
+        <v>-1.1701700000000001E-2</v>
+      </c>
+      <c r="I4" s="17">
+        <v>-9.6697000000000005E-2</v>
+      </c>
+      <c r="J4" s="17">
+        <v>-9.6894900000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="17">
+        <v>-2.13247E-3</v>
+      </c>
+      <c r="C5" s="17">
+        <v>-3.2360000000000001E-4</v>
+      </c>
+      <c r="D5">
+        <v>2.1140899999999999E-3</v>
+      </c>
+      <c r="E5">
+        <v>2.6347900000000001E-3</v>
+      </c>
+      <c r="F5">
+        <v>3.27699E-3</v>
+      </c>
+      <c r="G5">
+        <v>3.5409999999999999E-3</v>
+      </c>
+      <c r="H5">
+        <v>3.3164000000000002E-3</v>
+      </c>
+      <c r="I5">
+        <v>3.47649E-3</v>
+      </c>
+      <c r="J5">
+        <v>3.473E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>5.6617999999999997E-6</v>
+      </c>
+      <c r="C6">
+        <v>4.2431000000000001E-6</v>
+      </c>
+      <c r="D6">
+        <v>3.9648600000000002E-7</v>
+      </c>
+      <c r="E6">
+        <v>7.27226E-8</v>
+      </c>
+      <c r="F6" s="17">
+        <v>-1.10968E-6</v>
+      </c>
+      <c r="G6" s="17">
+        <v>-1.3332E-6</v>
+      </c>
+      <c r="H6" s="17">
+        <v>-1.1705000000000001E-6</v>
+      </c>
+      <c r="I6" s="17">
+        <v>-1.3211999999999999E-6</v>
+      </c>
+      <c r="J6" s="17">
+        <v>-1.3302E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="17">
+        <v>-3.7247599999999999E-9</v>
+      </c>
+      <c r="C7" s="17">
+        <v>-3.3931599999999999E-9</v>
+      </c>
+      <c r="D7" s="17">
+        <v>-6.6717600000000003E-10</v>
+      </c>
+      <c r="E7" s="17">
+        <v>-7.2789600000000001E-10</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1.76646E-10</v>
+      </c>
+      <c r="G7" s="17">
+        <v>2.5144600000000001E-10</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1.9963600000000001E-10</v>
+      </c>
+      <c r="I7" s="17">
+        <v>2.5236499999999999E-10</v>
+      </c>
+      <c r="J7" s="17">
+        <v>2.55766E-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="17">
+        <v>8.6089600000000001E-13</v>
+      </c>
+      <c r="C8" s="17">
+        <v>8.8209599999999996E-13</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1.67936E-13</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2.3673600000000002E-13</v>
+      </c>
+      <c r="F8" s="17">
+        <v>-6.3992599999999998E-15</v>
+      </c>
+      <c r="G8" s="17">
+        <v>-1.2957600000000001E-14</v>
+      </c>
+      <c r="H8" s="17">
+        <v>-8.6648500000000004E-15</v>
+      </c>
+      <c r="I8" s="17">
+        <v>-1.34666E-14</v>
+      </c>
+      <c r="J8" s="17">
+        <v>-1.37726E-14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="14">
+        <v>273.14999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="14">
+        <f>B3+B4*$B$10+B5*$B$10^2+B6*$B$10^3+B7*$B$10^4+B8*$B$10^5</f>
+        <v>569.76363408211148</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" ref="C12:J12" si="0">C3+C4*$B$10+C5*$B$10^2+C6*$B$10^3+C7*$B$10^4+C8*$B$10^5</f>
+        <v>355.19808512534354</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>309.73905900320631</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="0"/>
+        <v>267.15102149006486</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="0"/>
+        <v>292.91147800734956</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="0"/>
+        <v>266.65611632488469</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>284.68474120540094</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="0"/>
+        <v>281.94270545653768</v>
+      </c>
+      <c r="J12" s="14">
+        <f>J3+J4*$B$10+J5*$B$10^2+J6*$B$10^3+J7*$B$10^4+J8*$B$10^5</f>
+        <v>278.36030454864766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <f>CONCATENATE($A$14,B3,$B$14)</f>
+        <v>(-12.98,</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" ref="C15:I15" si="1">CONCATENATE(C3,$B$14)</f>
+        <v>-1.7675,</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>39.4889,</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>30.903,</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>67.721,</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>64.25,</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>63.198,</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>74.513,</v>
+      </c>
+      <c r="J15" t="str">
+        <f>CONCATENATE(J3,$J$14)</f>
+        <v>71.41);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <f t="shared" ref="B16:B20" si="2">CONCATENATE($A$14,B4,$B$14)</f>
+        <v>(2.36459,</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" ref="C16:I16" si="3">CONCATENATE(C4,$B$14)</f>
+        <v>1.1429,</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="3"/>
+        <v>0.395,</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v>0.1533,</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v>0.00854058,</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>-0.131798,</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>-0.0117017,</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>-0.096697,</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J20" si="4">CONCATENATE(J4,$J$14)</f>
+        <v>-0.0968949);</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <f t="shared" si="2"/>
+        <v>(-0.00213247,</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" ref="C17:I17" si="5">CONCATENATE(C5,$B$14)</f>
+        <v>-0.0003236,</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.00211409,</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.00263479,</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.00327699,</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.003541,</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0033164,</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.00347649,</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v>0.003473);</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <f t="shared" si="2"/>
+        <v>(0.0000056618,</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" ref="C18:I18" si="6">CONCATENATE(C6,$B$14)</f>
+        <v>0.0000042431,</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="6"/>
+        <v>0.000000396486,</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0000000727226,</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="6"/>
+        <v>-0.00000110968,</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="6"/>
+        <v>-0.0000013332,</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="6"/>
+        <v>-0.0000011705,</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="6"/>
+        <v>-0.0000013212,</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v>-0.0000013302);</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <f t="shared" si="2"/>
+        <v>(-0.00000000372476,</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" ref="C19:I19" si="7">CONCATENATE(C7,$B$14)</f>
+        <v>-0.00000000339316,</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="7"/>
+        <v>-0.000000000667176,</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="7"/>
+        <v>-0.000000000727896,</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="7"/>
+        <v>0.000000000176646,</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="7"/>
+        <v>0.000000000251446,</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="7"/>
+        <v>0.000000000199636,</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="7"/>
+        <v>0.000000000252365,</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="4"/>
+        <v>0.000000000255766);</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <f t="shared" si="2"/>
+        <v>(0.000000000000860896,</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" ref="C20:I20" si="8">CONCATENATE(C8,$B$14)</f>
+        <v>0.000000000000882096,</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000000000000167936,</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000000000000236736,</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="8"/>
+        <v>-6.39926E-15,</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="8"/>
+        <v>-1.29576E-14,</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="8"/>
+        <v>-8.66485E-15,</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="8"/>
+        <v>-1.34666E-14,</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="4"/>
+        <v>-1.37726E-14);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48C32BE-A347-4D47-9E44-36FD39B6CDF9}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="22">
+        <v>273.14999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4.5979999999999999</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1.292</v>
+      </c>
+      <c r="D4" s="20">
+        <v>-1.0089999999999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-0.33200000000000002</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.266</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-2.2749999999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-0.86599999999999999</v>
+      </c>
+      <c r="I4" s="4">
+        <v>-1.054</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-1.2290000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1.2449999999999999E-2</v>
+      </c>
+      <c r="C5" s="20">
+        <v>4.2540000000000001E-2</v>
+      </c>
+      <c r="D5" s="20">
+        <v>7.3150000000000007E-2</v>
+      </c>
+      <c r="E5" s="20">
+        <v>9.1889999999999999E-2</v>
+      </c>
+      <c r="F5" s="20">
+        <v>7.9130000000000006E-2</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.121</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.1164</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0.1615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="20">
+        <v>2.8600000000000001E-6</v>
+      </c>
+      <c r="C6" s="20">
+        <v>-1.6569999999999999E-5</v>
+      </c>
+      <c r="D6" s="20">
+        <v>-3.7889999999999998E-5</v>
+      </c>
+      <c r="E6" s="20">
+        <v>-4.409E-5</v>
+      </c>
+      <c r="F6" s="20">
+        <v>-2.6469999999999999E-5</v>
+      </c>
+      <c r="G6" s="20">
+        <v>-6.5190000000000004E-5</v>
+      </c>
+      <c r="H6" s="20">
+        <v>-6.1630000000000005E-5</v>
+      </c>
+      <c r="I6" s="20">
+        <v>-7.449E-5</v>
+      </c>
+      <c r="J6" s="20">
+        <v>-8.7200000000000005E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="20">
+        <v>-2.7029999999999999E-9</v>
+      </c>
+      <c r="C7" s="20">
+        <v>2.0810000000000002E-9</v>
+      </c>
+      <c r="D7" s="20">
+        <v>7.6779999999999993E-9</v>
+      </c>
+      <c r="E7" s="20">
+        <v>6.9150000000000002E-9</v>
+      </c>
+      <c r="F7" s="20">
+        <v>-6.4700000000000004E-10</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1.3669999999999999E-8</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1.267E-8</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1.5510000000000001E-8</v>
+      </c>
+      <c r="J7" s="20">
+        <v>1.829E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="21">
+        <f>B4+B5*$G$1+B6*$G$1^2+B7*$G$1^3</f>
+        <v>8.1570176700311947</v>
+      </c>
+      <c r="C8" s="21">
+        <f t="shared" ref="C8:J8" si="0">C4+C5*$G$1+C6*$G$1^2+C7*$G$1^3</f>
+        <v>11.717908738988699</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="0"/>
+        <v>16.30139208286116</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>21.61908544359525</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
+        <v>21.892222538582871</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="0"/>
+        <v>26.190858199708561</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="0"/>
+        <v>26.588603110327682</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="0"/>
+        <v>31.672175771663369</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="0"/>
+        <v>36.751402272965201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <f>CONCATENATE($A$10,B4,$B$10)</f>
+        <v>(4.598,</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE(C4,$B$10)</f>
+        <v>1.292,</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:J11" si="1">CONCATENATE(D4,$B$10)</f>
+        <v>-1.009,</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>-0.332,</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>2.266,</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>-2.275,</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>-0.866,</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>-1.054,</v>
+      </c>
+      <c r="J11" t="str">
+        <f>CONCATENATE(J4,$C$10)</f>
+        <v>-1.229);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <f t="shared" ref="B12:B14" si="2">CONCATENATE($A$10,B5,$B$10)</f>
+        <v>(0.01245,</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" ref="C12:I12" si="3">CONCATENATE(C5,$B$10)</f>
+        <v>0.04254,</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="3"/>
+        <v>0.07315,</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v>0.09189,</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="3"/>
+        <v>0.07913,</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>0.121,</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>0.1164,</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>0.139,</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ref="J12:J14" si="4">CONCATENATE(J5,$C$10)</f>
+        <v>0.1615);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f t="shared" si="2"/>
+        <v>(0.00000286,</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ref="C13:I13" si="5">CONCATENATE(C6,$B$10)</f>
+        <v>-0.00001657,</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="5"/>
+        <v>-0.00003789,</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="5"/>
+        <v>-0.00004409,</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="5"/>
+        <v>-0.00002647,</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="5"/>
+        <v>-0.00006519,</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="5"/>
+        <v>-0.00006163,</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="5"/>
+        <v>-0.00007449,</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="4"/>
+        <v>-0.0000872);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f t="shared" si="2"/>
+        <v>(-0.000000002703,</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" ref="C14:I14" si="6">CONCATENATE(C7,$B$10)</f>
+        <v>0.000000002081,</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="6"/>
+        <v>0.000000007678,</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="6"/>
+        <v>0.000000006915,</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="6"/>
+        <v>-0.000000000647,</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00000001367,</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00000001267,</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00000001551,</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="4"/>
+        <v>0.00000001829);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376A5037-0751-43D4-BCFC-EA4F6E9E3D4F}">
+  <dimension ref="A1:T26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10.1273</v>
+      </c>
+      <c r="B4">
+        <v>-15.3546</v>
+      </c>
+      <c r="C4">
+        <v>3.2008000000000001</v>
+      </c>
+      <c r="D4">
+        <v>19.7302</v>
+      </c>
+      <c r="E4">
+        <v>-0.89490000000000003</v>
+      </c>
+      <c r="F4">
+        <v>-1.489E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="H4">
+        <v>-4.342E-2</v>
+      </c>
+      <c r="L4" t="str">
+        <f>CONCATENATE($L$3,A4,$M$3)</f>
+        <v>(10.1273,</v>
+      </c>
+      <c r="M4" t="str">
+        <f>CONCATENATE(B4,$M$3)</f>
+        <v>-15.3546,</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:P4" si="0">CONCATENATE(C4,$M$3)</f>
+        <v>3.2008,</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v>19.7302,</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.8949,</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>CONCATENATE(F4,$M$3)</f>
+        <v>-0.01489,</v>
+      </c>
+      <c r="R4" t="str">
+        <f>CONCATENATE(G4,$M$3)</f>
+        <v>0.2241,</v>
+      </c>
+      <c r="S4" t="str">
+        <f>CONCATENATE(H4,$N$3)</f>
+        <v>-0.04342);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" t="str">
+        <f>CONCATENATE($L$3,A6,$M$3)</f>
+        <v>(0.31446,</v>
+      </c>
+      <c r="M5" t="str">
+        <f>CONCATENATE(B6,$M$3)</f>
+        <v>2.5346,</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" ref="N5:P5" si="1">CONCATENATE(C6,$M$3)</f>
+        <v>-2.0242,</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
+        <v>-0.07055,</v>
+      </c>
+      <c r="P5" t="str">
+        <f>CONCATENATE(E6,$N$3)</f>
+        <v>0.07264);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.31446000000000002</v>
+      </c>
+      <c r="B6">
+        <v>2.5346000000000002</v>
+      </c>
+      <c r="C6">
+        <v>-2.0242</v>
+      </c>
+      <c r="D6">
+        <v>-7.0550000000000002E-2</v>
+      </c>
+      <c r="E6">
+        <v>7.2639999999999996E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="23">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="C9">
+        <v>1.8313999999999999</v>
+      </c>
+      <c r="D9">
+        <v>2.4255</v>
+      </c>
+      <c r="E9">
+        <v>2.8961999999999999</v>
+      </c>
+      <c r="F9">
+        <v>2.8885000000000001</v>
+      </c>
+      <c r="G9">
+        <v>3.3130000000000002</v>
+      </c>
+      <c r="H9">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="I9">
+        <v>3.8119999999999998</v>
+      </c>
+      <c r="J9">
+        <v>4.2664999999999997</v>
+      </c>
+      <c r="L9" t="str">
+        <f>CONCATENATE($L$3,B9,$M$3)</f>
+        <v>(1.124,</v>
+      </c>
+      <c r="M9" t="str">
+        <f>CONCATENATE(C9,$M$3)</f>
+        <v>1.8314,</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" ref="N9:S9" si="2">CONCATENATE(D9,$M$3)</f>
+        <v>2.4255,</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="2"/>
+        <v>2.8962,</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="2"/>
+        <v>2.8885,</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="2"/>
+        <v>3.313,</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="2"/>
+        <v>3.385,</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>3.812,</v>
+      </c>
+      <c r="T9" t="str">
+        <f>CONCATENATE(J9,$N$3)</f>
+        <v>4.2665);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="23">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-0.68840000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-0.76429999999999998</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="str">
+        <f>CONCATENATE($L$3,B10,$M$3)</f>
+        <v>(0,</v>
+      </c>
+      <c r="M10" t="str">
+        <f>CONCATENATE(C10,$M$3)</f>
+        <v>0,</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" ref="N10" si="3">CONCATENATE(D10,$M$3)</f>
+        <v>0,</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" ref="O10" si="4">CONCATENATE(E10,$M$3)</f>
+        <v>-0.6884,</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ref="P10" si="5">CONCATENATE(F10,$M$3)</f>
+        <v>0,</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" ref="Q10" si="6">CONCATENATE(G10,$M$3)</f>
+        <v>-0.7643,</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" ref="R10" si="7">CONCATENATE(H10,$M$3)</f>
+        <v>0,</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" ref="S10" si="8">CONCATENATE(I10,$M$3)</f>
+        <v>0,</v>
+      </c>
+      <c r="T10" t="str">
+        <f>CONCATENATE(J10,$N$3)</f>
+        <v>0);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4.5979999999999999</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1.292</v>
+      </c>
+      <c r="D13" s="20">
+        <v>-1.0089999999999999</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-0.33200000000000002</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.266</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-2.2749999999999999</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-0.86599999999999999</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-1.054</v>
+      </c>
+      <c r="J13" s="4">
+        <v>-1.2290000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1.2449999999999999E-2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>4.2540000000000001E-2</v>
+      </c>
+      <c r="D14" s="20">
+        <v>7.3150000000000007E-2</v>
+      </c>
+      <c r="E14" s="20">
+        <v>9.1889999999999999E-2</v>
+      </c>
+      <c r="F14" s="20">
+        <v>7.9130000000000006E-2</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.121</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0.1164</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0.1615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="20">
+        <v>2.8600000000000001E-6</v>
+      </c>
+      <c r="C15" s="20">
+        <v>-1.6569999999999999E-5</v>
+      </c>
+      <c r="D15" s="20">
+        <v>-3.7889999999999998E-5</v>
+      </c>
+      <c r="E15" s="20">
+        <v>-4.409E-5</v>
+      </c>
+      <c r="F15" s="20">
+        <v>-2.6469999999999999E-5</v>
+      </c>
+      <c r="G15" s="20">
+        <v>-6.5190000000000004E-5</v>
+      </c>
+      <c r="H15" s="20">
+        <v>-6.1630000000000005E-5</v>
+      </c>
+      <c r="I15" s="20">
+        <v>-7.449E-5</v>
+      </c>
+      <c r="J15" s="20">
+        <v>-8.7200000000000005E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="20">
+        <v>-2.7029999999999999E-9</v>
+      </c>
+      <c r="C16" s="20">
+        <v>2.0810000000000002E-9</v>
+      </c>
+      <c r="D16" s="20">
+        <v>7.6779999999999993E-9</v>
+      </c>
+      <c r="E16" s="20">
+        <v>6.9150000000000002E-9</v>
+      </c>
+      <c r="F16" s="20">
+        <v>-6.4700000000000004E-10</v>
+      </c>
+      <c r="G16" s="20">
+        <v>1.3669999999999999E-8</v>
+      </c>
+      <c r="H16" s="20">
+        <v>1.267E-8</v>
+      </c>
+      <c r="I16" s="20">
+        <v>1.5510000000000001E-8</v>
+      </c>
+      <c r="J16" s="20">
+        <v>1.829E-8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="21">
+        <f>B13+B14*$G$1+B15*$G$1^2+B16*$G$1^3</f>
+        <v>8.4905483508239996</v>
+      </c>
+      <c r="C17" s="21">
+        <f>C13+C14*$G$1+C15*$G$1^2+C16*$G$1^3</f>
+        <v>12.552508454952001</v>
+      </c>
+      <c r="D17" s="21">
+        <f t="shared" ref="C17:J17" si="9">D13+D14*$G$1+D15*$G$1^2+D16*$G$1^3</f>
+        <v>17.628103899376004</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" si="9"/>
+        <v>23.318847378680001</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="9"/>
+        <v>23.478976175976001</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="9"/>
+        <v>28.355624542640001</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" si="9"/>
+        <v>28.683503190640003</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="9"/>
+        <v>34.163440351920002</v>
+      </c>
+      <c r="J17" s="21">
+        <f t="shared" si="9"/>
+        <v>39.63831029768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>-82.45</v>
+      </c>
+      <c r="C20" s="4">
+        <v>32.28</v>
+      </c>
+      <c r="D20" s="4">
+        <v>96.75</v>
+      </c>
+      <c r="E20" s="4">
+        <v>134.9</v>
+      </c>
+      <c r="F20" s="4">
+        <v>152</v>
+      </c>
+      <c r="G20" s="4">
+        <v>187.2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>196.5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>234.7</v>
+      </c>
+      <c r="J20" s="4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <f>$G$1/(B20+273.15)</f>
+        <v>1.5626638699528055</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" ref="C23:J23" si="10">$G$1/(C20+273.15)</f>
+        <v>0.97567364044134519</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="10"/>
+        <v>0.80562314138956481</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="10"/>
+        <v>0.73030265898786917</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="10"/>
+        <v>0.70092908385275787</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="10"/>
+        <v>0.64733355055935704</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="10"/>
+        <v>0.63451506440966676</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="10"/>
+        <v>0.58678743723540416</v>
+      </c>
+      <c r="J23" s="4">
+        <f>$G$1/(J20+273.15)</f>
+        <v>0.55169860224011846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <f>$A$4+($B$4+$C$4*B9)*B23+($D$4+$E$4*B9)*B23^5+$F$4*B9^2/B23^2+$G$4*B9/B23^3+$H$4/B23^5+B10*($A$6+$B$6*B23^2+$C$6*B23^3)+B10^2*($D$6+$E$6*B23^2)+B17</f>
+        <v>174.77480901204837</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" ref="C26:J26" si="11">$A$4+($B$4+$C$4*C9)*C23+($D$4+$E$4*C9)*C23^5+$F$4*C9^2/C23^2+$G$4*C9/C23^3+$H$4/C23^5+C10*($A$6+$B$6*C23^2+$C$6*C23^3)+C10^2*($D$6+$E$6*C23^2)+C17</f>
+        <v>29.753681379510788</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="11"/>
+        <v>28.375528593362464</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="11"/>
+        <v>33.166706653865212</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="11"/>
+        <v>33.59523073086924</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="11"/>
+        <v>38.622714518351906</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="11"/>
+        <v>39.784089183602816</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="11"/>
+        <v>46.551385711066757</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="11"/>
+        <v>53.595728222511056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2468C269-D661-4A1D-BD70-092BDCB037EA}">
+  <dimension ref="A1:U18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>-82.45</v>
+      </c>
+      <c r="C6" s="4">
+        <v>32.28</v>
+      </c>
+      <c r="D6" s="4">
+        <v>96.75</v>
+      </c>
+      <c r="E6" s="4">
+        <v>134.9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>152</v>
+      </c>
+      <c r="G6" s="4">
+        <v>187.2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>196.5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>234.7</v>
+      </c>
+      <c r="J6" s="4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>4641</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4484</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4257</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3648</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3797</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3375</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3334</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3032</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>-161.52500000000001</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-88.599996948242193</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-42.101995849609402</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-11.7299865722656</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-0.50198974609372704</v>
+      </c>
+      <c r="G12" s="4">
+        <v>27.878015136718801</v>
+      </c>
+      <c r="H12" s="4">
+        <v>36.059014892578098</v>
+      </c>
+      <c r="I12" s="4">
+        <v>68.730004882812494</v>
+      </c>
+      <c r="J12" s="4">
+        <v>98.429010009765605</v>
+      </c>
+      <c r="M12" t="str">
+        <f>CONCATENATE($M$11,B12,N11)</f>
+        <v>(-161.525,</v>
+      </c>
+      <c r="N12" t="str">
+        <f>CONCATENATE(C12,$N$11)</f>
+        <v>-88.5999969482422,</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" ref="O12:S12" si="0">CONCATENATE(D12,$N$11)</f>
+        <v>-42.1019958496094,</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>-11.7299865722656,</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.501989746093727,</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="0"/>
+        <v>27.8780151367188,</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="0"/>
+        <v>36.0590148925781,</v>
+      </c>
+      <c r="T12" t="str">
+        <f>CONCATENATE(I12,$N$11)</f>
+        <v>68.7300048828125,</v>
+      </c>
+      <c r="U12" t="str">
+        <f>CONCATENATE(J12,$O$11)</f>
+        <v>98.4290100097656);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="4">
+        <f>$B$3*(B6+273.15)*(B12+273.15)/(B6+273.15)*((3.978*(B12+273.15)/(B6+273.15)-3.938+1.555*LN(B9/101.325))/(1.07-(B12+273.15)/(B6+273.15)))</f>
+        <v>1984.9570129601557</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:J15" si="1">$B$3*(C6+273.15)*(C12+273.15)/(C6+273.15)*((3.978*(C12+273.15)/(C6+273.15)-3.938+1.555*LN(C9/101.325))/(1.07-(C12+273.15)/(C6+273.15)))</f>
+        <v>3431.827333936305</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>4493.5633343356158</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>5060.8490051711269</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>5368.0025622524481</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>5915.1802313216895</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>6140.1036477159223</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
+        <v>6890.3169759232387</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>7583.1659973287997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="4">
+        <f>1.093*$B$3*(B6+273.15)*(LN(B9/101.325)-1)/(0.93-(B12+273.15)/(B6+273.15))*(B12+273.15)/(B6+273.15)</f>
+        <v>1986.6063002137369</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" ref="C18:J18" si="2">1.093*$B$3*(C6+273.15)*(LN(C9/101.325)-1)/(0.93-(C12+273.15)/(C6+273.15))*(C12+273.15)/(C6+273.15)</f>
+        <v>3432.5402518963665</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="2"/>
+        <v>4498.990826421049</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="2"/>
+        <v>5069.5461178738005</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="2"/>
+        <v>5381.1401586989414</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="2"/>
+        <v>5933.6996714675515</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="2"/>
+        <v>6165.0587190871756</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="2"/>
+        <v>6935.0124121397257</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>7654.7805501988059</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Начальное приближение по темп.xlsx
+++ b/Начальное приближение по темп.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A5CBF7-2E64-4BF9-BA21-D634B26B019D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D7E5D7-31F2-4878-965C-EFFCCC76E61C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="148">
   <si>
     <t>CritT</t>
   </si>
@@ -481,6 +481,27 @@
   <si>
     <t>Mr, g / mole</t>
   </si>
+  <si>
+    <t>Интеграл</t>
+  </si>
+  <si>
+    <t>Ideal Gas Cp</t>
+  </si>
+  <si>
+    <t>Tdp</t>
+  </si>
+  <si>
+    <t>Liquid Cp</t>
+  </si>
+  <si>
+    <t>T1, K</t>
+  </si>
+  <si>
+    <t>T2, K</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
 </sst>
 </file>
 
@@ -578,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -638,12 +659,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -669,6 +701,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -49595,7 +49628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52F2061-8160-46CD-A059-42AB15B34130}">
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:J10"/>
     </sheetView>
   </sheetViews>
@@ -49747,7 +49780,7 @@
         <v>-84738,</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9:J10" si="0">CONCATENATE(D3,$B$8)</f>
+        <f t="shared" ref="D9:I9" si="0">CONCATENATE(D3,$B$8)</f>
         <v>-103890,</v>
       </c>
       <c r="E9" t="str">
@@ -69355,7 +69388,7 @@
         <v>569.76363408211148</v>
       </c>
       <c r="C12" s="14">
-        <f t="shared" ref="C12:J12" si="0">C3+C4*$B$10+C5*$B$10^2+C6*$B$10^3+C7*$B$10^4+C8*$B$10^5</f>
+        <f t="shared" ref="C12:I12" si="0">C3+C4*$B$10+C5*$B$10^2+C6*$B$10^3+C7*$B$10^4+C8*$B$10^5</f>
         <v>355.19808512534354</v>
       </c>
       <c r="D12" s="14">
@@ -69880,7 +69913,7 @@
         <v>1.292,</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11:J11" si="1">CONCATENATE(D4,$B$10)</f>
+        <f t="shared" ref="D11:I11" si="1">CONCATENATE(D4,$B$10)</f>
         <v>-1.009,</v>
       </c>
       <c r="E11" t="str">
@@ -70030,737 +70063,1155 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376A5037-0751-43D4-BCFC-EA4F6E9E3D4F}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:T10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>110</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>126</v>
       </c>
-      <c r="G1">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G2">
+        <v>276.39999999999998</v>
+      </c>
+      <c r="H2">
+        <v>120.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>111</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>112</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>113</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>114</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>115</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>116</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>117</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>118</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L4" t="s">
         <v>77</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M4" t="s">
         <v>76</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>10.1273</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>-15.3546</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>3.2008000000000001</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>19.7302</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>-0.89490000000000003</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>-1.489E-2</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>0.22409999999999999</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>-4.342E-2</v>
       </c>
-      <c r="L4" t="str">
-        <f>CONCATENATE($L$3,A4,$M$3)</f>
+      <c r="L5" t="str">
+        <f>CONCATENATE($L$4,A5,$M$4)</f>
         <v>(10.1273,</v>
       </c>
-      <c r="M4" t="str">
-        <f>CONCATENATE(B4,$M$3)</f>
+      <c r="M5" t="str">
+        <f>CONCATENATE(B5,$M$4)</f>
         <v>-15.3546,</v>
       </c>
-      <c r="N4" t="str">
-        <f t="shared" ref="N4:P4" si="0">CONCATENATE(C4,$M$3)</f>
+      <c r="N5" t="str">
+        <f t="shared" ref="N5:P5" si="0">CONCATENATE(C5,$M$4)</f>
         <v>3.2008,</v>
       </c>
-      <c r="O4" t="str">
+      <c r="O5" t="str">
         <f t="shared" si="0"/>
         <v>19.7302,</v>
       </c>
-      <c r="P4" t="str">
+      <c r="P5" t="str">
         <f t="shared" si="0"/>
         <v>-0.8949,</v>
       </c>
-      <c r="Q4" t="str">
-        <f>CONCATENATE(F4,$M$3)</f>
+      <c r="Q5" t="str">
+        <f>CONCATENATE(F5,$M$4)</f>
         <v>-0.01489,</v>
       </c>
-      <c r="R4" t="str">
-        <f>CONCATENATE(G4,$M$3)</f>
+      <c r="R5" t="str">
+        <f>CONCATENATE(G5,$M$4)</f>
         <v>0.2241,</v>
       </c>
-      <c r="S4" t="str">
-        <f>CONCATENATE(H4,$N$3)</f>
+      <c r="S5" t="str">
+        <f>CONCATENATE(H5,$N$4)</f>
         <v>-0.04342);</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>119</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>120</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>121</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>122</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>123</v>
       </c>
-      <c r="L5" t="str">
-        <f>CONCATENATE($L$3,A6,$M$3)</f>
+      <c r="L6" t="str">
+        <f>CONCATENATE($L$4,A7,$M$4)</f>
         <v>(0.31446,</v>
       </c>
-      <c r="M5" t="str">
-        <f>CONCATENATE(B6,$M$3)</f>
+      <c r="M6" t="str">
+        <f>CONCATENATE(B7,$M$4)</f>
         <v>2.5346,</v>
       </c>
-      <c r="N5" t="str">
-        <f t="shared" ref="N5:P5" si="1">CONCATENATE(C6,$M$3)</f>
+      <c r="N6" t="str">
+        <f t="shared" ref="N6:O6" si="1">CONCATENATE(C7,$M$4)</f>
         <v>-2.0242,</v>
       </c>
-      <c r="O5" t="str">
+      <c r="O6" t="str">
         <f t="shared" si="1"/>
         <v>-0.07055,</v>
       </c>
-      <c r="P5" t="str">
-        <f>CONCATENATE(E6,$N$3)</f>
+      <c r="P6" t="str">
+        <f>CONCATENATE(E7,$N$4)</f>
         <v>0.07264);</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>0.31446000000000002</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>2.5346000000000002</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-2.0242</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>-7.0550000000000002E-2</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>7.2639999999999996E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B10" s="23">
         <v>1.1240000000000001</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1.8313999999999999</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>2.4255</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>2.8961999999999999</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>2.8885000000000001</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>3.3130000000000002</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>3.3849999999999998</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>3.8119999999999998</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>4.2664999999999997</v>
       </c>
-      <c r="L9" t="str">
-        <f>CONCATENATE($L$3,B9,$M$3)</f>
+      <c r="L10" t="str">
+        <f>CONCATENATE($L$4,B10,$M$4)</f>
         <v>(1.124,</v>
       </c>
-      <c r="M9" t="str">
-        <f>CONCATENATE(C9,$M$3)</f>
+      <c r="M10" t="str">
+        <f>CONCATENATE(C10,$M$4)</f>
         <v>1.8314,</v>
       </c>
-      <c r="N9" t="str">
-        <f t="shared" ref="N9:S9" si="2">CONCATENATE(D9,$M$3)</f>
+      <c r="N10" t="str">
+        <f t="shared" ref="N10:S10" si="2">CONCATENATE(D10,$M$4)</f>
         <v>2.4255,</v>
       </c>
-      <c r="O9" t="str">
+      <c r="O10" t="str">
         <f t="shared" si="2"/>
         <v>2.8962,</v>
       </c>
-      <c r="P9" t="str">
+      <c r="P10" t="str">
         <f t="shared" si="2"/>
         <v>2.8885,</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="Q10" t="str">
         <f t="shared" si="2"/>
         <v>3.313,</v>
       </c>
-      <c r="R9" t="str">
+      <c r="R10" t="str">
         <f t="shared" si="2"/>
         <v>3.385,</v>
       </c>
-      <c r="S9" t="str">
+      <c r="S10" t="str">
         <f t="shared" si="2"/>
         <v>3.812,</v>
       </c>
-      <c r="T9" t="str">
-        <f>CONCATENATE(J9,$N$3)</f>
+      <c r="T10" t="str">
+        <f>CONCATENATE(J10,$N$4)</f>
         <v>4.2665);</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="23">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="B11" s="23">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>-0.68840000000000001</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>-0.76429999999999998</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="str">
-        <f>CONCATENATE($L$3,B10,$M$3)</f>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="str">
+        <f>CONCATENATE($L$4,B11,$M$4)</f>
         <v>(0,</v>
       </c>
-      <c r="M10" t="str">
-        <f>CONCATENATE(C10,$M$3)</f>
+      <c r="M11" t="str">
+        <f>CONCATENATE(C11,$M$4)</f>
         <v>0,</v>
       </c>
-      <c r="N10" t="str">
-        <f t="shared" ref="N10" si="3">CONCATENATE(D10,$M$3)</f>
+      <c r="N11" t="str">
+        <f t="shared" ref="N11" si="3">CONCATENATE(D11,$M$4)</f>
         <v>0,</v>
       </c>
-      <c r="O10" t="str">
-        <f t="shared" ref="O10" si="4">CONCATENATE(E10,$M$3)</f>
+      <c r="O11" t="str">
+        <f t="shared" ref="O11" si="4">CONCATENATE(E11,$M$4)</f>
         <v>-0.6884,</v>
       </c>
-      <c r="P10" t="str">
-        <f t="shared" ref="P10" si="5">CONCATENATE(F10,$M$3)</f>
+      <c r="P11" t="str">
+        <f t="shared" ref="P11" si="5">CONCATENATE(F11,$M$4)</f>
         <v>0,</v>
       </c>
-      <c r="Q10" t="str">
-        <f t="shared" ref="Q10" si="6">CONCATENATE(G10,$M$3)</f>
+      <c r="Q11" t="str">
+        <f t="shared" ref="Q11" si="6">CONCATENATE(G11,$M$4)</f>
         <v>-0.7643,</v>
       </c>
-      <c r="R10" t="str">
-        <f t="shared" ref="R10" si="7">CONCATENATE(H10,$M$3)</f>
+      <c r="R11" t="str">
+        <f t="shared" ref="R11" si="7">CONCATENATE(H11,$M$4)</f>
         <v>0,</v>
       </c>
-      <c r="S10" t="str">
-        <f t="shared" ref="S10" si="8">CONCATENATE(I10,$M$3)</f>
+      <c r="S11" t="str">
+        <f t="shared" ref="S11" si="8">CONCATENATE(I11,$M$4)</f>
         <v>0,</v>
       </c>
-      <c r="T10" t="str">
-        <f>CONCATENATE(J10,$N$3)</f>
+      <c r="T11" t="str">
+        <f>CONCATENATE(J11,$N$4)</f>
         <v>0);</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="4">
-        <v>4.5979999999999999</v>
-      </c>
-      <c r="C13" s="20">
-        <v>1.292</v>
-      </c>
-      <c r="D13" s="20">
-        <v>-1.0089999999999999</v>
-      </c>
-      <c r="E13" s="4">
-        <v>-0.33200000000000002</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2.266</v>
-      </c>
-      <c r="G13" s="4">
-        <v>-2.2749999999999999</v>
-      </c>
-      <c r="H13" s="4">
-        <v>-0.86599999999999999</v>
-      </c>
-      <c r="I13" s="4">
-        <v>-1.054</v>
-      </c>
-      <c r="J13" s="4">
-        <v>-1.2290000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="20">
-        <v>1.2449999999999999E-2</v>
+        <v>105</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4.5979999999999999</v>
       </c>
       <c r="C14" s="20">
-        <v>4.2540000000000001E-2</v>
+        <v>1.292</v>
       </c>
       <c r="D14" s="20">
-        <v>7.3150000000000007E-2</v>
-      </c>
-      <c r="E14" s="20">
-        <v>9.1889999999999999E-2</v>
-      </c>
-      <c r="F14" s="20">
-        <v>7.9130000000000006E-2</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0.121</v>
-      </c>
-      <c r="H14" s="20">
-        <v>0.1164</v>
-      </c>
-      <c r="I14" s="20">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="J14" s="20">
-        <v>0.1615</v>
+        <v>-1.0089999999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-0.33200000000000002</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.266</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-2.2749999999999999</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-0.86599999999999999</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-1.054</v>
+      </c>
+      <c r="J14" s="4">
+        <v>-1.2290000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="20">
-        <v>2.8600000000000001E-6</v>
+        <v>1.2449999999999999E-2</v>
       </c>
       <c r="C15" s="20">
-        <v>-1.6569999999999999E-5</v>
+        <v>4.2540000000000001E-2</v>
       </c>
       <c r="D15" s="20">
-        <v>-3.7889999999999998E-5</v>
+        <v>7.3150000000000007E-2</v>
       </c>
       <c r="E15" s="20">
-        <v>-4.409E-5</v>
+        <v>9.1889999999999999E-2</v>
       </c>
       <c r="F15" s="20">
-        <v>-2.6469999999999999E-5</v>
+        <v>7.9130000000000006E-2</v>
       </c>
       <c r="G15" s="20">
-        <v>-6.5190000000000004E-5</v>
+        <v>0.121</v>
       </c>
       <c r="H15" s="20">
-        <v>-6.1630000000000005E-5</v>
+        <v>0.1164</v>
       </c>
       <c r="I15" s="20">
-        <v>-7.449E-5</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="J15" s="20">
-        <v>-8.7200000000000005E-5</v>
+        <v>0.1615</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="20">
-        <v>-2.7029999999999999E-9</v>
+        <v>2.8600000000000001E-6</v>
       </c>
       <c r="C16" s="20">
-        <v>2.0810000000000002E-9</v>
+        <v>-1.6569999999999999E-5</v>
       </c>
       <c r="D16" s="20">
-        <v>7.6779999999999993E-9</v>
+        <v>-3.7889999999999998E-5</v>
       </c>
       <c r="E16" s="20">
-        <v>6.9150000000000002E-9</v>
+        <v>-4.409E-5</v>
       </c>
       <c r="F16" s="20">
-        <v>-6.4700000000000004E-10</v>
+        <v>-2.6469999999999999E-5</v>
       </c>
       <c r="G16" s="20">
-        <v>1.3669999999999999E-8</v>
+        <v>-6.5190000000000004E-5</v>
       </c>
       <c r="H16" s="20">
-        <v>1.267E-8</v>
+        <v>-6.1630000000000005E-5</v>
       </c>
       <c r="I16" s="20">
-        <v>1.5510000000000001E-8</v>
+        <v>-7.449E-5</v>
       </c>
       <c r="J16" s="20">
-        <v>1.829E-8</v>
+        <v>-8.7200000000000005E-5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="20">
+        <v>-2.7029999999999999E-9</v>
+      </c>
+      <c r="C17" s="20">
+        <v>2.0810000000000002E-9</v>
+      </c>
+      <c r="D17" s="20">
+        <v>7.6779999999999993E-9</v>
+      </c>
+      <c r="E17" s="20">
+        <v>6.9150000000000002E-9</v>
+      </c>
+      <c r="F17" s="20">
+        <v>-6.4700000000000004E-10</v>
+      </c>
+      <c r="G17" s="20">
+        <v>1.3669999999999999E-8</v>
+      </c>
+      <c r="H17" s="20">
+        <v>1.267E-8</v>
+      </c>
+      <c r="I17" s="20">
+        <v>1.5510000000000001E-8</v>
+      </c>
+      <c r="J17" s="20">
+        <v>1.829E-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="21">
-        <f>B13+B14*$G$1+B15*$G$1^2+B16*$G$1^3</f>
-        <v>8.4905483508239996</v>
-      </c>
-      <c r="C17" s="21">
-        <f>C13+C14*$G$1+C15*$G$1^2+C16*$G$1^3</f>
-        <v>12.552508454952001</v>
-      </c>
-      <c r="D17" s="21">
-        <f t="shared" ref="C17:J17" si="9">D13+D14*$G$1+D15*$G$1^2+D16*$G$1^3</f>
-        <v>17.628103899376004</v>
-      </c>
-      <c r="E17" s="21">
+      <c r="B18" s="21">
+        <f>B14+B15*$G$2+B16*$G$2^2+B17*$G$2^3</f>
+        <v>8.2005984339319671</v>
+      </c>
+      <c r="C18" s="21">
+        <f>C14+C15*$G$2+C16*$G$2^2+C17*$G$2^3</f>
+        <v>11.828101017987265</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" ref="D18:J18" si="9">D14+D15*$G$2+D16*$G$2^2+D17*$G$2^3</f>
+        <v>16.477108752994429</v>
+      </c>
+      <c r="E18" s="21">
         <f t="shared" si="9"/>
-        <v>23.318847378680001</v>
-      </c>
-      <c r="F17" s="21">
+        <v>21.844072001629758</v>
+      </c>
+      <c r="F18" s="21">
         <f t="shared" si="9"/>
-        <v>23.478976175976001</v>
-      </c>
-      <c r="G17" s="21">
+        <v>22.101642339325632</v>
+      </c>
+      <c r="G18" s="21">
         <f t="shared" si="9"/>
-        <v>28.355624542640001</v>
-      </c>
-      <c r="H17" s="21">
+        <v>26.477739534500476</v>
+      </c>
+      <c r="H18" s="21">
         <f t="shared" si="9"/>
-        <v>28.683503190640003</v>
-      </c>
-      <c r="I17" s="21">
+        <v>26.866156592356475</v>
+      </c>
+      <c r="I18" s="21">
         <f t="shared" si="9"/>
-        <v>34.163440351920002</v>
-      </c>
-      <c r="J17" s="21">
+        <v>32.002301466829444</v>
+      </c>
+      <c r="J18" s="21">
         <f t="shared" si="9"/>
-        <v>39.63831029768</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="4" t="s">
+        <v>37.133998918117761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
         <v>-82.45</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <v>32.28</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="4">
         <v>96.75</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <v>134.9</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="4">
         <v>152</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G21" s="4">
         <v>187.2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="4">
         <v>196.5</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I21" s="4">
         <v>234.7</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J21" s="4">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
-        <f>$G$1/(B20+273.15)</f>
-        <v>1.5626638699528055</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" ref="C23:J23" si="10">$G$1/(C20+273.15)</f>
-        <v>0.97567364044134519</v>
-      </c>
-      <c r="D23" s="4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <f>$G$2/(B21+273.15)</f>
+        <v>1.4493969585736759</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24:I24" si="10">$G$2/(C21+273.15)</f>
+        <v>0.90495367187244224</v>
+      </c>
+      <c r="D24" s="4">
         <f t="shared" si="10"/>
-        <v>0.80562314138956481</v>
-      </c>
-      <c r="E23" s="4">
+        <v>0.74722898080562317</v>
+      </c>
+      <c r="E24" s="4">
         <f t="shared" si="10"/>
-        <v>0.73030265898786917</v>
-      </c>
-      <c r="F23" s="4">
+        <v>0.6773679696115672</v>
+      </c>
+      <c r="F24" s="4">
         <f t="shared" si="10"/>
-        <v>0.70092908385275787</v>
-      </c>
-      <c r="G23" s="4">
+        <v>0.65012348582853108</v>
+      </c>
+      <c r="G24" s="4">
         <f t="shared" si="10"/>
-        <v>0.64733355055935704</v>
-      </c>
-      <c r="H23" s="4">
+        <v>0.60041272944498747</v>
+      </c>
+      <c r="H24" s="4">
         <f t="shared" si="10"/>
-        <v>0.63451506440966676</v>
-      </c>
-      <c r="I23" s="4">
+        <v>0.58852336846587883</v>
+      </c>
+      <c r="I24" s="4">
         <f t="shared" si="10"/>
-        <v>0.58678743723540416</v>
-      </c>
-      <c r="J23" s="4">
-        <f>$G$1/(J20+273.15)</f>
-        <v>0.55169860224011846</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+        <v>0.54425519346263662</v>
+      </c>
+      <c r="J24" s="4">
+        <f>$G$2/(J21+273.15)</f>
+        <v>0.51170971026566692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
-        <f>$A$4+($B$4+$C$4*B9)*B23+($D$4+$E$4*B9)*B23^5+$F$4*B9^2/B23^2+$G$4*B9/B23^3+$H$4/B23^5+B10*($A$6+$B$6*B23^2+$C$6*B23^3)+B10^2*($D$6+$E$6*B23^2)+B17</f>
-        <v>174.77480901204837</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" ref="C26:J26" si="11">$A$4+($B$4+$C$4*C9)*C23+($D$4+$E$4*C9)*C23^5+$F$4*C9^2/C23^2+$G$4*C9/C23^3+$H$4/C23^5+C10*($A$6+$B$6*C23^2+$C$6*C23^3)+C10^2*($D$6+$E$6*C23^2)+C17</f>
-        <v>29.753681379510788</v>
-      </c>
-      <c r="D26" s="4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <f>$A$5+($B$5+$C$5*B10)*B24+($D$5+$E$5*B10)*B24^5+$F$5*B10^2/B24^2+$G$5*B10/B24^3+$H$5/B24^5+B11*($A$7+$B$7*B24^2+$C$7*B24^3)+B11^2*($D$7+$E$7*B24^2)+B18</f>
+        <v>121.12309293498258</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" ref="C27:J27" si="11">$A$5+($B$5+$C$5*C10)*C24+($D$5+$E$5*C10)*C24^5+$F$5*C10^2/C24^2+$G$5*C10/C24^3+$H$5/C24^5+C11*($A$7+$B$7*C24^2+$C$7*C24^3)+C11^2*($D$7+$E$7*C24^2)+C18</f>
+        <v>24.76622175270159</v>
+      </c>
+      <c r="D27" s="4">
         <f t="shared" si="11"/>
-        <v>28.375528593362464</v>
-      </c>
-      <c r="E26" s="4">
+        <v>25.982252670735448</v>
+      </c>
+      <c r="E27" s="4">
         <f t="shared" si="11"/>
-        <v>33.166706653865212</v>
-      </c>
-      <c r="F26" s="4">
+        <v>31.203940023897154</v>
+      </c>
+      <c r="F27" s="4">
         <f t="shared" si="11"/>
-        <v>33.59523073086924</v>
-      </c>
-      <c r="G26" s="4">
+        <v>31.936463607127195</v>
+      </c>
+      <c r="G27" s="4">
         <f t="shared" si="11"/>
-        <v>38.622714518351906</v>
-      </c>
-      <c r="H26" s="4">
+        <v>36.851623836525249</v>
+      </c>
+      <c r="H27" s="4">
         <f t="shared" si="11"/>
-        <v>39.784089183602816</v>
-      </c>
-      <c r="I26" s="4">
+        <v>38.126362791969896</v>
+      </c>
+      <c r="I27" s="4">
         <f t="shared" si="11"/>
-        <v>46.551385711066757</v>
-      </c>
-      <c r="J26" s="4">
+        <v>44.851999480573973</v>
+      </c>
+      <c r="J27" s="4">
         <f t="shared" si="11"/>
-        <v>53.595728222511056</v>
+        <v>51.813594100442018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="14">
+        <f>B14*($H$2-$G$2)+B15/2*($H$2^2-$G$2^2)+B16/3*($H$2^3-$G$2^3)+B17/4*($H$2^4-$G$2^4)</f>
+        <v>-1119.2474057899331</v>
+      </c>
+      <c r="C31" s="14">
+        <f>C14*($H$2-$G$2)+C15/2*($H$2^2-$G$2^2)+C16/3*($H$2^3-$G$2^3)+C17/4*($H$2^4-$G$2^4)</f>
+        <v>-1416.092582165089</v>
+      </c>
+      <c r="D31" s="14">
+        <f>D14*($H$2-$G$2)+D15/2*($H$2^2-$G$2^2)+D16/3*($H$2^3-$G$2^3)+D17/4*($H$2^4-$G$2^4)</f>
+        <v>-1875.0852470576233</v>
+      </c>
+      <c r="E31" s="14">
+        <f>E14*($H$2-$G$2)+E15/2*($H$2^2-$G$2^2)+E16/3*($H$2^3-$G$2^3)+E17/4*($H$2^4-$G$2^4)</f>
+        <v>-2520.5101526345597</v>
+      </c>
+      <c r="F31" s="14">
+        <f>F14*($H$2-$G$2)+F15/2*($H$2^2-$G$2^2)+F16/3*($H$2^3-$G$2^3)+F17/4*($H$2^4-$G$2^4)</f>
+        <v>-2634.4231886136663</v>
+      </c>
+      <c r="G31" s="14">
+        <f>G14*($H$2-$G$2)+G15/2*($H$2^2-$G$2^2)+G16/3*($H$2^3-$G$2^3)+G17/4*($H$2^4-$G$2^4)</f>
+        <v>-2992.0330786503673</v>
+      </c>
+      <c r="H31" s="14">
+        <f>H14*($H$2-$G$2)+H15/2*($H$2^2-$G$2^2)+H16/3*($H$2^3-$G$2^3)+H17/4*($H$2^4-$G$2^4)</f>
+        <v>-3091.3351114492179</v>
+      </c>
+      <c r="I31" s="14">
+        <f>I14*($H$2-$G$2)+I15/2*($H$2^2-$G$2^2)+I16/3*($H$2^3-$G$2^3)+I17/4*($H$2^4-$G$2^4)</f>
+        <v>-3683.196278300612</v>
+      </c>
+      <c r="J31" s="14">
+        <f>J14*($H$2-$G$2)+J15/2*($H$2^2-$G$2^2)+J16/3*($H$2^3-$G$2^3)+J17/4*($H$2^4-$G$2^4)</f>
+        <v>-4274.8755218142178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>1119.28570741012</v>
+      </c>
+      <c r="C32">
+        <v>1416.16278089411</v>
+      </c>
+      <c r="D32">
+        <v>1875.1905599634099</v>
+      </c>
+      <c r="E32">
+        <v>2520.6470984595599</v>
+      </c>
+      <c r="F32">
+        <v>2634.5551108722402</v>
+      </c>
+      <c r="G32">
+        <v>2992.20397995343</v>
+      </c>
+      <c r="H32">
+        <v>3091.5043850107199</v>
+      </c>
+      <c r="I32">
+        <v>3683.39788801437</v>
+      </c>
+      <c r="J32">
+        <v>4275.1094112822902</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>$A$5*($H$2-$G$2)+($B$5+$C$5*B10)*($H$2^2-$G$2^2)/(2*(B21+273.15))</f>
+        <v>327.40466138343686</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>($D$5+$E$5*B10)*($H$2^6-$G$2^6)/(6*(B21+273.15)^5)</f>
+        <v>-5480.2455299920912</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>(-$F$5*B10^2*(B21+273.15)^2)/($H$2-$G$2)</f>
+        <v>-4.3763712863349147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>(-$G$5*B10*(B21+273.15)^3)/(2*($H$2^2-$G$2^2))</f>
+        <v>14.092706919534441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f>(-$H$5*(B21+273.15)^5)/(4*($H$2^4-$G$2^4))</f>
+        <v>-0.48638961847704842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>B11*($A$7*(H2-G2)+$B$7*($H$2^3-$G$2^3)/(3*(B21+273.15)^2)+$C$7*($H$2^6-$G$2^6)/(6*(B21+273.15)^5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>$B$11^2*($D$7*($H$2-$G$2)+$E$7*($H$2^3-$G$2^3)/(3*(B21+273.15)^2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>SUM(B34:B40)</f>
+        <v>-5143.6109225939317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="14">
+        <f>B41+B32</f>
+        <v>-4024.3252151838115</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>120.085588172078</v>
+      </c>
+      <c r="C45">
+        <v>198.90170864760901</v>
+      </c>
+      <c r="D45">
+        <v>246.24078802764399</v>
+      </c>
+      <c r="E45">
+        <v>278.68424512445898</v>
+      </c>
+      <c r="F45">
+        <v>290.37435673177202</v>
+      </c>
+      <c r="G45">
+        <v>322.58300520479702</v>
+      </c>
+      <c r="H45">
+        <v>326.98824383318401</v>
+      </c>
+      <c r="I45">
+        <v>363.69247443974001</v>
+      </c>
+      <c r="J45">
+        <v>394.89293284714199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47">
+        <v>276.40884744035799</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="25">
+        <f>($D$5+$E$5*B10)*($B$47^6-B45^6)/(6*(B21+273.15)^5)</f>
+        <v>5481.2949013674133</v>
+      </c>
+      <c r="C50" s="25">
+        <f>($D$5+$E$5*C10)*($B$47^6-C45^6)/(6*(C21+273.15)^5)</f>
+        <v>435.66663049389348</v>
+      </c>
+      <c r="D50" s="25">
+        <f t="shared" ref="C50:J50" si="12">($D$5+$E$5*D10)*($B$47^6-D45^6)/(6*(D21+273.15)^5)</f>
+        <v>94.263922753231213</v>
+      </c>
+      <c r="E50" s="25">
+        <f t="shared" si="12"/>
+        <v>-5.6775883252021471</v>
+      </c>
+      <c r="F50" s="25">
+        <f t="shared" si="12"/>
+        <v>-31.5721049116963</v>
+      </c>
+      <c r="G50" s="25">
+        <f t="shared" si="12"/>
+        <v>-92.015291634302415</v>
+      </c>
+      <c r="H50" s="25">
+        <f t="shared" si="12"/>
+        <v>-94.576931228666936</v>
+      </c>
+      <c r="I50" s="25">
+        <f t="shared" si="12"/>
+        <v>-150.41664050654785</v>
+      </c>
+      <c r="J50" s="25">
+        <f t="shared" si="12"/>
+        <v>-192.99342498255692</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>5481.2949013674497</v>
+      </c>
+      <c r="C52">
+        <v>435.666630493897</v>
+      </c>
+      <c r="D52">
+        <v>94.263922753231896</v>
+      </c>
+      <c r="E52">
+        <v>-5.6775883252022101</v>
+      </c>
+      <c r="F52">
+        <v>-31.572104911696801</v>
+      </c>
+      <c r="G52">
+        <v>-92.015291634301406</v>
+      </c>
+      <c r="H52">
+        <v>-94.576931228667306</v>
+      </c>
+      <c r="I52">
+        <v>-150.41664050654799</v>
+      </c>
+      <c r="J52">
+        <v>-192.993424982558</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="14">
+        <f>B50-B52</f>
+        <v>-3.637978807091713E-11</v>
+      </c>
+      <c r="C53" s="14">
+        <f>C50-C52</f>
+        <v>-3.5242919693700969E-12</v>
+      </c>
+      <c r="D53" s="14">
+        <f>D50-D52</f>
+        <v>-6.8212102632969618E-13</v>
+      </c>
+      <c r="E53" s="14">
+        <f>E50-E52</f>
+        <v>6.3060667798708891E-14</v>
+      </c>
+      <c r="F53" s="14">
+        <f>F50-F52</f>
+        <v>5.0093262871087063E-13</v>
+      </c>
+      <c r="G53" s="14">
+        <f>G50-G52</f>
+        <v>-1.0089706847793423E-12</v>
+      </c>
+      <c r="H53" s="14">
+        <f>H50-H52</f>
+        <v>3.694822225952521E-13</v>
+      </c>
+      <c r="I53" s="14">
+        <f>I50-I52</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="14">
+        <f>J50-J52</f>
+        <v>1.0800249583553523E-12</v>
       </c>
     </row>
   </sheetData>

--- a/Начальное приближение по темп.xlsx
+++ b/Начальное приближение по темп.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D7E5D7-31F2-4878-965C-EFFCCC76E61C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA9EA76-F22D-450F-BBAC-D9BFFB651DD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14880" yWindow="240" windowWidth="20865" windowHeight="11520" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="метод Лимана-Деннера" sheetId="8" r:id="rId8"/>
     <sheet name="Энтальпия парообразования" sheetId="9" r:id="rId9"/>
     <sheet name="dHf_298" sheetId="10" r:id="rId10"/>
+    <sheet name="Проверка энтальпий" sheetId="11" r:id="rId11"/>
+    <sheet name="Проверка профили" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="161">
   <si>
     <t>CritT</t>
   </si>
@@ -502,6 +504,45 @@
   <si>
     <t>a4</t>
   </si>
+  <si>
+    <t>CompIntIdGasCp</t>
+  </si>
+  <si>
+    <t>CompItnLiqCp</t>
+  </si>
+  <si>
+    <t>dHvap</t>
+  </si>
+  <si>
+    <t>CompH_v</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>H_v[j]</t>
+  </si>
+  <si>
+    <t>H_l[j]</t>
+  </si>
+  <si>
+    <t>Uj</t>
+  </si>
+  <si>
+    <t>Wj</t>
+  </si>
+  <si>
+    <t>Tray No</t>
+  </si>
+  <si>
+    <t>Lj0</t>
+  </si>
+  <si>
+    <t>Vj0</t>
+  </si>
+  <si>
+    <t>Rj</t>
+  </si>
 </sst>
 </file>
 
@@ -675,7 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -702,6 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -49629,7 +49671,7 @@
   <dimension ref="A2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J10"/>
+      <selection activeCell="B3" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49844,6 +49886,3445 @@
       <c r="J10" t="str">
         <f>CONCATENATE(J6,$C$8)</f>
         <v>100.205001831055);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E8ABAC-0D2A-460B-9FBB-BFD95CE4F24D}">
+  <dimension ref="A1:Z52"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42:P52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5.1061363948979297E-4</v>
+      </c>
+      <c r="B2">
+        <v>2.6838870926042398E-4</v>
+      </c>
+      <c r="C2">
+        <v>1.8792093720979499E-4</v>
+      </c>
+      <c r="D2">
+        <v>1.4308078156148699E-4</v>
+      </c>
+      <c r="E2">
+        <v>1.0045168653596101E-4</v>
+      </c>
+      <c r="F2" s="17">
+        <v>6.3599011751648498E-7</v>
+      </c>
+      <c r="G2" s="17">
+        <v>3.8054415672454296E-9</v>
+      </c>
+      <c r="H2" s="17">
+        <v>2.3114258769459E-11</v>
+      </c>
+      <c r="I2" s="17">
+        <v>1.4908223480494001E-13</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1.04362644462048E-15</v>
+      </c>
+      <c r="K2" s="17">
+        <v>8.1024627000077296E-18</v>
+      </c>
+      <c r="L2" s="17">
+        <v>7.81773652225201E-20</v>
+      </c>
+      <c r="O2">
+        <v>6.7265221971692102E-2</v>
+      </c>
+      <c r="P2">
+        <v>3.9177374622506103E-2</v>
+      </c>
+      <c r="Q2">
+        <v>2.99760025404858E-2</v>
+      </c>
+      <c r="R2">
+        <v>2.51431195000823E-2</v>
+      </c>
+      <c r="S2">
+        <v>2.02486785511647E-2</v>
+      </c>
+      <c r="T2">
+        <v>1.4045880800716499E-4</v>
+      </c>
+      <c r="U2" s="17">
+        <v>8.7271251123069905E-7</v>
+      </c>
+      <c r="V2" s="17">
+        <v>5.4110767092049999E-9</v>
+      </c>
+      <c r="W2" s="17">
+        <v>3.5507613685978899E-11</v>
+      </c>
+      <c r="X2" s="17">
+        <v>2.5469387709701702E-13</v>
+      </c>
+      <c r="Y2" s="17">
+        <v>2.05950943924101E-15</v>
+      </c>
+      <c r="Z2" s="17">
+        <v>2.1119907982157702E-17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.04085436416424E-2</v>
+      </c>
+      <c r="B3">
+        <v>5.3464033877469296E-3</v>
+      </c>
+      <c r="C3">
+        <v>3.47622195828801E-3</v>
+      </c>
+      <c r="D3">
+        <v>2.4621890943719799E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.6152002126668999E-3</v>
+      </c>
+      <c r="F3" s="17">
+        <v>7.5054918197599703E-5</v>
+      </c>
+      <c r="G3" s="17">
+        <v>3.1149857860239398E-6</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1.24346135890643E-7</v>
+      </c>
+      <c r="I3" s="17">
+        <v>5.0061083484433504E-9</v>
+      </c>
+      <c r="J3" s="17">
+        <v>2.0822145695039999E-10</v>
+      </c>
+      <c r="K3" s="17">
+        <v>9.1555989012040903E-12</v>
+      </c>
+      <c r="L3" s="17">
+        <v>4.6820020125103402E-13</v>
+      </c>
+      <c r="O3">
+        <v>0.13217871410945001</v>
+      </c>
+      <c r="P3">
+        <v>8.1428288014154596E-2</v>
+      </c>
+      <c r="Q3">
+        <v>6.1978441862228902E-2</v>
+      </c>
+      <c r="R3">
+        <v>5.2116719097064799E-2</v>
+      </c>
+      <c r="S3">
+        <v>4.3546057517654502E-2</v>
+      </c>
+      <c r="T3">
+        <v>2.3794237247885498E-3</v>
+      </c>
+      <c r="U3">
+        <v>1.05778206178406E-4</v>
+      </c>
+      <c r="V3" s="17">
+        <v>4.39025085714117E-6</v>
+      </c>
+      <c r="W3" s="17">
+        <v>1.8270630101297901E-7</v>
+      </c>
+      <c r="X3" s="17">
+        <v>7.95311744953197E-9</v>
+      </c>
+      <c r="Y3" s="17">
+        <v>3.76525564933327E-10</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>2.15408409534488E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7.1043222861402994E-2</v>
+      </c>
+      <c r="B4">
+        <v>4.1478774335046098E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.6050544357679999E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.7163930529238699E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.0493151563262901E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.8005323325930101E-3</v>
+      </c>
+      <c r="G4">
+        <v>2.66203224685723E-4</v>
+      </c>
+      <c r="H4" s="17">
+        <v>3.65783590271044E-5</v>
+      </c>
+      <c r="I4" s="17">
+        <v>4.9052186089562704E-6</v>
+      </c>
+      <c r="J4" s="17">
+        <v>6.5819233447887997E-7</v>
+      </c>
+      <c r="K4" s="17">
+        <v>9.0093762439220395E-8</v>
+      </c>
+      <c r="L4" s="17">
+        <v>1.3303228644360001E-8</v>
+      </c>
+      <c r="O4">
+        <v>0.19605663380638799</v>
+      </c>
+      <c r="P4">
+        <v>0.1443729038847</v>
+      </c>
+      <c r="Q4">
+        <v>0.110893895013756</v>
+      </c>
+      <c r="R4">
+        <v>9.0968181773985898E-2</v>
+      </c>
+      <c r="S4">
+        <v>7.5711448270567805E-2</v>
+      </c>
+      <c r="T4">
+        <v>1.5979345202331099E-2</v>
+      </c>
+      <c r="U4">
+        <v>2.58102472389921E-3</v>
+      </c>
+      <c r="V4">
+        <v>3.7307390277389299E-4</v>
+      </c>
+      <c r="W4" s="17">
+        <v>5.2241598404763401E-5</v>
+      </c>
+      <c r="X4" s="17">
+        <v>7.4354723212360699E-6</v>
+      </c>
+      <c r="Y4" s="17">
+        <v>1.1192291281506101E-6</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>1.9101239287179501E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.28020163200411302</v>
+      </c>
+      <c r="B5">
+        <v>0.22270341454977999</v>
+      </c>
+      <c r="C5">
+        <v>0.15814142175874199</v>
+      </c>
+      <c r="D5">
+        <v>0.101509760926175</v>
+      </c>
+      <c r="E5">
+        <v>5.5804071059881E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.4832082732603501E-2</v>
+      </c>
+      <c r="G5">
+        <v>9.3058789880881808E-3</v>
+      </c>
+      <c r="H5">
+        <v>3.1701680845230501E-3</v>
+      </c>
+      <c r="I5">
+        <v>1.0307696536559199E-3</v>
+      </c>
+      <c r="J5">
+        <v>3.2701140071411802E-4</v>
+      </c>
+      <c r="K5">
+        <v>1.0184007426588701E-4</v>
+      </c>
+      <c r="L5" s="17">
+        <v>3.1412738639530701E-5</v>
+      </c>
+      <c r="O5">
+        <v>0.25950688049471299</v>
+      </c>
+      <c r="P5">
+        <v>0.26852423379553497</v>
+      </c>
+      <c r="Q5">
+        <v>0.23972654396763499</v>
+      </c>
+      <c r="R5">
+        <v>0.19741571644390599</v>
+      </c>
+      <c r="S5">
+        <v>0.154080696311161</v>
+      </c>
+      <c r="T5">
+        <v>8.6757898347844697E-2</v>
+      </c>
+      <c r="U5">
+        <v>3.5964810206823197E-2</v>
+      </c>
+      <c r="V5">
+        <v>1.2983540260248901E-2</v>
+      </c>
+      <c r="W5">
+        <v>4.4363688359800703E-3</v>
+      </c>
+      <c r="X5">
+        <v>1.5055904907573701E-3</v>
+      </c>
+      <c r="Y5">
+        <v>5.2253181429017697E-4</v>
+      </c>
+      <c r="Z5">
+        <v>1.90152929604687E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.51923218376132096</v>
+      </c>
+      <c r="B6">
+        <v>0.49292671309735703</v>
+      </c>
+      <c r="C6">
+        <v>0.399110044955577</v>
+      </c>
+      <c r="D6">
+        <v>0.27267519681065</v>
+      </c>
+      <c r="E6">
+        <v>0.14727388230323901</v>
+      </c>
+      <c r="F6">
+        <v>9.1463584610422102E-2</v>
+      </c>
+      <c r="G6">
+        <v>4.7305709985197002E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.1992149483579599E-2</v>
+      </c>
+      <c r="I6">
+        <v>9.6413265992894293E-3</v>
+      </c>
+      <c r="J6">
+        <v>4.0642791139048704E-3</v>
+      </c>
+      <c r="K6">
+        <v>1.64649533293614E-3</v>
+      </c>
+      <c r="L6">
+        <v>6.3736833890555501E-4</v>
+      </c>
+      <c r="O6">
+        <v>0.32214929305724399</v>
+      </c>
+      <c r="P6">
+        <v>0.404200599209591</v>
+      </c>
+      <c r="Q6">
+        <v>0.41687875450082801</v>
+      </c>
+      <c r="R6">
+        <v>0.37063625704116998</v>
+      </c>
+      <c r="S6">
+        <v>0.28992703033411099</v>
+      </c>
+      <c r="T6">
+        <v>0.230924060094404</v>
+      </c>
+      <c r="U6">
+        <v>0.132899802871529</v>
+      </c>
+      <c r="V6">
+        <v>6.5703337265155495E-2</v>
+      </c>
+      <c r="W6">
+        <v>3.0361670673610199E-2</v>
+      </c>
+      <c r="X6">
+        <v>1.37466697292112E-2</v>
+      </c>
+      <c r="Y6">
+        <v>6.2455287735408201E-3</v>
+      </c>
+      <c r="Z6">
+        <v>2.88030456237707E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7.7371112184274005E-2</v>
+      </c>
+      <c r="B7">
+        <v>0.148989898340359</v>
+      </c>
+      <c r="C7">
+        <v>0.24522677802972401</v>
+      </c>
+      <c r="D7">
+        <v>0.32250086790057703</v>
+      </c>
+      <c r="E7">
+        <v>0.29970538213854497</v>
+      </c>
+      <c r="F7">
+        <v>0.37182629502790698</v>
+      </c>
+      <c r="G7">
+        <v>0.411101363972603</v>
+      </c>
+      <c r="H7">
+        <v>0.415905628128034</v>
+      </c>
+      <c r="I7">
+        <v>0.39256015518877402</v>
+      </c>
+      <c r="J7">
+        <v>0.34518985517296003</v>
+      </c>
+      <c r="K7">
+        <v>0.27631297477862599</v>
+      </c>
+      <c r="L7">
+        <v>0.19410655648022199</v>
+      </c>
+      <c r="O7">
+        <v>1.55273177963276E-2</v>
+      </c>
+      <c r="P7">
+        <v>4.1005867389486701E-2</v>
+      </c>
+      <c r="Q7">
+        <v>8.8781217170379401E-2</v>
+      </c>
+      <c r="R7">
+        <v>0.157340661586545</v>
+      </c>
+      <c r="S7">
+        <v>0.22238243356239201</v>
+      </c>
+      <c r="T7">
+        <v>0.36571941575999101</v>
+      </c>
+      <c r="U7">
+        <v>0.45650195429567603</v>
+      </c>
+      <c r="V7">
+        <v>0.49536390437530198</v>
+      </c>
+      <c r="W7">
+        <v>0.496511914809521</v>
+      </c>
+      <c r="X7">
+        <v>0.47358136016936397</v>
+      </c>
+      <c r="Y7">
+        <v>0.43178624747713001</v>
+      </c>
+      <c r="Z7">
+        <v>0.37012069128528202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.1047833175598999E-2</v>
+      </c>
+      <c r="B8">
+        <v>8.7029986006012194E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.15957213269602299</v>
+      </c>
+      <c r="D8">
+        <v>0.23524853335493301</v>
+      </c>
+      <c r="E8">
+        <v>0.24589566535513499</v>
+      </c>
+      <c r="F8">
+        <v>0.29603739194121298</v>
+      </c>
+      <c r="G8">
+        <v>0.33475741365436001</v>
+      </c>
+      <c r="H8">
+        <v>0.35821837010257901</v>
+      </c>
+      <c r="I8">
+        <v>0.36436653774307498</v>
+      </c>
+      <c r="J8">
+        <v>0.34841338096310098</v>
+      </c>
+      <c r="K8">
+        <v>0.30403111936919802</v>
+      </c>
+      <c r="L8">
+        <v>0.23213921028701401</v>
+      </c>
+      <c r="O8">
+        <v>7.3075361176306404E-3</v>
+      </c>
+      <c r="P8">
+        <v>2.1210154609944701E-2</v>
+      </c>
+      <c r="Q8">
+        <v>5.1076351592002203E-2</v>
+      </c>
+      <c r="R8">
+        <v>0.10130057047541299</v>
+      </c>
+      <c r="S8">
+        <v>0.160658356499296</v>
+      </c>
+      <c r="T8">
+        <v>0.25598018584468002</v>
+      </c>
+      <c r="U8">
+        <v>0.32656594089269703</v>
+      </c>
+      <c r="V8">
+        <v>0.37466566130030698</v>
+      </c>
+      <c r="W8">
+        <v>0.40455004361003599</v>
+      </c>
+      <c r="X8">
+        <v>0.41940543278409498</v>
+      </c>
+      <c r="Y8">
+        <v>0.41654506609748598</v>
+      </c>
+      <c r="Z8">
+        <v>0.38763645690702497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.8229284713287101E-4</v>
+      </c>
+      <c r="B9">
+        <v>1.20624413971925E-3</v>
+      </c>
+      <c r="C9">
+        <v>7.3289636915942003E-3</v>
+      </c>
+      <c r="D9">
+        <v>3.5575952645799498E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.119295936412285</v>
+      </c>
+      <c r="F9">
+        <v>0.10896758900303199</v>
+      </c>
+      <c r="G9">
+        <v>0.10323474648717899</v>
+      </c>
+      <c r="H9">
+        <v>0.108422598609246</v>
+      </c>
+      <c r="I9">
+        <v>0.12892316902450601</v>
+      </c>
+      <c r="J9">
+        <v>0.16782044440372099</v>
+      </c>
+      <c r="K9">
+        <v>0.221527852265233</v>
+      </c>
+      <c r="L9">
+        <v>0.26968492269260502</v>
+      </c>
+      <c r="O9" s="17">
+        <v>8.36612168786536E-6</v>
+      </c>
+      <c r="P9" s="17">
+        <v>7.9512863895516098E-5</v>
+      </c>
+      <c r="Q9">
+        <v>6.6156067039688205E-4</v>
+      </c>
+      <c r="R9">
+        <v>4.5207965847977403E-3</v>
+      </c>
+      <c r="S9">
+        <v>2.45096756432567E-2</v>
+      </c>
+      <c r="T9">
+        <v>3.0927903029804402E-2</v>
+      </c>
+      <c r="U9">
+        <v>3.3685181837216797E-2</v>
+      </c>
+      <c r="V9">
+        <v>3.83556747110722E-2</v>
+      </c>
+      <c r="W9">
+        <v>4.88841127828979E-2</v>
+      </c>
+      <c r="X9">
+        <v>6.9880746747047598E-2</v>
+      </c>
+      <c r="Y9">
+        <v>0.10712641506102499</v>
+      </c>
+      <c r="Z9">
+        <v>0.16396938237012601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>2.5658850253229199E-6</v>
+      </c>
+      <c r="B10" s="17">
+        <v>5.0177434719480199E-5</v>
+      </c>
+      <c r="C10">
+        <v>9.0597161516168395E-4</v>
+      </c>
+      <c r="D10">
+        <v>1.2720487956693101E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.11981625926844899</v>
+      </c>
+      <c r="F10">
+        <v>0.104996833443915</v>
+      </c>
+      <c r="G10">
+        <v>9.4025564896659503E-2</v>
+      </c>
+      <c r="H10">
+        <v>9.2254382863761003E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.103473131565833</v>
+      </c>
+      <c r="J10">
+        <v>0.13418437054504201</v>
+      </c>
+      <c r="K10">
+        <v>0.19637962807682299</v>
+      </c>
+      <c r="L10">
+        <v>0.303400516158917</v>
+      </c>
+      <c r="O10" s="17">
+        <v>3.6523100489637898E-8</v>
+      </c>
+      <c r="P10" s="17">
+        <v>1.06561018337243E-6</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>2.7232680634122102E-5</v>
+      </c>
+      <c r="R10">
+        <v>5.5797749686569797E-4</v>
+      </c>
+      <c r="S10">
+        <v>8.9356233103960892E-3</v>
+      </c>
+      <c r="T10">
+        <v>1.1191309188150299E-2</v>
+      </c>
+      <c r="U10">
+        <v>1.16946342534394E-2</v>
+      </c>
+      <c r="V10">
+        <v>1.2550412523175699E-2</v>
+      </c>
+      <c r="W10">
+        <v>1.52034649403317E-2</v>
+      </c>
+      <c r="X10">
+        <v>2.18727566536468E-2</v>
+      </c>
+      <c r="Y10">
+        <v>3.7773091170864699E-2</v>
+      </c>
+      <c r="Z10">
+        <v>7.5202820906392104E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="O12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-1299.47664581903</v>
+      </c>
+      <c r="B13">
+        <v>-1299.1031492065399</v>
+      </c>
+      <c r="C13">
+        <v>-1298.7308623159299</v>
+      </c>
+      <c r="D13">
+        <v>-1298.35978563305</v>
+      </c>
+      <c r="E13">
+        <v>-1297.98991964213</v>
+      </c>
+      <c r="F13">
+        <v>-1297.6211907939701</v>
+      </c>
+      <c r="G13">
+        <v>-1297.25359954127</v>
+      </c>
+      <c r="H13">
+        <v>-1296.88722038593</v>
+      </c>
+      <c r="I13">
+        <v>-1296.5219797458899</v>
+      </c>
+      <c r="J13">
+        <v>-1296.1578780694499</v>
+      </c>
+      <c r="K13">
+        <v>-1295.7948417248899</v>
+      </c>
+      <c r="L13">
+        <v>-1295.07226308899</v>
+      </c>
+      <c r="O13">
+        <v>576.90236680614203</v>
+      </c>
+      <c r="P13">
+        <v>594.788048906433</v>
+      </c>
+      <c r="Q13">
+        <v>611.34728583313097</v>
+      </c>
+      <c r="R13">
+        <v>630.51160054625598</v>
+      </c>
+      <c r="S13">
+        <v>659.63346511856503</v>
+      </c>
+      <c r="T13">
+        <v>681.01765262296794</v>
+      </c>
+      <c r="U13">
+        <v>690.88706577084599</v>
+      </c>
+      <c r="V13">
+        <v>696.87689645545902</v>
+      </c>
+      <c r="W13">
+        <v>702.15151612380396</v>
+      </c>
+      <c r="X13">
+        <v>709.30098466185302</v>
+      </c>
+      <c r="Y13">
+        <v>720.857353973302</v>
+      </c>
+      <c r="Z13">
+        <v>739.51882457051499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-1075.9986520130501</v>
+      </c>
+      <c r="B14">
+        <v>-1075.1227207284701</v>
+      </c>
+      <c r="C14">
+        <v>-1074.24953781622</v>
+      </c>
+      <c r="D14">
+        <v>-1073.3788865520301</v>
+      </c>
+      <c r="E14">
+        <v>-1072.51088038788</v>
+      </c>
+      <c r="F14">
+        <v>-1071.6454124996401</v>
+      </c>
+      <c r="G14">
+        <v>-1070.78248614259</v>
+      </c>
+      <c r="H14">
+        <v>-1069.9221045608101</v>
+      </c>
+      <c r="I14">
+        <v>-1069.06438132576</v>
+      </c>
+      <c r="J14">
+        <v>-1068.20898864334</v>
+      </c>
+      <c r="K14">
+        <v>-1067.3562607398001</v>
+      </c>
+      <c r="L14">
+        <v>-1065.65803903509</v>
+      </c>
+      <c r="O14">
+        <v>360.63947733851899</v>
+      </c>
+      <c r="P14">
+        <v>374.36802407891798</v>
+      </c>
+      <c r="Q14">
+        <v>387.196704875156</v>
+      </c>
+      <c r="R14">
+        <v>402.18032272411898</v>
+      </c>
+      <c r="S14">
+        <v>425.21721032783699</v>
+      </c>
+      <c r="T14">
+        <v>442.32847532273399</v>
+      </c>
+      <c r="U14">
+        <v>450.27901770265998</v>
+      </c>
+      <c r="V14">
+        <v>455.12017556599301</v>
+      </c>
+      <c r="W14">
+        <v>459.39305955006301</v>
+      </c>
+      <c r="X14">
+        <v>465.199133472982</v>
+      </c>
+      <c r="Y14">
+        <v>474.61842267480199</v>
+      </c>
+      <c r="Z14">
+        <v>489.91584340273999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-840.49330482627704</v>
+      </c>
+      <c r="B15">
+        <v>-838.77491704304998</v>
+      </c>
+      <c r="C15">
+        <v>-837.06150771384102</v>
+      </c>
+      <c r="D15">
+        <v>-835.35344265570404</v>
+      </c>
+      <c r="E15">
+        <v>-833.65037149286695</v>
+      </c>
+      <c r="F15">
+        <v>-831.95212247586505</v>
+      </c>
+      <c r="G15">
+        <v>-830.25906157125098</v>
+      </c>
+      <c r="H15">
+        <v>-828.57083762609204</v>
+      </c>
+      <c r="I15">
+        <v>-826.887637357426</v>
+      </c>
+      <c r="J15">
+        <v>-825.20928860315303</v>
+      </c>
+      <c r="K15">
+        <v>-823.53579852596704</v>
+      </c>
+      <c r="L15">
+        <v>-820.20288351081604</v>
+      </c>
+      <c r="O15">
+        <v>314.94032428569699</v>
+      </c>
+      <c r="P15">
+        <v>328.101936922937</v>
+      </c>
+      <c r="Q15">
+        <v>340.44634185531902</v>
+      </c>
+      <c r="R15">
+        <v>354.91298470798802</v>
+      </c>
+      <c r="S15">
+        <v>377.241539373595</v>
+      </c>
+      <c r="T15">
+        <v>393.88289718219301</v>
+      </c>
+      <c r="U15">
+        <v>401.628836192184</v>
+      </c>
+      <c r="V15">
+        <v>406.34923278625098</v>
+      </c>
+      <c r="W15">
+        <v>410.51778698968099</v>
+      </c>
+      <c r="X15">
+        <v>416.18529990793502</v>
+      </c>
+      <c r="Y15">
+        <v>425.38708598323001</v>
+      </c>
+      <c r="Z15">
+        <v>440.34830862911798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-437.74623473656499</v>
+      </c>
+      <c r="B16">
+        <v>-434.86512096258002</v>
+      </c>
+      <c r="C16">
+        <v>-431.99292543213801</v>
+      </c>
+      <c r="D16">
+        <v>-429.129394801079</v>
+      </c>
+      <c r="E16">
+        <v>-426.27427524722202</v>
+      </c>
+      <c r="F16">
+        <v>-423.42757857433003</v>
+      </c>
+      <c r="G16">
+        <v>-420.58931654379302</v>
+      </c>
+      <c r="H16">
+        <v>-417.75950087465401</v>
+      </c>
+      <c r="I16">
+        <v>-414.93814324364399</v>
+      </c>
+      <c r="J16">
+        <v>-412.12498875936501</v>
+      </c>
+      <c r="K16">
+        <v>-409.31978206612899</v>
+      </c>
+      <c r="L16">
+        <v>-403.734056219754</v>
+      </c>
+      <c r="O16">
+        <v>272.248135435503</v>
+      </c>
+      <c r="P16">
+        <v>285.17214169780601</v>
+      </c>
+      <c r="Q16">
+        <v>297.325087110531</v>
+      </c>
+      <c r="R16">
+        <v>311.60253372834001</v>
+      </c>
+      <c r="S16">
+        <v>333.70560922764099</v>
+      </c>
+      <c r="T16">
+        <v>350.22544136894902</v>
+      </c>
+      <c r="U16">
+        <v>357.927011786565</v>
+      </c>
+      <c r="V16">
+        <v>362.62393136850801</v>
+      </c>
+      <c r="W16">
+        <v>366.77391503502798</v>
+      </c>
+      <c r="X16">
+        <v>372.41933017762102</v>
+      </c>
+      <c r="Y16">
+        <v>381.59265713110199</v>
+      </c>
+      <c r="Z16">
+        <v>396.525985244666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-177.201282906134</v>
+      </c>
+      <c r="B17">
+        <v>-174.105962395603</v>
+      </c>
+      <c r="C17">
+        <v>-171.02032293752501</v>
+      </c>
+      <c r="D17">
+        <v>-167.94409883974899</v>
+      </c>
+      <c r="E17">
+        <v>-164.87730192290499</v>
+      </c>
+      <c r="F17">
+        <v>-161.819665896483</v>
+      </c>
+      <c r="G17">
+        <v>-158.77120219117299</v>
+      </c>
+      <c r="H17">
+        <v>-155.73192219709301</v>
+      </c>
+      <c r="I17">
+        <v>-152.701837263812</v>
+      </c>
+      <c r="J17">
+        <v>-149.68068022816701</v>
+      </c>
+      <c r="K17">
+        <v>-146.66846205844999</v>
+      </c>
+      <c r="L17">
+        <v>-140.67032845512401</v>
+      </c>
+      <c r="O17">
+        <v>298.03620802176403</v>
+      </c>
+      <c r="P17">
+        <v>311.031180305634</v>
+      </c>
+      <c r="Q17">
+        <v>323.25125076433397</v>
+      </c>
+      <c r="R17">
+        <v>337.60688958182402</v>
+      </c>
+      <c r="S17">
+        <v>359.82717364758901</v>
+      </c>
+      <c r="T17">
+        <v>376.429910940073</v>
+      </c>
+      <c r="U17">
+        <v>384.16842267490301</v>
+      </c>
+      <c r="V17">
+        <v>388.887284121552</v>
+      </c>
+      <c r="W17">
+        <v>393.05626725762301</v>
+      </c>
+      <c r="X17">
+        <v>398.72692419669801</v>
+      </c>
+      <c r="Y17">
+        <v>407.93972160400301</v>
+      </c>
+      <c r="Z17">
+        <v>422.932992424053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>722.72747420455096</v>
+      </c>
+      <c r="B18">
+        <v>727.19904311027904</v>
+      </c>
+      <c r="C18">
+        <v>731.65733511516703</v>
+      </c>
+      <c r="D18">
+        <v>736.10196404931605</v>
+      </c>
+      <c r="E18">
+        <v>740.53291113532498</v>
+      </c>
+      <c r="F18">
+        <v>744.95089377450097</v>
+      </c>
+      <c r="G18">
+        <v>749.35552600156495</v>
+      </c>
+      <c r="H18">
+        <v>753.74678968138505</v>
+      </c>
+      <c r="I18">
+        <v>758.12503523340604</v>
+      </c>
+      <c r="J18">
+        <v>762.490613717918</v>
+      </c>
+      <c r="K18">
+        <v>766.84313928435404</v>
+      </c>
+      <c r="L18">
+        <v>775.51006912723403</v>
+      </c>
+      <c r="O18">
+        <v>271.65095130489902</v>
+      </c>
+      <c r="P18">
+        <v>284.33248465080999</v>
+      </c>
+      <c r="Q18">
+        <v>296.277149382125</v>
+      </c>
+      <c r="R18">
+        <v>310.33102260652402</v>
+      </c>
+      <c r="S18">
+        <v>332.12569069606798</v>
+      </c>
+      <c r="T18">
+        <v>348.439670186618</v>
+      </c>
+      <c r="U18">
+        <v>356.05133334726099</v>
+      </c>
+      <c r="V18">
+        <v>360.69511890163</v>
+      </c>
+      <c r="W18">
+        <v>364.79916122134603</v>
+      </c>
+      <c r="X18">
+        <v>370.38351404134602</v>
+      </c>
+      <c r="Y18">
+        <v>379.46089996790698</v>
+      </c>
+      <c r="Z18">
+        <v>394.24579642677099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>865.96985037314505</v>
+      </c>
+      <c r="B19">
+        <v>870.68372600627595</v>
+      </c>
+      <c r="C19">
+        <v>875.38369607984396</v>
+      </c>
+      <c r="D19">
+        <v>880.06899142233203</v>
+      </c>
+      <c r="E19">
+        <v>884.74071847814901</v>
+      </c>
+      <c r="F19">
+        <v>889.39810807032597</v>
+      </c>
+      <c r="G19">
+        <v>894.04151682608301</v>
+      </c>
+      <c r="H19">
+        <v>898.67092624447605</v>
+      </c>
+      <c r="I19">
+        <v>903.287069728647</v>
+      </c>
+      <c r="J19">
+        <v>907.88917764954499</v>
+      </c>
+      <c r="K19">
+        <v>912.47798411373299</v>
+      </c>
+      <c r="L19">
+        <v>921.61524672633197</v>
+      </c>
+      <c r="O19">
+        <v>289.77519670954399</v>
+      </c>
+      <c r="P19">
+        <v>302.68465528183998</v>
+      </c>
+      <c r="Q19">
+        <v>314.82594530945198</v>
+      </c>
+      <c r="R19">
+        <v>329.09078147832997</v>
+      </c>
+      <c r="S19">
+        <v>351.17361571946799</v>
+      </c>
+      <c r="T19">
+        <v>367.67565524294702</v>
+      </c>
+      <c r="U19">
+        <v>375.36771707413402</v>
+      </c>
+      <c r="V19">
+        <v>380.05838799022001</v>
+      </c>
+      <c r="W19">
+        <v>384.20254433355302</v>
+      </c>
+      <c r="X19">
+        <v>389.83954317621902</v>
+      </c>
+      <c r="Y19">
+        <v>398.99790962034098</v>
+      </c>
+      <c r="Z19">
+        <v>413.90317728486099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2451.6719380187201</v>
+      </c>
+      <c r="B20">
+        <v>2458.2641237808298</v>
+      </c>
+      <c r="C20">
+        <v>2464.8362881804601</v>
+      </c>
+      <c r="D20">
+        <v>2471.38840608909</v>
+      </c>
+      <c r="E20">
+        <v>2477.9199642255699</v>
+      </c>
+      <c r="F20">
+        <v>2484.4319139670802</v>
+      </c>
+      <c r="G20">
+        <v>2490.9237423979498</v>
+      </c>
+      <c r="H20">
+        <v>2497.39591354088</v>
+      </c>
+      <c r="I20">
+        <v>2503.8484032617498</v>
+      </c>
+      <c r="J20">
+        <v>2510.2816766398</v>
+      </c>
+      <c r="K20">
+        <v>2516.6957102410902</v>
+      </c>
+      <c r="L20">
+        <v>2529.46694409156</v>
+      </c>
+      <c r="O20">
+        <v>286.945455797477</v>
+      </c>
+      <c r="P20">
+        <v>299.64170619241099</v>
+      </c>
+      <c r="Q20">
+        <v>311.59362095857603</v>
+      </c>
+      <c r="R20">
+        <v>325.648454309393</v>
+      </c>
+      <c r="S20">
+        <v>347.42987373055303</v>
+      </c>
+      <c r="T20">
+        <v>363.72328452868197</v>
+      </c>
+      <c r="U20">
+        <v>371.32247064861201</v>
+      </c>
+      <c r="V20">
+        <v>375.95778583509599</v>
+      </c>
+      <c r="W20">
+        <v>380.05381494713799</v>
+      </c>
+      <c r="X20">
+        <v>385.62648728118899</v>
+      </c>
+      <c r="Y20">
+        <v>394.68302983743001</v>
+      </c>
+      <c r="Z20">
+        <v>409.42926791629498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4356.6068159060096</v>
+      </c>
+      <c r="B21">
+        <v>4365.3364385070099</v>
+      </c>
+      <c r="C21">
+        <v>4374.0382887032301</v>
+      </c>
+      <c r="D21">
+        <v>4382.712938396</v>
+      </c>
+      <c r="E21">
+        <v>4391.3609604581598</v>
+      </c>
+      <c r="F21">
+        <v>4399.9823232735798</v>
+      </c>
+      <c r="G21">
+        <v>4408.5776010076997</v>
+      </c>
+      <c r="H21">
+        <v>4417.1455511692002</v>
+      </c>
+      <c r="I21">
+        <v>4425.6879601086202</v>
+      </c>
+      <c r="J21">
+        <v>4434.2047979291101</v>
+      </c>
+      <c r="K21">
+        <v>4442.69542835436</v>
+      </c>
+      <c r="L21">
+        <v>4459.6003735656304</v>
+      </c>
+      <c r="O21">
+        <v>283.350407441117</v>
+      </c>
+      <c r="P21">
+        <v>296.01426534777698</v>
+      </c>
+      <c r="Q21">
+        <v>307.93530443528903</v>
+      </c>
+      <c r="R21">
+        <v>321.95336257040901</v>
+      </c>
+      <c r="S21">
+        <v>343.676810685475</v>
+      </c>
+      <c r="T21">
+        <v>359.92609338633503</v>
+      </c>
+      <c r="U21">
+        <v>367.50447863350502</v>
+      </c>
+      <c r="V21">
+        <v>372.12703786717799</v>
+      </c>
+      <c r="W21">
+        <v>376.21175248856099</v>
+      </c>
+      <c r="X21">
+        <v>381.76896751771</v>
+      </c>
+      <c r="Y21">
+        <v>390.80023324286799</v>
+      </c>
+      <c r="Z21">
+        <v>405.50490502982501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>149</v>
+      </c>
+      <c r="O23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6263.8702676046596</v>
+      </c>
+      <c r="B24">
+        <v>7319.8370034490999</v>
+      </c>
+      <c r="C24">
+        <v>8428.1954797520393</v>
+      </c>
+      <c r="D24">
+        <v>9883.4337104588594</v>
+      </c>
+      <c r="E24">
+        <v>12489.5556970694</v>
+      </c>
+      <c r="F24">
+        <v>14740.7741516357</v>
+      </c>
+      <c r="G24">
+        <v>15884.8193466585</v>
+      </c>
+      <c r="H24">
+        <v>16613.1044673094</v>
+      </c>
+      <c r="I24">
+        <v>17276.3804452119</v>
+      </c>
+      <c r="J24">
+        <v>18209.4051769488</v>
+      </c>
+      <c r="K24">
+        <v>19802.7651855554</v>
+      </c>
+      <c r="L24">
+        <v>22607.821551983499</v>
+      </c>
+      <c r="O24">
+        <v>16.042900085449201</v>
+      </c>
+      <c r="P24">
+        <v>30.069900512695298</v>
+      </c>
+      <c r="Q24">
+        <v>44.097000122070298</v>
+      </c>
+      <c r="R24">
+        <v>58.124000549316399</v>
+      </c>
+      <c r="S24">
+        <v>58.124000549316399</v>
+      </c>
+      <c r="T24">
+        <v>72.1510009765625</v>
+      </c>
+      <c r="U24">
+        <v>72.1510009765625</v>
+      </c>
+      <c r="V24">
+        <v>86.177902221679702</v>
+      </c>
+      <c r="W24">
+        <v>100.205001831055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1369.0369749052099</v>
+      </c>
+      <c r="B25">
+        <v>1582.9193902207701</v>
+      </c>
+      <c r="C25">
+        <v>1790.7097477813099</v>
+      </c>
+      <c r="D25">
+        <v>2045.1729875353999</v>
+      </c>
+      <c r="E25">
+        <v>2465.2938390563399</v>
+      </c>
+      <c r="F25">
+        <v>2802.0821654884899</v>
+      </c>
+      <c r="G25">
+        <v>2965.81706403718</v>
+      </c>
+      <c r="H25">
+        <v>3067.5883961706099</v>
+      </c>
+      <c r="I25">
+        <v>3158.9565132961998</v>
+      </c>
+      <c r="J25">
+        <v>3286.26535582818</v>
+      </c>
+      <c r="K25">
+        <v>3500.3608630108502</v>
+      </c>
+      <c r="L25">
+        <v>3865.9452344134402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>269.95264768648298</v>
+      </c>
+      <c r="B26">
+        <v>575.94119889317199</v>
+      </c>
+      <c r="C26">
+        <v>831.84246653238699</v>
+      </c>
+      <c r="D26">
+        <v>1113.73327309309</v>
+      </c>
+      <c r="E26">
+        <v>1533.50365636786</v>
+      </c>
+      <c r="F26">
+        <v>1842.0804172047499</v>
+      </c>
+      <c r="G26">
+        <v>1984.7179788265701</v>
+      </c>
+      <c r="H26">
+        <v>2070.9493826283001</v>
+      </c>
+      <c r="I26">
+        <v>2147.0771833966801</v>
+      </c>
+      <c r="J26">
+        <v>2252.02324786279</v>
+      </c>
+      <c r="K26">
+        <v>2425.4262334806099</v>
+      </c>
+      <c r="L26">
+        <v>2710.7344559575899</v>
+      </c>
+      <c r="O26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7618.7027232011296</v>
+      </c>
+      <c r="B27">
+        <v>-2798.2808229074099</v>
+      </c>
+      <c r="C27">
+        <v>-869.05946901602204</v>
+      </c>
+      <c r="D27">
+        <v>-82.149353105680802</v>
+      </c>
+      <c r="E27">
+        <v>634.04357463124904</v>
+      </c>
+      <c r="F27">
+        <v>1054.9257746118101</v>
+      </c>
+      <c r="G27">
+        <v>1235.21838247286</v>
+      </c>
+      <c r="H27">
+        <v>1340.8764372120399</v>
+      </c>
+      <c r="I27">
+        <v>1432.5052144893</v>
+      </c>
+      <c r="J27">
+        <v>1557.21591587991</v>
+      </c>
+      <c r="K27">
+        <v>1759.6146229620799</v>
+      </c>
+      <c r="L27">
+        <v>2082.6578643159401</v>
+      </c>
+      <c r="O27" s="14">
+        <f>O2*O13*O$24</f>
+        <v>622.55220994432102</v>
+      </c>
+      <c r="P27" s="14">
+        <f>P2*P13*P$24</f>
+        <v>700.69586450833867</v>
+      </c>
+      <c r="Q27" s="14">
+        <f>Q2*Q13*Q$24</f>
+        <v>808.11050267610847</v>
+      </c>
+      <c r="R27" s="14">
+        <f>R2*R13*R$24</f>
+        <v>921.44143833056501</v>
+      </c>
+      <c r="S27" s="14">
+        <f t="shared" ref="S27:W27" si="0">S2*S13*S$24</f>
+        <v>776.34518669370857</v>
+      </c>
+      <c r="T27" s="14">
+        <f t="shared" si="0"/>
+        <v>6.9015987832853174</v>
+      </c>
+      <c r="U27" s="14">
+        <f t="shared" si="0"/>
+        <v>4.35031420050115E-2</v>
+      </c>
+      <c r="V27" s="14">
+        <f t="shared" si="0"/>
+        <v>3.2496431691437085E-4</v>
+      </c>
+      <c r="W27" s="14">
+        <f t="shared" si="0"/>
+        <v>2.4982835275868282E-6</v>
+      </c>
+      <c r="X27" s="14">
+        <f>X2*X13*X$24</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="14">
+        <f t="shared" ref="Y27:Z27" si="1">Y2*Y13*Y$24</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>984.71654806750098</v>
+      </c>
+      <c r="B28">
+        <v>3026.16076332385</v>
+      </c>
+      <c r="C28">
+        <v>-13841.694732059799</v>
+      </c>
+      <c r="D28">
+        <v>-1542.9924975753399</v>
+      </c>
+      <c r="E28">
+        <v>-35.080797537678897</v>
+      </c>
+      <c r="F28">
+        <v>522.442577052057</v>
+      </c>
+      <c r="G28">
+        <v>736.58258935287802</v>
+      </c>
+      <c r="H28">
+        <v>857.73730176100503</v>
+      </c>
+      <c r="I28">
+        <v>960.77318578164295</v>
+      </c>
+      <c r="J28">
+        <v>1098.69191359102</v>
+      </c>
+      <c r="K28">
+        <v>1317.9201794062801</v>
+      </c>
+      <c r="L28">
+        <v>1658.5308180249001</v>
+      </c>
+      <c r="O28" s="14">
+        <f>O3*O14*$P24</f>
+        <v>1433.3979490706713</v>
+      </c>
+      <c r="P28" s="14">
+        <f>P3*P14*$P24</f>
+        <v>916.65527616415227</v>
+      </c>
+      <c r="Q28" s="14">
+        <f t="shared" ref="Q28:W28" si="2">Q3*Q14*$P24</f>
+        <v>721.61291578164628</v>
+      </c>
+      <c r="R28" s="14">
+        <f t="shared" si="2"/>
+        <v>630.27470421116425</v>
+      </c>
+      <c r="S28" s="14">
+        <f t="shared" si="2"/>
+        <v>556.79030810989741</v>
+      </c>
+      <c r="T28" s="14">
+        <f t="shared" si="2"/>
+        <v>31.648175421675301</v>
+      </c>
+      <c r="U28" s="14">
+        <f t="shared" si="2"/>
+        <v>1.4322205440937776</v>
+      </c>
+      <c r="V28" s="14">
+        <f t="shared" si="2"/>
+        <v>6.0082419863525034E-2</v>
+      </c>
+      <c r="W28" s="14">
+        <f t="shared" si="2"/>
+        <v>2.5238872287382244E-3</v>
+      </c>
+      <c r="X28" s="14">
+        <f>X3*X14*$P24</f>
+        <v>1.1125211713067587E-4</v>
+      </c>
+      <c r="Y28" s="14">
+        <f t="shared" ref="Y28:Z28" si="3">Y3*Y14*$P24</f>
+        <v>5.373670730667347E-6</v>
+      </c>
+      <c r="Z28" s="14">
+        <f t="shared" si="3"/>
+        <v>3.1733365193847577E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-1175.74384510965</v>
+      </c>
+      <c r="B29">
+        <v>-812.43747225009304</v>
+      </c>
+      <c r="C29">
+        <v>-432.97430594222999</v>
+      </c>
+      <c r="D29">
+        <v>109.47106641033</v>
+      </c>
+      <c r="E29">
+        <v>1728.6820117928301</v>
+      </c>
+      <c r="F29">
+        <v>35433.566615344003</v>
+      </c>
+      <c r="G29">
+        <v>-5291.4331794249101</v>
+      </c>
+      <c r="H29">
+        <v>-2954.5590381810398</v>
+      </c>
+      <c r="I29">
+        <v>-2012.55360439476</v>
+      </c>
+      <c r="J29">
+        <v>-1254.8606045530901</v>
+      </c>
+      <c r="K29">
+        <v>-521.97622287602496</v>
+      </c>
+      <c r="L29">
+        <v>198.71462825206299</v>
+      </c>
+      <c r="O29" s="14">
+        <f>O4*O15*$Q24</f>
+        <v>2722.8195355920393</v>
+      </c>
+      <c r="P29" s="14">
+        <f>P4*P15*$Q24</f>
+        <v>2088.8320953999159</v>
+      </c>
+      <c r="Q29" s="14">
+        <f t="shared" ref="Q29:W29" si="4">Q4*Q15*$Q24</f>
+        <v>1664.8126056619742</v>
+      </c>
+      <c r="R29" s="14">
+        <f t="shared" si="4"/>
+        <v>1423.7064373671235</v>
+      </c>
+      <c r="S29" s="14">
+        <f t="shared" si="4"/>
+        <v>1259.4766142329145</v>
+      </c>
+      <c r="T29" s="14">
+        <f t="shared" si="4"/>
+        <v>277.54611234251229</v>
+      </c>
+      <c r="U29" s="14">
+        <f t="shared" si="4"/>
+        <v>45.71156574616321</v>
+      </c>
+      <c r="V29" s="14">
+        <f t="shared" si="4"/>
+        <v>6.6850299962883559</v>
+      </c>
+      <c r="W29" s="14">
+        <f t="shared" si="4"/>
+        <v>0.9457089109392206</v>
+      </c>
+      <c r="X29" s="14">
+        <f>X4*X15*$Q24</f>
+        <v>0.13645967843342835</v>
+      </c>
+      <c r="Y29" s="14">
+        <f t="shared" ref="Y29:Z29" si="5">Y4*Y15*$Q24</f>
+        <v>2.0994829467351116E-2</v>
+      </c>
+      <c r="Z29" s="14">
+        <f t="shared" si="5"/>
+        <v>3.7090861743730224E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-1426.6501101710501</v>
+      </c>
+      <c r="B30">
+        <v>-1066.56985929345</v>
+      </c>
+      <c r="C30">
+        <v>-700.52039080006398</v>
+      </c>
+      <c r="D30">
+        <v>-204.93560939492701</v>
+      </c>
+      <c r="E30">
+        <v>969.57036884329398</v>
+      </c>
+      <c r="F30">
+        <v>4002.2664233426999</v>
+      </c>
+      <c r="G30">
+        <v>23873.666641700602</v>
+      </c>
+      <c r="H30">
+        <v>-12876.3439024571</v>
+      </c>
+      <c r="I30">
+        <v>-5306.6646383215002</v>
+      </c>
+      <c r="J30">
+        <v>-2736.82784761947</v>
+      </c>
+      <c r="K30">
+        <v>-1236.1555617849799</v>
+      </c>
+      <c r="L30">
+        <v>-191.44853427055699</v>
+      </c>
+      <c r="O30" s="14">
+        <f>O5*O16*$R24</f>
+        <v>4106.4760037358546</v>
+      </c>
+      <c r="P30" s="14">
+        <f>P5*P16*$R24</f>
+        <v>4450.8820095451902</v>
+      </c>
+      <c r="Q30" s="14">
+        <f t="shared" ref="Q30:W30" si="6">Q5*Q16*$R24</f>
+        <v>4142.887854821136</v>
+      </c>
+      <c r="R30" s="14">
+        <f t="shared" si="6"/>
+        <v>3575.5116948536656</v>
+      </c>
+      <c r="S30" s="14">
+        <f t="shared" si="6"/>
+        <v>2988.5961824296228</v>
+      </c>
+      <c r="T30" s="14">
+        <f t="shared" si="6"/>
+        <v>1766.0874827575269</v>
+      </c>
+      <c r="U30" s="14">
+        <f t="shared" si="6"/>
+        <v>748.21730013938316</v>
+      </c>
+      <c r="V30" s="14">
+        <f t="shared" si="6"/>
+        <v>273.6560721560391</v>
+      </c>
+      <c r="W30" s="14">
+        <f t="shared" si="6"/>
+        <v>94.576140052948972</v>
+      </c>
+      <c r="X30" s="14">
+        <f>X5*X16*$R24</f>
+        <v>32.590766593466888</v>
+      </c>
+      <c r="Y30" s="14">
+        <f t="shared" ref="Y30:Z30" si="7">Y5*Y16*$R24</f>
+        <v>11.589594603288827</v>
+      </c>
+      <c r="Z30" s="14">
+        <f t="shared" si="7"/>
+        <v>4.3825832230630191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-3696.4450039411599</v>
+      </c>
+      <c r="B31">
+        <v>-3346.4189165693901</v>
+      </c>
+      <c r="C31">
+        <v>-3014.9219580313002</v>
+      </c>
+      <c r="D31">
+        <v>-2618.4952248033401</v>
+      </c>
+      <c r="E31">
+        <v>-1980.7905085217301</v>
+      </c>
+      <c r="F31">
+        <v>-1480.9942723208001</v>
+      </c>
+      <c r="G31">
+        <v>-1241.5298245547399</v>
+      </c>
+      <c r="H31">
+        <v>-1094.7393421169299</v>
+      </c>
+      <c r="I31">
+        <v>-962.51757643214899</v>
+      </c>
+      <c r="J31">
+        <v>-771.01783000445005</v>
+      </c>
+      <c r="K31">
+        <v>-426.089099929052</v>
+      </c>
+      <c r="L31">
+        <v>255.85986679544101</v>
+      </c>
+      <c r="O31" s="14">
+        <f>O6*O17*$S24</f>
+        <v>5580.6104755433234</v>
+      </c>
+      <c r="P31" s="14">
+        <f>P6*P17*$S24</f>
+        <v>7307.2906119910094</v>
+      </c>
+      <c r="Q31" s="14">
+        <f t="shared" ref="Q31:W31" si="8">Q6*Q17*$S24</f>
+        <v>7832.5914607456543</v>
+      </c>
+      <c r="R31" s="14">
+        <f t="shared" si="8"/>
+        <v>7273.0186351632319</v>
+      </c>
+      <c r="S31" s="14">
+        <f t="shared" si="8"/>
+        <v>6063.7063722403273</v>
+      </c>
+      <c r="T31" s="14">
+        <f t="shared" si="8"/>
+        <v>5052.5289172136872</v>
+      </c>
+      <c r="U31" s="14">
+        <f t="shared" si="8"/>
+        <v>2967.5736038853033</v>
+      </c>
+      <c r="V31" s="14">
+        <f t="shared" si="8"/>
+        <v>1485.1375203242317</v>
+      </c>
+      <c r="W31" s="14">
+        <f t="shared" si="8"/>
+        <v>693.64281000346739</v>
+      </c>
+      <c r="X31" s="14">
+        <f>X6*X17*$S24</f>
+        <v>318.58737342736231</v>
+      </c>
+      <c r="Y31" s="14">
+        <f t="shared" ref="Y31:Z31" si="9">Y6*Y17*$S24</f>
+        <v>148.08828611950818</v>
+      </c>
+      <c r="Z31" s="14">
+        <f t="shared" si="9"/>
+        <v>70.805252476003275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-6200.6347064703996</v>
+      </c>
+      <c r="B32">
+        <v>-5819.4122755183298</v>
+      </c>
+      <c r="C32">
+        <v>-5461.6578298621698</v>
+      </c>
+      <c r="D32">
+        <v>-5038.9966371534802</v>
+      </c>
+      <c r="E32">
+        <v>-4376.2429038735199</v>
+      </c>
+      <c r="F32">
+        <v>-3880.7050042841502</v>
+      </c>
+      <c r="G32">
+        <v>-3654.5914422739002</v>
+      </c>
+      <c r="H32">
+        <v>-3520.7817566960898</v>
+      </c>
+      <c r="I32">
+        <v>-3403.56994799207</v>
+      </c>
+      <c r="J32">
+        <v>-3239.2279649768998</v>
+      </c>
+      <c r="K32">
+        <v>-2962.8579413668699</v>
+      </c>
+      <c r="L32">
+        <v>-2510.7919154278902</v>
+      </c>
+      <c r="O32" s="14">
+        <f>O7*O18*$T24</f>
+        <v>304.33369056957292</v>
+      </c>
+      <c r="P32" s="14">
+        <f>P7*P18*$T24</f>
+        <v>841.23017723844771</v>
+      </c>
+      <c r="Q32" s="14">
+        <f t="shared" ref="Q32:W32" si="10">Q7*Q18*$T24</f>
+        <v>1897.8488142424862</v>
+      </c>
+      <c r="R32" s="14">
+        <f t="shared" si="10"/>
+        <v>3522.9665939901051</v>
+      </c>
+      <c r="S32" s="14">
+        <f t="shared" si="10"/>
+        <v>5328.9949618309302</v>
+      </c>
+      <c r="T32" s="14">
+        <f t="shared" si="10"/>
+        <v>9194.2852162826111</v>
+      </c>
+      <c r="U32" s="14">
+        <f t="shared" si="10"/>
+        <v>11727.288740471156</v>
+      </c>
+      <c r="V32" s="14">
+        <f t="shared" si="10"/>
+        <v>12891.604803140477</v>
+      </c>
+      <c r="W32" s="14">
+        <f t="shared" si="10"/>
+        <v>13068.503737762932</v>
+      </c>
+      <c r="X32" s="14">
+        <f>X7*X18*$T24</f>
+        <v>12655.771029487272</v>
+      </c>
+      <c r="Y32" s="14">
+        <f t="shared" ref="Y32:Z32" si="11">Y7*Y18*$T24</f>
+        <v>11821.652766136611</v>
+      </c>
+      <c r="Z32" s="14">
+        <f t="shared" si="11"/>
+        <v>10528.167763136838</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O33" s="14">
+        <f>O8*O19*$U24</f>
+        <v>152.78282656631421</v>
+      </c>
+      <c r="P33" s="14">
+        <f>P8*P19*$U24</f>
+        <v>463.20858474251048</v>
+      </c>
+      <c r="Q33" s="14">
+        <f t="shared" ref="Q33:W33" si="12">Q8*Q19*$U24</f>
+        <v>1160.1996884144132</v>
+      </c>
+      <c r="R33" s="14">
+        <f t="shared" si="12"/>
+        <v>2405.3039731656509</v>
+      </c>
+      <c r="S33" s="14">
+        <f t="shared" si="12"/>
+        <v>4070.685588677879</v>
+      </c>
+      <c r="T33" s="14">
+        <f t="shared" si="12"/>
+        <v>6790.6850062734002</v>
+      </c>
+      <c r="U33" s="14">
+        <f t="shared" si="12"/>
+        <v>8844.4364916852501</v>
+      </c>
+      <c r="V33" s="14">
+        <f t="shared" si="12"/>
+        <v>10273.92932134916</v>
+      </c>
+      <c r="W33" s="14">
+        <f t="shared" si="12"/>
+        <v>11214.369191048383</v>
+      </c>
+      <c r="X33" s="14">
+        <f>X8*X19*$U24</f>
+        <v>11796.747991036094</v>
+      </c>
+      <c r="Y33" s="14">
+        <f t="shared" ref="Y33:Z33" si="13">Y8*Y19*$U24</f>
+        <v>11991.540420271838</v>
+      </c>
+      <c r="Z33" s="14">
+        <f t="shared" si="13"/>
+        <v>11576.192397275479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="O34" s="14">
+        <f>O9*O20*$V24</f>
+        <v>0.20688044742274947</v>
+      </c>
+      <c r="P34" s="14">
+        <f>P9*P20*$V24</f>
+        <v>2.0532204236544351</v>
+      </c>
+      <c r="Q34" s="14">
+        <f t="shared" ref="Q34:W34" si="14">Q9*Q20*$V24</f>
+        <v>17.764547713710154</v>
+      </c>
+      <c r="R34" s="14">
+        <f t="shared" si="14"/>
+        <v>126.87028207391371</v>
+      </c>
+      <c r="S34" s="14">
+        <f t="shared" si="14"/>
+        <v>733.83874962116192</v>
+      </c>
+      <c r="T34" s="14">
+        <f t="shared" si="14"/>
+        <v>969.43232612887948</v>
+      </c>
+      <c r="U34" s="14">
+        <f t="shared" si="14"/>
+        <v>1077.9187977301654</v>
+      </c>
+      <c r="V34" s="14">
+        <f t="shared" si="14"/>
+        <v>1242.6952207316767</v>
+      </c>
+      <c r="W34" s="14">
+        <f t="shared" si="14"/>
+        <v>1601.0642186652415</v>
+      </c>
+      <c r="X34" s="14">
+        <f>X9*X20*$V24</f>
+        <v>2322.3106385023721</v>
+      </c>
+      <c r="Y34" s="14">
+        <f t="shared" ref="Y34:Z34" si="15">Y9*Y20*$V24</f>
+        <v>3643.6859941178232</v>
+      </c>
+      <c r="Z34" s="14">
+        <f t="shared" si="15"/>
+        <v>5785.4555834543089</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-782.925909841151</v>
+      </c>
+      <c r="B35">
+        <v>-2567.94839626155</v>
+      </c>
+      <c r="C35">
+        <v>-4251.2733576319497</v>
+      </c>
+      <c r="D35">
+        <v>-5230.4913195854397</v>
+      </c>
+      <c r="E35">
+        <v>-6017.6578388620501</v>
+      </c>
+      <c r="F35">
+        <v>-7155.0313880022404</v>
+      </c>
+      <c r="G35">
+        <v>-7494.6618566940297</v>
+      </c>
+      <c r="H35">
+        <v>-8860.4245629270499</v>
+      </c>
+      <c r="I35">
+        <v>-9838.2905069587505</v>
+      </c>
+      <c r="O35" s="14">
+        <f>O10*O21*$W24</f>
+        <v>1.0370050706824368E-3</v>
+      </c>
+      <c r="P35" s="14">
+        <f>P10*P21*$W24</f>
+        <v>3.1608246477583812E-2</v>
+      </c>
+      <c r="Q35" s="14">
+        <f t="shared" ref="Q35:W35" si="16">Q10*Q21*$W24</f>
+        <v>0.84030950580012986</v>
+      </c>
+      <c r="R35" s="14">
+        <f t="shared" si="16"/>
+        <v>18.001100224316531</v>
+      </c>
+      <c r="S35" s="14">
+        <f t="shared" si="16"/>
+        <v>307.7262058402448</v>
+      </c>
+      <c r="T35" s="14">
+        <f t="shared" si="16"/>
+        <v>403.63017603269759</v>
+      </c>
+      <c r="U35" s="14">
+        <f t="shared" si="16"/>
+        <v>430.6641095266861</v>
+      </c>
+      <c r="V35" s="14">
+        <f t="shared" si="16"/>
+        <v>467.99221348414801</v>
+      </c>
+      <c r="W35" s="14">
+        <f t="shared" si="16"/>
+        <v>573.14477243194995</v>
+      </c>
+      <c r="X35" s="14">
+        <f>X10*X21*$W24</f>
+        <v>836.74580737632527</v>
+      </c>
+      <c r="Y35" s="14">
+        <f t="shared" ref="Y35" si="17">Y10*Y21*$W24</f>
+        <v>1479.1994662495238</v>
+      </c>
+      <c r="Z35" s="14">
+        <f>Z10*Z21*$W24</f>
+        <v>3055.762828914048</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O36" s="26">
+        <f>SUM(O27:O35)</f>
+        <v>14923.180608474588</v>
+      </c>
+      <c r="P36" s="26">
+        <f t="shared" ref="P36:W36" si="18">SUM(P27:P35)</f>
+        <v>16770.879448259697</v>
+      </c>
+      <c r="Q36" s="26">
+        <f t="shared" si="18"/>
+        <v>18246.668699562924</v>
+      </c>
+      <c r="R36" s="26">
+        <f t="shared" si="18"/>
+        <v>19897.094859379733</v>
+      </c>
+      <c r="S36" s="26">
+        <f t="shared" si="18"/>
+        <v>22086.160169676685</v>
+      </c>
+      <c r="T36" s="26">
+        <f t="shared" si="18"/>
+        <v>24492.745011236275</v>
+      </c>
+      <c r="U36" s="26">
+        <f t="shared" si="18"/>
+        <v>25843.286332870208</v>
+      </c>
+      <c r="V36" s="26">
+        <f t="shared" si="18"/>
+        <v>26641.760588566201</v>
+      </c>
+      <c r="W36" s="26">
+        <f t="shared" si="18"/>
+        <v>27246.249105261377</v>
+      </c>
+      <c r="X36" s="26">
+        <f>SUM(X27:X35)</f>
+        <v>27962.890177353445</v>
+      </c>
+      <c r="Y36" s="26">
+        <f t="shared" ref="Y36" si="19">SUM(Y27:Y35)</f>
+        <v>29095.777527701728</v>
+      </c>
+      <c r="Z36" s="26">
+        <f t="shared" ref="Z36" si="20">SUM(Z27:Z35)</f>
+        <v>31020.77011788325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="O37">
+        <v>14923.1806084746</v>
+      </c>
+      <c r="P37">
+        <v>16444.018998998199</v>
+      </c>
+      <c r="Q37">
+        <v>17732.556337725098</v>
+      </c>
+      <c r="R37">
+        <v>19229.9819736268</v>
+      </c>
+      <c r="S37">
+        <v>21524.095282760001</v>
+      </c>
+      <c r="T37">
+        <v>24487.377994900999</v>
+      </c>
+      <c r="U37">
+        <v>25843.252502727199</v>
+      </c>
+      <c r="V37">
+        <v>26641.7603240973</v>
+      </c>
+      <c r="W37">
+        <v>27246.2491031631</v>
+      </c>
+      <c r="X37">
+        <v>27962.890177356301</v>
+      </c>
+      <c r="Y37">
+        <v>29095.777527701801</v>
+      </c>
+      <c r="Z37">
+        <v>31020.770117883301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>-74900</v>
+      </c>
+      <c r="B38" s="4">
+        <v>-84738</v>
+      </c>
+      <c r="C38" s="4">
+        <v>-103890</v>
+      </c>
+      <c r="D38" s="4">
+        <v>-134590</v>
+      </c>
+      <c r="E38" s="4">
+        <v>-126190</v>
+      </c>
+      <c r="F38" s="4">
+        <v>-154590</v>
+      </c>
+      <c r="G38" s="4">
+        <v>-146490</v>
+      </c>
+      <c r="H38" s="4">
+        <v>-167290</v>
+      </c>
+      <c r="I38" s="4">
+        <v>-187890</v>
+      </c>
+      <c r="O38" s="14">
+        <f>O36-O37</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="14">
+        <f t="shared" ref="P38:Z38" si="21">P36-P37</f>
+        <v>326.86044926149771</v>
+      </c>
+      <c r="Q38" s="14">
+        <f t="shared" si="21"/>
+        <v>514.11236183782603</v>
+      </c>
+      <c r="R38" s="14">
+        <f t="shared" si="21"/>
+        <v>667.11288575293293</v>
+      </c>
+      <c r="S38" s="14">
+        <f t="shared" si="21"/>
+        <v>562.06488691668346</v>
+      </c>
+      <c r="T38" s="14">
+        <f t="shared" si="21"/>
+        <v>5.3670163352762756</v>
+      </c>
+      <c r="U38" s="14">
+        <f t="shared" si="21"/>
+        <v>3.3830143009254243E-2</v>
+      </c>
+      <c r="V38" s="14">
+        <f t="shared" si="21"/>
+        <v>2.6446890115039423E-4</v>
+      </c>
+      <c r="W38" s="14">
+        <f t="shared" si="21"/>
+        <v>2.0982770365662873E-6</v>
+      </c>
+      <c r="X38" s="14">
+        <f t="shared" si="21"/>
+        <v>-2.8558133635669947E-9</v>
+      </c>
+      <c r="Y38" s="14">
+        <f t="shared" si="21"/>
+        <v>-7.2759576141834259E-11</v>
+      </c>
+      <c r="Z38" s="14">
+        <f t="shared" si="21"/>
+        <v>-5.0931703299283981E-11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <f>($A38+(A13+A24-$A35)*4.1868)*A2</f>
+        <v>-25.958128184307942</v>
+      </c>
+      <c r="B41" s="14">
+        <f t="shared" ref="B41:L41" si="22">($A38+(B13+B24-$A35)*4.1868)*B2</f>
+        <v>-12.457110917924572</v>
+      </c>
+      <c r="C41" s="14">
+        <f t="shared" si="22"/>
+        <v>-7.849909185232705</v>
+      </c>
+      <c r="D41" s="14">
+        <f t="shared" si="22"/>
+        <v>-5.1048444650466109</v>
+      </c>
+      <c r="E41" s="14">
+        <f t="shared" si="22"/>
+        <v>-2.4877059269634949</v>
+      </c>
+      <c r="F41" s="14">
+        <f t="shared" si="22"/>
+        <v>-9.7549773179347841E-3</v>
+      </c>
+      <c r="G41" s="14">
+        <f t="shared" si="22"/>
+        <v>-4.0135328276808082E-5</v>
+      </c>
+      <c r="H41" s="14">
+        <f t="shared" si="22"/>
+        <v>-1.7326696692975937E-7</v>
+      </c>
+      <c r="I41" s="14">
+        <f t="shared" si="22"/>
+        <v>-7.0330653105085446E-10</v>
+      </c>
+      <c r="J41" s="14">
+        <f t="shared" si="22"/>
+        <v>-8.4498468455776368E-13</v>
+      </c>
+      <c r="K41" s="14">
+        <f t="shared" si="22"/>
+        <v>4.7504233499025893E-14</v>
+      </c>
+      <c r="L41" s="14">
+        <f t="shared" si="22"/>
+        <v>1.3767169201601234E-15</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <f>($B38+(A14+A25-$B35)*4.1868)*A3</f>
+        <v>-757.32168849035975</v>
+      </c>
+      <c r="B42" s="14">
+        <f t="shared" ref="B42:L42" si="23">($B38+(B14+B25-$B35)*4.1868)*B3</f>
+        <v>-384.19506324013167</v>
+      </c>
+      <c r="C42" s="14">
+        <f t="shared" si="23"/>
+        <v>-246.76600516998153</v>
+      </c>
+      <c r="D42" s="14">
+        <f t="shared" si="23"/>
+        <v>-172.15085971269818</v>
+      </c>
+      <c r="E42" s="14">
+        <f t="shared" si="23"/>
+        <v>-110.08430962688399</v>
+      </c>
+      <c r="F42" s="14">
+        <f t="shared" si="23"/>
+        <v>-5.0092794033254018</v>
+      </c>
+      <c r="G42" s="14">
+        <f t="shared" si="23"/>
+        <v>-0.20575223381605756</v>
+      </c>
+      <c r="H42" s="14">
+        <f t="shared" si="23"/>
+        <v>-8.1599272349974789E-3</v>
+      </c>
+      <c r="I42" s="14">
+        <f t="shared" si="23"/>
+        <v>-3.2658125398064695E-4</v>
+      </c>
+      <c r="J42" s="14">
+        <f t="shared" si="23"/>
+        <v>-1.3471918948113851E-5</v>
+      </c>
+      <c r="K42" s="14">
+        <f t="shared" si="23"/>
+        <v>-5.8412730132228511E-7</v>
+      </c>
+      <c r="L42" s="14">
+        <f t="shared" si="23"/>
+        <v>-2.9151207917854974E-8</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <f>P41+1/$O$52</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <f>($C38+(A15+A26-$C35)*4.1868)*A4</f>
+        <v>-6285.8694289256755</v>
+      </c>
+      <c r="B43" s="14">
+        <f t="shared" ref="B43:L43" si="24">($C38+(B15+B26-$C35)*4.1868)*B4</f>
+        <v>-3616.5841468551816</v>
+      </c>
+      <c r="C43" s="14">
+        <f t="shared" si="24"/>
+        <v>-2243.2806215403325</v>
+      </c>
+      <c r="D43" s="14">
+        <f t="shared" si="24"/>
+        <v>-1457.6510574028971</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="24"/>
+        <v>-872.61702095264604</v>
+      </c>
+      <c r="F43" s="14">
+        <f t="shared" si="24"/>
+        <v>-147.39439198981094</v>
+      </c>
+      <c r="G43" s="14">
+        <f t="shared" si="24"/>
+        <v>-21.630949994872893</v>
+      </c>
+      <c r="H43" s="14">
+        <f t="shared" si="24"/>
+        <v>-2.9587934021210005</v>
+      </c>
+      <c r="I43" s="14">
+        <f t="shared" si="24"/>
+        <v>-0.39518108453922474</v>
+      </c>
+      <c r="J43" s="14">
+        <f t="shared" si="24"/>
+        <v>-5.2732384744609236E-2</v>
+      </c>
+      <c r="K43" s="14">
+        <f t="shared" si="24"/>
+        <v>-7.1520008800094693E-3</v>
+      </c>
+      <c r="L43" s="14">
+        <f t="shared" si="24"/>
+        <v>-1.0399864327378179E-3</v>
+      </c>
+      <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43">
+        <f t="shared" ref="P43:P51" si="25">P42+1/$O$52</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <f>($D38+(A16+A27-$D35)*4.1868)*A5</f>
+        <v>-23151.870084459559</v>
+      </c>
+      <c r="B44" s="14">
+        <f t="shared" ref="B44:L44" si="26">($D38+(B16+B27-$D35)*4.1868)*B5</f>
+        <v>-28111.298462770039</v>
+      </c>
+      <c r="C44" s="14">
+        <f t="shared" si="26"/>
+        <v>-18682.546882670631</v>
+      </c>
+      <c r="D44" s="14">
+        <f t="shared" si="26"/>
+        <v>-11656.528344474928</v>
+      </c>
+      <c r="E44" s="14">
+        <f t="shared" si="26"/>
+        <v>-6240.0720769349655</v>
+      </c>
+      <c r="F44" s="14">
+        <f t="shared" si="26"/>
+        <v>-2732.6967621306849</v>
+      </c>
+      <c r="G44" s="14">
+        <f t="shared" si="26"/>
+        <v>-1016.9491542433353</v>
+      </c>
+      <c r="H44" s="14">
+        <f t="shared" si="26"/>
+        <v>-344.99694324307228</v>
+      </c>
+      <c r="I44" s="14">
+        <f t="shared" si="26"/>
+        <v>-111.76700203326946</v>
+      </c>
+      <c r="J44" s="14">
+        <f t="shared" si="26"/>
+        <v>-35.283455005154316</v>
+      </c>
+      <c r="K44" s="14">
+        <f t="shared" si="26"/>
+        <v>-10.900713518255387</v>
+      </c>
+      <c r="L44" s="14">
+        <f t="shared" si="26"/>
+        <v>-3.3191221331518945</v>
+      </c>
+      <c r="O44">
+        <v>4</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <f>($E38+(A17+A28-$E35)*4.1868)*A6</f>
+        <v>-50684.520034233057</v>
+      </c>
+      <c r="B45" s="14">
+        <f t="shared" ref="B45:L45" si="27">($E38+(B17+B28-$E35)*4.1868)*B6</f>
+        <v>-43897.237037154824</v>
+      </c>
+      <c r="C45" s="14">
+        <f t="shared" si="27"/>
+        <v>-63723.388700838339</v>
+      </c>
+      <c r="D45" s="14">
+        <f t="shared" si="27"/>
+        <v>-29492.172859509614</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="27"/>
+        <v>-14997.260952714099</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="27"/>
+        <v>-9099.2925951442958</v>
+      </c>
+      <c r="G45" s="14">
+        <f t="shared" si="27"/>
+        <v>-4663.211898735588</v>
+      </c>
+      <c r="H45" s="14">
+        <f t="shared" si="27"/>
+        <v>-2156.4647176827034</v>
+      </c>
+      <c r="I45" s="14">
+        <f t="shared" si="27"/>
+        <v>-941.10952910797391</v>
+      </c>
+      <c r="J45" s="14">
+        <f t="shared" si="27"/>
+        <v>-394.32428468435592</v>
+      </c>
+      <c r="K45" s="14">
+        <f t="shared" si="27"/>
+        <v>-158.21416260341149</v>
+      </c>
+      <c r="L45" s="14">
+        <f t="shared" si="27"/>
+        <v>-60.320725617952327</v>
+      </c>
+      <c r="O45">
+        <v>5</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="25"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <f>($F38+(A18+A29-$F35)*4.1868)*A7</f>
+        <v>-9789.7670975190485</v>
+      </c>
+      <c r="B46" s="14">
+        <f t="shared" ref="B46:L46" si="28">($F38+(B18+B29-$F35)*4.1868)*B7</f>
+        <v>-18622.275826769059</v>
+      </c>
+      <c r="C46" s="14">
+        <f t="shared" si="28"/>
+        <v>-30256.763682824821</v>
+      </c>
+      <c r="D46" s="14">
+        <f t="shared" si="28"/>
+        <v>-39052.619984947596</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="28"/>
+        <v>-34254.888254586644</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" si="28"/>
+        <v>9979.4096875433443</v>
+      </c>
+      <c r="G46" s="14">
+        <f t="shared" si="28"/>
+        <v>-59054.746003281929</v>
+      </c>
+      <c r="H46" s="14">
+        <f t="shared" si="28"/>
+        <v>-55668.001471922929</v>
+      </c>
+      <c r="I46" s="14">
+        <f t="shared" si="28"/>
+        <v>-50987.815554461478</v>
+      </c>
+      <c r="J46" s="14">
+        <f t="shared" si="28"/>
+        <v>-43733.749052839048</v>
+      </c>
+      <c r="K46" s="14">
+        <f t="shared" si="28"/>
+        <v>-34154.52341457249</v>
+      </c>
+      <c r="L46" s="14">
+        <f t="shared" si="28"/>
+        <v>-23400.405396416783</v>
+      </c>
+      <c r="O46">
+        <v>6</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="25"/>
+        <v>0.41666666666666663</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <f>($G38+(A19+A30-$G35)*4.1868)*A8</f>
+        <v>-4821.4294675406054</v>
+      </c>
+      <c r="B47" s="14">
+        <f t="shared" ref="B47:L47" si="29">($G38+(B19+B30-$G35)*4.1868)*B8</f>
+        <v>-10089.515586938134</v>
+      </c>
+      <c r="C47" s="14">
+        <f t="shared" si="29"/>
+        <v>-18251.737994646704</v>
+      </c>
+      <c r="D47" s="14">
+        <f t="shared" si="29"/>
+        <v>-26414.811297732838</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" si="29"/>
+        <v>-26396.339052935615</v>
+      </c>
+      <c r="F47" s="14">
+        <f t="shared" si="29"/>
+        <v>-28014.293322890986</v>
+      </c>
+      <c r="G47" s="14">
+        <f t="shared" si="29"/>
+        <v>-3820.890730264543</v>
+      </c>
+      <c r="H47" s="14">
+        <f t="shared" si="29"/>
+        <v>-59198.978329586396</v>
+      </c>
+      <c r="I47" s="14">
+        <f t="shared" si="29"/>
+        <v>-48660.207749698791</v>
+      </c>
+      <c r="J47" s="14">
+        <f t="shared" si="29"/>
+        <v>-42774.275320495188</v>
+      </c>
+      <c r="K47" s="14">
+        <f t="shared" si="29"/>
+        <v>-35409.447362987659</v>
+      </c>
+      <c r="L47" s="14">
+        <f t="shared" si="29"/>
+        <v>-26012.193866788963</v>
+      </c>
+      <c r="O47">
+        <v>7</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="25"/>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <f>($H38+(A20+A31-$H35)*4.1868)*A9</f>
+        <v>-24.683324741466048</v>
+      </c>
+      <c r="B48" s="14">
+        <f t="shared" ref="B48:L48" si="30">($H38+(B20+B31-$H35)*4.1868)*B9</f>
+        <v>-161.53020448228779</v>
+      </c>
+      <c r="C48" s="14">
+        <f t="shared" si="30"/>
+        <v>-971.06037498612034</v>
+      </c>
+      <c r="D48" s="14">
+        <f t="shared" si="30"/>
+        <v>-4653.6576808497557</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="30"/>
+        <v>-15283.216291683675</v>
+      </c>
+      <c r="F48" s="14">
+        <f t="shared" si="30"/>
+        <v>-13729.042481948689</v>
+      </c>
+      <c r="G48" s="14">
+        <f t="shared" si="30"/>
+        <v>-12900.442274718769</v>
+      </c>
+      <c r="H48" s="14">
+        <f t="shared" si="30"/>
+        <v>-13479.155129808012</v>
+      </c>
+      <c r="I48" s="14">
+        <f t="shared" si="30"/>
+        <v>-15952.943979337027</v>
+      </c>
+      <c r="J48" s="14">
+        <f t="shared" si="30"/>
+        <v>-20627.016329013331</v>
+      </c>
+      <c r="K48" s="14">
+        <f t="shared" si="30"/>
+        <v>-26902.391709772139</v>
+      </c>
+      <c r="L48" s="14">
+        <f t="shared" si="30"/>
+        <v>-31966.176792657727</v>
+      </c>
+      <c r="O48">
+        <v>8</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="25"/>
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <f>($I38+(A21+A32-$I35)*4.1868)*A10</f>
+        <v>-0.39622299385243592</v>
+      </c>
+      <c r="B49" s="14">
+        <f t="shared" ref="B49:K49" si="31">($I38+(B21+B32-$I35)*4.1868)*B10</f>
+        <v>-7.6664582141589088</v>
+      </c>
+      <c r="C49" s="14">
+        <f t="shared" si="31"/>
+        <v>-137.03064458197952</v>
+      </c>
+      <c r="D49" s="14">
+        <f t="shared" si="31"/>
+        <v>-1901.0358875033642</v>
+      </c>
+      <c r="E49" s="14">
+        <f t="shared" si="31"/>
+        <v>-17569.346923341189</v>
+      </c>
+      <c r="F49" s="14">
+        <f t="shared" si="31"/>
+        <v>-15174.660531451174</v>
+      </c>
+      <c r="G49" s="14">
+        <f t="shared" si="31"/>
+        <v>-13496.641712213717</v>
+      </c>
+      <c r="H49" s="14">
+        <f t="shared" si="31"/>
+        <v>-13187.408792950931</v>
+      </c>
+      <c r="I49" s="14">
+        <f t="shared" si="31"/>
+        <v>-14736.606314111978</v>
+      </c>
+      <c r="J49" s="14">
+        <f t="shared" si="31"/>
+        <v>-19013.377337687638</v>
+      </c>
+      <c r="K49" s="14">
+        <f t="shared" si="31"/>
+        <v>-27591.978279161598</v>
+      </c>
+      <c r="L49" s="14">
+        <f>($I38+(L21+L32-$I35)*4.1868)*L10</f>
+        <v>-42033.038956199918</v>
+      </c>
+      <c r="O49">
+        <v>9</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="25"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="26">
+        <f>SUM(A41:A49)</f>
+        <v>-95541.815477087919</v>
+      </c>
+      <c r="B50" s="26">
+        <f t="shared" ref="B50:L50" si="32">SUM(B41:B49)</f>
+        <v>-104902.75989734173</v>
+      </c>
+      <c r="C50" s="26">
+        <f t="shared" si="32"/>
+        <v>-134520.42481644414</v>
+      </c>
+      <c r="D50" s="26">
+        <f t="shared" si="32"/>
+        <v>-114805.73281659874</v>
+      </c>
+      <c r="E50" s="26">
+        <f t="shared" si="32"/>
+        <v>-115726.31258870268</v>
+      </c>
+      <c r="F50" s="26">
+        <f t="shared" si="32"/>
+        <v>-58922.98943239294</v>
+      </c>
+      <c r="G50" s="26">
+        <f t="shared" si="32"/>
+        <v>-94974.718515821893</v>
+      </c>
+      <c r="H50" s="26">
+        <f t="shared" si="32"/>
+        <v>-144037.97233869668</v>
+      </c>
+      <c r="I50" s="26">
+        <f t="shared" si="32"/>
+        <v>-131390.84563641701</v>
+      </c>
+      <c r="J50" s="26">
+        <f t="shared" si="32"/>
+        <v>-126578.07852558138</v>
+      </c>
+      <c r="K50" s="26">
+        <f t="shared" si="32"/>
+        <v>-124227.46279520057</v>
+      </c>
+      <c r="L50" s="26">
+        <f t="shared" si="32"/>
+        <v>-123475.45589983008</v>
+      </c>
+      <c r="O50">
+        <v>10</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-95541.815477087905</v>
+      </c>
+      <c r="B51">
+        <v>-104902.759897342</v>
+      </c>
+      <c r="C51">
+        <v>-134520.42481644399</v>
+      </c>
+      <c r="D51">
+        <v>-114805.732816599</v>
+      </c>
+      <c r="E51">
+        <v>-115726.312588703</v>
+      </c>
+      <c r="F51">
+        <v>-58922.989432392897</v>
+      </c>
+      <c r="G51">
+        <v>-94974.718515821805</v>
+      </c>
+      <c r="H51">
+        <v>-144037.972338697</v>
+      </c>
+      <c r="I51">
+        <v>-131390.84563641701</v>
+      </c>
+      <c r="J51">
+        <v>-126578.078525581</v>
+      </c>
+      <c r="K51">
+        <v>-124227.46279520101</v>
+      </c>
+      <c r="L51">
+        <v>-123475.45589983001</v>
+      </c>
+      <c r="O51">
+        <v>11</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="25"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <f>A50-A51</f>
+        <v>0</v>
+      </c>
+      <c r="B52" s="14">
+        <f t="shared" ref="B52:L52" si="33">B50-B51</f>
+        <v>2.6193447411060333E-10</v>
+      </c>
+      <c r="C52" s="14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="14">
+        <f t="shared" si="33"/>
+        <v>2.6193447411060333E-10</v>
+      </c>
+      <c r="E52" s="14">
+        <f t="shared" si="33"/>
+        <v>3.2014213502407074E-10</v>
+      </c>
+      <c r="F52" s="14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="14">
+        <f t="shared" si="33"/>
+        <v>3.2014213502407074E-10</v>
+      </c>
+      <c r="I52" s="14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="14">
+        <f t="shared" si="33"/>
+        <v>-3.7834979593753815E-10</v>
+      </c>
+      <c r="K52" s="14">
+        <f t="shared" si="33"/>
+        <v>4.3655745685100555E-10</v>
+      </c>
+      <c r="L52" s="14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>12</v>
+      </c>
+      <c r="P52">
+        <f>P51+1/$O$52</f>
+        <v>0.91666666666666674</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B64676-A2E6-4B82-AE39-5D262F1985C3}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4.5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>(B2+C2)/(E2+F2)</f>
+        <v>0.97826086956521752</v>
+      </c>
+      <c r="I2">
+        <f>H2/(H2+1)*(D2+F3+0)</f>
+        <v>4.5494505494505493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="0">(B3+C3)/(E3+F3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="1">H3/(H3+1)*(D3+F4+E2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>13.8</v>
+      </c>
+      <c r="E6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F10">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F12">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.0108695652173914</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>9.2497297297297276</v>
       </c>
     </row>
   </sheetData>
@@ -70065,7 +73546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376A5037-0751-43D4-BCFC-EA4F6E9E3D4F}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
@@ -70846,39 +74327,39 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
-        <f>B14*($H$2-$G$2)+B15/2*($H$2^2-$G$2^2)+B16/3*($H$2^3-$G$2^3)+B17/4*($H$2^4-$G$2^4)</f>
+        <f t="shared" ref="B31:J31" si="12">B14*($H$2-$G$2)+B15/2*($H$2^2-$G$2^2)+B16/3*($H$2^3-$G$2^3)+B17/4*($H$2^4-$G$2^4)</f>
         <v>-1119.2474057899331</v>
       </c>
       <c r="C31" s="14">
-        <f>C14*($H$2-$G$2)+C15/2*($H$2^2-$G$2^2)+C16/3*($H$2^3-$G$2^3)+C17/4*($H$2^4-$G$2^4)</f>
+        <f t="shared" si="12"/>
         <v>-1416.092582165089</v>
       </c>
       <c r="D31" s="14">
-        <f>D14*($H$2-$G$2)+D15/2*($H$2^2-$G$2^2)+D16/3*($H$2^3-$G$2^3)+D17/4*($H$2^4-$G$2^4)</f>
+        <f t="shared" si="12"/>
         <v>-1875.0852470576233</v>
       </c>
       <c r="E31" s="14">
-        <f>E14*($H$2-$G$2)+E15/2*($H$2^2-$G$2^2)+E16/3*($H$2^3-$G$2^3)+E17/4*($H$2^4-$G$2^4)</f>
+        <f t="shared" si="12"/>
         <v>-2520.5101526345597</v>
       </c>
       <c r="F31" s="14">
-        <f>F14*($H$2-$G$2)+F15/2*($H$2^2-$G$2^2)+F16/3*($H$2^3-$G$2^3)+F17/4*($H$2^4-$G$2^4)</f>
+        <f t="shared" si="12"/>
         <v>-2634.4231886136663</v>
       </c>
       <c r="G31" s="14">
-        <f>G14*($H$2-$G$2)+G15/2*($H$2^2-$G$2^2)+G16/3*($H$2^3-$G$2^3)+G17/4*($H$2^4-$G$2^4)</f>
+        <f t="shared" si="12"/>
         <v>-2992.0330786503673</v>
       </c>
       <c r="H31" s="14">
-        <f>H14*($H$2-$G$2)+H15/2*($H$2^2-$G$2^2)+H16/3*($H$2^3-$G$2^3)+H17/4*($H$2^4-$G$2^4)</f>
+        <f t="shared" si="12"/>
         <v>-3091.3351114492179</v>
       </c>
       <c r="I31" s="14">
-        <f>I14*($H$2-$G$2)+I15/2*($H$2^2-$G$2^2)+I16/3*($H$2^3-$G$2^3)+I17/4*($H$2^4-$G$2^4)</f>
+        <f t="shared" si="12"/>
         <v>-3683.196278300612</v>
       </c>
       <c r="J31" s="14">
-        <f>J14*($H$2-$G$2)+J15/2*($H$2^2-$G$2^2)+J16/3*($H$2^3-$G$2^3)+J17/4*($H$2^4-$G$2^4)</f>
+        <f t="shared" si="12"/>
         <v>-4274.8755218142178</v>
       </c>
     </row>
@@ -71119,31 +74600,31 @@
         <v>435.66663049389348</v>
       </c>
       <c r="D50" s="25">
-        <f t="shared" ref="C50:J50" si="12">($D$5+$E$5*D10)*($B$47^6-D45^6)/(6*(D21+273.15)^5)</f>
+        <f t="shared" ref="D50:J50" si="13">($D$5+$E$5*D10)*($B$47^6-D45^6)/(6*(D21+273.15)^5)</f>
         <v>94.263922753231213</v>
       </c>
       <c r="E50" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-5.6775883252021471</v>
       </c>
       <c r="F50" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-31.5721049116963</v>
       </c>
       <c r="G50" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-92.015291634302415</v>
       </c>
       <c r="H50" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-94.576931228666936</v>
       </c>
       <c r="I50" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-150.41664050654785</v>
       </c>
       <c r="J50" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-192.99342498255692</v>
       </c>
     </row>
@@ -71178,39 +74659,39 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="14">
-        <f>B50-B52</f>
+        <f t="shared" ref="B53:J53" si="14">B50-B52</f>
         <v>-3.637978807091713E-11</v>
       </c>
       <c r="C53" s="14">
-        <f>C50-C52</f>
+        <f t="shared" si="14"/>
         <v>-3.5242919693700969E-12</v>
       </c>
       <c r="D53" s="14">
-        <f>D50-D52</f>
+        <f t="shared" si="14"/>
         <v>-6.8212102632969618E-13</v>
       </c>
       <c r="E53" s="14">
-        <f>E50-E52</f>
+        <f t="shared" si="14"/>
         <v>6.3060667798708891E-14</v>
       </c>
       <c r="F53" s="14">
-        <f>F50-F52</f>
+        <f t="shared" si="14"/>
         <v>5.0093262871087063E-13</v>
       </c>
       <c r="G53" s="14">
-        <f>G50-G52</f>
+        <f t="shared" si="14"/>
         <v>-1.0089706847793423E-12</v>
       </c>
       <c r="H53" s="14">
-        <f>H50-H52</f>
+        <f t="shared" si="14"/>
         <v>3.694822225952521E-13</v>
       </c>
       <c r="I53" s="14">
-        <f>I50-I52</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J53" s="14">
-        <f>J50-J52</f>
+        <f t="shared" si="14"/>
         <v>1.0800249583553523E-12</v>
       </c>
     </row>

--- a/Начальное приближение по темп.xlsx
+++ b/Начальное приближение по темп.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA9EA76-F22D-450F-BBAC-D9BFFB651DD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6314DCA1-8D70-44CC-BDA1-9C828791EEC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="240" windowWidth="20865" windowHeight="11520" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="161">
   <si>
     <t>CritT</t>
   </si>
@@ -49668,10 +49668,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52F2061-8160-46CD-A059-42AB15B34130}">
-  <dimension ref="A2:J10"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49803,89 +49803,188 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>-161.52500000000001</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-88.599996948242193</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-42.101995849609402</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-11.7299865722656</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-0.50198974609372704</v>
+      </c>
+      <c r="G9" s="4">
+        <v>27.878015136718801</v>
+      </c>
+      <c r="H9" s="4">
+        <v>36.059014892578098</v>
+      </c>
+      <c r="I9" s="4">
+        <v>68.730004882812494</v>
+      </c>
+      <c r="J9" s="4">
+        <v>98.429010009765605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>77</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>76</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="str">
-        <f>CONCATENATE($A$8,B3,$B$8)</f>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <f>CONCATENATE($A$11,B3,$B$11)</f>
         <v>(-74900,</v>
       </c>
-      <c r="C9" t="str">
-        <f>CONCATENATE(C3,$B$8)</f>
+      <c r="C12" t="str">
+        <f>CONCATENATE(C3,$B$11)</f>
         <v>-84738,</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" ref="D9:I9" si="0">CONCATENATE(D3,$B$8)</f>
+      <c r="D12" t="str">
+        <f t="shared" ref="D12:I12" si="0">CONCATENATE(D3,$B$11)</f>
         <v>-103890,</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>-134590,</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>-126190,</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>-154590,</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>-146490,</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I12" t="str">
         <f t="shared" si="0"/>
         <v>-167290,</v>
       </c>
-      <c r="J9" t="str">
-        <f>CONCATENATE(J3,$C$8)</f>
+      <c r="J12" t="str">
+        <f>CONCATENATE(J3,$C$11)</f>
         <v>-187890);</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="str">
-        <f>CONCATENATE($A$8,B6,$B$8)</f>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f>CONCATENATE($A$11,B6,$B$11)</f>
         <v>(16.0429000854492,</v>
       </c>
-      <c r="C10" t="str">
-        <f>CONCATENATE(C6,$B$8)</f>
+      <c r="C13" t="str">
+        <f>CONCATENATE(C6,$B$11)</f>
         <v>30.0699005126953,</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" ref="D10:I10" si="1">CONCATENATE(D6,$B$8)</f>
+      <c r="D13" t="str">
+        <f t="shared" ref="D13:I13" si="1">CONCATENATE(D6,$B$11)</f>
         <v>44.0970001220703,</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="1"/>
         <v>58.1240005493164,</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F13" t="str">
         <f t="shared" si="1"/>
         <v>58.1240005493164,</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G13" t="str">
         <f t="shared" si="1"/>
         <v>72.1510009765625,</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H13" t="str">
         <f t="shared" si="1"/>
         <v>72.1510009765625,</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I13" t="str">
         <f t="shared" si="1"/>
         <v>86.1779022216797,</v>
       </c>
-      <c r="J10" t="str">
-        <f>CONCATENATE(J6,$C$8)</f>
+      <c r="J13" t="str">
+        <f>CONCATENATE(J6,$C$11)</f>
         <v>100.205001831055);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f>CONCATENATE($A$11,B9,$B$11)</f>
+        <v>(-161.525,</v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE(C9,$B$11)</f>
+        <v>-88.5999969482422,</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14:I14" si="2">CONCATENATE(D9,$B$11)</f>
+        <v>-42.1019958496094,</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>-11.7299865722656,</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>-0.501989746093727,</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>27.8780151367188,</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>36.0590148925781,</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>68.7300048828125,</v>
+      </c>
+      <c r="J14" t="str">
+        <f>CONCATENATE(J9,$C$11)</f>
+        <v>98.4290100097656);</v>
       </c>
     </row>
   </sheetData>
@@ -49897,7 +49996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E8ABAC-0D2A-460B-9FBB-BFD95CE4F24D}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P42" sqref="P42:P52"/>
     </sheetView>
   </sheetViews>
@@ -52959,7 +53058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B64676-A2E6-4B82-AE39-5D262F1985C3}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>

--- a/Начальное приближение по темп.xlsx
+++ b/Начальное приближение по темп.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6314DCA1-8D70-44CC-BDA1-9C828791EEC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Проверка энтальпий" sheetId="11" r:id="rId11"/>
     <sheet name="Проверка профили" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="173">
   <si>
     <t>CritT</t>
   </si>
@@ -543,11 +542,47 @@
   <si>
     <t>Rj</t>
   </si>
+  <si>
+    <t>Баланс</t>
+  </si>
+  <si>
+    <t>Приход</t>
+  </si>
+  <si>
+    <t>Расход</t>
+  </si>
+  <si>
+    <t>Невязка</t>
+  </si>
+  <si>
+    <t>rB</t>
+  </si>
+  <si>
+    <t>rD</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>Vapor</t>
+  </si>
+  <si>
+    <t>UniSim</t>
+  </si>
+  <si>
+    <t>sB</t>
+  </si>
+  <si>
+    <t>sD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -615,7 +650,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +671,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -744,6 +797,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -763,7 +822,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -900,7 +959,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-87B7-4437-B1D8-9822BC74DF63}"/>
             </c:ext>
@@ -914,11 +973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2091658464"/>
-        <c:axId val="2117518656"/>
+        <c:axId val="61574528"/>
+        <c:axId val="61575104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2091658464"/>
+        <c:axId val="61574528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -977,13 +1036,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117518656"/>
+        <c:crossAx val="61575104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117518656"/>
+        <c:axId val="61575104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +1099,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091658464"/>
+        <c:crossAx val="61574528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1054,14 +1113,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1097,7 +1156,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1245,7 +1304,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1380,7 +1439,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1515,7 +1574,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1650,7 +1709,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1785,7 +1844,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1920,7 +1979,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2061,7 +2120,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2202,7 +2261,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2343,7 +2402,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2357,11 +2416,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1680472576"/>
-        <c:axId val="2114594288"/>
+        <c:axId val="146557760"/>
+        <c:axId val="146558336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1680472576"/>
+        <c:axId val="146557760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2418,12 +2477,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2114594288"/>
+        <c:crossAx val="146558336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2114594288"/>
+        <c:axId val="146558336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,7 +2539,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1680472576"/>
+        <c:crossAx val="146557760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2525,14 +2584,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2568,7 +2627,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2713,7 +2772,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0A6E-40F1-B6EF-BC66DFBFC52A}"/>
             </c:ext>
@@ -2842,7 +2901,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0A6E-40F1-B6EF-BC66DFBFC52A}"/>
             </c:ext>
@@ -2856,11 +2915,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="448981792"/>
-        <c:axId val="2122405872"/>
+        <c:axId val="61576832"/>
+        <c:axId val="61577408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="448981792"/>
+        <c:axId val="61576832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2917,13 +2976,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122405872"/>
+        <c:crossAx val="61577408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122405872"/>
+        <c:axId val="61577408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2980,7 +3039,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448981792"/>
+        <c:crossAx val="61576832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3025,14 +3084,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3068,7 +3127,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3174,7 +3233,7 @@
             <c:numRef>
               <c:f>Лист2!$D$161:$D$172</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.99999606178854739</c:v>
@@ -3216,7 +3275,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3309,7 +3368,7 @@
             <c:numRef>
               <c:f>Лист2!$F$161:$F$172</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.9380855625060907E-6</c:v>
@@ -3351,7 +3410,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3444,7 +3503,7 @@
             <c:numRef>
               <c:f>Лист2!$G$161:$G$172</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0123141803303958E-10</c:v>
@@ -3486,7 +3545,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3579,7 +3638,7 @@
             <c:numRef>
               <c:f>Лист2!$H$161:$H$172</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.4658773176560385E-11</c:v>
@@ -3621,7 +3680,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3635,11 +3694,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120560160"/>
-        <c:axId val="2121549600"/>
+        <c:axId val="145883712"/>
+        <c:axId val="145884288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2120560160"/>
+        <c:axId val="145883712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3696,12 +3755,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121549600"/>
+        <c:crossAx val="145884288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121549600"/>
+        <c:axId val="145884288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3759,7 +3818,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120560160"/>
+        <c:crossAx val="145883712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3804,14 +3863,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3847,7 +3906,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4025,7 +4084,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-29C4-4B53-8FBB-0EF90FDC155E}"/>
             </c:ext>
@@ -4039,11 +4098,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446547296"/>
-        <c:axId val="2120350768"/>
+        <c:axId val="145886592"/>
+        <c:axId val="145887168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="446547296"/>
+        <c:axId val="145886592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4100,12 +4159,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120350768"/>
+        <c:crossAx val="145887168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2120350768"/>
+        <c:axId val="145887168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4162,7 +4221,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446547296"/>
+        <c:crossAx val="145886592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4176,14 +4235,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4219,7 +4278,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4356,7 +4415,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-115A-4A6F-873B-035203F4A5F8}"/>
             </c:ext>
@@ -4370,11 +4429,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2091658464"/>
-        <c:axId val="2117518656"/>
+        <c:axId val="145888896"/>
+        <c:axId val="145889472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2091658464"/>
+        <c:axId val="145888896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -4433,13 +4492,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117518656"/>
+        <c:crossAx val="145889472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117518656"/>
+        <c:axId val="145889472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4496,7 +4555,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091658464"/>
+        <c:crossAx val="145888896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4510,14 +4569,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4553,7 +4612,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4698,7 +4757,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5E0F-4AAC-A196-D98AEB11FE60}"/>
             </c:ext>
@@ -4827,7 +4886,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5E0F-4AAC-A196-D98AEB11FE60}"/>
             </c:ext>
@@ -4841,11 +4900,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="448981792"/>
-        <c:axId val="2122405872"/>
+        <c:axId val="145940480"/>
+        <c:axId val="145941056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="448981792"/>
+        <c:axId val="145940480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4902,13 +4961,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122405872"/>
+        <c:crossAx val="145941056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122405872"/>
+        <c:axId val="145941056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4965,7 +5024,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448981792"/>
+        <c:crossAx val="145940480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5010,14 +5069,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5053,7 +5112,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5190,7 +5249,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4E9E-4361-8923-8243C29C8350}"/>
             </c:ext>
@@ -5204,11 +5263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1146632383"/>
-        <c:axId val="1155202527"/>
+        <c:axId val="145943360"/>
+        <c:axId val="145943936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1146632383"/>
+        <c:axId val="145943360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -5267,13 +5326,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1155202527"/>
+        <c:crossAx val="145943936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1155202527"/>
+        <c:axId val="145943936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="270"/>
@@ -5331,7 +5390,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146632383"/>
+        <c:crossAx val="145943360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5345,14 +5404,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5388,7 +5447,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5436,26 +5495,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5592,7 +5631,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -5727,7 +5766,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -5862,7 +5901,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -5997,7 +6036,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6132,7 +6171,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6267,7 +6306,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6408,7 +6447,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6549,7 +6588,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6690,7 +6729,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6704,11 +6743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1146631983"/>
-        <c:axId val="1155200863"/>
+        <c:axId val="145945664"/>
+        <c:axId val="145946240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1146631983"/>
+        <c:axId val="145945664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6765,12 +6804,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1155200863"/>
+        <c:crossAx val="145946240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1155200863"/>
+        <c:axId val="145946240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6827,7 +6866,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146631983"/>
+        <c:crossAx val="145945664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6872,14 +6911,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6915,7 +6954,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6963,26 +7002,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7119,7 +7138,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7254,7 +7273,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7389,7 +7408,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7524,7 +7543,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7659,7 +7678,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7794,7 +7813,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7935,7 +7954,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8076,7 +8095,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8217,7 +8236,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8231,11 +8250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1146631983"/>
-        <c:axId val="1155200863"/>
+        <c:axId val="146554880"/>
+        <c:axId val="146555456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1146631983"/>
+        <c:axId val="146554880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8292,12 +8311,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1155200863"/>
+        <c:crossAx val="146555456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1155200863"/>
+        <c:axId val="146555456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8354,7 +8373,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146631983"/>
+        <c:crossAx val="146554880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8399,14 +8418,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14021,7 +14040,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14057,7 +14076,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14093,7 +14112,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14129,7 +14148,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14170,7 +14189,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14208,7 +14227,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14246,7 +14265,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14282,7 +14301,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14318,7 +14337,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14359,7 +14378,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14423,7 +14442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14456,26 +14475,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14508,23 +14510,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -14700,7 +14685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49667,10 +49652,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52F2061-8160-46CD-A059-42AB15B34130}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:J14"/>
     </sheetView>
   </sheetViews>
@@ -49993,7 +49978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E8ABAC-0D2A-460B-9FBB-BFD95CE4F24D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -53055,16 +53040,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B64676-A2E6-4B82-AE39-5D262F1985C3}">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -53078,19 +53063,64 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
         <v>158</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>159</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>171</v>
+      </c>
+      <c r="R1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -53104,21 +53134,62 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.5999999999999996</v>
+        <v>13.5</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>(B2+C2)/(E2+F2)</f>
-        <v>0.97826086956521752</v>
+        <f>D2+E2-B2</f>
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="I2">
-        <f>H2/(H2+1)*(D2+F3+0)</f>
-        <v>4.5494505494505493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f>(B2+C2)/(F2+G2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <f>I2/(I2+1)*(D2+G3+0)</f>
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="14">
+        <f>L2*B2</f>
+        <v>13.5</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f>($L$2*$D$2+($L$2+1)*$D$13+$Q$14)/($L$2+$K$2+1)</f>
+        <v>11.040000000000001</v>
+      </c>
+      <c r="T2">
+        <f>((K2+1)*$D$2+$L$2*$D$13+$S$14)/($K$2+$L$2+1)</f>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="V2" s="30"/>
+      <c r="W2" s="4">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>13.4982019279072</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>2.6853584055969199E-21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -53131,22 +53202,56 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>4.5999999999999996</v>
-      </c>
       <c r="F3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H13" si="0">(B3+C3)/(E3+F3)</f>
-        <v>0</v>
+        <f>F2+D3-B3</f>
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <f>$C$2+$B$2+$E$2-C3</f>
+        <v>18</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I13" si="1">H3/(H3+1)*(D3+F4+E2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <f>(B3+C3)/(F3+G3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>I3/(I3+1)*(D3+G4+F2)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="14">
+        <f>(D3+O4+N2)/(I3+1)-O3</f>
+        <v>13.5</v>
+      </c>
+      <c r="O3" s="14">
+        <f t="shared" ref="O3:O11" si="0">O4/(I3+1)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f>(P3+$L$2)*D3+($L$2+1)*B3-C3</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>($K$2+1-P3)*D3+($L$2+1)*B3+C3</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="30"/>
+      <c r="W3" s="4">
+        <v>2</v>
+      </c>
+      <c r="X3" s="1">
+        <v>20.800576995992198</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>17.997549685555601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -53159,22 +53264,56 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>4.5999999999999996</v>
-      </c>
       <c r="F4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H4">
+        <f t="shared" ref="F4:F12" si="1">F3+D4-B4</f>
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G13" si="2">$C$2+$B$2+$E$2-C4</f>
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <f>(B4+C4)/(F4+G4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>I4/(I4+1)*(D4+G5+F3)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" s="14">
+        <f t="shared" ref="N4:N12" si="3">(D4+O5+N3)/(I4+1)-O4</f>
+        <v>13.5</v>
+      </c>
+      <c r="O4" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q12" si="4">(P4+$L$2)*D4+($L$2+1)*B4-C4</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S12" si="5">($K$2+1-P4)*D4+($L$2+1)*B4+C4</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="30"/>
+      <c r="W4" s="4">
+        <v>3</v>
+      </c>
+      <c r="X4" s="1">
+        <v>21.198150474979101</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>25.2999247536406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -53187,22 +53326,56 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>4.5999999999999996</v>
-      </c>
       <c r="F5">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <f>(B5+C5)/(F5+G5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>I5/(I5+1)*(D5+G6+F4)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="14">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="O5" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="30"/>
+      <c r="W5" s="4">
+        <v>4</v>
+      </c>
+      <c r="X5" s="1">
+        <v>20.774814507136</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>25.6974982326274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -53215,22 +53388,56 @@
       <c r="D6">
         <v>13.8</v>
       </c>
-      <c r="E6">
-        <v>18.399999999999999</v>
-      </c>
       <c r="F6">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H6">
+        <f>F5+D6-B6</f>
+        <v>22.8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <f>(B6+C6)/(F6+G6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>I6/(I6+1)*(D6+G7+F5)</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="14">
+        <f t="shared" si="3"/>
+        <v>27.3</v>
+      </c>
+      <c r="O6" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>55.2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>13.8</v>
+      </c>
+      <c r="V6" s="30"/>
+      <c r="W6" s="4">
+        <v>5</v>
+      </c>
+      <c r="X6" s="1">
+        <v>19.257355643670401</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>25.274162264784302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -53243,22 +53450,56 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>18.399999999999999</v>
-      </c>
       <c r="F7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>22.8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <f>(B7+C7)/(F7+G7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>I7/(I7+1)*(D7+G8+F6)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="14">
+        <f t="shared" si="3"/>
+        <v>27.3</v>
+      </c>
+      <c r="O7" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="30"/>
+      <c r="W7" s="4">
+        <v>6</v>
+      </c>
+      <c r="X7" s="1">
+        <v>25.873471181250501</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>23.756703401318699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -53271,22 +53512,56 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>18.399999999999999</v>
-      </c>
       <c r="F8">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>22.8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <f>(B8+C8)/(F8+G8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>I8/(I8+1)*(D8+G9+F7)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" s="14">
+        <f t="shared" si="3"/>
+        <v>27.3</v>
+      </c>
+      <c r="O8" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="30"/>
+      <c r="W8" s="4">
+        <v>7</v>
+      </c>
+      <c r="X8" s="1">
+        <v>26.057153260008501</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>16.5726132104901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -53299,22 +53574,56 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>18.399999999999999</v>
-      </c>
       <c r="F9">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>22.8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <f>(B9+C9)/(F9+G9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>I9/(I9+1)*(D9+G10+F8)</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14">
+        <f t="shared" si="3"/>
+        <v>27.3</v>
+      </c>
+      <c r="O9" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="30"/>
+      <c r="W9" s="4">
+        <v>8</v>
+      </c>
+      <c r="X9" s="1">
+        <v>26.092422771373901</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>16.756295289248101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -53327,22 +53636,56 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>18.399999999999999</v>
-      </c>
       <c r="F10">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>22.8</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <f>(B10+C10)/(F10+G10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>I10/(I10+1)*(D10+G11+F9)</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" s="14">
+        <f t="shared" si="3"/>
+        <v>27.3</v>
+      </c>
+      <c r="O10" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="30"/>
+      <c r="W10" s="4">
+        <v>9</v>
+      </c>
+      <c r="X10" s="1">
+        <v>26.214133520568399</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>16.7915648006135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -53355,22 +53698,56 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>18.399999999999999</v>
-      </c>
       <c r="F11">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>22.8</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <f>(B11+C11)/(F11+G11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>I11/(I11+1)*(D11+G12+F10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" s="14">
+        <f t="shared" si="3"/>
+        <v>27.3</v>
+      </c>
+      <c r="O11" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="30"/>
+      <c r="W11" s="4">
+        <v>10</v>
+      </c>
+      <c r="X11" s="1">
+        <v>26.203097608745601</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>16.913275549807999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -53383,22 +53760,56 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>18.399999999999999</v>
-      </c>
       <c r="F12">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>22.8</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <f>(B12+C12)/(F12+G12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>I12/(I12+1)*(D12+G13+F11)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" s="14">
+        <f t="shared" si="3"/>
+        <v>27.3</v>
+      </c>
+      <c r="O12" s="14">
+        <f>O13/(I12+1)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="30"/>
+      <c r="W12" s="4">
+        <v>11</v>
+      </c>
+      <c r="X12" s="1">
+        <v>25.517547548452399</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>16.9022396379852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -53411,28 +53822,678 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>1.0108695652173914</v>
+        <f>B13</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
-        <v>9.2497297297297276</v>
-      </c>
+        <f>(B13+C13)/(F13+G13)</f>
+        <v>0.34065934065934067</v>
+      </c>
+      <c r="J13">
+        <f>I13/(I13+1)*(D13+G14+F12)</f>
+        <v>5.7934426229508196</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13" s="14">
+        <f>B13</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O13" s="14">
+        <f>K2*N13</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="V13" s="30"/>
+      <c r="W13" s="4">
+        <v>12</v>
+      </c>
+      <c r="X13" s="1">
+        <v>9.3008579707604007</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>16.216689577692001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <f>SUM(Q3:Q12)</f>
+        <v>55.2</v>
+      </c>
+      <c r="S14">
+        <f>SUM(S3:S12)</f>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <f>D2+G3</f>
+        <v>18</v>
+      </c>
+      <c r="C18" s="4">
+        <f>E2+B2</f>
+        <v>18</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <f>D2+O3</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H18" s="1">
+        <f>N2+B2+C2+O2</f>
+        <v>18</v>
+      </c>
+      <c r="I18" s="4">
+        <f>G18-H18</f>
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <f>D2+Y3</f>
+        <v>17.997549685555601</v>
+      </c>
+      <c r="M18" s="1">
+        <f>X2+B2+C2</f>
+        <v>17.9982019279072</v>
+      </c>
+      <c r="N18" s="1">
+        <f>L18-M18</f>
+        <v>-6.5224235159888622E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4">
+        <f>D3+$E$2+G4</f>
+        <v>31.5</v>
+      </c>
+      <c r="C19" s="4">
+        <f>B3+C3+G3+F3</f>
+        <v>27</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:D29" si="6">B19-C19</f>
+        <v>4.5</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <f>D3+N2+O4</f>
+        <v>22.8</v>
+      </c>
+      <c r="H19" s="1">
+        <f>B3+C3+O3+N3</f>
+        <v>22.8</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" ref="I19:I29" si="7">G19-H19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <f>D2+X2+Y4</f>
+        <v>38.798126681547799</v>
+      </c>
+      <c r="M19" s="1">
+        <f>B3+C3+Y3+X3</f>
+        <v>38.798126681547799</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" ref="N19:N29" si="8">L19-M19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4">
+        <f>D4+F3+G5</f>
+        <v>27</v>
+      </c>
+      <c r="C20" s="4">
+        <f>B4+C4+F4+G4</f>
+        <v>27</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <f>D4+N3+O5</f>
+        <v>22.8</v>
+      </c>
+      <c r="H20" s="4">
+        <f>B4+C4+N4+O4</f>
+        <v>22.8</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" ref="L20:L28" si="9">D3+X3+Y5</f>
+        <v>46.498075228619598</v>
+      </c>
+      <c r="M20" s="1">
+        <f>B4+C4+X4+Y4</f>
+        <v>46.498075228619697</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="8"/>
+        <v>-9.9475983006414026E-14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4">
+        <f>D5+F4+G6</f>
+        <v>27</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ref="C21:C28" si="10">B5+C5+F5+G5</f>
+        <v>27</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4">
+        <f>D5+N4+O6</f>
+        <v>22.8</v>
+      </c>
+      <c r="H21" s="4">
+        <f>B5+C5+N5+O5</f>
+        <v>22.8</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="9"/>
+        <v>46.472312739763403</v>
+      </c>
+      <c r="M21" s="1">
+        <f>B5+C5+X5+Y5</f>
+        <v>46.472312739763396</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4">
+        <f>D6+F5+G7</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="10"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <f>D6+N5+O7</f>
+        <v>36.6</v>
+      </c>
+      <c r="H22" s="4">
+        <f>B6+C6+N6+O6</f>
+        <v>36.6</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="9"/>
+        <v>44.531517908454703</v>
+      </c>
+      <c r="M22" s="1">
+        <f>B6+C6+X6+Y6</f>
+        <v>44.531517908454703</v>
+      </c>
+      <c r="N22" s="1">
+        <f>L22-M22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" ref="B21:B28" si="11">D7+F6+G8</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="10"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4">
+        <f>D7+N6+O8</f>
+        <v>36.6</v>
+      </c>
+      <c r="H23" s="4">
+        <f>B7+C7+N7+O7</f>
+        <v>36.6</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>6</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="9"/>
+        <v>49.629968854160509</v>
+      </c>
+      <c r="M23" s="1">
+        <f>B7+C7+X7+Y7</f>
+        <v>49.630174582569197</v>
+      </c>
+      <c r="N23" s="1">
+        <f>L23-M23</f>
+        <v>-2.0572840868737785E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="11"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="10"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4">
+        <f>D8+N7+O9</f>
+        <v>36.6</v>
+      </c>
+      <c r="H24" s="4">
+        <f>B8+C8+N8+O8</f>
+        <v>36.6</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>7</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="9"/>
+        <v>42.629766470498602</v>
+      </c>
+      <c r="M24" s="1">
+        <f>B8+C8+X8+Y8</f>
+        <v>42.629766470498602</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="11"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="10"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>8</v>
+      </c>
+      <c r="G25" s="4">
+        <f>D9+N8+O10</f>
+        <v>36.6</v>
+      </c>
+      <c r="H25" s="4">
+        <f>B9+C9+N9+O9</f>
+        <v>36.6</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>8</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="9"/>
+        <v>42.848718060622005</v>
+      </c>
+      <c r="M25" s="1">
+        <f>B9+C9+X9+Y9</f>
+        <v>42.848718060622005</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="11"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="10"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>9</v>
+      </c>
+      <c r="G26" s="4">
+        <f>D10+N9+O11</f>
+        <v>36.6</v>
+      </c>
+      <c r="H26" s="4">
+        <f>B10+C10+N10+O10</f>
+        <v>36.6</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>9</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="9"/>
+        <v>43.005698321181896</v>
+      </c>
+      <c r="M26" s="1">
+        <f>B10+C10+X10+Y10</f>
+        <v>43.005698321181896</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>10</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="11"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="10"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>10</v>
+      </c>
+      <c r="G27" s="4">
+        <f>D11+N10+O12</f>
+        <v>36.6</v>
+      </c>
+      <c r="H27" s="4">
+        <f>B11+C11+N11+O11</f>
+        <v>36.6</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>10</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="9"/>
+        <v>43.1163731585536</v>
+      </c>
+      <c r="M27" s="1">
+        <f>B11+C11+X11+Y11</f>
+        <v>43.1163731585536</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="11"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="10"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4">
+        <f>D12+N11+O13</f>
+        <v>36.6</v>
+      </c>
+      <c r="H28" s="4">
+        <f>B12+C12+N12+O12</f>
+        <v>36.6</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>11</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="9"/>
+        <v>42.419787186437603</v>
+      </c>
+      <c r="M28" s="1">
+        <f>B12+C12+X12+Y12</f>
+        <v>42.419787186437603</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4">
+        <f>D13+F12</f>
+        <v>22.8</v>
+      </c>
+      <c r="C29" s="4">
+        <f>B13+C13+G13</f>
+        <v>27.3</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.5</v>
+      </c>
+      <c r="F29" s="4">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1">
+        <f>D13+N12</f>
+        <v>27.3</v>
+      </c>
+      <c r="H29" s="1">
+        <f>B13+C13+O13</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K29" s="4">
+        <v>12</v>
+      </c>
+      <c r="L29" s="1">
+        <f>D13+X12</f>
+        <v>25.517547548452399</v>
+      </c>
+      <c r="M29" s="1">
+        <f>B13+C13+Y13</f>
+        <v>25.516689577692002</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="8"/>
+        <v>8.5797076039639819E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J30" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="V1:V13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ217"/>
   <sheetViews>
     <sheetView topLeftCell="A160" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -62077,7 +63138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53891847-565C-426E-9113-71B784AA110A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -71220,7 +72281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -72369,7 +73430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2439C7-B763-4F9A-957C-8EF6B10B366E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -72684,7 +73745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD17241-631E-4A23-9204-C54A0C89680A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -73245,7 +74306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48C32BE-A347-4D47-9E44-36FD39B6CDF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -73642,11 +74703,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376A5037-0751-43D4-BCFC-EA4F6E9E3D4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74800,7 +75861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2468C269-D661-4A1D-BD70-092BDCB037EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Начальное приближение по темп.xlsx
+++ b/Начальное приближение по темп.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9265FF2-943C-4A22-AC5D-CAAA0BC32A34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Проверка энтальпий" sheetId="11" r:id="rId11"/>
     <sheet name="Проверка профили" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="197">
   <si>
     <t>CritT</t>
   </si>
@@ -578,11 +579,83 @@
   <si>
     <t>sD</t>
   </si>
+  <si>
+    <t>Tboil vs. Pressure</t>
+  </si>
+  <si>
+    <t>Tbp, K</t>
+  </si>
+  <si>
+    <t>P, Pa</t>
+  </si>
+  <si>
+    <t>Метод Риделя (vs Pressure)</t>
+  </si>
+  <si>
+    <t>H_l</t>
+  </si>
+  <si>
+    <t>H_v</t>
+  </si>
+  <si>
+    <t>Hf_l</t>
+  </si>
+  <si>
+    <t>Hf_v</t>
+  </si>
+  <si>
+    <t>ej</t>
+  </si>
+  <si>
+    <t>Heat Balance</t>
+  </si>
+  <si>
+    <t>Qc</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Qr</t>
+  </si>
+  <si>
+    <t>Qj</t>
+  </si>
+  <si>
+    <t>koef_H_l</t>
+  </si>
+  <si>
+    <t>Integral</t>
+  </si>
+  <si>
+    <t>Cp, cal / mole</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>kJ / kmole</t>
+  </si>
+  <si>
+    <t>Mr, g/mole</t>
+  </si>
+  <si>
+    <t>dH, kJ/kmole</t>
+  </si>
+  <si>
+    <t>dH298</t>
+  </si>
+  <si>
+    <t>Integral Cp, kJ/kmole</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -769,7 +842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -803,6 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -822,7 +896,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -959,7 +1033,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-87B7-4437-B1D8-9822BC74DF63}"/>
             </c:ext>
@@ -1113,14 +1187,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1156,7 +1230,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1304,7 +1378,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1439,7 +1513,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1574,7 +1648,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1709,7 +1783,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1844,7 +1918,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1979,7 +2053,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2120,7 +2194,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2261,7 +2335,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2402,7 +2476,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2584,14 +2658,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2627,7 +2701,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2772,7 +2846,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0A6E-40F1-B6EF-BC66DFBFC52A}"/>
             </c:ext>
@@ -2901,7 +2975,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0A6E-40F1-B6EF-BC66DFBFC52A}"/>
             </c:ext>
@@ -3084,14 +3158,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3127,7 +3201,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3233,7 +3307,7 @@
             <c:numRef>
               <c:f>Лист2!$D$161:$D$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.99999606178854739</c:v>
@@ -3275,7 +3349,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3368,7 +3442,7 @@
             <c:numRef>
               <c:f>Лист2!$F$161:$F$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.9380855625060907E-6</c:v>
@@ -3410,7 +3484,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3503,7 +3577,7 @@
             <c:numRef>
               <c:f>Лист2!$G$161:$G$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0123141803303958E-10</c:v>
@@ -3545,7 +3619,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3638,7 +3712,7 @@
             <c:numRef>
               <c:f>Лист2!$H$161:$H$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.4658773176560385E-11</c:v>
@@ -3680,7 +3754,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3863,14 +3937,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3906,7 +3980,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4084,7 +4158,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-29C4-4B53-8FBB-0EF90FDC155E}"/>
             </c:ext>
@@ -4235,14 +4309,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4278,7 +4352,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4415,7 +4489,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-115A-4A6F-873B-035203F4A5F8}"/>
             </c:ext>
@@ -4569,14 +4643,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4612,7 +4686,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4757,7 +4831,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5E0F-4AAC-A196-D98AEB11FE60}"/>
             </c:ext>
@@ -4886,7 +4960,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5E0F-4AAC-A196-D98AEB11FE60}"/>
             </c:ext>
@@ -5069,14 +5143,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5112,7 +5186,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5249,7 +5323,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4E9E-4361-8923-8243C29C8350}"/>
             </c:ext>
@@ -5404,14 +5478,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5447,7 +5521,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5495,6 +5569,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5631,7 +5725,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -5766,7 +5860,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -5901,7 +5995,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6036,7 +6130,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6171,7 +6265,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6306,7 +6400,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6447,7 +6541,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6588,7 +6682,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6729,7 +6823,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6911,14 +7005,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6954,7 +7048,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7002,6 +7096,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7138,7 +7252,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7273,7 +7387,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7408,7 +7522,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7543,7 +7657,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7678,7 +7792,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7813,7 +7927,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7954,7 +8068,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8095,7 +8209,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8236,7 +8350,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8418,14 +8532,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14040,7 +14154,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14076,7 +14190,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14112,7 +14226,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14148,7 +14262,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14189,7 +14303,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14227,7 +14341,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14265,7 +14379,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14301,7 +14415,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14337,7 +14451,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14378,7 +14492,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14442,7 +14556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14475,9 +14589,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14510,6 +14641,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -14685,7 +14833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49652,11 +49800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:J14"/>
+      <selection activeCell="B2" sqref="B2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49978,10 +50126,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P42" sqref="P42:P52"/>
     </sheetView>
   </sheetViews>
@@ -53040,16 +53188,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -53107,20 +53261,38 @@
       <c r="T1" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="U1" t="s">
+        <v>187</v>
+      </c>
+      <c r="V1" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB1" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -53137,22 +53309,21 @@
         <v>13.5</v>
       </c>
       <c r="F2">
-        <f>D2+E2-B2</f>
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="I2">
         <f>(B2+C2)/(F2+G2)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J2">
         <f>I2/(I2+1)*(D2+G3+0)</f>
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
+        <v>4.5</v>
+      </c>
+      <c r="K2" s="17">
+        <v>1.9354838709677418</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -53172,24 +53343,43 @@
       </c>
       <c r="R2">
         <f>($L$2*$D$2+($L$2+1)*$D$13+$Q$14)/($L$2+$K$2+1)</f>
-        <v>11.040000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="T2">
         <f>((K2+1)*$D$2+$L$2*$D$13+$S$14)/($K$2+$L$2+1)</f>
-        <v>2.7600000000000002</v>
-      </c>
-      <c r="V2" s="30"/>
-      <c r="W2" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>$N$32*O33</f>
+        <v>-426718.55465678498</v>
+      </c>
+      <c r="W2">
+        <v>-80393.924284719804</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="4">
         <v>1</v>
       </c>
-      <c r="X2" s="1">
+      <c r="AD2" s="1">
         <v>13.4982019279072</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AE2" s="1">
         <v>2.6853584055969199E-21</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -53204,18 +53394,18 @@
       </c>
       <c r="F3">
         <f>F2+D3-B3</f>
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="G3">
         <f>$C$2+$B$2+$E$2-C3</f>
         <v>18</v>
       </c>
       <c r="I3">
-        <f>(B3+C3)/(F3+G3)</f>
+        <f t="shared" ref="I3:I13" si="0">(B3+C3)/(F3+G3)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>I3/(I3+1)*(D3+G4+F2)</f>
+        <f t="shared" ref="J3:J13" si="1">I3/(I3+1)*(D3+G4+F2)</f>
         <v>0</v>
       </c>
       <c r="M3">
@@ -53226,8 +53416,8 @@
         <v>13.5</v>
       </c>
       <c r="O3" s="14">
-        <f t="shared" ref="O3:O11" si="0">O4/(I3+1)</f>
-        <v>9.3000000000000007</v>
+        <f t="shared" ref="O3:O11" si="2">O4/(I3+1)</f>
+        <v>18</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -53240,18 +53430,37 @@
         <f>($K$2+1-P3)*D3+($L$2+1)*B3+C3</f>
         <v>0</v>
       </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="4">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V13" si="3">$N$32*O34</f>
+        <v>-151903.04926292301</v>
+      </c>
+      <c r="W3">
+        <v>-117212.229408257</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="4">
         <v>2</v>
       </c>
-      <c r="X3" s="1">
+      <c r="AD3" s="1">
         <v>20.800576995992198</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="AE3" s="1">
         <v>17.997549685555601</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -53265,55 +53474,74 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F12" si="1">F3+D4-B4</f>
-        <v>9</v>
+        <f t="shared" ref="F4:F12" si="4">F3+D4-B4</f>
+        <v>13.5</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G13" si="2">$C$2+$B$2+$E$2-C4</f>
+        <f>$C$2+$B$2+$E$2-C4</f>
         <v>18</v>
       </c>
       <c r="I4">
-        <f>(B4+C4)/(F4+G4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>I4/(I4+1)*(D4+G5+F3)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:N12" si="3">(D4+O5+N3)/(I4+1)-O4</f>
+        <f t="shared" ref="N4:N11" si="5">(D4+O5+N3)/(I4+1)-O4</f>
         <v>13.5</v>
       </c>
       <c r="O4" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q12" si="4">(P4+$L$2)*D4+($L$2+1)*B4-C4</f>
+        <f t="shared" ref="Q4:Q12" si="6">(P4+$L$2)*D4+($L$2+1)*B4-C4</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S12" si="5">($K$2+1-P4)*D4+($L$2+1)*B4+C4</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="30"/>
-      <c r="W4" s="4">
+        <f t="shared" ref="S4:S12" si="7">($K$2+1-P4)*D4+($L$2+1)*B4+C4</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="3"/>
+        <v>-142046.057217397</v>
+      </c>
+      <c r="W4">
+        <v>-126583.937339793</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="4">
         <v>3</v>
       </c>
-      <c r="X4" s="1">
+      <c r="AD4" s="1">
         <v>21.198150474979101</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AE4" s="1">
         <v>25.2999247536406</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -53327,55 +53555,74 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G13" si="8">$C$2+$B$2+$E$2-C5</f>
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="14">
+        <f>(D5+O6+N4)/(I5+1)-O5</f>
+        <v>13.5</v>
+      </c>
+      <c r="O5" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I5">
-        <f>(B5+C5)/(F5+G5)</f>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>I5/(I5+1)*(D5+G6+F4)</f>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5" s="14">
-        <f t="shared" si="3"/>
-        <v>13.5</v>
-      </c>
-      <c r="O5" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="30"/>
-      <c r="W5" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="3"/>
+        <v>-174396.57018223699</v>
+      </c>
+      <c r="W5">
+        <v>-129569.65281685301</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="4">
         <v>4</v>
       </c>
-      <c r="X5" s="1">
+      <c r="AD5" s="1">
         <v>20.774814507136</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AE5" s="1">
         <v>25.6974982326274</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -53390,54 +53637,73 @@
       </c>
       <c r="F6">
         <f>F5+D6-B6</f>
-        <v>22.8</v>
+        <v>27.3</v>
       </c>
       <c r="G6">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="14">
+        <f>(D6+O7+N5)/(I6+1)-O6</f>
+        <v>27.299999999999997</v>
+      </c>
+      <c r="O6" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I6">
-        <f>(B6+C6)/(F6+G6)</f>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>I6/(I6+1)*(D6+G7+F5)</f>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6" s="14">
-        <f t="shared" si="3"/>
-        <v>27.3</v>
-      </c>
-      <c r="O6" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>55.2</v>
       </c>
       <c r="S6">
-        <f t="shared" si="5"/>
-        <v>13.8</v>
-      </c>
-      <c r="V6" s="30"/>
-      <c r="W6" s="4">
+        <f t="shared" si="7"/>
+        <v>26.70967741935484</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="3"/>
+        <v>-180095.61847186901</v>
+      </c>
+      <c r="W6">
+        <v>-133313.79523258199</v>
+      </c>
+      <c r="X6">
+        <v>-204729.639128804</v>
+      </c>
+      <c r="Y6">
+        <v>-128586.68658062301</v>
+      </c>
+      <c r="Z6">
+        <v>0.42134857177734403</v>
+      </c>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="4">
         <v>5</v>
       </c>
-      <c r="X6" s="1">
+      <c r="AD6" s="1">
         <v>19.257355643670401</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AE6" s="1">
         <v>25.274162264784302</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -53451,55 +53717,74 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <f>F6+D7-B7</f>
+        <v>27.3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="1"/>
-        <v>22.8</v>
-      </c>
-      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="14">
+        <f t="shared" si="5"/>
+        <v>27.299999999999997</v>
+      </c>
+      <c r="O7" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I7">
-        <f>(B7+C7)/(F7+G7)</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>I7/(I7+1)*(D7+G8+F6)</f>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
-      <c r="N7" s="14">
-        <f t="shared" si="3"/>
-        <v>27.3</v>
-      </c>
-      <c r="O7" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="30"/>
-      <c r="W7" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>-124860.05035202</v>
+      </c>
+      <c r="W7">
+        <v>-141277.38461197601</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="4">
         <v>6</v>
       </c>
-      <c r="X7" s="1">
+      <c r="AD7" s="1">
         <v>25.873471181250501</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AE7" s="1">
         <v>23.756703401318699</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -53513,55 +53798,74 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <f t="shared" si="4"/>
+        <v>27.3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="1"/>
-        <v>22.8</v>
-      </c>
-      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" s="14">
+        <f t="shared" si="5"/>
+        <v>27.299999999999997</v>
+      </c>
+      <c r="O8" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I8">
-        <f>(B8+C8)/(F8+G8)</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>I8/(I8+1)*(D8+G9+F7)</f>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8" s="14">
-        <f t="shared" si="3"/>
-        <v>27.3</v>
-      </c>
-      <c r="O8" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="30"/>
-      <c r="W8" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>-187560.92594549301</v>
+      </c>
+      <c r="W8">
+        <v>-144743.49106657901</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="4">
         <v>7</v>
       </c>
-      <c r="X8" s="1">
+      <c r="AD8" s="1">
         <v>26.057153260008501</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AE8" s="1">
         <v>16.5726132104901</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -53575,55 +53879,74 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <f t="shared" si="4"/>
+        <v>27.3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="1"/>
-        <v>22.8</v>
-      </c>
-      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14">
+        <f t="shared" si="5"/>
+        <v>27.299999999999997</v>
+      </c>
+      <c r="O9" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I9">
-        <f>(B9+C9)/(F9+G9)</f>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f>I9/(I9+1)*(D9+G10+F8)</f>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>8</v>
-      </c>
-      <c r="N9" s="14">
-        <f t="shared" si="3"/>
-        <v>27.3</v>
-      </c>
-      <c r="O9" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="30"/>
-      <c r="W9" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="3"/>
+        <v>-176105.92935862599</v>
+      </c>
+      <c r="W9">
+        <v>-146562.49602046399</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="4">
         <v>8</v>
       </c>
-      <c r="X9" s="1">
+      <c r="AD9" s="1">
         <v>26.092422771373901</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AE9" s="1">
         <v>16.756295289248101</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -53637,55 +53960,74 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <f t="shared" si="4"/>
+        <v>27.3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="1"/>
-        <v>22.8</v>
-      </c>
-      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" s="14">
+        <f>(D10+O11+N9)/(I10+1)-O10</f>
+        <v>27.299999999999997</v>
+      </c>
+      <c r="O10" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I10">
-        <f>(B10+C10)/(F10+G10)</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>I10/(I10+1)*(D10+G11+F9)</f>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>9</v>
-      </c>
-      <c r="N10" s="14">
-        <f t="shared" si="3"/>
-        <v>27.3</v>
-      </c>
-      <c r="O10" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="30"/>
-      <c r="W10" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="3"/>
+        <v>112909.518763106</v>
+      </c>
+      <c r="W10">
+        <v>-147421.37476595899</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="4">
         <v>9</v>
       </c>
-      <c r="X10" s="1">
+      <c r="AD10" s="1">
         <v>26.214133520568399</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AE10" s="1">
         <v>16.7915648006135</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -53699,55 +54041,74 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <f t="shared" si="4"/>
+        <v>27.3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="1"/>
-        <v>22.8</v>
-      </c>
-      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" s="14">
+        <f t="shared" si="5"/>
+        <v>27.299999999999997</v>
+      </c>
+      <c r="O11" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I11">
-        <f>(B11+C11)/(F11+G11)</f>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f>I11/(I11+1)*(D11+G12+F10)</f>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>10</v>
-      </c>
-      <c r="N11" s="14">
-        <f t="shared" si="3"/>
-        <v>27.3</v>
-      </c>
-      <c r="O11" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="30"/>
-      <c r="W11" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>-201321.171371234</v>
+      </c>
+      <c r="W11">
+        <v>-147918.920130657</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="4">
         <v>10</v>
       </c>
-      <c r="X11" s="1">
+      <c r="AD11" s="1">
         <v>26.203097608745601</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AE11" s="1">
         <v>16.913275549807999</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -53761,55 +54122,74 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <f t="shared" si="4"/>
+        <v>27.3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="1"/>
-        <v>22.8</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I12">
-        <f>(B12+C12)/(F12+G12)</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>I12/(I12+1)*(D12+G13+F11)</f>
         <v>0</v>
       </c>
       <c r="M12">
         <v>11</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" si="3"/>
-        <v>27.3</v>
+        <f>(D12+O13+N11)/(I12+1)-O12</f>
+        <v>27.299999999999997</v>
       </c>
       <c r="O12" s="14">
         <f>O13/(I12+1)</f>
-        <v>9.3000000000000007</v>
+        <v>18</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="30"/>
-      <c r="W12" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>-195151.325047191</v>
+      </c>
+      <c r="W12">
+        <v>-148547.87614082301</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="4">
         <v>11</v>
       </c>
-      <c r="X12" s="1">
+      <c r="AD12" s="1">
         <v>25.517547548452399</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AE12" s="1">
         <v>16.9022396379852</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -53827,16 +54207,16 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I13">
-        <f>(B13+C13)/(F13+G13)</f>
+        <f t="shared" si="0"/>
         <v>0.34065934065934067</v>
       </c>
       <c r="J13">
-        <f>I13/(I13+1)*(D13+G14+F12)</f>
-        <v>5.7934426229508196</v>
+        <f t="shared" si="1"/>
+        <v>6.9368852459016397</v>
       </c>
       <c r="M13">
         <v>12</v>
@@ -53847,33 +54227,52 @@
       </c>
       <c r="O13" s="14">
         <f>K2*N13</f>
-        <v>9.3000000000000007</v>
+        <v>18</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="W13" s="4">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="3"/>
+        <v>-196738.49100297401</v>
+      </c>
+      <c r="W13">
+        <v>-150008.51962527301</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="4">
         <v>12</v>
       </c>
-      <c r="X13" s="1">
+      <c r="AD13" s="1">
         <v>9.3008579707604007</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AE13" s="1">
         <v>16.216689577692001</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q14">
         <f>SUM(Q3:Q12)</f>
         <v>55.2</v>
       </c>
       <c r="S14">
         <f>SUM(S3:S12)</f>
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>26.70967741935484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -53937,25 +54336,25 @@
       </c>
       <c r="G18" s="1">
         <f>D2+O3</f>
-        <v>9.3000000000000007</v>
+        <v>18</v>
       </c>
       <c r="H18" s="1">
         <f>N2+B2+C2+O2</f>
         <v>18</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="1">
         <f>G18-H18</f>
-        <v>-8.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <f>D2+Y3</f>
+        <f>D2+AE3</f>
         <v>17.997549685555601</v>
       </c>
       <c r="M18" s="1">
-        <f>X2+B2+C2</f>
+        <f>AD2+B2+C2</f>
         <v>17.9982019279072</v>
       </c>
       <c r="N18" s="1">
@@ -53973,40 +54372,40 @@
       </c>
       <c r="C19" s="4">
         <f>B3+C3+G3+F3</f>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:D29" si="6">B19-C19</f>
-        <v>4.5</v>
+        <f t="shared" ref="D19:D29" si="9">B19-C19</f>
+        <v>0</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="G19" s="1">
         <f>D3+N2+O4</f>
-        <v>22.8</v>
+        <v>31.5</v>
       </c>
       <c r="H19" s="1">
         <f>B3+C3+O3+N3</f>
-        <v>22.8</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" ref="I19:I29" si="7">G19-H19</f>
+        <v>31.5</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" ref="I19:I29" si="10">G19-H19</f>
         <v>0</v>
       </c>
       <c r="K19" s="4">
         <v>2</v>
       </c>
       <c r="L19" s="1">
-        <f>D2+X2+Y4</f>
+        <f>D2+AD2+AE4</f>
         <v>38.798126681547799</v>
       </c>
       <c r="M19" s="1">
-        <f>B3+C3+Y3+X3</f>
+        <f>B3+C3+AE3+AD3</f>
         <v>38.798126681547799</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" ref="N19:N29" si="8">L19-M19</f>
+        <f t="shared" ref="N19:N29" si="11">L19-M19</f>
         <v>0</v>
       </c>
     </row>
@@ -54016,44 +54415,44 @@
       </c>
       <c r="B20" s="4">
         <f>D4+F3+G5</f>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="C20" s="4">
         <f>B4+C4+F4+G4</f>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F20" s="4">
         <v>3</v>
       </c>
       <c r="G20" s="1">
-        <f>D4+N3+O5</f>
-        <v>22.8</v>
+        <f t="shared" ref="G20:G28" si="12">D4+N3+O5</f>
+        <v>31.5</v>
       </c>
       <c r="H20" s="4">
-        <f>B4+C4+N4+O4</f>
-        <v>22.8</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H20:H28" si="13">B4+C4+N4+O4</f>
+        <v>31.5</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K20" s="4">
         <v>3</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" ref="L20:L28" si="9">D3+X3+Y5</f>
+        <f t="shared" ref="L20:L28" si="14">D3+AD3+AE5</f>
         <v>46.498075228619598</v>
       </c>
       <c r="M20" s="1">
-        <f>B4+C4+X4+Y4</f>
+        <f t="shared" ref="M20:M28" si="15">B4+C4+AD4+AE4</f>
         <v>46.498075228619697</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-9.9475983006414026E-14</v>
       </c>
     </row>
@@ -54063,44 +54462,44 @@
       </c>
       <c r="B21" s="4">
         <f>D5+F4+G6</f>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21:C28" si="10">B5+C5+F5+G5</f>
-        <v>27</v>
+        <f t="shared" ref="C21:C28" si="16">B5+C5+F5+G5</f>
+        <v>31.5</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F21" s="4">
         <v>4</v>
       </c>
       <c r="G21" s="4">
-        <f>D5+N4+O6</f>
-        <v>22.8</v>
+        <f t="shared" si="12"/>
+        <v>31.5</v>
       </c>
       <c r="H21" s="4">
-        <f>B5+C5+N5+O5</f>
-        <v>22.8</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>31.5</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K21" s="4">
         <v>4</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>46.472312739763403</v>
       </c>
       <c r="M21" s="1">
-        <f>B5+C5+X5+Y5</f>
+        <f t="shared" si="15"/>
         <v>46.472312739763396</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54110,40 +54509,40 @@
       </c>
       <c r="B22" s="4">
         <f>D6+F5+G7</f>
-        <v>40.799999999999997</v>
+        <v>45.3</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="10"/>
-        <v>40.799999999999997</v>
+        <f t="shared" si="16"/>
+        <v>45.3</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F22" s="4">
         <v>5</v>
       </c>
       <c r="G22" s="4">
-        <f>D6+N5+O7</f>
-        <v>36.6</v>
+        <f t="shared" si="12"/>
+        <v>45.3</v>
       </c>
       <c r="H22" s="4">
-        <f>B6+C6+N6+O6</f>
-        <v>36.6</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K22" s="4">
         <v>5</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>44.531517908454703</v>
       </c>
       <c r="M22" s="1">
-        <f>B6+C6+X6+Y6</f>
+        <f t="shared" si="15"/>
         <v>44.531517908454703</v>
       </c>
       <c r="N22" s="1">
@@ -54156,41 +54555,41 @@
         <v>6</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ref="B21:B28" si="11">D7+F6+G8</f>
-        <v>40.799999999999997</v>
+        <f t="shared" ref="B23:B28" si="17">D7+F6+G8</f>
+        <v>45.3</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="10"/>
-        <v>40.799999999999997</v>
+        <f t="shared" si="16"/>
+        <v>45.3</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F23" s="4">
         <v>6</v>
       </c>
       <c r="G23" s="4">
-        <f>D7+N6+O8</f>
-        <v>36.6</v>
+        <f t="shared" si="12"/>
+        <v>45.3</v>
       </c>
       <c r="H23" s="4">
-        <f>B7+C7+N7+O7</f>
-        <v>36.6</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K23" s="4">
         <v>6</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>49.629968854160509</v>
       </c>
       <c r="M23" s="1">
-        <f>B7+C7+X7+Y7</f>
+        <f t="shared" si="15"/>
         <v>49.630174582569197</v>
       </c>
       <c r="N23" s="1">
@@ -54203,45 +54602,45 @@
         <v>7</v>
       </c>
       <c r="B24" s="4">
-        <f t="shared" si="11"/>
-        <v>40.799999999999997</v>
+        <f t="shared" si="17"/>
+        <v>45.3</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="10"/>
-        <v>40.799999999999997</v>
+        <f t="shared" si="16"/>
+        <v>45.3</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F24" s="4">
         <v>7</v>
       </c>
       <c r="G24" s="4">
-        <f>D8+N7+O9</f>
-        <v>36.6</v>
+        <f t="shared" si="12"/>
+        <v>45.3</v>
       </c>
       <c r="H24" s="4">
-        <f>B8+C8+N8+O8</f>
-        <v>36.6</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K24" s="4">
         <v>7</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>42.629766470498602</v>
       </c>
       <c r="M24" s="1">
-        <f>B8+C8+X8+Y8</f>
+        <f t="shared" si="15"/>
         <v>42.629766470498602</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54250,45 +54649,45 @@
         <v>8</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" si="11"/>
-        <v>40.799999999999997</v>
+        <f t="shared" si="17"/>
+        <v>45.3</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="10"/>
-        <v>40.799999999999997</v>
+        <f t="shared" si="16"/>
+        <v>45.3</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F25" s="4">
         <v>8</v>
       </c>
       <c r="G25" s="4">
-        <f>D9+N8+O10</f>
-        <v>36.6</v>
+        <f t="shared" si="12"/>
+        <v>45.3</v>
       </c>
       <c r="H25" s="4">
-        <f>B9+C9+N9+O9</f>
-        <v>36.6</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K25" s="4">
         <v>8</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>42.848718060622005</v>
       </c>
       <c r="M25" s="1">
-        <f>B9+C9+X9+Y9</f>
+        <f t="shared" si="15"/>
         <v>42.848718060622005</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54297,45 +54696,45 @@
         <v>9</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" si="11"/>
-        <v>40.799999999999997</v>
+        <f t="shared" si="17"/>
+        <v>45.3</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="10"/>
-        <v>40.799999999999997</v>
+        <f t="shared" si="16"/>
+        <v>45.3</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F26" s="4">
         <v>9</v>
       </c>
       <c r="G26" s="4">
-        <f>D10+N9+O11</f>
-        <v>36.6</v>
+        <f t="shared" si="12"/>
+        <v>45.3</v>
       </c>
       <c r="H26" s="4">
-        <f>B10+C10+N10+O10</f>
-        <v>36.6</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K26" s="4">
         <v>9</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>43.005698321181896</v>
       </c>
       <c r="M26" s="1">
-        <f>B10+C10+X10+Y10</f>
+        <f t="shared" si="15"/>
         <v>43.005698321181896</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54344,45 +54743,45 @@
         <v>10</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" si="11"/>
-        <v>40.799999999999997</v>
+        <f t="shared" si="17"/>
+        <v>45.3</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="10"/>
-        <v>40.799999999999997</v>
+        <f t="shared" si="16"/>
+        <v>45.3</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F27" s="4">
         <v>10</v>
       </c>
       <c r="G27" s="4">
-        <f>D11+N10+O12</f>
-        <v>36.6</v>
+        <f t="shared" si="12"/>
+        <v>45.3</v>
       </c>
       <c r="H27" s="4">
-        <f>B11+C11+N11+O11</f>
-        <v>36.6</v>
-      </c>
-      <c r="I27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K27" s="4">
         <v>10</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>43.1163731585536</v>
       </c>
       <c r="M27" s="1">
-        <f>B11+C11+X11+Y11</f>
+        <f t="shared" si="15"/>
         <v>43.1163731585536</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54391,45 +54790,45 @@
         <v>11</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" si="11"/>
-        <v>40.799999999999997</v>
+        <f t="shared" si="17"/>
+        <v>45.3</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="10"/>
-        <v>40.799999999999997</v>
+        <f t="shared" si="16"/>
+        <v>45.3</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F28" s="4">
         <v>11</v>
       </c>
       <c r="G28" s="4">
-        <f>D12+N11+O13</f>
-        <v>36.6</v>
+        <f t="shared" si="12"/>
+        <v>45.3</v>
       </c>
       <c r="H28" s="4">
-        <f>B12+C12+N12+O12</f>
-        <v>36.6</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K28" s="4">
         <v>11</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>42.419787186437603</v>
       </c>
       <c r="M28" s="1">
-        <f>B12+C12+X12+Y12</f>
+        <f t="shared" si="15"/>
         <v>42.419787186437603</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54439,53 +54838,384 @@
       </c>
       <c r="B29" s="4">
         <f>D13+F12</f>
-        <v>22.8</v>
+        <v>27.3</v>
       </c>
       <c r="C29" s="4">
         <f>B13+C13+G13</f>
         <v>27.3</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="6"/>
-        <v>-4.5</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F29" s="4">
         <v>12</v>
       </c>
       <c r="G29" s="1">
         <f>D13+N12</f>
-        <v>27.3</v>
+        <v>27.299999999999997</v>
       </c>
       <c r="H29" s="1">
         <f>B13+C13+O13</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" si="7"/>
-        <v>8.6999999999999993</v>
+        <v>27.3</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K29" s="4">
         <v>12</v>
       </c>
       <c r="L29" s="1">
-        <f>D13+X12</f>
+        <f>D13+AD12</f>
         <v>25.517547548452399</v>
       </c>
       <c r="M29" s="1">
-        <f>B13+C13+Y13</f>
+        <f>B13+C13+AE13</f>
         <v>25.516689577692002</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.5797076039639819E-4</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J30" s="15"/>
     </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>182</v>
+      </c>
+      <c r="J31" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31" t="s">
+        <v>185</v>
+      </c>
+      <c r="L31" t="s">
+        <v>184</v>
+      </c>
+      <c r="M31" t="s">
+        <v>185</v>
+      </c>
+      <c r="N31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F32" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" t="s">
+        <v>183</v>
+      </c>
+      <c r="K32" s="1">
+        <v>7680933.9838221297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" s="1">
+        <v>-3497963.20746064</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <f>D2*(Z2*Y2+(1-Z2)*X2)+O3*W3</f>
+        <v>-2109820.1293486259</v>
+      </c>
+      <c r="H33" s="1">
+        <f>N2*V2+B2*V2+C2*W2+O2*W2+U2</f>
+        <v>-7680933.9838221297</v>
+      </c>
+      <c r="I33" s="1">
+        <f>G33-H33</f>
+        <v>5571113.8544735033</v>
+      </c>
+      <c r="N33">
+        <v>-426718.55465678498</v>
+      </c>
+      <c r="O33">
+        <v>-426718.55465678498</v>
+      </c>
+    </row>
+    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <f>D3*(Z3*Y3+(1-Z3)*X3)+N2*V2+O4*W4</f>
+        <v>-8039211.3599828715</v>
+      </c>
+      <c r="H34" s="1">
+        <f>B3*V3+C3*W3+O3*W3+N3*V3+U3</f>
+        <v>-4160511.2943980866</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" ref="I34:I44" si="18">G34-H34</f>
+        <v>-3878700.0655847848</v>
+      </c>
+      <c r="N34">
+        <v>-151903.04926292301</v>
+      </c>
+      <c r="O34">
+        <v>-151903.04926292301</v>
+      </c>
+    </row>
+    <row r="35" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ref="G35:G43" si="19">D4*(Z4*Y4+(1-Z4)*X4)+N3*V3+O5*W5</f>
+        <v>-4382944.9157528151</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" ref="H35:H43" si="20">B4*V4+C4*W4+O4*W4+N4*V4+U4</f>
+        <v>-4196132.6445511337</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="18"/>
+        <v>-186812.27120168135</v>
+      </c>
+      <c r="N35">
+        <v>-142046.057217397</v>
+      </c>
+      <c r="O35">
+        <v>-142046.057217397</v>
+      </c>
+    </row>
+    <row r="36" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F36" s="4">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="19"/>
+        <v>-4317270.0866213348</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="20"/>
+        <v>-4686607.4481635531</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="18"/>
+        <v>369337.36154221836</v>
+      </c>
+      <c r="N36">
+        <v>-174396.57018223699</v>
+      </c>
+      <c r="O36">
+        <v>-174396.57018223699</v>
+      </c>
+    </row>
+    <row r="37" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F37" s="4">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="19"/>
+        <v>-7279874.0450154748</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="20"/>
+        <v>-7316258.6984684989</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="18"/>
+        <v>36384.653453024104</v>
+      </c>
+      <c r="N37">
+        <v>-180095.61847186901</v>
+      </c>
+      <c r="O37">
+        <v>-180095.61847186901</v>
+      </c>
+    </row>
+    <row r="38" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F38" s="4">
+        <v>6</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="19"/>
+        <v>-7521993.2234804463</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="20"/>
+        <v>-5951672.297625714</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="18"/>
+        <v>-1570320.9258547323</v>
+      </c>
+      <c r="N38">
+        <v>-124860.05035202</v>
+      </c>
+      <c r="O38">
+        <v>-124860.05035202</v>
+      </c>
+    </row>
+    <row r="39" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F39" s="4">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="19"/>
+        <v>-6046804.302978497</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="20"/>
+        <v>-7725796.1175103802</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="18"/>
+        <v>1678991.8145318832</v>
+      </c>
+      <c r="N39">
+        <v>-187560.92594549301</v>
+      </c>
+      <c r="O39">
+        <v>-187560.92594549301</v>
+      </c>
+    </row>
+    <row r="40" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F40" s="4">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="19"/>
+        <v>-7773998.0240992205</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="20"/>
+        <v>-7445816.7998588402</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="18"/>
+        <v>-328181.22424038034</v>
+      </c>
+      <c r="N40">
+        <v>-176105.92935862599</v>
+      </c>
+      <c r="O40">
+        <v>-176105.92935862599</v>
+      </c>
+    </row>
+    <row r="41" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F41" s="4">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="19"/>
+        <v>-7470232.4338423144</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="20"/>
+        <v>428845.1164455316</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="18"/>
+        <v>-7899077.5502878465</v>
+      </c>
+      <c r="N41">
+        <v>112909.518763106</v>
+      </c>
+      <c r="O41">
+        <v>112909.518763106</v>
+      </c>
+    </row>
+    <row r="42" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F42" s="4">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="19"/>
+        <v>408568.09169797925</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="20"/>
+        <v>-8158608.5407865141</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="18"/>
+        <v>8567176.6324844938</v>
+      </c>
+      <c r="N42">
+        <v>-201321.171371234</v>
+      </c>
+      <c r="O42">
+        <v>-201321.171371234</v>
+      </c>
+    </row>
+    <row r="43" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F43" s="4">
+        <v>11</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="19"/>
+        <v>-8196221.3316896018</v>
+      </c>
+      <c r="H43" s="1">
+        <f>B12*V12+C12*W12+O12*W12+N12*V12+U12</f>
+        <v>-8001492.9443231281</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="18"/>
+        <v>-194728.38736647367</v>
+      </c>
+      <c r="N43">
+        <v>-195151.325047191</v>
+      </c>
+      <c r="O43">
+        <v>-195151.325047191</v>
+      </c>
+    </row>
+    <row r="44" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F44" s="4">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1">
+        <f>D13*(Z13*Y13+(1-Z13)*X13)+N12*V12</f>
+        <v>-5327631.1737883138</v>
+      </c>
+      <c r="H44" s="1">
+        <f>B13*V13+C13*W13+O13*W13+U13</f>
+        <v>-4529821.3195825722</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="18"/>
+        <v>-797809.85420574155</v>
+      </c>
+      <c r="N44">
+        <v>-196738.49100297401</v>
+      </c>
+      <c r="O44">
+        <v>-196738.49100297401</v>
+      </c>
+    </row>
+    <row r="45" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="I45" s="14">
+        <f>SUM(I33:I44)</f>
+        <v>1367374.0377434818</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="V1:V13"/>
+    <mergeCell ref="AB1:AB13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -54493,7 +55223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ217"/>
   <sheetViews>
     <sheetView topLeftCell="A160" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -63138,7 +63868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -72281,7 +73011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -73430,7 +74160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -73745,14 +74475,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -73988,7 +74721,7 @@
         <v>101</v>
       </c>
       <c r="B10" s="14">
-        <v>273.14999999999998</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -74026,39 +74759,77 @@
       </c>
       <c r="B12" s="14">
         <f>B3+B4*$B$10+B5*$B$10^2+B6*$B$10^3+B7*$B$10^4+B8*$B$10^5</f>
-        <v>569.76363408211148</v>
+        <v>624.77666997596259</v>
       </c>
       <c r="C12" s="14">
         <f t="shared" ref="C12:I12" si="0">C3+C4*$B$10+C5*$B$10^2+C6*$B$10^3+C7*$B$10^4+C8*$B$10^5</f>
-        <v>355.19808512534354</v>
+        <v>397.68141250737631</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="0"/>
-        <v>309.73905900320631</v>
+        <v>350.56420363753267</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" si="0"/>
-        <v>267.15102149006486</v>
+        <v>307.30684187242935</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" si="0"/>
-        <v>292.91147800734956</v>
+        <v>333.28781222880531</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>266.65611632488469</v>
+        <v>306.10038881947764</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="0"/>
-        <v>284.68474120540094</v>
+        <v>324.79884105993989</v>
       </c>
       <c r="I12" s="14">
         <f t="shared" si="0"/>
-        <v>281.94270545653768</v>
+        <v>321.4183550686426</v>
       </c>
       <c r="J12" s="14">
         <f>J3+J4*$B$10+J5*$B$10^2+J6*$B$10^3+J7*$B$10^4+J8*$B$10^5</f>
-        <v>278.36030454864766</v>
+        <v>317.73438425592326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>B12*B23</f>
+        <v>10023.229692144037</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:J13" si="1">C12*C23</f>
+        <v>11958.240509844945</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>15458.829730597756</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>17861.90304580177</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>19372.020981067541</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>22085.449452640292</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>23434.561498502091</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>27699.159575358612</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>31838.574556153922</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -74078,31 +74849,31 @@
         <v>(-12.98,</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ref="C15:I15" si="1">CONCATENATE(C3,$B$14)</f>
+        <f t="shared" ref="C15:I15" si="2">CONCATENATE(C3,$B$14)</f>
         <v>-1.7675,</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.4889,</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.903,</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.721,</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.25,</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.198,</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74.513,</v>
       </c>
       <c r="J15" t="str">
@@ -74112,193 +74883,547 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
-        <f t="shared" ref="B16:B20" si="2">CONCATENATE($A$14,B4,$B$14)</f>
+        <f t="shared" ref="B16:B20" si="3">CONCATENATE($A$14,B4,$B$14)</f>
         <v>(2.36459,</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" ref="C16:I16" si="3">CONCATENATE(C4,$B$14)</f>
+        <f t="shared" ref="C16:I16" si="4">CONCATENATE(C4,$B$14)</f>
         <v>1.1429,</v>
       </c>
       <c r="D16" t="str">
+        <f t="shared" si="4"/>
+        <v>0.395,</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="4"/>
+        <v>0.1533,</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="4"/>
+        <v>0.00854058,</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="4"/>
+        <v>-0.131798,</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="4"/>
+        <v>-0.0117017,</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="4"/>
+        <v>-0.096697,</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J20" si="5">CONCATENATE(J4,$J$14)</f>
+        <v>-0.0968949);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
         <f t="shared" si="3"/>
-        <v>0.395,</v>
-      </c>
-      <c r="E16" t="str">
+        <v>(-0.00213247,</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" ref="C17:I17" si="6">CONCATENATE(C5,$B$14)</f>
+        <v>-0.0003236,</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00211409,</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00263479,</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00327699,</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="6"/>
+        <v>0.003541,</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0033164,</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00347649,</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.003473);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
         <f t="shared" si="3"/>
-        <v>0.1533,</v>
-      </c>
-      <c r="F16" t="str">
+        <v>(0.0000056618,</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" ref="C18:I18" si="7">CONCATENATE(C6,$B$14)</f>
+        <v>0.0000042431,</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="7"/>
+        <v>0.000000396486,</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0000000727226,</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="7"/>
+        <v>-0.00000110968,</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="7"/>
+        <v>-0.0000013332,</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="7"/>
+        <v>-0.0000011705,</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="7"/>
+        <v>-0.0000013212,</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="5"/>
+        <v>-0.0000013302);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
         <f t="shared" si="3"/>
-        <v>0.00854058,</v>
-      </c>
-      <c r="G16" t="str">
+        <v>(-0.00000000372476,</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" ref="C19:I19" si="8">CONCATENATE(C7,$B$14)</f>
+        <v>-0.00000000339316,</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="8"/>
+        <v>-0.000000000667176,</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="8"/>
+        <v>-0.000000000727896,</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000000000176646,</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000000000251446,</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000000000199636,</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000000000252365,</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="5"/>
+        <v>0.000000000255766);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
         <f t="shared" si="3"/>
-        <v>-0.131798,</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="3"/>
-        <v>-0.0117017,</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="3"/>
-        <v>-0.096697,</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" ref="J16:J20" si="4">CONCATENATE(J4,$J$14)</f>
-        <v>-0.0968949);</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="str">
-        <f t="shared" si="2"/>
-        <v>(-0.00213247,</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" ref="C17:I17" si="5">CONCATENATE(C5,$B$14)</f>
-        <v>-0.0003236,</v>
-      </c>
-      <c r="D17" t="str">
+        <v>(0.000000000000860896,</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" ref="C20:I20" si="9">CONCATENATE(C8,$B$14)</f>
+        <v>0.000000000000882096,</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="9"/>
+        <v>0.000000000000167936,</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="9"/>
+        <v>0.000000000000236736,</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="9"/>
+        <v>-6.39926E-15,</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="9"/>
+        <v>-1.29576E-14,</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="9"/>
+        <v>-8.66485E-15,</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="9"/>
+        <v>-1.34666E-14,</v>
+      </c>
+      <c r="J20" t="str">
         <f t="shared" si="5"/>
-        <v>0.00211409,</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="5"/>
-        <v>0.00263479,</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="5"/>
-        <v>0.00327699,</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="5"/>
-        <v>0.003541,</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="5"/>
-        <v>0.0033164,</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="5"/>
-        <v>0.00347649,</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="4"/>
-        <v>0.003473);</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="str">
-        <f t="shared" si="2"/>
-        <v>(0.0000056618,</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" ref="C18:I18" si="6">CONCATENATE(C6,$B$14)</f>
-        <v>0.0000042431,</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="6"/>
-        <v>0.000000396486,</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="6"/>
-        <v>0.0000000727226,</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="6"/>
-        <v>-0.00000110968,</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="6"/>
-        <v>-0.0000013332,</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="6"/>
-        <v>-0.0000011705,</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="6"/>
-        <v>-0.0000013212,</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="4"/>
-        <v>-0.0000013302);</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="str">
-        <f t="shared" si="2"/>
-        <v>(-0.00000000372476,</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" ref="C19:I19" si="7">CONCATENATE(C7,$B$14)</f>
-        <v>-0.00000000339316,</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="7"/>
-        <v>-0.000000000667176,</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="7"/>
-        <v>-0.000000000727896,</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="7"/>
-        <v>0.000000000176646,</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="7"/>
-        <v>0.000000000251446,</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="7"/>
-        <v>0.000000000199636,</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="7"/>
-        <v>0.000000000252365,</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="4"/>
-        <v>0.000000000255766);</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="str">
-        <f t="shared" si="2"/>
-        <v>(0.000000000000860896,</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" ref="C20:I20" si="8">CONCATENATE(C8,$B$14)</f>
-        <v>0.000000000000882096,</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000000000000167936,</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000000000000236736,</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="8"/>
-        <v>-6.39926E-15,</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="8"/>
-        <v>-1.29576E-14,</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="8"/>
-        <v>-8.66485E-15,</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="8"/>
-        <v>-1.34666E-14,</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="4"/>
         <v>-1.37726E-14);</v>
       </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>16.042900085449201</v>
+      </c>
+      <c r="C23" s="4">
+        <v>30.069900512695298</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44.097000122070298</v>
+      </c>
+      <c r="E23" s="4">
+        <v>58.124000549316399</v>
+      </c>
+      <c r="F23" s="4">
+        <v>58.124000549316399</v>
+      </c>
+      <c r="G23" s="4">
+        <v>72.1510009765625</v>
+      </c>
+      <c r="H23" s="4">
+        <v>72.1510009765625</v>
+      </c>
+      <c r="I23" s="4">
+        <v>86.177902221679702</v>
+      </c>
+      <c r="J23" s="4">
+        <v>100.205001831055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25">
+        <v>-161.52500000000001</v>
+      </c>
+      <c r="C25">
+        <v>-88.599996948242193</v>
+      </c>
+      <c r="D25">
+        <v>-42.101995849609402</v>
+      </c>
+      <c r="E25">
+        <v>-11.7299865722656</v>
+      </c>
+      <c r="F25">
+        <v>-0.50198974609372704</v>
+      </c>
+      <c r="G25">
+        <v>27.878015136718801</v>
+      </c>
+      <c r="H25">
+        <v>36.059014892578098</v>
+      </c>
+      <c r="I25">
+        <v>68.730004882812494</v>
+      </c>
+      <c r="J25">
+        <v>98.429010009765605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26">
+        <v>120.045972232935</v>
+      </c>
+      <c r="C26">
+        <v>197.82860935532199</v>
+      </c>
+      <c r="D26">
+        <v>246.87619614213099</v>
+      </c>
+      <c r="E26">
+        <v>279.40760224913998</v>
+      </c>
+      <c r="F26">
+        <v>291.05885989192899</v>
+      </c>
+      <c r="G26">
+        <v>321.38292240027999</v>
+      </c>
+      <c r="H26">
+        <v>329.86348975768198</v>
+      </c>
+      <c r="I26">
+        <v>364.30083038148302</v>
+      </c>
+      <c r="J26">
+        <v>395.54993099207098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="14">
+        <f>(B3+B4*B26+B5*B26^2+B6*B26^3+B7*B26^4+B8*B26^5)*B23</f>
+        <v>3997.7488208040782</v>
+      </c>
+      <c r="C29" s="14">
+        <f t="shared" ref="C29:J29" si="10">(C3+C4*C26+C5*C26^2+C6*C26^3+C7*C26^4+C8*C26^5)*C23</f>
+        <v>7204.3778953286037</v>
+      </c>
+      <c r="D29" s="14">
+        <f t="shared" si="10"/>
+        <v>11883.951672795969</v>
+      </c>
+      <c r="E29" s="14">
+        <f t="shared" si="10"/>
+        <v>16099.400453964392</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="10"/>
+        <v>18699.113741368237</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" si="10"/>
+        <v>24965.292007405551</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="10"/>
+        <v>27454.3904513751</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="10"/>
+        <v>38017.36489095146</v>
+      </c>
+      <c r="J29" s="14">
+        <f>(J3+J4*J26+J5*J26^2+J6*J26^3+J7*J26^4+J8*J26^5)*J23</f>
+        <v>50129.826342776381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>-74900</v>
+      </c>
+      <c r="C32" s="4">
+        <v>-84738</v>
+      </c>
+      <c r="D32" s="4">
+        <v>-103890</v>
+      </c>
+      <c r="E32" s="4">
+        <v>-134590</v>
+      </c>
+      <c r="F32" s="4">
+        <v>-126190</v>
+      </c>
+      <c r="G32" s="4">
+        <v>-154590</v>
+      </c>
+      <c r="H32" s="4">
+        <v>-146490</v>
+      </c>
+      <c r="I32" s="4">
+        <v>-167290</v>
+      </c>
+      <c r="J32" s="4">
+        <v>-187890</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34">
+        <v>-5441.6654625699821</v>
+      </c>
+      <c r="C34">
+        <v>-4545.8522395741966</v>
+      </c>
+      <c r="D34">
+        <v>-3479.502216427285</v>
+      </c>
+      <c r="E34">
+        <v>-1766.0471186787001</v>
+      </c>
+      <c r="F34">
+        <v>-675.94137571781584</v>
+      </c>
+      <c r="G34">
+        <v>2873.256781151616</v>
+      </c>
+      <c r="H34">
+        <v>4000.7966029595545</v>
+      </c>
+      <c r="I34">
+        <v>10367.612656544699</v>
+      </c>
+      <c r="J34">
+        <v>18378.07373748079</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35">
+        <f>B34+B32</f>
+        <v>-80341.665462569988</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:J35" si="11">C34+C32</f>
+        <v>-89283.852239574189</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="11"/>
+        <v>-107369.50221642728</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="11"/>
+        <v>-136356.04711867869</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="11"/>
+        <v>-126865.94137571781</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="11"/>
+        <v>-151716.74321884839</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="11"/>
+        <v>-142489.20339704046</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="11"/>
+        <v>-156922.38734345531</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="11"/>
+        <v>-169511.92626251921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -74306,11 +75431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74696,6 +75821,192 @@
         <v>0.00000001829);</v>
       </c>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16">
+        <v>-161.52500000000001</v>
+      </c>
+      <c r="C16">
+        <v>-88.599996948242193</v>
+      </c>
+      <c r="D16">
+        <v>-42.101995849609402</v>
+      </c>
+      <c r="E16">
+        <v>-11.7299865722656</v>
+      </c>
+      <c r="F16">
+        <v>-0.50198974609372704</v>
+      </c>
+      <c r="G16">
+        <v>27.878015136718801</v>
+      </c>
+      <c r="H16">
+        <v>36.059014892578098</v>
+      </c>
+      <c r="I16">
+        <v>68.730004882812494</v>
+      </c>
+      <c r="J16">
+        <v>98.429010009765605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17">
+        <v>120.045972232935</v>
+      </c>
+      <c r="C17">
+        <v>197.82860935532199</v>
+      </c>
+      <c r="D17">
+        <v>246.87619614213099</v>
+      </c>
+      <c r="E17">
+        <v>279.40760224913998</v>
+      </c>
+      <c r="F17">
+        <v>291.05885989192899</v>
+      </c>
+      <c r="G17">
+        <v>321.38292240027999</v>
+      </c>
+      <c r="H17">
+        <v>329.86348975768198</v>
+      </c>
+      <c r="I17">
+        <v>364.30083038148302</v>
+      </c>
+      <c r="J17">
+        <v>395.54993099207098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
+        <f>-(B4*($D$19-B17)+B5/2*($D$19^2-B17^2)+B6/3*($D$19^3-B17^3)+B7/4*($D$19^4-B17^4))</f>
+        <v>-1299.7194665544048</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" ref="C22:J22" si="7">-(C4*($D$19-C17)+C5/2*($D$19^2-C17^2)+C6/3*($D$19^3-C17^3)+C7/4*($D$19^4-C17^4))</f>
+        <v>-1085.7581540972094</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="7"/>
+        <v>-831.06482669993432</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="7"/>
+        <v>-421.81310754721989</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="7"/>
+        <v>-161.44582395094486</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="7"/>
+        <v>686.26559213519067</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="7"/>
+        <v>955.57385185811472</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="7"/>
+        <v>2476.2617408389938</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="7"/>
+        <v>4389.5275001148348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23">
+        <f>B22*4.1868</f>
+        <v>-5441.6654625699821</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:J23" si="8">C22*4.1868</f>
+        <v>-4545.8522395741966</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="8"/>
+        <v>-3479.502216427285</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="8"/>
+        <v>-1766.0471186787001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="8"/>
+        <v>-675.94137571781584</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="8"/>
+        <v>2873.256781151616</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="8"/>
+        <v>4000.7966029595545</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="8"/>
+        <v>10367.612656544699</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="8"/>
+        <v>18378.07373748079</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -74703,7 +76014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -75861,11 +77172,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J5"/>
+      <selection activeCell="B12" sqref="B12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75883,6 +77194,16 @@
       <c r="G1">
         <v>298</v>
       </c>
+      <c r="H1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1">
+        <v>200000</v>
+      </c>
+      <c r="K1">
+        <f>101325</f>
+        <v>101325</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -76267,6 +77588,192 @@
       <c r="J18" s="4">
         <f t="shared" si="2"/>
         <v>7654.7805501988059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <f>(1/(B12+273.15)-(8.314*LN($I$1/$K$1))/(B18*4.1868))^(-1)</f>
+        <v>120.78942450794031</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24:J24" si="3">(1/(C12+273.15)-(8.314*LN($I$1/$K$1))/(C18*4.1868))^(-1)</f>
+        <v>198.99678437725325</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="3"/>
+        <v>248.26380130875134</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="3"/>
+        <v>280.98499801705793</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="3"/>
+        <v>292.67126812514124</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="3"/>
+        <v>323.1657566473699</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="3"/>
+        <v>331.6710508996976</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="3"/>
+        <v>366.26053874551502</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="3"/>
+        <v>397.64283896281677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>B24-273.15</f>
+        <v>-152.36057549205967</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:J25" si="4">C24-273.15</f>
+        <v>-74.153215622746728</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>-24.886198691248637</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>7.8349980170579556</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>19.521268125141262</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>50.015756647369926</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>58.521050899697627</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>93.110538745515044</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>124.49283896281679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28">
+        <f>1.093*$B$3*(B6+273.15)*(LN(B9/101.325)-1)/(0.93-(B25+273.15)/(B6+273.15))*(B12+273.15)/(B6+273.15)</f>
+        <v>2308.4874236959377</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:J28" si="5">1.093*$B$3*(C6+273.15)*(LN(C9/101.325)-1)/(0.93-(C25+273.15)/(C6+273.15))*(C12+273.15)/(C6+273.15)</f>
+        <v>4015.5777814098146</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>5307.9643571128991</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>6076.4910849489461</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>6430.1063945095066</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>7185.2148270206908</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>7482.6155844378882</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>8529.4990844486874</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>9560.4085707778686</v>
       </c>
     </row>
   </sheetData>

--- a/Начальное приближение по темп.xlsx
+++ b/Начальное приближение по темп.xlsx
@@ -973,11 +973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61574528"/>
-        <c:axId val="61575104"/>
+        <c:axId val="41266560"/>
+        <c:axId val="41267136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61574528"/>
+        <c:axId val="41266560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1036,13 +1036,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61575104"/>
+        <c:crossAx val="41267136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61575104"/>
+        <c:axId val="41267136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,7 +1099,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61574528"/>
+        <c:crossAx val="41266560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2416,11 +2416,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146557760"/>
-        <c:axId val="146558336"/>
+        <c:axId val="148523840"/>
+        <c:axId val="148524416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146557760"/>
+        <c:axId val="148523840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,12 +2477,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146558336"/>
+        <c:crossAx val="148524416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146558336"/>
+        <c:axId val="148524416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2539,7 +2539,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146557760"/>
+        <c:crossAx val="148523840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2915,11 +2915,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61576832"/>
-        <c:axId val="61577408"/>
+        <c:axId val="41268864"/>
+        <c:axId val="41269440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61576832"/>
+        <c:axId val="41268864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2976,13 +2976,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61577408"/>
+        <c:crossAx val="41269440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61577408"/>
+        <c:axId val="41269440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3039,7 +3039,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61576832"/>
+        <c:crossAx val="41268864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3694,11 +3694,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145883712"/>
-        <c:axId val="145884288"/>
+        <c:axId val="146801216"/>
+        <c:axId val="146801792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145883712"/>
+        <c:axId val="146801216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3755,12 +3755,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145884288"/>
+        <c:crossAx val="146801792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145884288"/>
+        <c:axId val="146801792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3818,7 +3818,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145883712"/>
+        <c:crossAx val="146801216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4098,11 +4098,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145886592"/>
-        <c:axId val="145887168"/>
+        <c:axId val="146804096"/>
+        <c:axId val="146804672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145886592"/>
+        <c:axId val="146804096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4159,12 +4159,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145887168"/>
+        <c:crossAx val="146804672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145887168"/>
+        <c:axId val="146804672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4221,7 +4221,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145886592"/>
+        <c:crossAx val="146804096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4429,11 +4429,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145888896"/>
-        <c:axId val="145889472"/>
+        <c:axId val="146806400"/>
+        <c:axId val="146806976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145888896"/>
+        <c:axId val="146806400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -4492,13 +4492,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145889472"/>
+        <c:crossAx val="146806976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145889472"/>
+        <c:axId val="146806976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4555,7 +4555,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145888896"/>
+        <c:crossAx val="146806400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4900,11 +4900,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145940480"/>
-        <c:axId val="145941056"/>
+        <c:axId val="146857984"/>
+        <c:axId val="146858560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145940480"/>
+        <c:axId val="146857984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4961,13 +4961,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145941056"/>
+        <c:crossAx val="146858560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145941056"/>
+        <c:axId val="146858560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5024,7 +5024,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145940480"/>
+        <c:crossAx val="146857984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5263,11 +5263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145943360"/>
-        <c:axId val="145943936"/>
+        <c:axId val="146860864"/>
+        <c:axId val="146861440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145943360"/>
+        <c:axId val="146860864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -5326,13 +5326,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145943936"/>
+        <c:crossAx val="146861440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145943936"/>
+        <c:axId val="146861440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="270"/>
@@ -5390,7 +5390,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145943360"/>
+        <c:crossAx val="146860864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6743,11 +6743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145945664"/>
-        <c:axId val="145946240"/>
+        <c:axId val="146863168"/>
+        <c:axId val="146863744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145945664"/>
+        <c:axId val="146863168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6804,12 +6804,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145946240"/>
+        <c:crossAx val="146863744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145946240"/>
+        <c:axId val="146863744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6866,7 +6866,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145945664"/>
+        <c:crossAx val="146863168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8250,11 +8250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146554880"/>
-        <c:axId val="146555456"/>
+        <c:axId val="148520960"/>
+        <c:axId val="148521536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146554880"/>
+        <c:axId val="148520960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8311,12 +8311,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146555456"/>
+        <c:crossAx val="148521536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146555456"/>
+        <c:axId val="148521536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8373,7 +8373,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146554880"/>
+        <c:crossAx val="148520960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14040,7 +14040,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14076,7 +14076,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14112,7 +14112,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14148,7 +14148,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14189,7 +14189,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14227,7 +14227,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14265,7 +14265,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14301,7 +14301,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14337,7 +14337,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14378,7 +14378,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -53044,7 +53044,7 @@
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53152,7 +53152,7 @@
         <v>6</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>1.935483870967742</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -53172,11 +53172,11 @@
       </c>
       <c r="R2">
         <f>($L$2*$D$2+($L$2+1)*$D$13+$Q$14)/($L$2+$K$2+1)</f>
-        <v>11.040000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="T2">
         <f>((K2+1)*$D$2+$L$2*$D$13+$S$14)/($K$2+$L$2+1)</f>
-        <v>2.7600000000000002</v>
+        <v>4.5</v>
       </c>
       <c r="V2" s="30"/>
       <c r="W2" s="4">
@@ -53211,11 +53211,11 @@
         <v>18</v>
       </c>
       <c r="I3">
-        <f>(B3+C3)/(F3+G3)</f>
+        <f t="shared" ref="I2:I13" si="0">(B3+C3)/(F3+G3)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>I3/(I3+1)*(D3+G4+F2)</f>
+        <f t="shared" ref="J3:J13" si="1">I3/(I3+1)*(D3+G4+F2)</f>
         <v>0</v>
       </c>
       <c r="M3">
@@ -53226,8 +53226,8 @@
         <v>13.5</v>
       </c>
       <c r="O3" s="14">
-        <f t="shared" ref="O3:O11" si="0">O4/(I3+1)</f>
-        <v>9.3000000000000007</v>
+        <f t="shared" ref="O3:O11" si="2">O4/(I3+1)</f>
+        <v>16</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -53265,41 +53265,41 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F12" si="1">F3+D4-B4</f>
+        <f t="shared" ref="F4:F12" si="3">F3+D4-B4</f>
         <v>9</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G13" si="2">$C$2+$B$2+$E$2-C4</f>
+        <f t="shared" ref="G4:G13" si="4">$C$2+$B$2+$E$2-C4</f>
         <v>18</v>
       </c>
       <c r="I4">
-        <f>(B4+C4)/(F4+G4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>I4/(I4+1)*(D4+G5+F3)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:N12" si="3">(D4+O5+N3)/(I4+1)-O4</f>
+        <f t="shared" ref="N4:N12" si="5">(D4+O5+N3)/(I4+1)-O4</f>
         <v>13.5</v>
       </c>
       <c r="O4" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q12" si="4">(P4+$L$2)*D4+($L$2+1)*B4-C4</f>
+        <f t="shared" ref="Q4:Q12" si="6">(P4+$L$2)*D4+($L$2+1)*B4-C4</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S12" si="5">($K$2+1-P4)*D4+($L$2+1)*B4+C4</f>
+        <f t="shared" ref="S4:S12" si="7">($K$2+1-P4)*D4+($L$2+1)*B4+C4</f>
         <v>0</v>
       </c>
       <c r="V4" s="30"/>
@@ -53327,41 +53327,41 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I5">
-        <f>(B5+C5)/(F5+G5)</f>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>I5/(I5+1)*(D5+G6+F4)</f>
         <v>0</v>
       </c>
       <c r="M5">
         <v>4</v>
       </c>
       <c r="N5" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
       <c r="O5" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V5" s="30"/>
@@ -53393,38 +53393,38 @@
         <v>22.8</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="I6">
-        <f>(B6+C6)/(F6+G6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>I6/(I6+1)*(D6+G7+F5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" si="3"/>
-        <v>27.3</v>
+        <f>(D6+O7+N5)/(I6+1)-O6</f>
+        <v>27.299999999999997</v>
       </c>
       <c r="O6" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>55.2</v>
       </c>
       <c r="S6">
-        <f t="shared" si="5"/>
-        <v>13.8</v>
+        <f t="shared" si="7"/>
+        <v>26.70967741935484</v>
       </c>
       <c r="V6" s="30"/>
       <c r="W6" s="4">
@@ -53451,41 +53451,41 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <f t="shared" si="3"/>
+        <v>22.8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="1"/>
-        <v>22.8</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I7">
-        <f>(B7+C7)/(F7+G7)</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>I7/(I7+1)*(D7+G8+F6)</f>
         <v>0</v>
       </c>
       <c r="M7">
         <v>6</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" si="3"/>
-        <v>27.3</v>
+        <f t="shared" si="5"/>
+        <v>27.299999999999997</v>
       </c>
       <c r="O7" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V7" s="30"/>
@@ -53513,41 +53513,40 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <f t="shared" si="3"/>
+        <v>22.8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="1"/>
-        <v>22.8</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I8">
-        <f>(B8+C8)/(F8+G8)</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>I8/(I8+1)*(D8+G9+F7)</f>
         <v>0</v>
       </c>
       <c r="M8">
         <v>7</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="3"/>
-        <v>27.3</v>
+        <f t="shared" si="5"/>
+        <v>29.299999999999997</v>
       </c>
       <c r="O8" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
+        <v>16</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V8" s="30"/>
@@ -53575,41 +53574,41 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <f t="shared" si="3"/>
+        <v>22.8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="1"/>
-        <v>22.8</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I9">
-        <f>(B9+C9)/(F9+G9)</f>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f>I9/(I9+1)*(D9+G10+F8)</f>
         <v>0</v>
       </c>
       <c r="M9">
         <v>8</v>
       </c>
       <c r="N9" s="14">
-        <f t="shared" si="3"/>
-        <v>27.3</v>
+        <f t="shared" si="5"/>
+        <v>29.299999999999994</v>
       </c>
       <c r="O9" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
+        <f t="shared" si="2"/>
+        <v>18.000000000000004</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V9" s="30"/>
@@ -53637,41 +53636,41 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <f t="shared" si="3"/>
+        <v>22.8</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="1"/>
-        <v>22.8</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I10">
-        <f>(B10+C10)/(F10+G10)</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>I10/(I10+1)*(D10+G11+F9)</f>
         <v>0</v>
       </c>
       <c r="M10">
         <v>9</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="3"/>
-        <v>27.3</v>
+        <f t="shared" si="5"/>
+        <v>29.299999999999994</v>
       </c>
       <c r="O10" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
+        <f t="shared" si="2"/>
+        <v>18.000000000000004</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V10" s="30"/>
@@ -53699,41 +53698,41 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <f t="shared" si="3"/>
+        <v>22.8</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="1"/>
-        <v>22.8</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I11">
-        <f>(B11+C11)/(F11+G11)</f>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f>I11/(I11+1)*(D11+G12+F10)</f>
         <v>0</v>
       </c>
       <c r="M11">
         <v>10</v>
       </c>
       <c r="N11" s="14">
-        <f t="shared" si="3"/>
-        <v>27.3</v>
+        <f t="shared" si="5"/>
+        <v>29.299999999999994</v>
       </c>
       <c r="O11" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
+        <f t="shared" si="2"/>
+        <v>18.000000000000004</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V11" s="30"/>
@@ -53761,41 +53760,41 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <f t="shared" si="3"/>
+        <v>22.8</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="1"/>
-        <v>22.8</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I12">
-        <f>(B12+C12)/(F12+G12)</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>I12/(I12+1)*(D12+G13+F11)</f>
         <v>0</v>
       </c>
       <c r="M12">
         <v>11</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" si="3"/>
-        <v>27.3</v>
+        <f t="shared" si="5"/>
+        <v>29.299999999999994</v>
       </c>
       <c r="O12" s="14">
         <f>O13/(I12+1)</f>
-        <v>9.3000000000000007</v>
+        <v>18.000000000000004</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V12" s="30"/>
@@ -53827,15 +53826,15 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="I13">
-        <f>(B13+C13)/(F13+G13)</f>
+        <f t="shared" si="0"/>
         <v>0.34065934065934067</v>
       </c>
       <c r="J13">
-        <f>I13/(I13+1)*(D13+G14+F12)</f>
+        <f t="shared" si="1"/>
         <v>5.7934426229508196</v>
       </c>
       <c r="M13">
@@ -53847,7 +53846,7 @@
       </c>
       <c r="O13" s="14">
         <f>K2*N13</f>
-        <v>9.3000000000000007</v>
+        <v>18.000000000000004</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -53870,7 +53869,7 @@
       </c>
       <c r="S14">
         <f>SUM(S3:S12)</f>
-        <v>13.8</v>
+        <v>26.70967741935484</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -53937,7 +53936,7 @@
       </c>
       <c r="G18" s="1">
         <f>D2+O3</f>
-        <v>9.3000000000000007</v>
+        <v>16</v>
       </c>
       <c r="H18" s="1">
         <f>N2+B2+C2+O2</f>
@@ -53945,7 +53944,7 @@
       </c>
       <c r="I18" s="4">
         <f>G18-H18</f>
-        <v>-8.6999999999999993</v>
+        <v>-2</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
@@ -53976,22 +53975,22 @@
         <v>27</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:D29" si="6">B19-C19</f>
+        <f t="shared" ref="D19:D29" si="8">B19-C19</f>
         <v>4.5</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="G19" s="1">
-        <f>D3+N2+O4</f>
-        <v>22.8</v>
+        <f t="shared" ref="G19:G28" si="9">D3+N2+O4</f>
+        <v>29.5</v>
       </c>
       <c r="H19" s="1">
         <f>B3+C3+O3+N3</f>
-        <v>22.8</v>
+        <v>29.5</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" ref="I19:I29" si="7">G19-H19</f>
+        <f t="shared" ref="I19:I29" si="10">G19-H19</f>
         <v>0</v>
       </c>
       <c r="K19" s="4">
@@ -54006,7 +54005,7 @@
         <v>38.798126681547799</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" ref="N19:N29" si="8">L19-M19</f>
+        <f t="shared" ref="N19:N29" si="11">L19-M19</f>
         <v>0</v>
       </c>
     </row>
@@ -54023,37 +54022,37 @@
         <v>27</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F20" s="4">
         <v>3</v>
       </c>
       <c r="G20" s="1">
-        <f>D4+N3+O5</f>
-        <v>22.8</v>
+        <f t="shared" si="9"/>
+        <v>29.5</v>
       </c>
       <c r="H20" s="4">
-        <f>B4+C4+N4+O4</f>
-        <v>22.8</v>
+        <f t="shared" ref="H20:H28" si="12">B4+C4+N4+O4</f>
+        <v>29.5</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K20" s="4">
         <v>3</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" ref="L20:L28" si="9">D3+X3+Y5</f>
+        <f t="shared" ref="L20:L28" si="13">D3+X3+Y5</f>
         <v>46.498075228619598</v>
       </c>
       <c r="M20" s="1">
-        <f>B4+C4+X4+Y4</f>
+        <f t="shared" ref="M20:M28" si="14">B4+C4+X4+Y4</f>
         <v>46.498075228619697</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-9.9475983006414026E-14</v>
       </c>
     </row>
@@ -54066,41 +54065,41 @@
         <v>27</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21:C28" si="10">B5+C5+F5+G5</f>
+        <f t="shared" ref="C21:C28" si="15">B5+C5+F5+G5</f>
         <v>27</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F21" s="4">
         <v>4</v>
       </c>
       <c r="G21" s="4">
-        <f>D5+N4+O6</f>
-        <v>22.8</v>
+        <f t="shared" si="9"/>
+        <v>29.5</v>
       </c>
       <c r="H21" s="4">
-        <f>B5+C5+N5+O5</f>
-        <v>22.8</v>
+        <f t="shared" si="12"/>
+        <v>29.5</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K21" s="4">
         <v>4</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>46.472312739763403</v>
       </c>
       <c r="M21" s="1">
-        <f>B5+C5+X5+Y5</f>
+        <f t="shared" si="14"/>
         <v>46.472312739763396</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54113,37 +54112,37 @@
         <v>40.799999999999997</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40.799999999999997</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F22" s="4">
         <v>5</v>
       </c>
       <c r="G22" s="4">
-        <f>D6+N5+O7</f>
-        <v>36.6</v>
+        <f t="shared" si="9"/>
+        <v>43.3</v>
       </c>
       <c r="H22" s="4">
-        <f>B6+C6+N6+O6</f>
-        <v>36.6</v>
+        <f t="shared" si="12"/>
+        <v>43.3</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K22" s="4">
         <v>5</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>44.531517908454703</v>
       </c>
       <c r="M22" s="1">
-        <f>B6+C6+X6+Y6</f>
+        <f t="shared" si="14"/>
         <v>44.531517908454703</v>
       </c>
       <c r="N22" s="1">
@@ -54156,41 +54155,41 @@
         <v>6</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ref="B21:B28" si="11">D7+F6+G8</f>
+        <f t="shared" ref="B23:B28" si="16">D7+F6+G8</f>
         <v>40.799999999999997</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40.799999999999997</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F23" s="4">
         <v>6</v>
       </c>
       <c r="G23" s="4">
-        <f>D7+N6+O8</f>
-        <v>36.6</v>
+        <f t="shared" si="9"/>
+        <v>43.3</v>
       </c>
       <c r="H23" s="4">
-        <f>B7+C7+N7+O7</f>
-        <v>36.6</v>
+        <f t="shared" si="12"/>
+        <v>43.3</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K23" s="4">
         <v>6</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>49.629968854160509</v>
       </c>
       <c r="M23" s="1">
-        <f>B7+C7+X7+Y7</f>
+        <f t="shared" si="14"/>
         <v>49.630174582569197</v>
       </c>
       <c r="N23" s="1">
@@ -54203,45 +54202,45 @@
         <v>7</v>
       </c>
       <c r="B24" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>40.799999999999997</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40.799999999999997</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F24" s="4">
         <v>7</v>
       </c>
       <c r="G24" s="4">
-        <f>D8+N7+O9</f>
-        <v>36.6</v>
+        <f t="shared" si="9"/>
+        <v>45.3</v>
       </c>
       <c r="H24" s="4">
-        <f>B8+C8+N8+O8</f>
-        <v>36.6</v>
+        <f t="shared" si="12"/>
+        <v>45.3</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K24" s="4">
         <v>7</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>42.629766470498602</v>
       </c>
       <c r="M24" s="1">
-        <f>B8+C8+X8+Y8</f>
+        <f t="shared" si="14"/>
         <v>42.629766470498602</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54250,45 +54249,45 @@
         <v>8</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>40.799999999999997</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40.799999999999997</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F25" s="4">
         <v>8</v>
       </c>
       <c r="G25" s="4">
-        <f>D9+N8+O10</f>
-        <v>36.6</v>
+        <f t="shared" si="9"/>
+        <v>47.3</v>
       </c>
       <c r="H25" s="4">
-        <f>B9+C9+N9+O9</f>
-        <v>36.6</v>
+        <f t="shared" si="12"/>
+        <v>47.3</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K25" s="4">
         <v>8</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>42.848718060622005</v>
       </c>
       <c r="M25" s="1">
-        <f>B9+C9+X9+Y9</f>
+        <f t="shared" si="14"/>
         <v>42.848718060622005</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54297,45 +54296,45 @@
         <v>9</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>40.799999999999997</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40.799999999999997</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F26" s="4">
         <v>9</v>
       </c>
       <c r="G26" s="4">
-        <f>D10+N9+O11</f>
-        <v>36.6</v>
+        <f t="shared" si="9"/>
+        <v>47.3</v>
       </c>
       <c r="H26" s="4">
-        <f>B10+C10+N10+O10</f>
-        <v>36.6</v>
+        <f t="shared" si="12"/>
+        <v>47.3</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K26" s="4">
         <v>9</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>43.005698321181896</v>
       </c>
       <c r="M26" s="1">
-        <f>B10+C10+X10+Y10</f>
+        <f t="shared" si="14"/>
         <v>43.005698321181896</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54344,45 +54343,45 @@
         <v>10</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>40.799999999999997</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40.799999999999997</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F27" s="4">
         <v>10</v>
       </c>
       <c r="G27" s="4">
-        <f>D11+N10+O12</f>
-        <v>36.6</v>
+        <f t="shared" si="9"/>
+        <v>47.3</v>
       </c>
       <c r="H27" s="4">
-        <f>B11+C11+N11+O11</f>
-        <v>36.6</v>
+        <f t="shared" si="12"/>
+        <v>47.3</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K27" s="4">
         <v>10</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>43.1163731585536</v>
       </c>
       <c r="M27" s="1">
-        <f>B11+C11+X11+Y11</f>
+        <f t="shared" si="14"/>
         <v>43.1163731585536</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54391,45 +54390,45 @@
         <v>11</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>40.799999999999997</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40.799999999999997</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F28" s="4">
         <v>11</v>
       </c>
       <c r="G28" s="4">
-        <f>D12+N11+O13</f>
-        <v>36.6</v>
+        <f t="shared" si="9"/>
+        <v>47.3</v>
       </c>
       <c r="H28" s="4">
-        <f>B12+C12+N12+O12</f>
-        <v>36.6</v>
+        <f t="shared" si="12"/>
+        <v>47.3</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K28" s="4">
         <v>11</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>42.419787186437603</v>
       </c>
       <c r="M28" s="1">
-        <f>B12+C12+X12+Y12</f>
+        <f t="shared" si="14"/>
         <v>42.419787186437603</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54446,7 +54445,7 @@
         <v>27.3</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.5</v>
       </c>
       <c r="F29" s="4">
@@ -54454,15 +54453,15 @@
       </c>
       <c r="G29" s="1">
         <f>D13+N12</f>
-        <v>27.3</v>
+        <v>29.299999999999994</v>
       </c>
       <c r="H29" s="1">
         <f>B13+C13+O13</f>
-        <v>18.600000000000001</v>
+        <v>27.300000000000004</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="7"/>
-        <v>8.6999999999999993</v>
+        <f t="shared" si="10"/>
+        <v>1.9999999999999893</v>
       </c>
       <c r="K29" s="4">
         <v>12</v>
@@ -54476,7 +54475,7 @@
         <v>25.516689577692002</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.5797076039639819E-4</v>
       </c>
     </row>

--- a/Начальное приближение по темп.xlsx
+++ b/Начальное приближение по темп.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="198">
   <si>
     <t>CritT</t>
   </si>
@@ -578,6 +578,81 @@
   <si>
     <t>sD</t>
   </si>
+  <si>
+    <t>Tboil vs. Pressure</t>
+  </si>
+  <si>
+    <t>Tbp, K</t>
+  </si>
+  <si>
+    <t>P, Pa</t>
+  </si>
+  <si>
+    <t>Метод Риделя (vs Pressure)</t>
+  </si>
+  <si>
+    <t>H_l</t>
+  </si>
+  <si>
+    <t>H_v</t>
+  </si>
+  <si>
+    <t>Hf_l</t>
+  </si>
+  <si>
+    <t>Hf_v</t>
+  </si>
+  <si>
+    <t>ej</t>
+  </si>
+  <si>
+    <t>Heat Balance</t>
+  </si>
+  <si>
+    <t>Qc</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Qr</t>
+  </si>
+  <si>
+    <t>Qj</t>
+  </si>
+  <si>
+    <t>koef_H_l</t>
+  </si>
+  <si>
+    <t>Integral</t>
+  </si>
+  <si>
+    <t>Cp, cal / mole</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>kJ / kmole</t>
+  </si>
+  <si>
+    <t>Mr, g/mole</t>
+  </si>
+  <si>
+    <t>dH, kJ/kmole</t>
+  </si>
+  <si>
+    <t>dH298</t>
+  </si>
+  <si>
+    <t>Integral Cp, kJ/kmole</t>
+  </si>
+  <si>
+    <t>Tbr</t>
+  </si>
 </sst>
 </file>
 
@@ -769,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -800,6 +875,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,11 +1049,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41266560"/>
-        <c:axId val="41267136"/>
+        <c:axId val="60665216"/>
+        <c:axId val="60665792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41266560"/>
+        <c:axId val="60665216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1036,13 +1112,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41267136"/>
+        <c:crossAx val="60665792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41267136"/>
+        <c:axId val="60665792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,7 +1175,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41266560"/>
+        <c:crossAx val="60665216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2416,11 +2492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148523840"/>
-        <c:axId val="148524416"/>
+        <c:axId val="150096704"/>
+        <c:axId val="150097280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148523840"/>
+        <c:axId val="150096704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,12 +2553,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148524416"/>
+        <c:crossAx val="150097280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148524416"/>
+        <c:axId val="150097280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2539,7 +2615,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148523840"/>
+        <c:crossAx val="150096704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2915,11 +2991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41268864"/>
-        <c:axId val="41269440"/>
+        <c:axId val="60667520"/>
+        <c:axId val="60668096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41268864"/>
+        <c:axId val="60667520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2976,13 +3052,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41269440"/>
+        <c:crossAx val="60668096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41269440"/>
+        <c:axId val="60668096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3039,7 +3115,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41268864"/>
+        <c:crossAx val="60667520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3694,11 +3770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146801216"/>
-        <c:axId val="146801792"/>
+        <c:axId val="146211392"/>
+        <c:axId val="146211968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146801216"/>
+        <c:axId val="146211392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3755,12 +3831,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146801792"/>
+        <c:crossAx val="146211968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146801792"/>
+        <c:axId val="146211968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3818,7 +3894,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146801216"/>
+        <c:crossAx val="146211392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4098,11 +4174,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146804096"/>
-        <c:axId val="146804672"/>
+        <c:axId val="146214272"/>
+        <c:axId val="146214848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146804096"/>
+        <c:axId val="146214272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4159,12 +4235,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146804672"/>
+        <c:crossAx val="146214848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146804672"/>
+        <c:axId val="146214848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4221,7 +4297,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146804096"/>
+        <c:crossAx val="146214272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4429,11 +4505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146806400"/>
-        <c:axId val="146806976"/>
+        <c:axId val="146216576"/>
+        <c:axId val="146217152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146806400"/>
+        <c:axId val="146216576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -4492,13 +4568,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146806976"/>
+        <c:crossAx val="146217152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146806976"/>
+        <c:axId val="146217152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4555,7 +4631,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146806400"/>
+        <c:crossAx val="146216576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4900,11 +4976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146857984"/>
-        <c:axId val="146858560"/>
+        <c:axId val="146268160"/>
+        <c:axId val="146268736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146857984"/>
+        <c:axId val="146268160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4961,13 +5037,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146858560"/>
+        <c:crossAx val="146268736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146858560"/>
+        <c:axId val="146268736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5024,7 +5100,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146857984"/>
+        <c:crossAx val="146268160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5263,11 +5339,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146860864"/>
-        <c:axId val="146861440"/>
+        <c:axId val="146271040"/>
+        <c:axId val="146271616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146860864"/>
+        <c:axId val="146271040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -5326,13 +5402,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146861440"/>
+        <c:crossAx val="146271616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146861440"/>
+        <c:axId val="146271616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="270"/>
@@ -5390,7 +5466,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146860864"/>
+        <c:crossAx val="146271040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6743,11 +6819,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146863168"/>
-        <c:axId val="146863744"/>
+        <c:axId val="146273344"/>
+        <c:axId val="146273920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146863168"/>
+        <c:axId val="146273344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6804,12 +6880,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146863744"/>
+        <c:crossAx val="146273920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146863744"/>
+        <c:axId val="146273920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6866,7 +6942,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146863168"/>
+        <c:crossAx val="146273344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8250,11 +8326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148520960"/>
-        <c:axId val="148521536"/>
+        <c:axId val="150093824"/>
+        <c:axId val="150094400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148520960"/>
+        <c:axId val="150093824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8311,12 +8387,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148521536"/>
+        <c:crossAx val="150094400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148521536"/>
+        <c:axId val="150094400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8373,7 +8449,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148520960"/>
+        <c:crossAx val="150093824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -49656,7 +49732,7 @@
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:J14"/>
+      <selection activeCell="B2" sqref="B2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49981,7 +50057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P42" sqref="P42:P52"/>
     </sheetView>
   </sheetViews>
@@ -53041,15 +53117,21 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -53107,20 +53189,38 @@
       <c r="T1" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="U1" t="s">
+        <v>187</v>
+      </c>
+      <c r="V1" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB1" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -53137,22 +53237,21 @@
         <v>13.5</v>
       </c>
       <c r="F2">
-        <f>D2+E2-B2</f>
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="I2">
         <f>(B2+C2)/(F2+G2)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J2">
         <f>I2/(I2+1)*(D2+G3+0)</f>
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>1.935483870967742</v>
+        <v>4.5</v>
+      </c>
+      <c r="K2" s="17">
+        <v>1.9354838709677418</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -53178,18 +53277,37 @@
         <f>((K2+1)*$D$2+$L$2*$D$13+$S$14)/($K$2+$L$2+1)</f>
         <v>4.5</v>
       </c>
-      <c r="V2" s="30"/>
-      <c r="W2" s="4">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>$N$32*O33</f>
+        <v>-426718.55465678498</v>
+      </c>
+      <c r="W2">
+        <v>-80393.924284719804</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="4">
         <v>1</v>
       </c>
-      <c r="X2" s="1">
+      <c r="AD2" s="1">
         <v>13.4982019279072</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AE2" s="1">
         <v>2.6853584055969199E-21</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -53204,14 +53322,14 @@
       </c>
       <c r="F3">
         <f>F2+D3-B3</f>
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="G3">
         <f>$C$2+$B$2+$E$2-C3</f>
         <v>18</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I2:I13" si="0">(B3+C3)/(F3+G3)</f>
+        <f t="shared" ref="I3:I13" si="0">(B3+C3)/(F3+G3)</f>
         <v>0</v>
       </c>
       <c r="J3">
@@ -53227,7 +53345,7 @@
       </c>
       <c r="O3" s="14">
         <f t="shared" ref="O3:O11" si="2">O4/(I3+1)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -53240,18 +53358,37 @@
         <f>($K$2+1-P3)*D3+($L$2+1)*B3+C3</f>
         <v>0</v>
       </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="4">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V13" si="3">$N$32*O34</f>
+        <v>-151903.04926292301</v>
+      </c>
+      <c r="W3">
+        <v>-117212.229408257</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="4">
         <v>2</v>
       </c>
-      <c r="X3" s="1">
+      <c r="AD3" s="1">
         <v>20.800576995992198</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="AE3" s="1">
         <v>17.997549685555601</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -53265,11 +53402,11 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F12" si="3">F3+D4-B4</f>
-        <v>9</v>
+        <f t="shared" ref="F4:F12" si="4">F3+D4-B4</f>
+        <v>13.5</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G13" si="4">$C$2+$B$2+$E$2-C4</f>
+        <f>$C$2+$B$2+$E$2-C4</f>
         <v>18</v>
       </c>
       <c r="I4">
@@ -53284,12 +53421,12 @@
         <v>3</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:N12" si="5">(D4+O5+N3)/(I4+1)-O4</f>
+        <f t="shared" ref="N4:N11" si="5">(D4+O5+N3)/(I4+1)-O4</f>
         <v>13.5</v>
       </c>
       <c r="O4" s="14">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -53302,18 +53439,37 @@
         <f t="shared" ref="S4:S12" si="7">($K$2+1-P4)*D4+($L$2+1)*B4+C4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="30"/>
-      <c r="W4" s="4">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="3"/>
+        <v>-142046.057217397</v>
+      </c>
+      <c r="W4">
+        <v>-126583.937339793</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="4">
         <v>3</v>
       </c>
-      <c r="X4" s="1">
+      <c r="AD4" s="1">
         <v>21.198150474979101</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AE4" s="1">
         <v>25.2999247536406</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -53327,11 +53483,11 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>13.5</v>
       </c>
       <c r="G5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G5:G13" si="8">$C$2+$B$2+$E$2-C5</f>
         <v>18</v>
       </c>
       <c r="I5">
@@ -53346,12 +53502,12 @@
         <v>4</v>
       </c>
       <c r="N5" s="14">
-        <f t="shared" si="5"/>
+        <f>(D5+O6+N4)/(I5+1)-O5</f>
         <v>13.5</v>
       </c>
       <c r="O5" s="14">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -53364,18 +53520,37 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V5" s="30"/>
-      <c r="W5" s="4">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="3"/>
+        <v>-174396.57018223699</v>
+      </c>
+      <c r="W5">
+        <v>-129569.65281685301</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="4">
         <v>4</v>
       </c>
-      <c r="X5" s="1">
+      <c r="AD5" s="1">
         <v>20.774814507136</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AE5" s="1">
         <v>25.6974982326274</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -53390,10 +53565,10 @@
       </c>
       <c r="F6">
         <f>F5+D6-B6</f>
-        <v>22.8</v>
+        <v>27.3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I6">
@@ -53413,7 +53588,7 @@
       </c>
       <c r="O6" s="14">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -53426,18 +53601,37 @@
         <f t="shared" si="7"/>
         <v>26.70967741935484</v>
       </c>
-      <c r="V6" s="30"/>
-      <c r="W6" s="4">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="3"/>
+        <v>-180095.61847186901</v>
+      </c>
+      <c r="W6">
+        <v>-133313.79523258199</v>
+      </c>
+      <c r="X6">
+        <v>-204729.639128804</v>
+      </c>
+      <c r="Y6">
+        <v>-128586.68658062301</v>
+      </c>
+      <c r="Z6">
+        <v>0.42134857177734403</v>
+      </c>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="4">
         <v>5</v>
       </c>
-      <c r="X6" s="1">
+      <c r="AD6" s="1">
         <v>19.257355643670401</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AE6" s="1">
         <v>25.274162264784302</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -53451,11 +53645,11 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
-        <v>22.8</v>
+        <f>F6+D7-B7</f>
+        <v>27.3</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I7">
@@ -53475,7 +53669,7 @@
       </c>
       <c r="O7" s="14">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -53488,18 +53682,37 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V7" s="30"/>
-      <c r="W7" s="4">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>-124860.05035202</v>
+      </c>
+      <c r="W7">
+        <v>-141277.38461197601</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="4">
         <v>6</v>
       </c>
-      <c r="X7" s="1">
+      <c r="AD7" s="1">
         <v>25.873471181250501</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AE7" s="1">
         <v>23.756703401318699</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -53513,11 +53726,11 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
-        <v>22.8</v>
+        <f t="shared" si="4"/>
+        <v>27.3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I8">
@@ -53533,10 +53746,11 @@
       </c>
       <c r="N8" s="14">
         <f t="shared" si="5"/>
-        <v>29.299999999999997</v>
+        <v>27.299999999999997</v>
       </c>
       <c r="O8" s="14">
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -53549,18 +53763,37 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V8" s="30"/>
-      <c r="W8" s="4">
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>-187560.92594549301</v>
+      </c>
+      <c r="W8">
+        <v>-144743.49106657901</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="4">
         <v>7</v>
       </c>
-      <c r="X8" s="1">
+      <c r="AD8" s="1">
         <v>26.057153260008501</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AE8" s="1">
         <v>16.5726132104901</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -53574,11 +53807,11 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
-        <v>22.8</v>
+        <f t="shared" si="4"/>
+        <v>27.3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I9">
@@ -53594,11 +53827,11 @@
       </c>
       <c r="N9" s="14">
         <f t="shared" si="5"/>
-        <v>29.299999999999994</v>
+        <v>27.299999999999997</v>
       </c>
       <c r="O9" s="14">
         <f t="shared" si="2"/>
-        <v>18.000000000000004</v>
+        <v>18</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -53611,18 +53844,37 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V9" s="30"/>
-      <c r="W9" s="4">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="3"/>
+        <v>-176105.92935862599</v>
+      </c>
+      <c r="W9">
+        <v>-146562.49602046399</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="4">
         <v>8</v>
       </c>
-      <c r="X9" s="1">
+      <c r="AD9" s="1">
         <v>26.092422771373901</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AE9" s="1">
         <v>16.756295289248101</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -53636,11 +53888,11 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
-        <v>22.8</v>
+        <f t="shared" si="4"/>
+        <v>27.3</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I10">
@@ -53655,12 +53907,12 @@
         <v>9</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="5"/>
-        <v>29.299999999999994</v>
+        <f>(D10+O11+N9)/(I10+1)-O10</f>
+        <v>27.299999999999997</v>
       </c>
       <c r="O10" s="14">
         <f t="shared" si="2"/>
-        <v>18.000000000000004</v>
+        <v>18</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -53673,18 +53925,37 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V10" s="30"/>
-      <c r="W10" s="4">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="3"/>
+        <v>112909.518763106</v>
+      </c>
+      <c r="W10">
+        <v>-147421.37476595899</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="4">
         <v>9</v>
       </c>
-      <c r="X10" s="1">
+      <c r="AD10" s="1">
         <v>26.214133520568399</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AE10" s="1">
         <v>16.7915648006135</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -53698,11 +53969,11 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
-        <v>22.8</v>
+        <f t="shared" si="4"/>
+        <v>27.3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I11">
@@ -53718,11 +53989,11 @@
       </c>
       <c r="N11" s="14">
         <f t="shared" si="5"/>
-        <v>29.299999999999994</v>
+        <v>27.299999999999997</v>
       </c>
       <c r="O11" s="14">
         <f t="shared" si="2"/>
-        <v>18.000000000000004</v>
+        <v>18</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -53735,18 +54006,37 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V11" s="30"/>
-      <c r="W11" s="4">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>-201321.171371234</v>
+      </c>
+      <c r="W11">
+        <v>-147918.920130657</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="4">
         <v>10</v>
       </c>
-      <c r="X11" s="1">
+      <c r="AD11" s="1">
         <v>26.203097608745601</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AE11" s="1">
         <v>16.913275549807999</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -53760,11 +54050,11 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
-        <v>22.8</v>
+        <f t="shared" si="4"/>
+        <v>27.3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I12">
@@ -53779,12 +54069,12 @@
         <v>11</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" si="5"/>
-        <v>29.299999999999994</v>
+        <f>(D12+O13+N11)/(I12+1)-O12</f>
+        <v>27.299999999999997</v>
       </c>
       <c r="O12" s="14">
         <f>O13/(I12+1)</f>
-        <v>18.000000000000004</v>
+        <v>18</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -53797,18 +54087,37 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V12" s="30"/>
-      <c r="W12" s="4">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>-195151.325047191</v>
+      </c>
+      <c r="W12">
+        <v>-148547.87614082301</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="4">
         <v>11</v>
       </c>
-      <c r="X12" s="1">
+      <c r="AD12" s="1">
         <v>25.517547548452399</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AE12" s="1">
         <v>16.9022396379852</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -53826,7 +54135,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I13">
@@ -53835,7 +54144,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>5.7934426229508196</v>
+        <v>6.9368852459016397</v>
       </c>
       <c r="M13">
         <v>12</v>
@@ -53846,23 +54155,42 @@
       </c>
       <c r="O13" s="14">
         <f>K2*N13</f>
-        <v>18.000000000000004</v>
+        <v>18</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="W13" s="4">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="3"/>
+        <v>-196738.49100297401</v>
+      </c>
+      <c r="W13">
+        <v>-150008.51962527301</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="4">
         <v>12</v>
       </c>
-      <c r="X13" s="1">
+      <c r="AD13" s="1">
         <v>9.3008579707604007</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AE13" s="1">
         <v>16.216689577692001</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q14">
         <f>SUM(Q3:Q12)</f>
         <v>55.2</v>
@@ -53872,7 +54200,7 @@
         <v>26.70967741935484</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -53936,25 +54264,25 @@
       </c>
       <c r="G18" s="1">
         <f>D2+O3</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H18" s="1">
         <f>N2+B2+C2+O2</f>
         <v>18</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="1">
         <f>G18-H18</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <f>D2+Y3</f>
+        <f>D2+AE3</f>
         <v>17.997549685555601</v>
       </c>
       <c r="M18" s="1">
-        <f>X2+B2+C2</f>
+        <f>AD2+B2+C2</f>
         <v>17.9982019279072</v>
       </c>
       <c r="N18" s="1">
@@ -53972,24 +54300,24 @@
       </c>
       <c r="C19" s="4">
         <f>B3+C3+G3+F3</f>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:D29" si="8">B19-C19</f>
-        <v>4.5</v>
+        <f t="shared" ref="D19:D29" si="9">B19-C19</f>
+        <v>0</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19:G28" si="9">D3+N2+O4</f>
-        <v>29.5</v>
+        <f>D3+N2+O4</f>
+        <v>31.5</v>
       </c>
       <c r="H19" s="1">
         <f>B3+C3+O3+N3</f>
-        <v>29.5</v>
-      </c>
-      <c r="I19" s="4">
+        <v>31.5</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" ref="I19:I29" si="10">G19-H19</f>
         <v>0</v>
       </c>
@@ -53997,11 +54325,11 @@
         <v>2</v>
       </c>
       <c r="L19" s="1">
-        <f>D2+X2+Y4</f>
+        <f>D2+AD2+AE4</f>
         <v>38.798126681547799</v>
       </c>
       <c r="M19" s="1">
-        <f>B3+C3+Y3+X3</f>
+        <f>B3+C3+AE3+AD3</f>
         <v>38.798126681547799</v>
       </c>
       <c r="N19" s="1">
@@ -54015,28 +54343,28 @@
       </c>
       <c r="B20" s="4">
         <f>D4+F3+G5</f>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="C20" s="4">
         <f>B4+C4+F4+G4</f>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F20" s="4">
         <v>3</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="9"/>
-        <v>29.5</v>
+        <f t="shared" ref="G20:G28" si="12">D4+N3+O5</f>
+        <v>31.5</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" ref="H20:H28" si="12">B4+C4+N4+O4</f>
-        <v>29.5</v>
-      </c>
-      <c r="I20" s="4">
+        <f t="shared" ref="H20:H28" si="13">B4+C4+N4+O4</f>
+        <v>31.5</v>
+      </c>
+      <c r="I20" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -54044,11 +54372,11 @@
         <v>3</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" ref="L20:L28" si="13">D3+X3+Y5</f>
+        <f t="shared" ref="L20:L28" si="14">D3+AD3+AE5</f>
         <v>46.498075228619598</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" ref="M20:M28" si="14">B4+C4+X4+Y4</f>
+        <f t="shared" ref="M20:M28" si="15">B4+C4+AD4+AE4</f>
         <v>46.498075228619697</v>
       </c>
       <c r="N20" s="1">
@@ -54062,28 +54390,28 @@
       </c>
       <c r="B21" s="4">
         <f>D5+F4+G6</f>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21:C28" si="15">B5+C5+F5+G5</f>
-        <v>27</v>
+        <f t="shared" ref="C21:C28" si="16">B5+C5+F5+G5</f>
+        <v>31.5</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F21" s="4">
         <v>4</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="9"/>
-        <v>29.5</v>
+        <f t="shared" si="12"/>
+        <v>31.5</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="12"/>
-        <v>29.5</v>
-      </c>
-      <c r="I21" s="4">
+        <f t="shared" si="13"/>
+        <v>31.5</v>
+      </c>
+      <c r="I21" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -54091,11 +54419,11 @@
         <v>4</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46.472312739763403</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.472312739763396</v>
       </c>
       <c r="N21" s="1">
@@ -54109,28 +54437,28 @@
       </c>
       <c r="B22" s="4">
         <f>D6+F5+G7</f>
-        <v>40.799999999999997</v>
+        <v>45.3</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="15"/>
-        <v>40.799999999999997</v>
+        <f t="shared" si="16"/>
+        <v>45.3</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F22" s="4">
         <v>5</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="9"/>
-        <v>43.3</v>
+        <f t="shared" si="12"/>
+        <v>45.3</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="12"/>
-        <v>43.3</v>
-      </c>
-      <c r="I22" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="I22" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -54138,11 +54466,11 @@
         <v>5</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>44.531517908454703</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>44.531517908454703</v>
       </c>
       <c r="N22" s="1">
@@ -54155,29 +54483,29 @@
         <v>6</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ref="B23:B28" si="16">D7+F6+G8</f>
-        <v>40.799999999999997</v>
+        <f t="shared" ref="B23:B28" si="17">D7+F6+G8</f>
+        <v>45.3</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="15"/>
-        <v>40.799999999999997</v>
+        <f t="shared" si="16"/>
+        <v>45.3</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F23" s="4">
         <v>6</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="9"/>
-        <v>43.3</v>
+        <f t="shared" si="12"/>
+        <v>45.3</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="12"/>
-        <v>43.3</v>
-      </c>
-      <c r="I23" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="I23" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -54185,11 +54513,11 @@
         <v>6</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>49.629968854160509</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>49.630174582569197</v>
       </c>
       <c r="N23" s="1">
@@ -54202,29 +54530,29 @@
         <v>7</v>
       </c>
       <c r="B24" s="4">
+        <f t="shared" si="17"/>
+        <v>45.3</v>
+      </c>
+      <c r="C24" s="4">
         <f t="shared" si="16"/>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="15"/>
-        <v>40.799999999999997</v>
+        <v>45.3</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F24" s="4">
         <v>7</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="9"/>
-        <v>45.3</v>
-      </c>
-      <c r="H24" s="4">
         <f t="shared" si="12"/>
         <v>45.3</v>
       </c>
-      <c r="I24" s="4">
+      <c r="H24" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="I24" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -54232,11 +54560,11 @@
         <v>7</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>42.629766470498602</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42.629766470498602</v>
       </c>
       <c r="N24" s="1">
@@ -54249,29 +54577,29 @@
         <v>8</v>
       </c>
       <c r="B25" s="4">
+        <f t="shared" si="17"/>
+        <v>45.3</v>
+      </c>
+      <c r="C25" s="4">
         <f t="shared" si="16"/>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" si="15"/>
-        <v>40.799999999999997</v>
+        <v>45.3</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F25" s="4">
         <v>8</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="9"/>
-        <v>47.3</v>
+        <f t="shared" si="12"/>
+        <v>45.3</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="12"/>
-        <v>47.3</v>
-      </c>
-      <c r="I25" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="I25" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -54279,11 +54607,11 @@
         <v>8</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>42.848718060622005</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42.848718060622005</v>
       </c>
       <c r="N25" s="1">
@@ -54296,29 +54624,29 @@
         <v>9</v>
       </c>
       <c r="B26" s="4">
+        <f t="shared" si="17"/>
+        <v>45.3</v>
+      </c>
+      <c r="C26" s="4">
         <f t="shared" si="16"/>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="15"/>
-        <v>40.799999999999997</v>
+        <v>45.3</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F26" s="4">
         <v>9</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="9"/>
-        <v>47.3</v>
+        <f t="shared" si="12"/>
+        <v>45.3</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="12"/>
-        <v>47.3</v>
-      </c>
-      <c r="I26" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="I26" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -54326,11 +54654,11 @@
         <v>9</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43.005698321181896</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43.005698321181896</v>
       </c>
       <c r="N26" s="1">
@@ -54343,29 +54671,29 @@
         <v>10</v>
       </c>
       <c r="B27" s="4">
+        <f t="shared" si="17"/>
+        <v>45.3</v>
+      </c>
+      <c r="C27" s="4">
         <f t="shared" si="16"/>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" si="15"/>
-        <v>40.799999999999997</v>
+        <v>45.3</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F27" s="4">
         <v>10</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="9"/>
-        <v>47.3</v>
+        <f t="shared" si="12"/>
+        <v>45.3</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="12"/>
-        <v>47.3</v>
-      </c>
-      <c r="I27" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="I27" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -54373,11 +54701,11 @@
         <v>10</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43.1163731585536</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43.1163731585536</v>
       </c>
       <c r="N27" s="1">
@@ -54390,29 +54718,29 @@
         <v>11</v>
       </c>
       <c r="B28" s="4">
+        <f t="shared" si="17"/>
+        <v>45.3</v>
+      </c>
+      <c r="C28" s="4">
         <f t="shared" si="16"/>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="C28" s="4">
-        <f t="shared" si="15"/>
-        <v>40.799999999999997</v>
+        <v>45.3</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F28" s="4">
         <v>11</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="9"/>
-        <v>47.3</v>
+        <f t="shared" si="12"/>
+        <v>45.3</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="12"/>
-        <v>47.3</v>
-      </c>
-      <c r="I28" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="I28" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -54420,11 +54748,11 @@
         <v>11</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>42.419787186437603</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42.419787186437603</v>
       </c>
       <c r="N28" s="1">
@@ -54438,40 +54766,40 @@
       </c>
       <c r="B29" s="4">
         <f>D13+F12</f>
-        <v>22.8</v>
+        <v>27.3</v>
       </c>
       <c r="C29" s="4">
         <f>B13+C13+G13</f>
         <v>27.3</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="8"/>
-        <v>-4.5</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F29" s="4">
         <v>12</v>
       </c>
       <c r="G29" s="1">
         <f>D13+N12</f>
-        <v>29.299999999999994</v>
+        <v>27.299999999999997</v>
       </c>
       <c r="H29" s="1">
         <f>B13+C13+O13</f>
-        <v>27.300000000000004</v>
-      </c>
-      <c r="I29" s="4">
+        <v>27.3</v>
+      </c>
+      <c r="I29" s="1">
         <f t="shared" si="10"/>
-        <v>1.9999999999999893</v>
+        <v>0</v>
       </c>
       <c r="K29" s="4">
         <v>12</v>
       </c>
       <c r="L29" s="1">
-        <f>D13+X12</f>
+        <f>D13+AD12</f>
         <v>25.517547548452399</v>
       </c>
       <c r="M29" s="1">
-        <f>B13+C13+Y13</f>
+        <f>B13+C13+AE13</f>
         <v>25.516689577692002</v>
       </c>
       <c r="N29" s="1">
@@ -54482,9 +54810,646 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J30" s="15"/>
     </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>182</v>
+      </c>
+      <c r="J31" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31" t="s">
+        <v>185</v>
+      </c>
+      <c r="L31" t="s">
+        <v>184</v>
+      </c>
+      <c r="M31" t="s">
+        <v>185</v>
+      </c>
+      <c r="N31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F32" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" t="s">
+        <v>183</v>
+      </c>
+      <c r="K32" s="1">
+        <v>7680933.9838221297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" s="1">
+        <v>-3497963.20746064</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <f>D2*(Z2*Y2+(1-Z2)*X2)+O3*W3</f>
+        <v>-2109820.1293486259</v>
+      </c>
+      <c r="H33" s="1">
+        <f>N2*V2+B2*V2+C2*W2+O2*W2+U2</f>
+        <v>-7680933.9838221297</v>
+      </c>
+      <c r="I33" s="1">
+        <f>G33-H33</f>
+        <v>5571113.8544735033</v>
+      </c>
+      <c r="N33">
+        <v>-426718.55465678498</v>
+      </c>
+      <c r="O33">
+        <v>-426718.55465678498</v>
+      </c>
+    </row>
+    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <f>D3*(Z3*Y3+(1-Z3)*X3)+N2*V2+O4*W4</f>
+        <v>-8039211.3599828715</v>
+      </c>
+      <c r="H34" s="1">
+        <f>B3*V3+C3*W3+O3*W3+N3*V3+U3</f>
+        <v>-4160511.2943980866</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" ref="I34:I44" si="18">G34-H34</f>
+        <v>-3878700.0655847848</v>
+      </c>
+      <c r="N34">
+        <v>-151903.04926292301</v>
+      </c>
+      <c r="O34">
+        <v>-151903.04926292301</v>
+      </c>
+    </row>
+    <row r="35" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ref="G35:G43" si="19">D4*(Z4*Y4+(1-Z4)*X4)+N3*V3+O5*W5</f>
+        <v>-4382944.9157528151</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" ref="H35:H42" si="20">B4*V4+C4*W4+O4*W4+N4*V4+U4</f>
+        <v>-4196132.6445511337</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="18"/>
+        <v>-186812.27120168135</v>
+      </c>
+      <c r="N35">
+        <v>-142046.057217397</v>
+      </c>
+      <c r="O35">
+        <v>-142046.057217397</v>
+      </c>
+    </row>
+    <row r="36" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F36" s="4">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="19"/>
+        <v>-4317270.0866213348</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="20"/>
+        <v>-4686607.4481635531</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="18"/>
+        <v>369337.36154221836</v>
+      </c>
+      <c r="N36">
+        <v>-174396.57018223699</v>
+      </c>
+      <c r="O36">
+        <v>-174396.57018223699</v>
+      </c>
+    </row>
+    <row r="37" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F37" s="4">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="19"/>
+        <v>-7279874.0450154748</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="20"/>
+        <v>-7316258.6984684989</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="18"/>
+        <v>36384.653453024104</v>
+      </c>
+      <c r="N37">
+        <v>-180095.61847186901</v>
+      </c>
+      <c r="O37">
+        <v>-180095.61847186901</v>
+      </c>
+    </row>
+    <row r="38" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F38" s="4">
+        <v>6</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="19"/>
+        <v>-7521993.2234804463</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="20"/>
+        <v>-5951672.297625714</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="18"/>
+        <v>-1570320.9258547323</v>
+      </c>
+      <c r="N38">
+        <v>-124860.05035202</v>
+      </c>
+      <c r="O38">
+        <v>-124860.05035202</v>
+      </c>
+    </row>
+    <row r="39" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F39" s="4">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="19"/>
+        <v>-6046804.302978497</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="20"/>
+        <v>-7725796.1175103802</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="18"/>
+        <v>1678991.8145318832</v>
+      </c>
+      <c r="N39">
+        <v>-187560.92594549301</v>
+      </c>
+      <c r="O39">
+        <v>-187560.92594549301</v>
+      </c>
+    </row>
+    <row r="40" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F40" s="4">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="19"/>
+        <v>-7773998.0240992205</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="20"/>
+        <v>-7445816.7998588402</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="18"/>
+        <v>-328181.22424038034</v>
+      </c>
+      <c r="N40">
+        <v>-176105.92935862599</v>
+      </c>
+      <c r="O40">
+        <v>-176105.92935862599</v>
+      </c>
+    </row>
+    <row r="41" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F41" s="4">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="19"/>
+        <v>-7470232.4338423144</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="20"/>
+        <v>428845.1164455316</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="18"/>
+        <v>-7899077.5502878465</v>
+      </c>
+      <c r="N41">
+        <v>112909.518763106</v>
+      </c>
+      <c r="O41">
+        <v>112909.518763106</v>
+      </c>
+    </row>
+    <row r="42" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F42" s="4">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="19"/>
+        <v>408568.09169797925</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="20"/>
+        <v>-8158608.5407865141</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="18"/>
+        <v>8567176.6324844938</v>
+      </c>
+      <c r="N42">
+        <v>-201321.171371234</v>
+      </c>
+      <c r="O42">
+        <v>-201321.171371234</v>
+      </c>
+    </row>
+    <row r="43" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F43" s="4">
+        <v>11</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="19"/>
+        <v>-8196221.3316896018</v>
+      </c>
+      <c r="H43" s="1">
+        <f>B12*V12+C12*W12+O12*W12+N12*V12+U12</f>
+        <v>-8001492.9443231281</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="18"/>
+        <v>-194728.38736647367</v>
+      </c>
+      <c r="N43">
+        <v>-195151.325047191</v>
+      </c>
+      <c r="O43">
+        <v>-195151.325047191</v>
+      </c>
+    </row>
+    <row r="44" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F44" s="4">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1">
+        <f>D13*(Z13*Y13+(1-Z13)*X13)+N12*V12</f>
+        <v>-5327631.1737883138</v>
+      </c>
+      <c r="H44" s="1">
+        <f>B13*V13+C13*W13+O13*W13+U13</f>
+        <v>-4529821.3195825722</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="18"/>
+        <v>-797809.85420574155</v>
+      </c>
+      <c r="N44">
+        <v>-196738.49100297401</v>
+      </c>
+      <c r="O44">
+        <v>-196738.49100297401</v>
+      </c>
+    </row>
+    <row r="45" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="I45" s="14">
+        <f>SUM(I33:I44)</f>
+        <v>1367374.0377434818</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>-82.45</v>
+      </c>
+      <c r="C51" s="4">
+        <v>32.28</v>
+      </c>
+      <c r="D51" s="4">
+        <v>96.75</v>
+      </c>
+      <c r="E51" s="4">
+        <v>134.9</v>
+      </c>
+      <c r="F51" s="4">
+        <v>152</v>
+      </c>
+      <c r="G51" s="4">
+        <v>187.2</v>
+      </c>
+      <c r="H51" s="4">
+        <v>196.5</v>
+      </c>
+      <c r="I51" s="4">
+        <v>234.7</v>
+      </c>
+      <c r="J51" s="4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f>B51+273.15</f>
+        <v>190.7</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:J52" si="21">C51+273.15</f>
+        <v>305.42999999999995</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="21"/>
+        <v>369.9</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="21"/>
+        <v>408.04999999999995</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="21"/>
+        <v>425.15</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="21"/>
+        <v>460.34999999999997</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="21"/>
+        <v>469.65</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="21"/>
+        <v>507.84999999999997</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="21"/>
+        <v>540.15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="4">
+        <v>-161.52500000000001</v>
+      </c>
+      <c r="C54" s="4">
+        <v>-88.599996948242193</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-42.101995849609402</v>
+      </c>
+      <c r="E54" s="4">
+        <v>-11.7299865722656</v>
+      </c>
+      <c r="F54" s="4">
+        <v>-0.50198974609372704</v>
+      </c>
+      <c r="G54" s="4">
+        <v>27.878015136718801</v>
+      </c>
+      <c r="H54" s="4">
+        <v>36.059014892578098</v>
+      </c>
+      <c r="I54" s="4">
+        <v>68.730004882812494</v>
+      </c>
+      <c r="J54" s="4">
+        <v>98.429010009765605</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>B54+273.15</f>
+        <v>111.62499999999997</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:J55" si="22">C54+273.15</f>
+        <v>184.55000305175778</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="22"/>
+        <v>231.04800415039057</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="22"/>
+        <v>261.42001342773437</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="22"/>
+        <v>272.64801025390625</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="22"/>
+        <v>301.02801513671875</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="22"/>
+        <v>309.20901489257807</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="22"/>
+        <v>341.8800048828125</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="22"/>
+        <v>371.57901000976557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f>B54/B51</f>
+        <v>1.9590661006670709</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:J57" si="23">C54/C51</f>
+        <v>-2.7447334866246034</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="23"/>
+        <v>-0.43516274779958036</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="23"/>
+        <v>-8.6953199201375828E-2</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="23"/>
+        <v>-3.3025641190376777E-3</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="23"/>
+        <v>0.14892102102948079</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="23"/>
+        <v>0.18350643711235673</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="23"/>
+        <v>0.29284194666728802</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="23"/>
+        <v>0.36864797756466516</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <f>B55/B52</f>
+        <v>0.58534347142108012</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" ref="C58:J58" si="24">C55/C52</f>
+        <v>0.60423011181533515</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="24"/>
+        <v>0.62462288226653306</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="24"/>
+        <v>0.64065681516415729</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="24"/>
+        <v>0.64129838940116723</v>
+      </c>
+      <c r="G58" s="4">
+        <f t="shared" si="24"/>
+        <v>0.65391118743720811</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="24"/>
+        <v>0.65838180537118718</v>
+      </c>
+      <c r="I58" s="4">
+        <f t="shared" si="24"/>
+        <v>0.67319091244031215</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="24"/>
+        <v>0.687918189409915</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="V1:V13"/>
+    <mergeCell ref="AB1:AB13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -73745,13 +74710,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -73987,7 +74955,7 @@
         <v>101</v>
       </c>
       <c r="B10" s="14">
-        <v>273.14999999999998</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -74025,39 +74993,77 @@
       </c>
       <c r="B12" s="14">
         <f>B3+B4*$B$10+B5*$B$10^2+B6*$B$10^3+B7*$B$10^4+B8*$B$10^5</f>
-        <v>569.76363408211148</v>
+        <v>624.77666997596259</v>
       </c>
       <c r="C12" s="14">
         <f t="shared" ref="C12:I12" si="0">C3+C4*$B$10+C5*$B$10^2+C6*$B$10^3+C7*$B$10^4+C8*$B$10^5</f>
-        <v>355.19808512534354</v>
+        <v>397.68141250737631</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="0"/>
-        <v>309.73905900320631</v>
+        <v>350.56420363753267</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" si="0"/>
-        <v>267.15102149006486</v>
+        <v>307.30684187242935</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" si="0"/>
-        <v>292.91147800734956</v>
+        <v>333.28781222880531</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>266.65611632488469</v>
+        <v>306.10038881947764</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="0"/>
-        <v>284.68474120540094</v>
+        <v>324.79884105993989</v>
       </c>
       <c r="I12" s="14">
         <f t="shared" si="0"/>
-        <v>281.94270545653768</v>
+        <v>321.4183550686426</v>
       </c>
       <c r="J12" s="14">
         <f>J3+J4*$B$10+J5*$B$10^2+J6*$B$10^3+J7*$B$10^4+J8*$B$10^5</f>
-        <v>278.36030454864766</v>
+        <v>317.73438425592326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>B12*B23</f>
+        <v>10023.229692144037</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:J13" si="1">C12*C23</f>
+        <v>11958.240509844945</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>15458.829730597756</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>17861.90304580177</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>19372.020981067541</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>22085.449452640292</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>23434.561498502091</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>27699.159575358612</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>31838.574556153922</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -74077,31 +75083,31 @@
         <v>(-12.98,</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ref="C15:I15" si="1">CONCATENATE(C3,$B$14)</f>
+        <f t="shared" ref="C15:I15" si="2">CONCATENATE(C3,$B$14)</f>
         <v>-1.7675,</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.4889,</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.903,</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.721,</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.25,</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.198,</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74.513,</v>
       </c>
       <c r="J15" t="str">
@@ -74111,193 +75117,547 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
-        <f t="shared" ref="B16:B20" si="2">CONCATENATE($A$14,B4,$B$14)</f>
+        <f t="shared" ref="B16:B20" si="3">CONCATENATE($A$14,B4,$B$14)</f>
         <v>(2.36459,</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" ref="C16:I16" si="3">CONCATENATE(C4,$B$14)</f>
+        <f t="shared" ref="C16:I16" si="4">CONCATENATE(C4,$B$14)</f>
         <v>1.1429,</v>
       </c>
       <c r="D16" t="str">
+        <f t="shared" si="4"/>
+        <v>0.395,</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="4"/>
+        <v>0.1533,</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="4"/>
+        <v>0.00854058,</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="4"/>
+        <v>-0.131798,</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="4"/>
+        <v>-0.0117017,</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="4"/>
+        <v>-0.096697,</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J20" si="5">CONCATENATE(J4,$J$14)</f>
+        <v>-0.0968949);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
         <f t="shared" si="3"/>
-        <v>0.395,</v>
-      </c>
-      <c r="E16" t="str">
+        <v>(-0.00213247,</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" ref="C17:I17" si="6">CONCATENATE(C5,$B$14)</f>
+        <v>-0.0003236,</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00211409,</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00263479,</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00327699,</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="6"/>
+        <v>0.003541,</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0033164,</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00347649,</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.003473);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
         <f t="shared" si="3"/>
-        <v>0.1533,</v>
-      </c>
-      <c r="F16" t="str">
+        <v>(0.0000056618,</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" ref="C18:I18" si="7">CONCATENATE(C6,$B$14)</f>
+        <v>0.0000042431,</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="7"/>
+        <v>0.000000396486,</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0000000727226,</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="7"/>
+        <v>-0.00000110968,</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="7"/>
+        <v>-0.0000013332,</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="7"/>
+        <v>-0.0000011705,</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="7"/>
+        <v>-0.0000013212,</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="5"/>
+        <v>-0.0000013302);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
         <f t="shared" si="3"/>
-        <v>0.00854058,</v>
-      </c>
-      <c r="G16" t="str">
+        <v>(-0.00000000372476,</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" ref="C19:I19" si="8">CONCATENATE(C7,$B$14)</f>
+        <v>-0.00000000339316,</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="8"/>
+        <v>-0.000000000667176,</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="8"/>
+        <v>-0.000000000727896,</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000000000176646,</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000000000251446,</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000000000199636,</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000000000252365,</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="5"/>
+        <v>0.000000000255766);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
         <f t="shared" si="3"/>
-        <v>-0.131798,</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="3"/>
-        <v>-0.0117017,</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="3"/>
-        <v>-0.096697,</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" ref="J16:J20" si="4">CONCATENATE(J4,$J$14)</f>
-        <v>-0.0968949);</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="str">
-        <f t="shared" si="2"/>
-        <v>(-0.00213247,</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" ref="C17:I17" si="5">CONCATENATE(C5,$B$14)</f>
-        <v>-0.0003236,</v>
-      </c>
-      <c r="D17" t="str">
+        <v>(0.000000000000860896,</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" ref="C20:I20" si="9">CONCATENATE(C8,$B$14)</f>
+        <v>0.000000000000882096,</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="9"/>
+        <v>0.000000000000167936,</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="9"/>
+        <v>0.000000000000236736,</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="9"/>
+        <v>-6.39926E-15,</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="9"/>
+        <v>-1.29576E-14,</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="9"/>
+        <v>-8.66485E-15,</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="9"/>
+        <v>-1.34666E-14,</v>
+      </c>
+      <c r="J20" t="str">
         <f t="shared" si="5"/>
-        <v>0.00211409,</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="5"/>
-        <v>0.00263479,</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="5"/>
-        <v>0.00327699,</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="5"/>
-        <v>0.003541,</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="5"/>
-        <v>0.0033164,</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="5"/>
-        <v>0.00347649,</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="4"/>
-        <v>0.003473);</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="str">
-        <f t="shared" si="2"/>
-        <v>(0.0000056618,</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" ref="C18:I18" si="6">CONCATENATE(C6,$B$14)</f>
-        <v>0.0000042431,</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="6"/>
-        <v>0.000000396486,</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="6"/>
-        <v>0.0000000727226,</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="6"/>
-        <v>-0.00000110968,</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="6"/>
-        <v>-0.0000013332,</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="6"/>
-        <v>-0.0000011705,</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="6"/>
-        <v>-0.0000013212,</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="4"/>
-        <v>-0.0000013302);</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="str">
-        <f t="shared" si="2"/>
-        <v>(-0.00000000372476,</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" ref="C19:I19" si="7">CONCATENATE(C7,$B$14)</f>
-        <v>-0.00000000339316,</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="7"/>
-        <v>-0.000000000667176,</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="7"/>
-        <v>-0.000000000727896,</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="7"/>
-        <v>0.000000000176646,</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="7"/>
-        <v>0.000000000251446,</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="7"/>
-        <v>0.000000000199636,</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="7"/>
-        <v>0.000000000252365,</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="4"/>
-        <v>0.000000000255766);</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="str">
-        <f t="shared" si="2"/>
-        <v>(0.000000000000860896,</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" ref="C20:I20" si="8">CONCATENATE(C8,$B$14)</f>
-        <v>0.000000000000882096,</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000000000000167936,</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000000000000236736,</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="8"/>
-        <v>-6.39926E-15,</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="8"/>
-        <v>-1.29576E-14,</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="8"/>
-        <v>-8.66485E-15,</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="8"/>
-        <v>-1.34666E-14,</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="4"/>
         <v>-1.37726E-14);</v>
       </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>16.042900085449201</v>
+      </c>
+      <c r="C23" s="4">
+        <v>30.069900512695298</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44.097000122070298</v>
+      </c>
+      <c r="E23" s="4">
+        <v>58.124000549316399</v>
+      </c>
+      <c r="F23" s="4">
+        <v>58.124000549316399</v>
+      </c>
+      <c r="G23" s="4">
+        <v>72.1510009765625</v>
+      </c>
+      <c r="H23" s="4">
+        <v>72.1510009765625</v>
+      </c>
+      <c r="I23" s="4">
+        <v>86.177902221679702</v>
+      </c>
+      <c r="J23" s="4">
+        <v>100.205001831055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25">
+        <v>-161.52500000000001</v>
+      </c>
+      <c r="C25">
+        <v>-88.599996948242193</v>
+      </c>
+      <c r="D25">
+        <v>-42.101995849609402</v>
+      </c>
+      <c r="E25">
+        <v>-11.7299865722656</v>
+      </c>
+      <c r="F25">
+        <v>-0.50198974609372704</v>
+      </c>
+      <c r="G25">
+        <v>27.878015136718801</v>
+      </c>
+      <c r="H25">
+        <v>36.059014892578098</v>
+      </c>
+      <c r="I25">
+        <v>68.730004882812494</v>
+      </c>
+      <c r="J25">
+        <v>98.429010009765605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26">
+        <v>120.045972232935</v>
+      </c>
+      <c r="C26">
+        <v>197.82860935532199</v>
+      </c>
+      <c r="D26">
+        <v>246.87619614213099</v>
+      </c>
+      <c r="E26">
+        <v>279.40760224913998</v>
+      </c>
+      <c r="F26">
+        <v>291.05885989192899</v>
+      </c>
+      <c r="G26">
+        <v>321.38292240027999</v>
+      </c>
+      <c r="H26">
+        <v>329.86348975768198</v>
+      </c>
+      <c r="I26">
+        <v>364.30083038148302</v>
+      </c>
+      <c r="J26">
+        <v>395.54993099207098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="14">
+        <f>(B3+B4*B26+B5*B26^2+B6*B26^3+B7*B26^4+B8*B26^5)*B23</f>
+        <v>3997.7488208040782</v>
+      </c>
+      <c r="C29" s="14">
+        <f t="shared" ref="C29:I29" si="10">(C3+C4*C26+C5*C26^2+C6*C26^3+C7*C26^4+C8*C26^5)*C23</f>
+        <v>7204.3778953286037</v>
+      </c>
+      <c r="D29" s="14">
+        <f t="shared" si="10"/>
+        <v>11883.951672795969</v>
+      </c>
+      <c r="E29" s="14">
+        <f t="shared" si="10"/>
+        <v>16099.400453964392</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="10"/>
+        <v>18699.113741368237</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" si="10"/>
+        <v>24965.292007405551</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="10"/>
+        <v>27454.3904513751</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="10"/>
+        <v>38017.36489095146</v>
+      </c>
+      <c r="J29" s="14">
+        <f>(J3+J4*J26+J5*J26^2+J6*J26^3+J7*J26^4+J8*J26^5)*J23</f>
+        <v>50129.826342776381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>-74900</v>
+      </c>
+      <c r="C32" s="4">
+        <v>-84738</v>
+      </c>
+      <c r="D32" s="4">
+        <v>-103890</v>
+      </c>
+      <c r="E32" s="4">
+        <v>-134590</v>
+      </c>
+      <c r="F32" s="4">
+        <v>-126190</v>
+      </c>
+      <c r="G32" s="4">
+        <v>-154590</v>
+      </c>
+      <c r="H32" s="4">
+        <v>-146490</v>
+      </c>
+      <c r="I32" s="4">
+        <v>-167290</v>
+      </c>
+      <c r="J32" s="4">
+        <v>-187890</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34">
+        <v>-5441.6654625699821</v>
+      </c>
+      <c r="C34">
+        <v>-4545.8522395741966</v>
+      </c>
+      <c r="D34">
+        <v>-3479.502216427285</v>
+      </c>
+      <c r="E34">
+        <v>-1766.0471186787001</v>
+      </c>
+      <c r="F34">
+        <v>-675.94137571781584</v>
+      </c>
+      <c r="G34">
+        <v>2873.256781151616</v>
+      </c>
+      <c r="H34">
+        <v>4000.7966029595545</v>
+      </c>
+      <c r="I34">
+        <v>10367.612656544699</v>
+      </c>
+      <c r="J34">
+        <v>18378.07373748079</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35">
+        <f>B34+B32</f>
+        <v>-80341.665462569988</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:J35" si="11">C34+C32</f>
+        <v>-89283.852239574189</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="11"/>
+        <v>-107369.50221642728</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="11"/>
+        <v>-136356.04711867869</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="11"/>
+        <v>-126865.94137571781</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="11"/>
+        <v>-151716.74321884839</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="11"/>
+        <v>-142489.20339704046</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="11"/>
+        <v>-156922.38734345531</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="11"/>
+        <v>-169511.92626251921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -74306,10 +75666,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:J14"/>
+      <selection activeCell="A16" sqref="A16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74331,7 +75691,7 @@
         <v>101</v>
       </c>
       <c r="G1" s="22">
-        <v>273.14999999999998</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -74497,39 +75857,39 @@
       </c>
       <c r="B8" s="21">
         <f>B4+B5*$G$1+B6*$G$1^2+B7*$G$1^3</f>
-        <v>8.1570176700311947</v>
+        <v>8.4905483508239996</v>
       </c>
       <c r="C8" s="21">
         <f t="shared" ref="C8:J8" si="0">C4+C5*$G$1+C6*$G$1^2+C7*$G$1^3</f>
-        <v>11.717908738988699</v>
+        <v>12.552508454952001</v>
       </c>
       <c r="D8" s="21">
         <f t="shared" si="0"/>
-        <v>16.30139208286116</v>
+        <v>17.628103899376004</v>
       </c>
       <c r="E8" s="21">
         <f t="shared" si="0"/>
-        <v>21.61908544359525</v>
+        <v>23.318847378680001</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
-        <v>21.892222538582871</v>
+        <v>23.478976175976001</v>
       </c>
       <c r="G8" s="21">
         <f t="shared" si="0"/>
-        <v>26.190858199708561</v>
+        <v>28.355624542640001</v>
       </c>
       <c r="H8" s="21">
         <f t="shared" si="0"/>
-        <v>26.588603110327682</v>
+        <v>28.683503190640003</v>
       </c>
       <c r="I8" s="21">
         <f t="shared" si="0"/>
-        <v>31.672175771663369</v>
+        <v>34.163440351920002</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="0"/>
-        <v>36.751402272965201</v>
+        <v>39.63831029768</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -74693,6 +76053,192 @@
       <c r="J14" t="str">
         <f t="shared" si="4"/>
         <v>0.00000001829);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16">
+        <v>-161.52500000000001</v>
+      </c>
+      <c r="C16">
+        <v>-88.599996948242193</v>
+      </c>
+      <c r="D16">
+        <v>-42.101995849609402</v>
+      </c>
+      <c r="E16">
+        <v>-11.7299865722656</v>
+      </c>
+      <c r="F16">
+        <v>-0.50198974609372704</v>
+      </c>
+      <c r="G16">
+        <v>27.878015136718801</v>
+      </c>
+      <c r="H16">
+        <v>36.059014892578098</v>
+      </c>
+      <c r="I16">
+        <v>68.730004882812494</v>
+      </c>
+      <c r="J16">
+        <v>98.429010009765605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17">
+        <v>120.045972232935</v>
+      </c>
+      <c r="C17">
+        <v>197.82860935532199</v>
+      </c>
+      <c r="D17">
+        <v>246.87619614213099</v>
+      </c>
+      <c r="E17">
+        <v>279.40760224913998</v>
+      </c>
+      <c r="F17">
+        <v>291.05885989192899</v>
+      </c>
+      <c r="G17">
+        <v>321.38292240027999</v>
+      </c>
+      <c r="H17">
+        <v>329.86348975768198</v>
+      </c>
+      <c r="I17">
+        <v>364.30083038148302</v>
+      </c>
+      <c r="J17">
+        <v>395.54993099207098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
+        <f>-(B4*($D$19-B17)+B5/2*($D$19^2-B17^2)+B6/3*($D$19^3-B17^3)+B7/4*($D$19^4-B17^4))</f>
+        <v>-1299.7194665544048</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" ref="C22:J22" si="7">-(C4*($D$19-C17)+C5/2*($D$19^2-C17^2)+C6/3*($D$19^3-C17^3)+C7/4*($D$19^4-C17^4))</f>
+        <v>-1085.7581540972094</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="7"/>
+        <v>-831.06482669993432</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="7"/>
+        <v>-421.81310754721989</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="7"/>
+        <v>-161.44582395094486</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="7"/>
+        <v>686.26559213519067</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="7"/>
+        <v>955.57385185811472</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="7"/>
+        <v>2476.2617408389938</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="7"/>
+        <v>4389.5275001148348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23">
+        <f>B22*4.1868</f>
+        <v>-5441.6654625699821</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:J23" si="8">C22*4.1868</f>
+        <v>-4545.8522395741966</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="8"/>
+        <v>-3479.502216427285</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="8"/>
+        <v>-1766.0471186787001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="8"/>
+        <v>-675.94137571781584</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="8"/>
+        <v>2873.256781151616</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="8"/>
+        <v>4000.7966029595545</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="8"/>
+        <v>10367.612656544699</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="8"/>
+        <v>18378.07373748079</v>
       </c>
     </row>
   </sheetData>
@@ -74705,8 +76251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75861,10 +77407,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J5"/>
+      <selection activeCell="B12" sqref="B12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75882,6 +77428,16 @@
       <c r="G1">
         <v>298</v>
       </c>
+      <c r="H1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1">
+        <v>200000</v>
+      </c>
+      <c r="K1">
+        <f>101325</f>
+        <v>101325</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -76266,6 +77822,192 @@
       <c r="J18" s="4">
         <f t="shared" si="2"/>
         <v>7654.7805501988059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <f>(1/(B12+273.15)-(8.314*LN($I$1/$K$1))/(B18*4.1868))^(-1)</f>
+        <v>120.78942450794031</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24:J24" si="3">(1/(C12+273.15)-(8.314*LN($I$1/$K$1))/(C18*4.1868))^(-1)</f>
+        <v>198.99678437725325</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="3"/>
+        <v>248.26380130875134</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="3"/>
+        <v>280.98499801705793</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="3"/>
+        <v>292.67126812514124</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="3"/>
+        <v>323.1657566473699</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="3"/>
+        <v>331.6710508996976</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="3"/>
+        <v>366.26053874551502</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="3"/>
+        <v>397.64283896281677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>B24-273.15</f>
+        <v>-152.36057549205967</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:J25" si="4">C24-273.15</f>
+        <v>-74.153215622746728</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>-24.886198691248637</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>7.8349980170579556</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>19.521268125141262</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>50.015756647369926</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>58.521050899697627</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>93.110538745515044</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>124.49283896281679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28">
+        <f>1.093*$B$3*(B6+273.15)*(LN(B9/101.325)-1)/(0.93-(B25+273.15)/(B6+273.15))*(B12+273.15)/(B6+273.15)</f>
+        <v>2308.4874236959377</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:J28" si="5">1.093*$B$3*(C6+273.15)*(LN(C9/101.325)-1)/(0.93-(C25+273.15)/(C6+273.15))*(C12+273.15)/(C6+273.15)</f>
+        <v>4015.5777814098146</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>5307.9643571128991</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>6076.4910849489461</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>6430.1063945095066</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>7185.2148270206908</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>7482.6155844378882</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>8529.4990844486874</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>9560.4085707778686</v>
       </c>
     </row>
   </sheetData>

--- a/Начальное приближение по темп.xlsx
+++ b/Начальное приближение по темп.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE768198-4DC9-4371-81B7-868F864A9115}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,8 +20,9 @@
     <sheet name="dHf_298" sheetId="10" r:id="rId10"/>
     <sheet name="Проверка энтальпий" sheetId="11" r:id="rId11"/>
     <sheet name="Проверка профили" sheetId="12" r:id="rId12"/>
+    <sheet name="Теплоемкость" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="201">
   <si>
     <t>CritT</t>
   </si>
@@ -653,11 +655,20 @@
   <si>
     <t>Tbr</t>
   </si>
+  <si>
+    <t>Condenced phase</t>
+  </si>
+  <si>
+    <t>Gas phase</t>
+  </si>
+  <si>
+    <t>Cp, J/mole K</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -898,7 +909,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1035,7 +1046,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-87B7-4437-B1D8-9822BC74DF63}"/>
             </c:ext>
@@ -1189,14 +1200,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1232,7 +1243,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1380,7 +1391,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1515,7 +1526,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1650,7 +1661,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1785,7 +1796,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1920,7 +1931,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2055,7 +2066,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2196,7 +2207,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2337,7 +2348,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2478,7 +2489,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2660,14 +2671,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2703,7 +2714,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2848,7 +2859,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0A6E-40F1-B6EF-BC66DFBFC52A}"/>
             </c:ext>
@@ -2977,7 +2988,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0A6E-40F1-B6EF-BC66DFBFC52A}"/>
             </c:ext>
@@ -3160,14 +3171,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3203,7 +3214,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3309,7 +3320,7 @@
             <c:numRef>
               <c:f>Лист2!$D$161:$D$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.99999606178854739</c:v>
@@ -3351,7 +3362,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3444,7 +3455,7 @@
             <c:numRef>
               <c:f>Лист2!$F$161:$F$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.9380855625060907E-6</c:v>
@@ -3486,7 +3497,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3579,7 +3590,7 @@
             <c:numRef>
               <c:f>Лист2!$G$161:$G$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0123141803303958E-10</c:v>
@@ -3621,7 +3632,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3714,7 +3725,7 @@
             <c:numRef>
               <c:f>Лист2!$H$161:$H$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.4658773176560385E-11</c:v>
@@ -3756,7 +3767,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3939,14 +3950,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3982,7 +3993,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4160,7 +4171,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-29C4-4B53-8FBB-0EF90FDC155E}"/>
             </c:ext>
@@ -4311,14 +4322,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4354,7 +4365,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4491,7 +4502,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-115A-4A6F-873B-035203F4A5F8}"/>
             </c:ext>
@@ -4645,14 +4656,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4688,7 +4699,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4833,7 +4844,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5E0F-4AAC-A196-D98AEB11FE60}"/>
             </c:ext>
@@ -4962,7 +4973,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5E0F-4AAC-A196-D98AEB11FE60}"/>
             </c:ext>
@@ -5145,14 +5156,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5188,7 +5199,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5325,7 +5336,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4E9E-4361-8923-8243C29C8350}"/>
             </c:ext>
@@ -5480,14 +5491,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5523,7 +5534,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5571,6 +5582,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5707,7 +5738,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -5842,7 +5873,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -5977,7 +6008,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6112,7 +6143,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6247,7 +6278,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6382,7 +6413,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6523,7 +6554,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6664,7 +6695,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6805,7 +6836,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6987,14 +7018,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7030,7 +7061,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7078,6 +7109,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7214,7 +7265,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7349,7 +7400,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7484,7 +7535,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7619,7 +7670,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7754,7 +7805,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7889,7 +7940,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8030,7 +8081,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8171,7 +8222,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8312,7 +8363,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8494,14 +8545,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14116,7 +14167,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14152,7 +14203,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14188,7 +14239,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14224,7 +14275,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14265,7 +14316,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14303,7 +14354,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14341,7 +14392,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14377,7 +14428,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14413,7 +14464,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14454,7 +14505,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14518,7 +14569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14551,9 +14602,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14586,6 +14654,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -14761,7 +14846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49728,11 +49813,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J3"/>
+      <selection activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50054,7 +50139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -53116,7 +53201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AE58"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -55316,7 +55401,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="22"/>
-        <v>261.42001342773437</v>
+        <v>261.42001342773438</v>
       </c>
       <c r="F55">
         <f t="shared" si="22"/>
@@ -55456,8 +55541,283 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFC5487-38A1-4340-9E9F-1E575D64F0FD}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>34.92</v>
+      </c>
+      <c r="C2">
+        <v>52.49</v>
+      </c>
+      <c r="D2">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E2">
+        <v>96.65</v>
+      </c>
+      <c r="F2">
+        <v>98.49</v>
+      </c>
+      <c r="G2">
+        <v>118.9</v>
+      </c>
+      <c r="H2">
+        <v>120.07</v>
+      </c>
+      <c r="I2">
+        <v>142.6</v>
+      </c>
+      <c r="J2">
+        <v>165.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f>CONCATENATE(B2,B3)</f>
+        <v>34.92,</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:J4" si="0">CONCATENATE(C2,C3)</f>
+        <v>52.49,</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>73.6,</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>96.65,</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>98.49,</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>118.9,</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>120.07,</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>142.6,</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>165.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>74.48</v>
+      </c>
+      <c r="D8">
+        <v>119.6</v>
+      </c>
+      <c r="E8">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="F8">
+        <v>132.41999999999999</v>
+      </c>
+      <c r="G8">
+        <v>164.85</v>
+      </c>
+      <c r="H8">
+        <v>167.19</v>
+      </c>
+      <c r="I8">
+        <v>197.66</v>
+      </c>
+      <c r="J8">
+        <v>224.721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f>CONCATENATE(B8,B9)</f>
+        <v>0,</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10" si="1">CONCATENATE(C8,C9)</f>
+        <v>74.48,</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ref="D10" si="2">CONCATENATE(D8,D9)</f>
+        <v>119.6,</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ref="E10" si="3">CONCATENATE(E8,E9)</f>
+        <v>129.7,</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ref="F10" si="4">CONCATENATE(F8,F9)</f>
+        <v>132.42,</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10" si="5">CONCATENATE(G8,G9)</f>
+        <v>164.85,</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10" si="6">CONCATENATE(H8,H9)</f>
+        <v>167.19,</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10" si="7">CONCATENATE(I8,I9)</f>
+        <v>197.66,</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ref="J10" si="8">CONCATENATE(J8,J9)</f>
+        <v>224.721</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ217"/>
   <sheetViews>
     <sheetView topLeftCell="A160" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -64102,7 +64462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -73245,7 +73605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -74394,7 +74754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -74709,7 +75069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -75665,7 +76025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -76248,10 +76608,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:J20"/>
     </sheetView>
   </sheetViews>
@@ -77406,7 +77766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Начальное приближение по темп.xlsx
+++ b/Начальное приближение по темп.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE768198-4DC9-4371-81B7-868F864A9115}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,9 +19,10 @@
     <sheet name="dHf_298" sheetId="10" r:id="rId10"/>
     <sheet name="Проверка энтальпий" sheetId="11" r:id="rId11"/>
     <sheet name="Проверка профили" sheetId="12" r:id="rId12"/>
-    <sheet name="Теплоемкость" sheetId="13" r:id="rId13"/>
+    <sheet name="Проверка профили (2)" sheetId="15" r:id="rId13"/>
+    <sheet name="Теплоемкость" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="203">
   <si>
     <t>CritT</t>
   </si>
@@ -664,11 +664,17 @@
   <si>
     <t>Cp, J/mole K</t>
   </si>
+  <si>
+    <t>Lj</t>
+  </si>
+  <si>
+    <t>Vj</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -909,7 +915,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1046,7 +1052,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-87B7-4437-B1D8-9822BC74DF63}"/>
             </c:ext>
@@ -1060,11 +1066,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60665216"/>
-        <c:axId val="60665792"/>
+        <c:axId val="60002240"/>
+        <c:axId val="60002816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60665216"/>
+        <c:axId val="60002240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1123,13 +1129,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60665792"/>
+        <c:crossAx val="60002816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60665792"/>
+        <c:axId val="60002816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1192,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60665216"/>
+        <c:crossAx val="60002240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1200,14 +1206,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1243,7 +1249,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1391,7 +1397,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1526,7 +1532,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1661,7 +1667,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1796,7 +1802,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1931,7 +1937,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2066,7 +2072,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2207,7 +2213,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2348,7 +2354,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2489,7 +2495,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2503,11 +2509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150096704"/>
-        <c:axId val="150097280"/>
+        <c:axId val="150113664"/>
+        <c:axId val="150114240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150096704"/>
+        <c:axId val="150113664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2564,12 +2570,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150097280"/>
+        <c:crossAx val="150114240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150097280"/>
+        <c:axId val="150114240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,7 +2632,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150096704"/>
+        <c:crossAx val="150113664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2671,14 +2677,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2714,7 +2720,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2859,7 +2865,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0A6E-40F1-B6EF-BC66DFBFC52A}"/>
             </c:ext>
@@ -2988,7 +2994,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0A6E-40F1-B6EF-BC66DFBFC52A}"/>
             </c:ext>
@@ -3002,11 +3008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60667520"/>
-        <c:axId val="60668096"/>
+        <c:axId val="60004544"/>
+        <c:axId val="60005120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60667520"/>
+        <c:axId val="60004544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,13 +3069,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60668096"/>
+        <c:crossAx val="60005120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60668096"/>
+        <c:axId val="60005120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,7 +3132,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60667520"/>
+        <c:crossAx val="60004544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3171,14 +3177,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3214,7 +3220,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3320,7 +3326,7 @@
             <c:numRef>
               <c:f>Лист2!$D$161:$D$172</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.99999606178854739</c:v>
@@ -3362,7 +3368,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3455,7 +3461,7 @@
             <c:numRef>
               <c:f>Лист2!$F$161:$F$172</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.9380855625060907E-6</c:v>
@@ -3497,7 +3503,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3590,7 +3596,7 @@
             <c:numRef>
               <c:f>Лист2!$G$161:$G$172</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0123141803303958E-10</c:v>
@@ -3632,7 +3638,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3725,7 +3731,7 @@
             <c:numRef>
               <c:f>Лист2!$H$161:$H$172</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.4658773176560385E-11</c:v>
@@ -3767,7 +3773,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3781,11 +3787,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146211392"/>
-        <c:axId val="146211968"/>
+        <c:axId val="147522688"/>
+        <c:axId val="147523264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146211392"/>
+        <c:axId val="147522688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3842,12 +3848,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146211968"/>
+        <c:crossAx val="147523264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146211968"/>
+        <c:axId val="147523264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3905,7 +3911,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146211392"/>
+        <c:crossAx val="147522688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3950,14 +3956,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3993,7 +3999,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4171,7 +4177,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-29C4-4B53-8FBB-0EF90FDC155E}"/>
             </c:ext>
@@ -4185,11 +4191,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146214272"/>
-        <c:axId val="146214848"/>
+        <c:axId val="147525568"/>
+        <c:axId val="147526144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146214272"/>
+        <c:axId val="147525568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4246,12 +4252,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146214848"/>
+        <c:crossAx val="147526144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146214848"/>
+        <c:axId val="147526144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4308,7 +4314,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146214272"/>
+        <c:crossAx val="147525568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4322,14 +4328,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4365,7 +4371,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4502,7 +4508,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-115A-4A6F-873B-035203F4A5F8}"/>
             </c:ext>
@@ -4516,11 +4522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146216576"/>
-        <c:axId val="146217152"/>
+        <c:axId val="147527872"/>
+        <c:axId val="147528448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146216576"/>
+        <c:axId val="147527872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -4579,13 +4585,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146217152"/>
+        <c:crossAx val="147528448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146217152"/>
+        <c:axId val="147528448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4642,7 +4648,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146216576"/>
+        <c:crossAx val="147527872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4656,14 +4662,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4699,7 +4705,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4844,7 +4850,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5E0F-4AAC-A196-D98AEB11FE60}"/>
             </c:ext>
@@ -4973,7 +4979,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5E0F-4AAC-A196-D98AEB11FE60}"/>
             </c:ext>
@@ -4987,11 +4993,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146268160"/>
-        <c:axId val="146268736"/>
+        <c:axId val="147579456"/>
+        <c:axId val="147580032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146268160"/>
+        <c:axId val="147579456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5048,13 +5054,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146268736"/>
+        <c:crossAx val="147580032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146268736"/>
+        <c:axId val="147580032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5111,7 +5117,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146268160"/>
+        <c:crossAx val="147579456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5156,14 +5162,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5199,7 +5205,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5336,7 +5342,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4E9E-4361-8923-8243C29C8350}"/>
             </c:ext>
@@ -5350,11 +5356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146271040"/>
-        <c:axId val="146271616"/>
+        <c:axId val="147582336"/>
+        <c:axId val="147582912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146271040"/>
+        <c:axId val="147582336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -5413,13 +5419,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146271616"/>
+        <c:crossAx val="147582912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146271616"/>
+        <c:axId val="147582912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="270"/>
@@ -5477,7 +5483,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146271040"/>
+        <c:crossAx val="147582336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5491,14 +5497,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5534,7 +5540,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5582,26 +5588,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5738,7 +5724,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -5873,7 +5859,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6008,7 +5994,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6143,7 +6129,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6278,7 +6264,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6413,7 +6399,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6554,7 +6540,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6695,7 +6681,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6836,7 +6822,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6850,11 +6836,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146273344"/>
-        <c:axId val="146273920"/>
+        <c:axId val="147584640"/>
+        <c:axId val="147585216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146273344"/>
+        <c:axId val="147584640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6911,12 +6897,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146273920"/>
+        <c:crossAx val="147585216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146273920"/>
+        <c:axId val="147585216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6973,7 +6959,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146273344"/>
+        <c:crossAx val="147584640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7018,14 +7004,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7061,7 +7047,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7109,26 +7095,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7265,7 +7231,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7400,7 +7366,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7535,7 +7501,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7670,7 +7636,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7805,7 +7771,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7940,7 +7906,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8081,7 +8047,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8222,7 +8188,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8363,7 +8329,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8377,11 +8343,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150093824"/>
-        <c:axId val="150094400"/>
+        <c:axId val="150110784"/>
+        <c:axId val="150111360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150093824"/>
+        <c:axId val="150110784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8438,12 +8404,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150094400"/>
+        <c:crossAx val="150111360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150094400"/>
+        <c:axId val="150111360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8500,7 +8466,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150093824"/>
+        <c:crossAx val="150110784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8545,14 +8511,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14167,7 +14133,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14203,7 +14169,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14239,7 +14205,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14275,7 +14241,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14316,7 +14282,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14354,7 +14320,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14392,7 +14358,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14428,7 +14394,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14464,7 +14430,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14505,7 +14471,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14569,7 +14535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14602,26 +14568,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14654,23 +14603,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -14846,7 +14778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49813,7 +49745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50139,7 +50071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -53201,11 +53133,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:Z45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53506,7 +53438,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:N11" si="5">(D4+O5+N3)/(I4+1)-O4</f>
+        <f>(D4+O5+N3)/(I4+1)-O4</f>
         <v>13.5</v>
       </c>
       <c r="O4" s="14">
@@ -53517,11 +53449,11 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q12" si="6">(P4+$L$2)*D4+($L$2+1)*B4-C4</f>
+        <f t="shared" ref="Q4:Q12" si="5">(P4+$L$2)*D4+($L$2+1)*B4-C4</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S12" si="7">($K$2+1-P4)*D4+($L$2+1)*B4+C4</f>
+        <f t="shared" ref="S4:S12" si="6">($K$2+1-P4)*D4+($L$2+1)*B4+C4</f>
         <v>0</v>
       </c>
       <c r="U4">
@@ -53572,7 +53504,7 @@
         <v>13.5</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G13" si="8">$C$2+$B$2+$E$2-C5</f>
+        <f t="shared" ref="G5:G13" si="7">$C$2+$B$2+$E$2-C5</f>
         <v>18</v>
       </c>
       <c r="I5">
@@ -53598,11 +53530,11 @@
         <v>1</v>
       </c>
       <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U5">
@@ -53653,7 +53585,7 @@
         <v>27.3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I6">
@@ -53679,11 +53611,11 @@
         <v>1</v>
       </c>
       <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>55.2</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="6"/>
-        <v>55.2</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="7"/>
         <v>26.70967741935484</v>
       </c>
       <c r="U6">
@@ -53734,7 +53666,7 @@
         <v>27.3</v>
       </c>
       <c r="G7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I7">
@@ -53749,7 +53681,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" si="5"/>
+        <f>(D7+O8+N6)/(I7+1)-O7</f>
         <v>27.299999999999997</v>
       </c>
       <c r="O7" s="14">
@@ -53760,11 +53692,11 @@
         <v>1</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U7">
@@ -53815,7 +53747,7 @@
         <v>27.3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I8">
@@ -53830,7 +53762,7 @@
         <v>7</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="5"/>
+        <f>(D8+O9+N7)/(I8+1)-O8</f>
         <v>27.299999999999997</v>
       </c>
       <c r="O8" s="14">
@@ -53841,11 +53773,11 @@
         <v>1</v>
       </c>
       <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U8">
@@ -53896,7 +53828,7 @@
         <v>27.3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I9">
@@ -53911,7 +53843,7 @@
         <v>8</v>
       </c>
       <c r="N9" s="14">
-        <f t="shared" si="5"/>
+        <f>(D9+O10+N8)/(I9+1)-O9</f>
         <v>27.299999999999997</v>
       </c>
       <c r="O9" s="14">
@@ -53922,11 +53854,11 @@
         <v>1</v>
       </c>
       <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U9">
@@ -53977,7 +53909,7 @@
         <v>27.3</v>
       </c>
       <c r="G10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I10">
@@ -54003,11 +53935,11 @@
         <v>1</v>
       </c>
       <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U10">
@@ -54058,7 +53990,7 @@
         <v>27.3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I11">
@@ -54073,7 +54005,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="14">
-        <f t="shared" si="5"/>
+        <f>(D11+O12+N10)/(I11+1)-O11</f>
         <v>27.299999999999997</v>
       </c>
       <c r="O11" s="14">
@@ -54084,11 +54016,11 @@
         <v>1</v>
       </c>
       <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U11">
@@ -54139,7 +54071,7 @@
         <v>27.3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I12">
@@ -54165,11 +54097,11 @@
         <v>1</v>
       </c>
       <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U12">
@@ -54220,7 +54152,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="G13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I13">
@@ -54388,7 +54320,7 @@
         <v>31.5</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:D29" si="9">B19-C19</f>
+        <f t="shared" ref="D19:D29" si="8">B19-C19</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
@@ -54403,7 +54335,7 @@
         <v>31.5</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" ref="I19:I29" si="10">G19-H19</f>
+        <f t="shared" ref="I19:I29" si="9">G19-H19</f>
         <v>0</v>
       </c>
       <c r="K19" s="4">
@@ -54418,7 +54350,7 @@
         <v>38.798126681547799</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" ref="N19:N29" si="11">L19-M19</f>
+        <f t="shared" ref="N19:N29" si="10">L19-M19</f>
         <v>0</v>
       </c>
     </row>
@@ -54435,37 +54367,37 @@
         <v>31.5</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F20" s="4">
         <v>3</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:G28" si="12">D4+N3+O5</f>
+        <f t="shared" ref="G20:G28" si="11">D4+N3+O5</f>
         <v>31.5</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" ref="H20:H28" si="13">B4+C4+N4+O4</f>
+        <f t="shared" ref="H20:H28" si="12">B4+C4+N4+O4</f>
         <v>31.5</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K20" s="4">
         <v>3</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" ref="L20:L28" si="14">D3+AD3+AE5</f>
+        <f t="shared" ref="L20:L28" si="13">D3+AD3+AE5</f>
         <v>46.498075228619598</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" ref="M20:M28" si="15">B4+C4+AD4+AE4</f>
+        <f t="shared" ref="M20:M28" si="14">B4+C4+AD4+AE4</f>
         <v>46.498075228619697</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-9.9475983006414026E-14</v>
       </c>
     </row>
@@ -54478,41 +54410,41 @@
         <v>31.5</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21:C28" si="16">B5+C5+F5+G5</f>
+        <f t="shared" ref="C21:C28" si="15">B5+C5+F5+G5</f>
         <v>31.5</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F21" s="4">
         <v>4</v>
       </c>
       <c r="G21" s="4">
+        <f t="shared" si="11"/>
+        <v>31.5</v>
+      </c>
+      <c r="H21" s="4">
         <f t="shared" si="12"/>
         <v>31.5</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" si="13"/>
-        <v>31.5</v>
-      </c>
       <c r="I21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K21" s="4">
         <v>4</v>
       </c>
       <c r="L21" s="1">
+        <f t="shared" si="13"/>
+        <v>46.472312739763403</v>
+      </c>
+      <c r="M21" s="1">
         <f t="shared" si="14"/>
-        <v>46.472312739763403</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="15"/>
         <v>46.472312739763396</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -54525,37 +54457,37 @@
         <v>45.3</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>45.3</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F22" s="4">
         <v>5</v>
       </c>
       <c r="G22" s="4">
+        <f t="shared" si="11"/>
+        <v>45.3</v>
+      </c>
+      <c r="H22" s="4">
         <f t="shared" si="12"/>
         <v>45.3</v>
       </c>
-      <c r="H22" s="4">
-        <f t="shared" si="13"/>
-        <v>45.3</v>
-      </c>
       <c r="I22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K22" s="4">
         <v>5</v>
       </c>
       <c r="L22" s="1">
+        <f t="shared" si="13"/>
+        <v>44.531517908454703</v>
+      </c>
+      <c r="M22" s="1">
         <f t="shared" si="14"/>
-        <v>44.531517908454703</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="15"/>
         <v>44.531517908454703</v>
       </c>
       <c r="N22" s="1">
@@ -54568,41 +54500,41 @@
         <v>6</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ref="B23:B28" si="17">D7+F6+G8</f>
+        <f t="shared" ref="B23:B28" si="16">D7+F6+G8</f>
         <v>45.3</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>45.3</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F23" s="4">
         <v>6</v>
       </c>
       <c r="G23" s="4">
+        <f t="shared" si="11"/>
+        <v>45.3</v>
+      </c>
+      <c r="H23" s="4">
         <f t="shared" si="12"/>
         <v>45.3</v>
       </c>
-      <c r="H23" s="4">
-        <f t="shared" si="13"/>
-        <v>45.3</v>
-      </c>
       <c r="I23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K23" s="4">
         <v>6</v>
       </c>
       <c r="L23" s="1">
+        <f t="shared" si="13"/>
+        <v>49.629968854160509</v>
+      </c>
+      <c r="M23" s="1">
         <f t="shared" si="14"/>
-        <v>49.629968854160509</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="shared" si="15"/>
         <v>49.630174582569197</v>
       </c>
       <c r="N23" s="1">
@@ -54615,45 +54547,45 @@
         <v>7</v>
       </c>
       <c r="B24" s="4">
-        <f t="shared" si="17"/>
-        <v>45.3</v>
-      </c>
-      <c r="C24" s="4">
         <f t="shared" si="16"/>
         <v>45.3</v>
       </c>
+      <c r="C24" s="4">
+        <f t="shared" si="15"/>
+        <v>45.3</v>
+      </c>
       <c r="D24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F24" s="4">
         <v>7</v>
       </c>
       <c r="G24" s="4">
+        <f t="shared" si="11"/>
+        <v>45.3</v>
+      </c>
+      <c r="H24" s="4">
         <f t="shared" si="12"/>
         <v>45.3</v>
       </c>
-      <c r="H24" s="4">
-        <f t="shared" si="13"/>
-        <v>45.3</v>
-      </c>
       <c r="I24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K24" s="4">
         <v>7</v>
       </c>
       <c r="L24" s="1">
+        <f t="shared" si="13"/>
+        <v>42.629766470498602</v>
+      </c>
+      <c r="M24" s="1">
         <f t="shared" si="14"/>
         <v>42.629766470498602</v>
       </c>
-      <c r="M24" s="1">
-        <f t="shared" si="15"/>
-        <v>42.629766470498602</v>
-      </c>
       <c r="N24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -54662,45 +54594,45 @@
         <v>8</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" si="17"/>
-        <v>45.3</v>
-      </c>
-      <c r="C25" s="4">
         <f t="shared" si="16"/>
         <v>45.3</v>
       </c>
+      <c r="C25" s="4">
+        <f t="shared" si="15"/>
+        <v>45.3</v>
+      </c>
       <c r="D25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F25" s="4">
         <v>8</v>
       </c>
       <c r="G25" s="4">
+        <f t="shared" si="11"/>
+        <v>45.3</v>
+      </c>
+      <c r="H25" s="4">
         <f t="shared" si="12"/>
         <v>45.3</v>
       </c>
-      <c r="H25" s="4">
-        <f t="shared" si="13"/>
-        <v>45.3</v>
-      </c>
       <c r="I25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K25" s="4">
         <v>8</v>
       </c>
       <c r="L25" s="1">
+        <f t="shared" si="13"/>
+        <v>42.848718060622005</v>
+      </c>
+      <c r="M25" s="1">
         <f t="shared" si="14"/>
         <v>42.848718060622005</v>
       </c>
-      <c r="M25" s="1">
-        <f t="shared" si="15"/>
-        <v>42.848718060622005</v>
-      </c>
       <c r="N25" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -54709,45 +54641,45 @@
         <v>9</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" si="17"/>
-        <v>45.3</v>
-      </c>
-      <c r="C26" s="4">
         <f t="shared" si="16"/>
         <v>45.3</v>
       </c>
+      <c r="C26" s="4">
+        <f t="shared" si="15"/>
+        <v>45.3</v>
+      </c>
       <c r="D26" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F26" s="4">
         <v>9</v>
       </c>
       <c r="G26" s="4">
+        <f t="shared" si="11"/>
+        <v>45.3</v>
+      </c>
+      <c r="H26" s="4">
         <f t="shared" si="12"/>
         <v>45.3</v>
       </c>
-      <c r="H26" s="4">
-        <f t="shared" si="13"/>
-        <v>45.3</v>
-      </c>
       <c r="I26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K26" s="4">
         <v>9</v>
       </c>
       <c r="L26" s="1">
+        <f t="shared" si="13"/>
+        <v>43.005698321181896</v>
+      </c>
+      <c r="M26" s="1">
         <f t="shared" si="14"/>
         <v>43.005698321181896</v>
       </c>
-      <c r="M26" s="1">
-        <f t="shared" si="15"/>
-        <v>43.005698321181896</v>
-      </c>
       <c r="N26" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -54756,45 +54688,45 @@
         <v>10</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" si="17"/>
-        <v>45.3</v>
-      </c>
-      <c r="C27" s="4">
         <f t="shared" si="16"/>
         <v>45.3</v>
       </c>
+      <c r="C27" s="4">
+        <f t="shared" si="15"/>
+        <v>45.3</v>
+      </c>
       <c r="D27" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F27" s="4">
         <v>10</v>
       </c>
       <c r="G27" s="4">
+        <f t="shared" si="11"/>
+        <v>45.3</v>
+      </c>
+      <c r="H27" s="4">
         <f t="shared" si="12"/>
         <v>45.3</v>
       </c>
-      <c r="H27" s="4">
-        <f t="shared" si="13"/>
-        <v>45.3</v>
-      </c>
       <c r="I27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K27" s="4">
         <v>10</v>
       </c>
       <c r="L27" s="1">
+        <f t="shared" si="13"/>
+        <v>43.1163731585536</v>
+      </c>
+      <c r="M27" s="1">
         <f t="shared" si="14"/>
         <v>43.1163731585536</v>
       </c>
-      <c r="M27" s="1">
-        <f t="shared" si="15"/>
-        <v>43.1163731585536</v>
-      </c>
       <c r="N27" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -54803,45 +54735,45 @@
         <v>11</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" si="17"/>
-        <v>45.3</v>
-      </c>
-      <c r="C28" s="4">
         <f t="shared" si="16"/>
         <v>45.3</v>
       </c>
+      <c r="C28" s="4">
+        <f t="shared" si="15"/>
+        <v>45.3</v>
+      </c>
       <c r="D28" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F28" s="4">
         <v>11</v>
       </c>
       <c r="G28" s="4">
+        <f t="shared" si="11"/>
+        <v>45.3</v>
+      </c>
+      <c r="H28" s="4">
         <f t="shared" si="12"/>
         <v>45.3</v>
       </c>
-      <c r="H28" s="4">
-        <f t="shared" si="13"/>
-        <v>45.3</v>
-      </c>
       <c r="I28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K28" s="4">
         <v>11</v>
       </c>
       <c r="L28" s="1">
+        <f t="shared" si="13"/>
+        <v>42.419787186437603</v>
+      </c>
+      <c r="M28" s="1">
         <f t="shared" si="14"/>
         <v>42.419787186437603</v>
       </c>
-      <c r="M28" s="1">
-        <f t="shared" si="15"/>
-        <v>42.419787186437603</v>
-      </c>
       <c r="N28" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -54858,7 +54790,7 @@
         <v>27.3</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F29" s="4">
@@ -54873,7 +54805,7 @@
         <v>27.3</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K29" s="4">
@@ -54888,7 +54820,7 @@
         <v>25.516689577692002</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8.5797076039639819E-4</v>
       </c>
     </row>
@@ -54980,7 +54912,7 @@
         <v>-4160511.2943980866</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" ref="I34:I44" si="18">G34-H34</f>
+        <f t="shared" ref="I34:I44" si="17">G34-H34</f>
         <v>-3878700.0655847848</v>
       </c>
       <c r="N34">
@@ -54995,15 +54927,15 @@
         <v>3</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" ref="G35:G43" si="19">D4*(Z4*Y4+(1-Z4)*X4)+N3*V3+O5*W5</f>
+        <f t="shared" ref="G35:G43" si="18">D4*(Z4*Y4+(1-Z4)*X4)+N3*V3+O5*W5</f>
         <v>-4382944.9157528151</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" ref="H35:H42" si="20">B4*V4+C4*W4+O4*W4+N4*V4+U4</f>
+        <f t="shared" ref="H35:H42" si="19">B4*V4+C4*W4+O4*W4+N4*V4+U4</f>
         <v>-4196132.6445511337</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-186812.27120168135</v>
       </c>
       <c r="N35">
@@ -55018,15 +54950,15 @@
         <v>4</v>
       </c>
       <c r="G36" s="1">
+        <f t="shared" si="18"/>
+        <v>-4317270.0866213348</v>
+      </c>
+      <c r="H36" s="1">
         <f t="shared" si="19"/>
-        <v>-4317270.0866213348</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="20"/>
         <v>-4686607.4481635531</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>369337.36154221836</v>
       </c>
       <c r="N36">
@@ -55041,15 +54973,15 @@
         <v>5</v>
       </c>
       <c r="G37" s="1">
+        <f t="shared" si="18"/>
+        <v>-7279874.0450154748</v>
+      </c>
+      <c r="H37" s="1">
         <f t="shared" si="19"/>
-        <v>-7279874.0450154748</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="20"/>
         <v>-7316258.6984684989</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>36384.653453024104</v>
       </c>
       <c r="N37">
@@ -55064,15 +54996,15 @@
         <v>6</v>
       </c>
       <c r="G38" s="1">
+        <f t="shared" si="18"/>
+        <v>-7521993.2234804463</v>
+      </c>
+      <c r="H38" s="1">
         <f t="shared" si="19"/>
-        <v>-7521993.2234804463</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="20"/>
         <v>-5951672.297625714</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-1570320.9258547323</v>
       </c>
       <c r="N38">
@@ -55087,15 +55019,15 @@
         <v>7</v>
       </c>
       <c r="G39" s="1">
+        <f t="shared" si="18"/>
+        <v>-6046804.302978497</v>
+      </c>
+      <c r="H39" s="1">
         <f t="shared" si="19"/>
-        <v>-6046804.302978497</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="20"/>
         <v>-7725796.1175103802</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1678991.8145318832</v>
       </c>
       <c r="N39">
@@ -55110,15 +55042,15 @@
         <v>8</v>
       </c>
       <c r="G40" s="1">
+        <f t="shared" si="18"/>
+        <v>-7773998.0240992205</v>
+      </c>
+      <c r="H40" s="1">
         <f t="shared" si="19"/>
-        <v>-7773998.0240992205</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="20"/>
         <v>-7445816.7998588402</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-328181.22424038034</v>
       </c>
       <c r="N40">
@@ -55133,15 +55065,15 @@
         <v>9</v>
       </c>
       <c r="G41" s="1">
+        <f t="shared" si="18"/>
+        <v>-7470232.4338423144</v>
+      </c>
+      <c r="H41" s="1">
         <f t="shared" si="19"/>
-        <v>-7470232.4338423144</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="20"/>
         <v>428845.1164455316</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-7899077.5502878465</v>
       </c>
       <c r="N41">
@@ -55156,15 +55088,15 @@
         <v>10</v>
       </c>
       <c r="G42" s="1">
+        <f t="shared" si="18"/>
+        <v>408568.09169797925</v>
+      </c>
+      <c r="H42" s="1">
         <f t="shared" si="19"/>
-        <v>408568.09169797925</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="20"/>
         <v>-8158608.5407865141</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>8567176.6324844938</v>
       </c>
       <c r="N42">
@@ -55179,7 +55111,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-8196221.3316896018</v>
       </c>
       <c r="H43" s="1">
@@ -55187,7 +55119,7 @@
         <v>-8001492.9443231281</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-194728.38736647367</v>
       </c>
       <c r="N43">
@@ -55210,7 +55142,7 @@
         <v>-4529821.3195825722</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-797809.85420574155</v>
       </c>
       <c r="N44">
@@ -55293,35 +55225,35 @@
         <v>190.7</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:J52" si="21">C51+273.15</f>
+        <f t="shared" ref="C52:J52" si="20">C51+273.15</f>
         <v>305.42999999999995</v>
       </c>
       <c r="D52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>369.9</v>
       </c>
       <c r="E52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>408.04999999999995</v>
       </c>
       <c r="F52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>425.15</v>
       </c>
       <c r="G52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>460.34999999999997</v>
       </c>
       <c r="H52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>469.65</v>
       </c>
       <c r="I52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>507.84999999999997</v>
       </c>
       <c r="J52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>540.15</v>
       </c>
     </row>
@@ -55392,35 +55324,35 @@
         <v>111.62499999999997</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:J55" si="22">C54+273.15</f>
+        <f t="shared" ref="C55:J55" si="21">C54+273.15</f>
         <v>184.55000305175778</v>
       </c>
       <c r="D55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>231.04800415039057</v>
       </c>
       <c r="E55">
-        <f t="shared" si="22"/>
-        <v>261.42001342773438</v>
+        <f t="shared" si="21"/>
+        <v>261.42001342773437</v>
       </c>
       <c r="F55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>272.64801025390625</v>
       </c>
       <c r="G55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>301.02801513671875</v>
       </c>
       <c r="H55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>309.20901489257807</v>
       </c>
       <c r="I55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>341.8800048828125</v>
       </c>
       <c r="J55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>371.57901000976557</v>
       </c>
     </row>
@@ -55462,35 +55394,35 @@
         <v>1.9590661006670709</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:J57" si="23">C54/C51</f>
+        <f t="shared" ref="C57:J57" si="22">C54/C51</f>
         <v>-2.7447334866246034</v>
       </c>
       <c r="D57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.43516274779958036</v>
       </c>
       <c r="E57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-8.6953199201375828E-2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-3.3025641190376777E-3</v>
       </c>
       <c r="G57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.14892102102948079</v>
       </c>
       <c r="H57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.18350643711235673</v>
       </c>
       <c r="I57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.29284194666728802</v>
       </c>
       <c r="J57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.36864797756466516</v>
       </c>
     </row>
@@ -55500,35 +55432,35 @@
         <v>0.58534347142108012</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" ref="C58:J58" si="24">C55/C52</f>
+        <f t="shared" ref="C58:J58" si="23">C55/C52</f>
         <v>0.60423011181533515</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.62462288226653306</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.64065681516415729</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.64129838940116723</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.65391118743720811</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.65838180537118718</v>
       </c>
       <c r="I58" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.67319091244031215</v>
       </c>
       <c r="J58" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.687918189409915</v>
       </c>
     </row>
@@ -55542,10 +55474,2250 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFC5487-38A1-4340-9E9F-1E575D64F0FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>171</v>
+      </c>
+      <c r="R1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" t="s">
+        <v>187</v>
+      </c>
+      <c r="V1" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB1" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4.5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>13.5</v>
+      </c>
+      <c r="F2">
+        <v>13.5</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>(B2+C2)/(F2+G2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J2">
+        <f>I2/(I2+1)*(D2+G3+0)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K2" s="17">
+        <v>1.9354838709677418</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>13.5</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f>($L$2*$D$2+($L$2+1)*$D$13+$Q$14)/($L$2+$K$2+1)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="T2">
+        <f>((K2+1)*$D$2+$L$2*$D$13+$S$14)/($K$2+$L$2+1)</f>
+        <v>4.5</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>44109.933751360797</v>
+      </c>
+      <c r="W2">
+        <v>-74957.287137243504</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>13.500299833946301</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>2.7741825834638801E-21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>F2+D3-B3</f>
+        <v>13.5</v>
+      </c>
+      <c r="G3">
+        <f>$C$2+$B$2+$E$2-C3</f>
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="0">(B3+C3)/(F3+G3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J13" si="1">I3/(I3+1)*(D3+G4+F2)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>10.5871286239064</v>
+      </c>
+      <c r="O3">
+        <v>18.0036364680095</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f>(P3+$L$2)*D3+($L$2+1)*B3-C3</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>($K$2+1-P3)*D3+($L$2+1)*B3+C3</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>74704.964333387499</v>
+      </c>
+      <c r="W3">
+        <v>-115062.508816715</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>20.737343306692999</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>18.000346885249801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F12" si="2">F3+D4-B4</f>
+        <v>13.5</v>
+      </c>
+      <c r="G4">
+        <f>$C$2+$B$2+$E$2-C4</f>
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>10.084610931869699</v>
+      </c>
+      <c r="O4">
+        <v>15.0907650919159</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q12" si="3">(P4+$L$2)*D4+($L$2+1)*B4-C4</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S12" si="4">($K$2+1-P4)*D4+($L$2+1)*B4+C4</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>81125.085358871307</v>
+      </c>
+      <c r="W4">
+        <v>-124314.79450897699</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>20.928700985846302</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>25.2373903579965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G13" si="5">$C$2+$B$2+$E$2-C5</f>
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>9.4336680886470408</v>
+      </c>
+      <c r="O5">
+        <v>14.588247399879201</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>90689.3236803818</v>
+      </c>
+      <c r="W5">
+        <v>-126730.65569331701</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>19.550301112881002</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>25.428748037149798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>13.8</v>
+      </c>
+      <c r="F6">
+        <f>F5+D6-B6</f>
+        <v>27.3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>16.992712484235899</v>
+      </c>
+      <c r="O6">
+        <v>13.9373045566565</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>55.2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>26.70967741935484</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>112220.73257347</v>
+      </c>
+      <c r="W6">
+        <v>-129962.38367809499</v>
+      </c>
+      <c r="X6">
+        <v>128619.236172658</v>
+      </c>
+      <c r="Y6">
+        <v>-127001.378460454</v>
+      </c>
+      <c r="Z6">
+        <v>0.42134857177734403</v>
+      </c>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>26.036399214896399</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>24.050348164184602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>F6+D7-B7</f>
+        <v>27.3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>16.714178575616501</v>
+      </c>
+      <c r="O7">
+        <v>7.69634895224541</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>115336.227008503</v>
+      </c>
+      <c r="W7">
+        <v>-136227.783942215</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="4">
+        <v>6</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>26.207099493930599</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>16.7362405377912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>27.3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>16.490714312245199</v>
+      </c>
+      <c r="O8">
+        <v>7.4178150436259296</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>117859.169485223</v>
+      </c>
+      <c r="W8">
+        <v>-138535.34709400899</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="4">
+        <v>7</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>26.116418529036</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>16.906940816825401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>27.3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>16.275180320984699</v>
+      </c>
+      <c r="O9">
+        <v>7.19435078025462</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>120373.405186045</v>
+      </c>
+      <c r="W9">
+        <v>-140636.568809497</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="4">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>26.099089973248098</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>16.816259851930798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>27.3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>16.068194067167099</v>
+      </c>
+      <c r="O10">
+        <v>6.9788167889941599</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>122922.58340464</v>
+      </c>
+      <c r="W10">
+        <v>-142755.24254854201</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="4">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>26.2015883534268</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>16.7989312961429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>27.3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>15.853168160007399</v>
+      </c>
+      <c r="O11">
+        <v>6.7718305351765897</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>125798.613191856</v>
+      </c>
+      <c r="W11">
+        <v>-144747.91685770499</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="4">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>26.189796836678799</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>16.901429676321602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>27.3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>15.584140180189401</v>
+      </c>
+      <c r="O12">
+        <v>6.5568046280169101</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>129814.86789733</v>
+      </c>
+      <c r="W12">
+        <v>-146570.67205274099</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="4">
+        <v>11</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>25.511424209470999</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>16.8896381595736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>B13</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.34065934065934067</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>6.9368852459016397</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O13">
+        <v>6.2877766481988999</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>135332.544162159</v>
+      </c>
+      <c r="W13">
+        <v>-148267.69118361</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>9.3001586771051894</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>16.2112655323659</v>
+      </c>
+      <c r="AF13">
+        <f>AE13/AD13</f>
+        <v>1.7431170902787105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <f>O13/N13</f>
+        <v>0.67610501593536554</v>
+      </c>
+      <c r="Q14">
+        <f>SUM(Q3:Q12)</f>
+        <v>55.2</v>
+      </c>
+      <c r="S14">
+        <f>SUM(S3:S12)</f>
+        <v>26.70967741935484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <f>D2+G3</f>
+        <v>18</v>
+      </c>
+      <c r="C18" s="4">
+        <f>E2+B2</f>
+        <v>18</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <f>D2+O3</f>
+        <v>18.0036364680095</v>
+      </c>
+      <c r="H18" s="1">
+        <f>N2+B2+C2+O2</f>
+        <v>18</v>
+      </c>
+      <c r="I18" s="1">
+        <f>G18-H18</f>
+        <v>3.6364680094997937E-3</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <f>D2+AE3</f>
+        <v>18.000346885249801</v>
+      </c>
+      <c r="M18" s="1">
+        <f>AD2+B2+C2</f>
+        <v>18.000299833946301</v>
+      </c>
+      <c r="N18" s="1">
+        <f>L18-M18</f>
+        <v>4.7051303500467156E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4">
+        <f>D3+$E$2+G4</f>
+        <v>31.5</v>
+      </c>
+      <c r="C19" s="4">
+        <f>B3+C3+G3+F3</f>
+        <v>31.5</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:D29" si="6">B19-C19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <f>D3+N2+O4</f>
+        <v>28.590765091915898</v>
+      </c>
+      <c r="H19" s="1">
+        <f>B3+C3+O3+N3</f>
+        <v>28.590765091915898</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" ref="I19:I29" si="7">G19-H19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <f>D2+AD2+AE4</f>
+        <v>38.737690191942804</v>
+      </c>
+      <c r="M19" s="1">
+        <f>B3+C3+AE3+AD3</f>
+        <v>38.737690191942804</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" ref="N19:N29" si="8">L19-M19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4">
+        <f>D4+F3+G5</f>
+        <v>31.5</v>
+      </c>
+      <c r="C20" s="4">
+        <f>B4+C4+F4+G4</f>
+        <v>31.5</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ref="G20:G28" si="9">D4+N3+O5</f>
+        <v>25.175376023785603</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" ref="H20:H28" si="10">B4+C4+N4+O4</f>
+        <v>25.175376023785599</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" ref="L20:L28" si="11">D3+AD3+AE5</f>
+        <v>46.166091343842794</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" ref="M20:M28" si="12">B4+C4+AD4+AE4</f>
+        <v>46.166091343842801</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4">
+        <f>D5+F4+G6</f>
+        <v>31.5</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ref="C21:C28" si="13">B5+C5+F5+G5</f>
+        <v>31.5</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="9"/>
+        <v>24.021915488526197</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="10"/>
+        <v>24.02191548852624</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="7"/>
+        <v>-4.2632564145606011E-14</v>
+      </c>
+      <c r="K21" s="4">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="11"/>
+        <v>44.979049150030903</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="12"/>
+        <v>44.979049150030804</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="8"/>
+        <v>9.9475983006414026E-14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4">
+        <f>D6+F5+G7</f>
+        <v>45.3</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="9"/>
+        <v>30.930017040892452</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="10"/>
+        <v>30.930017040892398</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="7"/>
+        <v>5.3290705182007514E-14</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="11"/>
+        <v>36.286541650672206</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="12"/>
+        <v>50.086747379081004</v>
+      </c>
+      <c r="N22" s="1">
+        <f>L22-M22</f>
+        <v>-13.800205728408798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" ref="B23:B28" si="14">D7+F6+G8</f>
+        <v>45.3</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="9"/>
+        <v>24.410527527861827</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="10"/>
+        <v>24.410527527861909</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="7"/>
+        <v>-8.1712414612411521E-14</v>
+      </c>
+      <c r="K23" s="4">
+        <v>6</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="11"/>
+        <v>56.7433400317218</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="12"/>
+        <v>42.943340031721803</v>
+      </c>
+      <c r="N23" s="1">
+        <f>L23-M23</f>
+        <v>13.799999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="14"/>
+        <v>45.3</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="9"/>
+        <v>23.908529355871121</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="10"/>
+        <v>23.908529355871128</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>7</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="11"/>
+        <v>43.023359345861394</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="12"/>
+        <v>43.023359345861401</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="14"/>
+        <v>45.3</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>8</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="9"/>
+        <v>23.469531101239358</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="10"/>
+        <v>23.469531101239319</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="7"/>
+        <v>3.907985046680551E-14</v>
+      </c>
+      <c r="K25" s="4">
+        <v>8</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="11"/>
+        <v>42.9153498251789</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="12"/>
+        <v>42.915349825178893</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="14"/>
+        <v>45.3</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>9</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="9"/>
+        <v>23.04701085616129</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="10"/>
+        <v>23.047010856161258</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="7"/>
+        <v>3.1974423109204508E-14</v>
+      </c>
+      <c r="K26" s="4">
+        <v>9</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="11"/>
+        <v>43.000519649569696</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="12"/>
+        <v>43.000519649569696</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>10</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="14"/>
+        <v>45.3</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>10</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="9"/>
+        <v>22.624998695184008</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="10"/>
+        <v>22.62499869518399</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>10</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="11"/>
+        <v>43.0912265130004</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="12"/>
+        <v>43.0912265130004</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="14"/>
+        <v>45.3</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="9"/>
+        <v>22.140944808206299</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="10"/>
+        <v>22.14094480820631</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>11</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="11"/>
+        <v>42.401062369044695</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="12"/>
+        <v>42.401062369044595</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="8"/>
+        <v>9.9475983006414026E-14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4">
+        <f>D13+F12</f>
+        <v>27.3</v>
+      </c>
+      <c r="C29" s="4">
+        <f>B13+C13+G13</f>
+        <v>27.3</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1">
+        <f>D13+N12</f>
+        <v>15.584140180189401</v>
+      </c>
+      <c r="H29" s="1">
+        <f>B13+C13+O13</f>
+        <v>15.587776648198901</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.6364680094997937E-3</v>
+      </c>
+      <c r="K29" s="4">
+        <v>12</v>
+      </c>
+      <c r="L29" s="1">
+        <f>D13+AD12</f>
+        <v>25.511424209470999</v>
+      </c>
+      <c r="M29" s="1">
+        <f>B13+C13+AE13</f>
+        <v>25.511265532365901</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5867710509809285E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>182</v>
+      </c>
+      <c r="J31" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31" t="s">
+        <v>185</v>
+      </c>
+      <c r="L31" t="s">
+        <v>184</v>
+      </c>
+      <c r="M31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F32" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" t="s">
+        <v>183</v>
+      </c>
+      <c r="K32" s="1">
+        <v>-2865522.3873577602</v>
+      </c>
+      <c r="L32" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1697206.63199761</v>
+      </c>
+      <c r="N32" s="14">
+        <f>M32+K32</f>
+        <v>-1168315.7553601502</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <f>D2*(Z2*Y2+(1-Z2)*X2)+O3*W3</f>
+        <v>-2071543.5798332747</v>
+      </c>
+      <c r="H33" s="1">
+        <f>N2*V2+B2*V2+C2*W2+O2*W2+U2</f>
+        <v>793978.80752449436</v>
+      </c>
+      <c r="I33" s="1">
+        <f>G33-H33</f>
+        <v>-2865522.3873577691</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <f>D3*(Z3*Y3+(1-Z3)*X3)+N2*V2+O4*W4</f>
+        <v>-1280521.2557413979</v>
+      </c>
+      <c r="H34" s="1">
+        <f>B3*V3+C3*W3+O3*W3+N3*V3+U3</f>
+        <v>-1280632.5135913612</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" ref="I34:I44" si="15">G34-H34</f>
+        <v>111.25784996338189</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ref="G35:G43" si="16">D4*(Z4*Y4+(1-Z4)*X4)+N3*V3+O5*W5</f>
+        <v>-1057867.0921611045</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" ref="H35:H42" si="17">B4*V4+C4*W4+O4*W4+N4*V4+U4</f>
+        <v>-1057890.4387258324</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="15"/>
+        <v>23.346564727835357</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="4">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="16"/>
+        <v>-993210.39957171748</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="17"/>
+        <v>-993245.17961841787</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="15"/>
+        <v>34.780046700383537</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F37" s="4">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <f>D6*(Z6*Y6+(1-Z6)*X6)+N5*V5+O7*W7</f>
+        <v>95687.619440281647</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="17"/>
+        <v>95609.321160648251</v>
+      </c>
+      <c r="I37" s="1">
+        <f>G37-H37</f>
+        <v>78.298279633396305</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="4">
+        <v>6</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="16"/>
+        <v>879305.06164342223</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="17"/>
+        <v>879293.73224758159</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="15"/>
+        <v>11.329395840642974</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="4">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="16"/>
+        <v>915961.48591102473</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="17"/>
+        <v>915952.31131141994</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="15"/>
+        <v>9.1745996047975495</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="4">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="16"/>
+        <v>947319.2096446011</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="17"/>
+        <v>947310.06670689979</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="15"/>
+        <v>9.1429377013118938</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F41" s="4">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="16"/>
+        <v>978890.51197362819</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="17"/>
+        <v>978881.24196859088</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="15"/>
+        <v>9.2700050373096019</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F42" s="4">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="16"/>
+        <v>1014108.6645363284</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="17"/>
+        <v>1014098.2059460095</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="15"/>
+        <v>10.458590318914503</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F43" s="4">
+        <v>11</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="16"/>
+        <v>1062032.4429195495</v>
+      </c>
+      <c r="H43" s="1">
+        <f>B12*V12+C12*W12+O12*W12+N12*V12+U12</f>
+        <v>1062017.8379377988</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="15"/>
+        <v>14.604981750715524</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F44" s="4">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1">
+        <f>D13*(Z13*Y13+(1-Z13)*X13)+N12*V12</f>
+        <v>2023053.0987847596</v>
+      </c>
+      <c r="H44" s="1">
+        <f>B13*V13+C13*W13+O13*W13+U13</f>
+        <v>326318.53440141003</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="15"/>
+        <v>1696734.5643833496</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="14">
+        <f>SUM(I33:I44)</f>
+        <v>-1168476.159723141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>-82.45</v>
+      </c>
+      <c r="C51" s="4">
+        <v>32.28</v>
+      </c>
+      <c r="D51" s="4">
+        <v>96.75</v>
+      </c>
+      <c r="E51" s="4">
+        <v>134.9</v>
+      </c>
+      <c r="F51" s="4">
+        <v>152</v>
+      </c>
+      <c r="G51" s="4">
+        <v>187.2</v>
+      </c>
+      <c r="H51" s="4">
+        <v>196.5</v>
+      </c>
+      <c r="I51" s="4">
+        <v>234.7</v>
+      </c>
+      <c r="J51" s="4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f>B51+273.15</f>
+        <v>190.7</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:J52" si="18">C51+273.15</f>
+        <v>305.42999999999995</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="18"/>
+        <v>369.9</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="18"/>
+        <v>408.04999999999995</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="18"/>
+        <v>425.15</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="18"/>
+        <v>460.34999999999997</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="18"/>
+        <v>469.65</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="18"/>
+        <v>507.84999999999997</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="18"/>
+        <v>540.15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="4">
+        <v>-161.52500000000001</v>
+      </c>
+      <c r="C54" s="4">
+        <v>-88.599996948242193</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-42.101995849609402</v>
+      </c>
+      <c r="E54" s="4">
+        <v>-11.7299865722656</v>
+      </c>
+      <c r="F54" s="4">
+        <v>-0.50198974609372704</v>
+      </c>
+      <c r="G54" s="4">
+        <v>27.878015136718801</v>
+      </c>
+      <c r="H54" s="4">
+        <v>36.059014892578098</v>
+      </c>
+      <c r="I54" s="4">
+        <v>68.730004882812494</v>
+      </c>
+      <c r="J54" s="4">
+        <v>98.429010009765605</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>B54+273.15</f>
+        <v>111.62499999999997</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:J55" si="19">C54+273.15</f>
+        <v>184.55000305175778</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="19"/>
+        <v>231.04800415039057</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="19"/>
+        <v>261.42001342773437</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="19"/>
+        <v>272.64801025390625</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="19"/>
+        <v>301.02801513671875</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="19"/>
+        <v>309.20901489257807</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="19"/>
+        <v>341.8800048828125</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="19"/>
+        <v>371.57901000976557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f>B54/B51</f>
+        <v>1.9590661006670709</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:J58" si="20">C54/C51</f>
+        <v>-2.7447334866246034</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="20"/>
+        <v>-0.43516274779958036</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="20"/>
+        <v>-8.6953199201375828E-2</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="20"/>
+        <v>-3.3025641190376777E-3</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="20"/>
+        <v>0.14892102102948079</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="20"/>
+        <v>0.18350643711235673</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="20"/>
+        <v>0.29284194666728802</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="20"/>
+        <v>0.36864797756466516</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <f>B55/B52</f>
+        <v>0.58534347142108012</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="20"/>
+        <v>0.60423011181533515</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="20"/>
+        <v>0.62462288226653306</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="20"/>
+        <v>0.64065681516415729</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="20"/>
+        <v>0.64129838940116723</v>
+      </c>
+      <c r="G58" s="4">
+        <f t="shared" si="20"/>
+        <v>0.65391118743720811</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="20"/>
+        <v>0.65838180537118718</v>
+      </c>
+      <c r="I58" s="4">
+        <f t="shared" si="20"/>
+        <v>0.67319091244031215</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="20"/>
+        <v>0.687918189409915</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AB1:AB13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:J10"/>
     </sheetView>
   </sheetViews>
@@ -55817,7 +57989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ217"/>
   <sheetViews>
     <sheetView topLeftCell="A160" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -64462,7 +66634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -73605,7 +75777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -74754,7 +76926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -75069,7 +77241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -76025,7 +78197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -76608,7 +78780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -77766,7 +79938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Начальное приближение по темп.xlsx
+++ b/Начальное приближение по темп.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1007E5-9135-4318-BBC4-0155377B926E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Проверка профили (2)" sheetId="15" r:id="rId13"/>
     <sheet name="Теплоемкость" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="208">
   <si>
     <t>CritT</t>
   </si>
@@ -670,16 +671,31 @@
   <si>
     <t>Vj</t>
   </si>
+  <si>
+    <t>Global Heat Balance</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,8 +757,37 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,8 +829,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -856,12 +907,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -896,6 +969,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -915,7 +996,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1052,7 +1133,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-87B7-4437-B1D8-9822BC74DF63}"/>
             </c:ext>
@@ -1206,14 +1287,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1249,7 +1330,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1397,7 +1478,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1532,7 +1613,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1667,7 +1748,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1802,7 +1883,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1937,7 +2018,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2072,7 +2153,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2213,7 +2294,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2354,7 +2435,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2495,7 +2576,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2677,14 +2758,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2720,7 +2801,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2865,7 +2946,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0A6E-40F1-B6EF-BC66DFBFC52A}"/>
             </c:ext>
@@ -2994,7 +3075,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0A6E-40F1-B6EF-BC66DFBFC52A}"/>
             </c:ext>
@@ -3177,14 +3258,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3220,7 +3301,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3326,7 +3407,7 @@
             <c:numRef>
               <c:f>Лист2!$D$161:$D$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.99999606178854739</c:v>
@@ -3368,7 +3449,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3461,7 +3542,7 @@
             <c:numRef>
               <c:f>Лист2!$F$161:$F$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.9380855625060907E-6</c:v>
@@ -3503,7 +3584,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3596,7 +3677,7 @@
             <c:numRef>
               <c:f>Лист2!$G$161:$G$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0123141803303958E-10</c:v>
@@ -3638,7 +3719,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3731,7 +3812,7 @@
             <c:numRef>
               <c:f>Лист2!$H$161:$H$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.4658773176560385E-11</c:v>
@@ -3773,7 +3854,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3956,14 +4037,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3999,7 +4080,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4177,7 +4258,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-29C4-4B53-8FBB-0EF90FDC155E}"/>
             </c:ext>
@@ -4328,14 +4409,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4371,7 +4452,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4508,7 +4589,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-115A-4A6F-873B-035203F4A5F8}"/>
             </c:ext>
@@ -4662,14 +4743,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4705,7 +4786,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4850,7 +4931,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5E0F-4AAC-A196-D98AEB11FE60}"/>
             </c:ext>
@@ -4979,7 +5060,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5E0F-4AAC-A196-D98AEB11FE60}"/>
             </c:ext>
@@ -5162,14 +5243,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5205,7 +5286,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5342,7 +5423,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4E9E-4361-8923-8243C29C8350}"/>
             </c:ext>
@@ -5497,14 +5578,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5540,7 +5621,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5588,6 +5669,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5724,7 +5825,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -5859,7 +5960,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -5994,7 +6095,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6129,7 +6230,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6264,7 +6365,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6399,7 +6500,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6540,7 +6641,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6681,7 +6782,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6822,7 +6923,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7004,14 +7105,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7047,7 +7148,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7095,6 +7196,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7231,7 +7352,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7366,7 +7487,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7501,7 +7622,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7636,7 +7757,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7771,7 +7892,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7906,7 +8027,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8047,7 +8168,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8188,7 +8309,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8329,7 +8450,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8511,14 +8632,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14133,7 +14254,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14169,7 +14290,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14205,7 +14326,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14241,7 +14362,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14282,7 +14403,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14320,7 +14441,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14358,7 +14479,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14394,7 +14515,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14430,7 +14551,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14471,7 +14592,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14535,7 +14656,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14568,9 +14689,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14603,6 +14741,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -14778,7 +14933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49745,7 +49900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50071,7 +50226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -53133,11 +53288,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:Z45"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53357,11 +53512,11 @@
         <v>2</v>
       </c>
       <c r="N3" s="14">
-        <f>(D3+O4+N2)/(I3+1)-O3</f>
+        <f t="shared" ref="N3:N12" si="2">(D3+O4+N2)/(I3+1)-O3</f>
         <v>13.5</v>
       </c>
       <c r="O3" s="14">
-        <f t="shared" ref="O3:O11" si="2">O4/(I3+1)</f>
+        <f t="shared" ref="O3:O11" si="3">O4/(I3+1)</f>
         <v>18</v>
       </c>
       <c r="P3">
@@ -53379,7 +53534,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V13" si="3">$N$32*O34</f>
+        <f t="shared" ref="V3:V13" si="4">$N$32*O34</f>
         <v>-151903.04926292301</v>
       </c>
       <c r="W3">
@@ -53419,7 +53574,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F12" si="4">F3+D4-B4</f>
+        <f t="shared" ref="F4:F12" si="5">F3+D4-B4</f>
         <v>13.5</v>
       </c>
       <c r="G4">
@@ -53438,29 +53593,29 @@
         <v>3</v>
       </c>
       <c r="N4" s="14">
-        <f>(D4+O5+N3)/(I4+1)-O4</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="O4" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q12" si="5">(P4+$L$2)*D4+($L$2+1)*B4-C4</f>
+        <f t="shared" ref="Q4:Q12" si="6">(P4+$L$2)*D4+($L$2+1)*B4-C4</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S12" si="6">($K$2+1-P4)*D4+($L$2+1)*B4+C4</f>
+        <f t="shared" ref="S4:S12" si="7">($K$2+1-P4)*D4+($L$2+1)*B4+C4</f>
         <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-142046.057217397</v>
       </c>
       <c r="W4">
@@ -53500,11 +53655,11 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G13" si="7">$C$2+$B$2+$E$2-C5</f>
+        <f t="shared" ref="G5:G13" si="8">$C$2+$B$2+$E$2-C5</f>
         <v>18</v>
       </c>
       <c r="I5">
@@ -53519,29 +53674,29 @@
         <v>4</v>
       </c>
       <c r="N5" s="14">
-        <f>(D5+O6+N4)/(I5+1)-O5</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="O5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-174396.57018223699</v>
       </c>
       <c r="W5">
@@ -53585,7 +53740,7 @@
         <v>27.3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I6">
@@ -53600,29 +53755,29 @@
         <v>5</v>
       </c>
       <c r="N6" s="14">
-        <f>(D6+O7+N5)/(I6+1)-O6</f>
+        <f t="shared" si="2"/>
         <v>27.299999999999997</v>
       </c>
       <c r="O6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.2</v>
       </c>
       <c r="S6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26.70967741935484</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-180095.61847186901</v>
       </c>
       <c r="W6">
@@ -53666,7 +53821,7 @@
         <v>27.3</v>
       </c>
       <c r="G7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I7">
@@ -53681,29 +53836,29 @@
         <v>6</v>
       </c>
       <c r="N7" s="14">
-        <f>(D7+O8+N6)/(I7+1)-O7</f>
+        <f t="shared" si="2"/>
         <v>27.299999999999997</v>
       </c>
       <c r="O7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-124860.05035202</v>
       </c>
       <c r="W7">
@@ -53743,11 +53898,11 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I8">
@@ -53762,29 +53917,29 @@
         <v>7</v>
       </c>
       <c r="N8" s="14">
-        <f>(D8+O9+N7)/(I8+1)-O8</f>
+        <f t="shared" si="2"/>
         <v>27.299999999999997</v>
       </c>
       <c r="O8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-187560.92594549301</v>
       </c>
       <c r="W8">
@@ -53824,11 +53979,11 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I9">
@@ -53843,29 +53998,29 @@
         <v>8</v>
       </c>
       <c r="N9" s="14">
-        <f>(D9+O10+N8)/(I9+1)-O9</f>
+        <f t="shared" si="2"/>
         <v>27.299999999999997</v>
       </c>
       <c r="O9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-176105.92935862599</v>
       </c>
       <c r="W9">
@@ -53905,11 +54060,11 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.3</v>
       </c>
       <c r="G10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I10">
@@ -53924,29 +54079,29 @@
         <v>9</v>
       </c>
       <c r="N10" s="14">
-        <f>(D10+O11+N9)/(I10+1)-O10</f>
+        <f t="shared" si="2"/>
         <v>27.299999999999997</v>
       </c>
       <c r="O10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112909.518763106</v>
       </c>
       <c r="W10">
@@ -53986,11 +54141,11 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I11">
@@ -54005,29 +54160,29 @@
         <v>10</v>
       </c>
       <c r="N11" s="14">
-        <f>(D11+O12+N10)/(I11+1)-O11</f>
+        <f t="shared" si="2"/>
         <v>27.299999999999997</v>
       </c>
       <c r="O11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-201321.171371234</v>
       </c>
       <c r="W11">
@@ -54067,11 +54222,11 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I12">
@@ -54086,7 +54241,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="14">
-        <f>(D12+O13+N11)/(I12+1)-O12</f>
+        <f t="shared" si="2"/>
         <v>27.299999999999997</v>
       </c>
       <c r="O12" s="14">
@@ -54097,18 +54252,18 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-195151.325047191</v>
       </c>
       <c r="W12">
@@ -54152,7 +54307,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="G13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I13">
@@ -54181,7 +54336,7 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-196738.49100297401</v>
       </c>
       <c r="W13">
@@ -54320,7 +54475,7 @@
         <v>31.5</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:D29" si="8">B19-C19</f>
+        <f t="shared" ref="D19:D29" si="9">B19-C19</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
@@ -54335,7 +54490,7 @@
         <v>31.5</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" ref="I19:I29" si="9">G19-H19</f>
+        <f t="shared" ref="I19:I29" si="10">G19-H19</f>
         <v>0</v>
       </c>
       <c r="K19" s="4">
@@ -54350,7 +54505,7 @@
         <v>38.798126681547799</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" ref="N19:N29" si="10">L19-M19</f>
+        <f t="shared" ref="N19:N29" si="11">L19-M19</f>
         <v>0</v>
       </c>
     </row>
@@ -54367,37 +54522,37 @@
         <v>31.5</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F20" s="4">
         <v>3</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:G28" si="11">D4+N3+O5</f>
+        <f t="shared" ref="G20:G28" si="12">D4+N3+O5</f>
         <v>31.5</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" ref="H20:H28" si="12">B4+C4+N4+O4</f>
+        <f t="shared" ref="H20:H28" si="13">B4+C4+N4+O4</f>
         <v>31.5</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K20" s="4">
         <v>3</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" ref="L20:L28" si="13">D3+AD3+AE5</f>
+        <f t="shared" ref="L20:L28" si="14">D3+AD3+AE5</f>
         <v>46.498075228619598</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" ref="M20:M28" si="14">B4+C4+AD4+AE4</f>
+        <f t="shared" ref="M20:M28" si="15">B4+C4+AD4+AE4</f>
         <v>46.498075228619697</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-9.9475983006414026E-14</v>
       </c>
     </row>
@@ -54410,41 +54565,41 @@
         <v>31.5</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21:C28" si="15">B5+C5+F5+G5</f>
+        <f t="shared" ref="C21:C28" si="16">B5+C5+F5+G5</f>
         <v>31.5</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F21" s="4">
         <v>4</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="11"/>
-        <v>31.5</v>
-      </c>
-      <c r="H21" s="4">
         <f t="shared" si="12"/>
         <v>31.5</v>
       </c>
+      <c r="H21" s="4">
+        <f t="shared" si="13"/>
+        <v>31.5</v>
+      </c>
       <c r="I21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K21" s="4">
         <v>4</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46.472312739763403</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.472312739763396</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54457,37 +54612,37 @@
         <v>45.3</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45.3</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F22" s="4">
         <v>5</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="11"/>
-        <v>45.3</v>
-      </c>
-      <c r="H22" s="4">
         <f t="shared" si="12"/>
         <v>45.3</v>
       </c>
+      <c r="H22" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
       <c r="I22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K22" s="4">
         <v>5</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>44.531517908454703</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>44.531517908454703</v>
       </c>
       <c r="N22" s="1">
@@ -54500,41 +54655,41 @@
         <v>6</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ref="B23:B28" si="16">D7+F6+G8</f>
+        <f t="shared" ref="B23:B28" si="17">D7+F6+G8</f>
         <v>45.3</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45.3</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F23" s="4">
         <v>6</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="11"/>
-        <v>45.3</v>
-      </c>
-      <c r="H23" s="4">
         <f t="shared" si="12"/>
         <v>45.3</v>
       </c>
+      <c r="H23" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
       <c r="I23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K23" s="4">
         <v>6</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>49.629968854160509</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>49.630174582569197</v>
       </c>
       <c r="N23" s="1">
@@ -54547,45 +54702,45 @@
         <v>7</v>
       </c>
       <c r="B24" s="4">
+        <f t="shared" si="17"/>
+        <v>45.3</v>
+      </c>
+      <c r="C24" s="4">
         <f t="shared" si="16"/>
         <v>45.3</v>
       </c>
-      <c r="C24" s="4">
-        <f t="shared" si="15"/>
-        <v>45.3</v>
-      </c>
       <c r="D24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F24" s="4">
         <v>7</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="11"/>
-        <v>45.3</v>
-      </c>
-      <c r="H24" s="4">
         <f t="shared" si="12"/>
         <v>45.3</v>
       </c>
+      <c r="H24" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
       <c r="I24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K24" s="4">
         <v>7</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="13"/>
-        <v>42.629766470498602</v>
-      </c>
-      <c r="M24" s="1">
         <f t="shared" si="14"/>
         <v>42.629766470498602</v>
       </c>
+      <c r="M24" s="1">
+        <f t="shared" si="15"/>
+        <v>42.629766470498602</v>
+      </c>
       <c r="N24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54594,45 +54749,45 @@
         <v>8</v>
       </c>
       <c r="B25" s="4">
+        <f t="shared" si="17"/>
+        <v>45.3</v>
+      </c>
+      <c r="C25" s="4">
         <f t="shared" si="16"/>
         <v>45.3</v>
       </c>
-      <c r="C25" s="4">
-        <f t="shared" si="15"/>
-        <v>45.3</v>
-      </c>
       <c r="D25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F25" s="4">
         <v>8</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="11"/>
-        <v>45.3</v>
-      </c>
-      <c r="H25" s="4">
         <f t="shared" si="12"/>
         <v>45.3</v>
       </c>
+      <c r="H25" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
       <c r="I25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K25" s="4">
         <v>8</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="13"/>
-        <v>42.848718060622005</v>
-      </c>
-      <c r="M25" s="1">
         <f t="shared" si="14"/>
         <v>42.848718060622005</v>
       </c>
+      <c r="M25" s="1">
+        <f t="shared" si="15"/>
+        <v>42.848718060622005</v>
+      </c>
       <c r="N25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54641,45 +54796,45 @@
         <v>9</v>
       </c>
       <c r="B26" s="4">
+        <f t="shared" si="17"/>
+        <v>45.3</v>
+      </c>
+      <c r="C26" s="4">
         <f t="shared" si="16"/>
         <v>45.3</v>
       </c>
-      <c r="C26" s="4">
-        <f t="shared" si="15"/>
-        <v>45.3</v>
-      </c>
       <c r="D26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F26" s="4">
         <v>9</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="11"/>
-        <v>45.3</v>
-      </c>
-      <c r="H26" s="4">
         <f t="shared" si="12"/>
         <v>45.3</v>
       </c>
+      <c r="H26" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
       <c r="I26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K26" s="4">
         <v>9</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="13"/>
-        <v>43.005698321181896</v>
-      </c>
-      <c r="M26" s="1">
         <f t="shared" si="14"/>
         <v>43.005698321181896</v>
       </c>
+      <c r="M26" s="1">
+        <f t="shared" si="15"/>
+        <v>43.005698321181896</v>
+      </c>
       <c r="N26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54688,45 +54843,45 @@
         <v>10</v>
       </c>
       <c r="B27" s="4">
+        <f t="shared" si="17"/>
+        <v>45.3</v>
+      </c>
+      <c r="C27" s="4">
         <f t="shared" si="16"/>
         <v>45.3</v>
       </c>
-      <c r="C27" s="4">
-        <f t="shared" si="15"/>
-        <v>45.3</v>
-      </c>
       <c r="D27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F27" s="4">
         <v>10</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="11"/>
-        <v>45.3</v>
-      </c>
-      <c r="H27" s="4">
         <f t="shared" si="12"/>
         <v>45.3</v>
       </c>
+      <c r="H27" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
       <c r="I27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K27" s="4">
         <v>10</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="13"/>
-        <v>43.1163731585536</v>
-      </c>
-      <c r="M27" s="1">
         <f t="shared" si="14"/>
         <v>43.1163731585536</v>
       </c>
+      <c r="M27" s="1">
+        <f t="shared" si="15"/>
+        <v>43.1163731585536</v>
+      </c>
       <c r="N27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54735,45 +54890,45 @@
         <v>11</v>
       </c>
       <c r="B28" s="4">
+        <f t="shared" si="17"/>
+        <v>45.3</v>
+      </c>
+      <c r="C28" s="4">
         <f t="shared" si="16"/>
         <v>45.3</v>
       </c>
-      <c r="C28" s="4">
-        <f t="shared" si="15"/>
-        <v>45.3</v>
-      </c>
       <c r="D28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F28" s="4">
         <v>11</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="11"/>
-        <v>45.3</v>
-      </c>
-      <c r="H28" s="4">
         <f t="shared" si="12"/>
         <v>45.3</v>
       </c>
+      <c r="H28" s="4">
+        <f t="shared" si="13"/>
+        <v>45.3</v>
+      </c>
       <c r="I28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K28" s="4">
         <v>11</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="13"/>
-        <v>42.419787186437603</v>
-      </c>
-      <c r="M28" s="1">
         <f t="shared" si="14"/>
         <v>42.419787186437603</v>
       </c>
+      <c r="M28" s="1">
+        <f t="shared" si="15"/>
+        <v>42.419787186437603</v>
+      </c>
       <c r="N28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -54790,7 +54945,7 @@
         <v>27.3</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F29" s="4">
@@ -54805,7 +54960,7 @@
         <v>27.3</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K29" s="4">
@@ -54820,7 +54975,7 @@
         <v>25.516689577692002</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.5797076039639819E-4</v>
       </c>
     </row>
@@ -54912,7 +55067,7 @@
         <v>-4160511.2943980866</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" ref="I34:I44" si="17">G34-H34</f>
+        <f t="shared" ref="I34:I44" si="18">G34-H34</f>
         <v>-3878700.0655847848</v>
       </c>
       <c r="N34">
@@ -54927,15 +55082,15 @@
         <v>3</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" ref="G35:G43" si="18">D4*(Z4*Y4+(1-Z4)*X4)+N3*V3+O5*W5</f>
+        <f t="shared" ref="G35:G43" si="19">D4*(Z4*Y4+(1-Z4)*X4)+N3*V3+O5*W5</f>
         <v>-4382944.9157528151</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" ref="H35:H42" si="19">B4*V4+C4*W4+O4*W4+N4*V4+U4</f>
+        <f t="shared" ref="H35:H42" si="20">B4*V4+C4*W4+O4*W4+N4*V4+U4</f>
         <v>-4196132.6445511337</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-186812.27120168135</v>
       </c>
       <c r="N35">
@@ -54950,15 +55105,15 @@
         <v>4</v>
       </c>
       <c r="G36" s="1">
+        <f t="shared" si="19"/>
+        <v>-4317270.0866213348</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="20"/>
+        <v>-4686607.4481635531</v>
+      </c>
+      <c r="I36" s="1">
         <f t="shared" si="18"/>
-        <v>-4317270.0866213348</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="19"/>
-        <v>-4686607.4481635531</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="17"/>
         <v>369337.36154221836</v>
       </c>
       <c r="N36">
@@ -54973,15 +55128,15 @@
         <v>5</v>
       </c>
       <c r="G37" s="1">
+        <f t="shared" si="19"/>
+        <v>-7279874.0450154748</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="20"/>
+        <v>-7316258.6984684989</v>
+      </c>
+      <c r="I37" s="1">
         <f t="shared" si="18"/>
-        <v>-7279874.0450154748</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="19"/>
-        <v>-7316258.6984684989</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="17"/>
         <v>36384.653453024104</v>
       </c>
       <c r="N37">
@@ -54996,15 +55151,15 @@
         <v>6</v>
       </c>
       <c r="G38" s="1">
+        <f t="shared" si="19"/>
+        <v>-7521993.2234804463</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="20"/>
+        <v>-5951672.297625714</v>
+      </c>
+      <c r="I38" s="1">
         <f t="shared" si="18"/>
-        <v>-7521993.2234804463</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="19"/>
-        <v>-5951672.297625714</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="17"/>
         <v>-1570320.9258547323</v>
       </c>
       <c r="N38">
@@ -55019,15 +55174,15 @@
         <v>7</v>
       </c>
       <c r="G39" s="1">
+        <f t="shared" si="19"/>
+        <v>-6046804.302978497</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="20"/>
+        <v>-7725796.1175103802</v>
+      </c>
+      <c r="I39" s="1">
         <f t="shared" si="18"/>
-        <v>-6046804.302978497</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="19"/>
-        <v>-7725796.1175103802</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="17"/>
         <v>1678991.8145318832</v>
       </c>
       <c r="N39">
@@ -55042,15 +55197,15 @@
         <v>8</v>
       </c>
       <c r="G40" s="1">
+        <f t="shared" si="19"/>
+        <v>-7773998.0240992205</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="20"/>
+        <v>-7445816.7998588402</v>
+      </c>
+      <c r="I40" s="1">
         <f t="shared" si="18"/>
-        <v>-7773998.0240992205</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="19"/>
-        <v>-7445816.7998588402</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" si="17"/>
         <v>-328181.22424038034</v>
       </c>
       <c r="N40">
@@ -55065,15 +55220,15 @@
         <v>9</v>
       </c>
       <c r="G41" s="1">
+        <f t="shared" si="19"/>
+        <v>-7470232.4338423144</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="20"/>
+        <v>428845.1164455316</v>
+      </c>
+      <c r="I41" s="1">
         <f t="shared" si="18"/>
-        <v>-7470232.4338423144</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="19"/>
-        <v>428845.1164455316</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" si="17"/>
         <v>-7899077.5502878465</v>
       </c>
       <c r="N41">
@@ -55088,15 +55243,15 @@
         <v>10</v>
       </c>
       <c r="G42" s="1">
+        <f t="shared" si="19"/>
+        <v>408568.09169797925</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="20"/>
+        <v>-8158608.5407865141</v>
+      </c>
+      <c r="I42" s="1">
         <f t="shared" si="18"/>
-        <v>408568.09169797925</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="19"/>
-        <v>-8158608.5407865141</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" si="17"/>
         <v>8567176.6324844938</v>
       </c>
       <c r="N42">
@@ -55111,7 +55266,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-8196221.3316896018</v>
       </c>
       <c r="H43" s="1">
@@ -55119,7 +55274,7 @@
         <v>-8001492.9443231281</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-194728.38736647367</v>
       </c>
       <c r="N43">
@@ -55142,7 +55297,7 @@
         <v>-4529821.3195825722</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-797809.85420574155</v>
       </c>
       <c r="N44">
@@ -55225,35 +55380,35 @@
         <v>190.7</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:J52" si="20">C51+273.15</f>
+        <f t="shared" ref="C52:J52" si="21">C51+273.15</f>
         <v>305.42999999999995</v>
       </c>
       <c r="D52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>369.9</v>
       </c>
       <c r="E52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>408.04999999999995</v>
       </c>
       <c r="F52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>425.15</v>
       </c>
       <c r="G52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>460.34999999999997</v>
       </c>
       <c r="H52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>469.65</v>
       </c>
       <c r="I52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>507.84999999999997</v>
       </c>
       <c r="J52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>540.15</v>
       </c>
     </row>
@@ -55324,35 +55479,35 @@
         <v>111.62499999999997</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:J55" si="21">C54+273.15</f>
+        <f t="shared" ref="C55:J55" si="22">C54+273.15</f>
         <v>184.55000305175778</v>
       </c>
       <c r="D55">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>231.04800415039057</v>
       </c>
       <c r="E55">
-        <f t="shared" si="21"/>
-        <v>261.42001342773437</v>
+        <f t="shared" si="22"/>
+        <v>261.42001342773438</v>
       </c>
       <c r="F55">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>272.64801025390625</v>
       </c>
       <c r="G55">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>301.02801513671875</v>
       </c>
       <c r="H55">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>309.20901489257807</v>
       </c>
       <c r="I55">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>341.8800048828125</v>
       </c>
       <c r="J55">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>371.57901000976557</v>
       </c>
     </row>
@@ -55394,35 +55549,35 @@
         <v>1.9590661006670709</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:J57" si="22">C54/C51</f>
+        <f t="shared" ref="C57:J57" si="23">C54/C51</f>
         <v>-2.7447334866246034</v>
       </c>
       <c r="D57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.43516274779958036</v>
       </c>
       <c r="E57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-8.6953199201375828E-2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-3.3025641190376777E-3</v>
       </c>
       <c r="G57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14892102102948079</v>
       </c>
       <c r="H57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.18350643711235673</v>
       </c>
       <c r="I57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.29284194666728802</v>
       </c>
       <c r="J57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.36864797756466516</v>
       </c>
     </row>
@@ -55432,35 +55587,35 @@
         <v>0.58534347142108012</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" ref="C58:J58" si="23">C55/C52</f>
+        <f t="shared" ref="C58:J58" si="24">C55/C52</f>
         <v>0.60423011181533515</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.62462288226653306</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.64065681516415729</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.64129838940116723</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.65391118743720811</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.65838180537118718</v>
       </c>
       <c r="I58" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.67319091244031215</v>
       </c>
       <c r="J58" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.687918189409915</v>
       </c>
     </row>
@@ -55474,11 +55629,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AF58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55487,6 +55642,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -56478,8 +56634,9 @@
       <c r="N13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="O13">
-        <v>6.2877766481988999</v>
+      <c r="O13" s="17">
+        <f>N13*$K$2</f>
+        <v>18</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -56520,7 +56677,7 @@
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="O14">
         <f>O13/N13</f>
-        <v>0.67610501593536554</v>
+        <v>1.9354838709677418</v>
       </c>
       <c r="Q14">
         <f>SUM(Q3:Q12)</f>
@@ -56536,7 +56693,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>157</v>
       </c>
@@ -56574,7 +56731,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -56621,7 +56778,7 @@
         <v>4.7051303500467156E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -56668,7 +56825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>3</v>
       </c>
@@ -56715,7 +56872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -56762,7 +56919,7 @@
         <v>9.9475983006414026E-14</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5</v>
       </c>
@@ -56809,7 +56966,7 @@
         <v>-13.800205728408798</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>6</v>
       </c>
@@ -56856,7 +57013,7 @@
         <v>13.799999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>7</v>
       </c>
@@ -56903,7 +57060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>8</v>
       </c>
@@ -56950,7 +57107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>9</v>
       </c>
@@ -56997,7 +57154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>10</v>
       </c>
@@ -57044,7 +57201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>11</v>
       </c>
@@ -57065,7 +57222,7 @@
       </c>
       <c r="G28" s="4">
         <f t="shared" si="9"/>
-        <v>22.140944808206299</v>
+        <v>33.853168160007399</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="10"/>
@@ -57073,7 +57230,7 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>11.712223351801089</v>
       </c>
       <c r="K28" s="4">
         <v>11</v>
@@ -57091,7 +57248,7 @@
         <v>9.9475983006414026E-14</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>12</v>
       </c>
@@ -57116,11 +57273,11 @@
       </c>
       <c r="H29" s="1">
         <f>B13+C13+O13</f>
-        <v>15.587776648198901</v>
+        <v>27.3</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="7"/>
-        <v>-3.6364680094997937E-3</v>
+        <v>-11.7158598198106</v>
       </c>
       <c r="K29" s="4">
         <v>12</v>
@@ -57138,10 +57295,10 @@
         <v>1.5867710509809285E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>182</v>
       </c>
@@ -57157,8 +57314,13 @@
       <c r="M31" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F32" s="28" t="s">
         <v>157</v>
       </c>
@@ -57187,8 +57349,17 @@
         <f>M32+K32</f>
         <v>-1168315.7553601502</v>
       </c>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="O32" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q32" s="32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F33" s="4">
         <v>1</v>
       </c>
@@ -57204,8 +57375,19 @@
         <f>G33-H33</f>
         <v>-2865522.3873577691</v>
       </c>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="O33" s="4">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1">
+        <f>D2*(Z2*Y2+(1-Z2)*X2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <f>C2*W2+B2*V2+U2</f>
+        <v>198494.70188112359</v>
+      </c>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F34" s="4">
         <v>2</v>
       </c>
@@ -57221,42 +57403,75 @@
         <f t="shared" ref="I34:I44" si="15">G34-H34</f>
         <v>111.25784996338189</v>
       </c>
-    </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="O34" s="4">
+        <v>2</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" ref="P34:P44" si="16">D3*(Z3*Y3+(1-Z3)*X3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" ref="Q34:Q44" si="17">C3*W3+B3*V3+U3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F35" s="4">
         <v>3</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" ref="G35:G43" si="16">D4*(Z4*Y4+(1-Z4)*X4)+N3*V3+O5*W5</f>
+        <f t="shared" ref="G35:G43" si="18">D4*(Z4*Y4+(1-Z4)*X4)+N3*V3+O5*W5</f>
         <v>-1057867.0921611045</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" ref="H35:H42" si="17">B4*V4+C4*W4+O4*W4+N4*V4+U4</f>
+        <f t="shared" ref="H35:H42" si="19">B4*V4+C4*W4+O4*W4+N4*V4+U4</f>
         <v>-1057890.4387258324</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="15"/>
         <v>23.346564727835357</v>
       </c>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="O35" s="4">
+        <v>3</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F36" s="4">
         <v>4</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-993210.39957171748</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-993245.17961841787</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="15"/>
         <v>34.780046700383537</v>
       </c>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="O36" s="4">
+        <v>4</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F37" s="4">
         <v>5</v>
       </c>
@@ -57265,106 +57480,172 @@
         <v>95687.619440281647</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>95609.321160648251</v>
       </c>
       <c r="I37" s="1">
         <f>G37-H37</f>
         <v>78.298279633396305</v>
       </c>
-    </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="O37" s="4">
+        <v>5</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="16"/>
+        <v>288611.20286606194</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F38" s="4">
         <v>6</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>879305.06164342223</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>879293.73224758159</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="15"/>
         <v>11.329395840642974</v>
       </c>
-    </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="O38" s="4">
+        <v>6</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F39" s="4">
         <v>7</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>915961.48591102473</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>915952.31131141994</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="15"/>
         <v>9.1745996047975495</v>
       </c>
-    </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="O39" s="4">
+        <v>7</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F40" s="4">
         <v>8</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>947319.2096446011</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>947310.06670689979</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="15"/>
         <v>9.1429377013118938</v>
       </c>
-    </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="O40" s="4">
+        <v>8</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F41" s="4">
         <v>9</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>978890.51197362819</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>978881.24196859088</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="15"/>
         <v>9.2700050373096019</v>
       </c>
-    </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="O41" s="4">
+        <v>9</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F42" s="4">
         <v>10</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1014108.6645363284</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1014098.2059460095</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="15"/>
         <v>10.458590318914503</v>
       </c>
-    </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="O42" s="4">
+        <v>10</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F43" s="4">
         <v>11</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="16"/>
-        <v>1062032.4429195495</v>
+        <f t="shared" si="18"/>
+        <v>-674511.87207876146</v>
       </c>
       <c r="H43" s="1">
         <f>B12*V12+C12*W12+O12*W12+N12*V12+U12</f>
@@ -57372,10 +57653,21 @@
       </c>
       <c r="I43" s="1">
         <f t="shared" si="15"/>
-        <v>14.604981750715524</v>
-      </c>
-    </row>
-    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
+        <v>-1736529.7100165603</v>
+      </c>
+      <c r="O43" s="4">
+        <v>11</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F44" s="4">
         <v>12</v>
       </c>
@@ -57385,17 +57677,48 @@
       </c>
       <c r="H44" s="1">
         <f>B13*V13+C13*W13+O13*W13+U13</f>
-        <v>326318.53440141003</v>
+        <v>-1410225.780596901</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="15"/>
-        <v>1696734.5643833496</v>
-      </c>
-    </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+        <v>3433278.8793816604</v>
+      </c>
+      <c r="O44" s="34">
+        <v>12</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="17"/>
+        <v>1258592.6607080789</v>
+      </c>
+    </row>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.25">
       <c r="I45" s="14">
         <f>SUM(I33:I44)</f>
-        <v>-1168476.159723141</v>
+        <v>-1168476.1597231412</v>
+      </c>
+      <c r="O45" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="P45" s="33">
+        <f>SUM(P33:P44)</f>
+        <v>288611.20286606194</v>
+      </c>
+      <c r="Q45" s="33">
+        <f>SUM(Q33:Q44)</f>
+        <v>1457087.3625892024</v>
+      </c>
+    </row>
+    <row r="46" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="P46" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q46" s="36">
+        <f>P45-Q45-K32-M32</f>
+        <v>-160.40436299005523</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -57465,35 +57788,35 @@
         <v>190.7</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:J52" si="18">C51+273.15</f>
+        <f t="shared" ref="C52:J52" si="20">C51+273.15</f>
         <v>305.42999999999995</v>
       </c>
       <c r="D52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>369.9</v>
       </c>
       <c r="E52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>408.04999999999995</v>
       </c>
       <c r="F52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>425.15</v>
       </c>
       <c r="G52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>460.34999999999997</v>
       </c>
       <c r="H52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>469.65</v>
       </c>
       <c r="I52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>507.84999999999997</v>
       </c>
       <c r="J52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>540.15</v>
       </c>
     </row>
@@ -57564,35 +57887,35 @@
         <v>111.62499999999997</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:J55" si="19">C54+273.15</f>
+        <f t="shared" ref="C55:J55" si="21">C54+273.15</f>
         <v>184.55000305175778</v>
       </c>
       <c r="D55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>231.04800415039057</v>
       </c>
       <c r="E55">
-        <f t="shared" si="19"/>
-        <v>261.42001342773437</v>
+        <f t="shared" si="21"/>
+        <v>261.42001342773438</v>
       </c>
       <c r="F55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>272.64801025390625</v>
       </c>
       <c r="G55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>301.02801513671875</v>
       </c>
       <c r="H55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>309.20901489257807</v>
       </c>
       <c r="I55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>341.8800048828125</v>
       </c>
       <c r="J55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>371.57901000976557</v>
       </c>
     </row>
@@ -57634,35 +57957,35 @@
         <v>1.9590661006670709</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:J58" si="20">C54/C51</f>
+        <f t="shared" ref="C57:J58" si="22">C54/C51</f>
         <v>-2.7447334866246034</v>
       </c>
       <c r="D57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-0.43516274779958036</v>
       </c>
       <c r="E57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-8.6953199201375828E-2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-3.3025641190376777E-3</v>
       </c>
       <c r="G57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.14892102102948079</v>
       </c>
       <c r="H57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18350643711235673</v>
       </c>
       <c r="I57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.29284194666728802</v>
       </c>
       <c r="J57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.36864797756466516</v>
       </c>
     </row>
@@ -57672,41 +57995,42 @@
         <v>0.58534347142108012</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.60423011181533515</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.62462288226653306</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.64065681516415729</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.64129838940116723</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.65391118743720811</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.65838180537118718</v>
       </c>
       <c r="I58" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.67319091244031215</v>
       </c>
       <c r="J58" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.687918189409915</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="AB1:AB13"/>
+    <mergeCell ref="O31:Q31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -57714,7 +58038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -57989,7 +58313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ217"/>
   <sheetViews>
     <sheetView topLeftCell="A160" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -66634,7 +66958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -75777,7 +76101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -76926,7 +77250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -77241,7 +77565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -78197,7 +78521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -78780,7 +79104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -79938,7 +80262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Начальное приближение по темп.xlsx
+++ b/Начальное приближение по темп.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1007E5-9135-4318-BBC4-0155377B926E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Проверка профили (2)" sheetId="15" r:id="rId13"/>
     <sheet name="Теплоемкость" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="209">
   <si>
     <t>CritT</t>
   </si>
@@ -686,11 +685,14 @@
   <si>
     <t>Error</t>
   </si>
+  <si>
+    <t>eps</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -966,17 +968,17 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -996,7 +998,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1133,7 +1135,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-87B7-4437-B1D8-9822BC74DF63}"/>
             </c:ext>
@@ -1147,11 +1149,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60002240"/>
-        <c:axId val="60002816"/>
+        <c:axId val="60199424"/>
+        <c:axId val="60200000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60002240"/>
+        <c:axId val="60199424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1210,13 +1212,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60002816"/>
+        <c:crossAx val="60200000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60002816"/>
+        <c:axId val="60200000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,7 +1275,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60002240"/>
+        <c:crossAx val="60199424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1287,14 +1289,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1330,7 +1332,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1478,7 +1480,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1613,7 +1615,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1748,7 +1750,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1883,7 +1885,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2018,7 +2020,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2153,7 +2155,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2294,7 +2296,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2435,7 +2437,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2576,7 +2578,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2590,11 +2592,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150113664"/>
-        <c:axId val="150114240"/>
+        <c:axId val="146558912"/>
+        <c:axId val="146559488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150113664"/>
+        <c:axId val="146558912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,12 +2653,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150114240"/>
+        <c:crossAx val="146559488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150114240"/>
+        <c:axId val="146559488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2713,7 +2715,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150113664"/>
+        <c:crossAx val="146558912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2758,14 +2760,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2801,7 +2803,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2946,7 +2948,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0A6E-40F1-B6EF-BC66DFBFC52A}"/>
             </c:ext>
@@ -3075,7 +3077,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0A6E-40F1-B6EF-BC66DFBFC52A}"/>
             </c:ext>
@@ -3089,11 +3091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60004544"/>
-        <c:axId val="60005120"/>
+        <c:axId val="60201728"/>
+        <c:axId val="60202304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60004544"/>
+        <c:axId val="60201728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,13 +3152,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60005120"/>
+        <c:crossAx val="60202304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60005120"/>
+        <c:axId val="60202304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3213,7 +3215,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60004544"/>
+        <c:crossAx val="60201728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3258,14 +3260,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3301,7 +3303,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3407,7 +3409,7 @@
             <c:numRef>
               <c:f>Лист2!$D$161:$D$172</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.99999606178854739</c:v>
@@ -3449,7 +3451,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3542,7 +3544,7 @@
             <c:numRef>
               <c:f>Лист2!$F$161:$F$172</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.9380855625060907E-6</c:v>
@@ -3584,7 +3586,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3677,7 +3679,7 @@
             <c:numRef>
               <c:f>Лист2!$G$161:$G$172</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0123141803303958E-10</c:v>
@@ -3719,7 +3721,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3812,7 +3814,7 @@
             <c:numRef>
               <c:f>Лист2!$H$161:$H$172</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.4658773176560385E-11</c:v>
@@ -3854,7 +3856,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3868,11 +3870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147522688"/>
-        <c:axId val="147523264"/>
+        <c:axId val="112789184"/>
+        <c:axId val="112789760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147522688"/>
+        <c:axId val="112789184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3929,12 +3931,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147523264"/>
+        <c:crossAx val="112789760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147523264"/>
+        <c:axId val="112789760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3992,7 +3994,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147522688"/>
+        <c:crossAx val="112789184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4037,14 +4039,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4080,7 +4082,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4258,7 +4260,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-29C4-4B53-8FBB-0EF90FDC155E}"/>
             </c:ext>
@@ -4272,11 +4274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147525568"/>
-        <c:axId val="147526144"/>
+        <c:axId val="112792064"/>
+        <c:axId val="112792640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147525568"/>
+        <c:axId val="112792064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4333,12 +4335,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147526144"/>
+        <c:crossAx val="112792640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147526144"/>
+        <c:axId val="112792640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4395,7 +4397,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147525568"/>
+        <c:crossAx val="112792064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4409,14 +4411,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4452,7 +4454,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4589,7 +4591,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-115A-4A6F-873B-035203F4A5F8}"/>
             </c:ext>
@@ -4603,11 +4605,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147527872"/>
-        <c:axId val="147528448"/>
+        <c:axId val="112794368"/>
+        <c:axId val="112794944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147527872"/>
+        <c:axId val="112794368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -4666,13 +4668,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147528448"/>
+        <c:crossAx val="112794944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147528448"/>
+        <c:axId val="112794944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4729,7 +4731,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147527872"/>
+        <c:crossAx val="112794368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4743,14 +4745,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4786,7 +4788,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4931,7 +4933,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5E0F-4AAC-A196-D98AEB11FE60}"/>
             </c:ext>
@@ -5060,7 +5062,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5E0F-4AAC-A196-D98AEB11FE60}"/>
             </c:ext>
@@ -5074,11 +5076,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147579456"/>
-        <c:axId val="147580032"/>
+        <c:axId val="112845952"/>
+        <c:axId val="112846528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147579456"/>
+        <c:axId val="112845952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5135,13 +5137,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147580032"/>
+        <c:crossAx val="112846528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147580032"/>
+        <c:axId val="112846528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5198,7 +5200,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147579456"/>
+        <c:crossAx val="112845952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5243,14 +5245,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5286,7 +5288,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5423,7 +5425,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4E9E-4361-8923-8243C29C8350}"/>
             </c:ext>
@@ -5437,11 +5439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147582336"/>
-        <c:axId val="147582912"/>
+        <c:axId val="112848832"/>
+        <c:axId val="112849408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147582336"/>
+        <c:axId val="112848832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -5500,13 +5502,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147582912"/>
+        <c:crossAx val="112849408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147582912"/>
+        <c:axId val="112849408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="270"/>
@@ -5564,7 +5566,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147582336"/>
+        <c:crossAx val="112848832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5578,14 +5580,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5621,7 +5623,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5669,26 +5671,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5825,7 +5807,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -5960,7 +5942,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6095,7 +6077,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6230,7 +6212,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6365,7 +6347,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6500,7 +6482,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6641,7 +6623,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6782,7 +6764,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6923,7 +6905,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6937,11 +6919,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147584640"/>
-        <c:axId val="147585216"/>
+        <c:axId val="112851136"/>
+        <c:axId val="112851712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147584640"/>
+        <c:axId val="112851136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6998,12 +6980,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147585216"/>
+        <c:crossAx val="112851712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147585216"/>
+        <c:axId val="112851712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7060,7 +7042,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147584640"/>
+        <c:crossAx val="112851136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7105,14 +7087,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7148,7 +7130,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7196,26 +7178,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7352,7 +7314,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7487,7 +7449,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7622,7 +7584,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7757,7 +7719,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7892,7 +7854,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8027,7 +7989,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8168,7 +8130,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8309,7 +8271,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8450,7 +8412,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8464,11 +8426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150110784"/>
-        <c:axId val="150111360"/>
+        <c:axId val="146556032"/>
+        <c:axId val="146556608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150110784"/>
+        <c:axId val="146556032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8525,12 +8487,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150111360"/>
+        <c:crossAx val="146556608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150111360"/>
+        <c:axId val="146556608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8587,7 +8549,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150110784"/>
+        <c:crossAx val="146556032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8632,14 +8594,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14254,7 +14216,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14290,7 +14252,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14326,7 +14288,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14362,7 +14324,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14403,7 +14365,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14441,7 +14403,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14479,7 +14441,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14515,7 +14477,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14551,7 +14513,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14592,7 +14554,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14656,7 +14618,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14689,26 +14651,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14741,23 +14686,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -14933,7 +14861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49900,7 +49828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50226,7 +50154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -53288,7 +53216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE58"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
@@ -53379,7 +53307,7 @@
       <c r="Z1" t="s">
         <v>181</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="36" t="s">
         <v>170</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -53468,7 +53396,7 @@
       <c r="Z2">
         <v>0</v>
       </c>
-      <c r="AB2" s="31"/>
+      <c r="AB2" s="36"/>
       <c r="AC2" s="4">
         <v>1</v>
       </c>
@@ -53549,7 +53477,7 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AB3" s="31"/>
+      <c r="AB3" s="36"/>
       <c r="AC3" s="4">
         <v>2</v>
       </c>
@@ -53630,7 +53558,7 @@
       <c r="Z4">
         <v>0</v>
       </c>
-      <c r="AB4" s="31"/>
+      <c r="AB4" s="36"/>
       <c r="AC4" s="4">
         <v>3</v>
       </c>
@@ -53711,7 +53639,7 @@
       <c r="Z5">
         <v>0</v>
       </c>
-      <c r="AB5" s="31"/>
+      <c r="AB5" s="36"/>
       <c r="AC5" s="4">
         <v>4</v>
       </c>
@@ -53792,7 +53720,7 @@
       <c r="Z6">
         <v>0.42134857177734403</v>
       </c>
-      <c r="AB6" s="31"/>
+      <c r="AB6" s="36"/>
       <c r="AC6" s="4">
         <v>5</v>
       </c>
@@ -53873,7 +53801,7 @@
       <c r="Z7">
         <v>0</v>
       </c>
-      <c r="AB7" s="31"/>
+      <c r="AB7" s="36"/>
       <c r="AC7" s="4">
         <v>6</v>
       </c>
@@ -53954,7 +53882,7 @@
       <c r="Z8">
         <v>0</v>
       </c>
-      <c r="AB8" s="31"/>
+      <c r="AB8" s="36"/>
       <c r="AC8" s="4">
         <v>7</v>
       </c>
@@ -54035,7 +53963,7 @@
       <c r="Z9">
         <v>0</v>
       </c>
-      <c r="AB9" s="31"/>
+      <c r="AB9" s="36"/>
       <c r="AC9" s="4">
         <v>8</v>
       </c>
@@ -54116,7 +54044,7 @@
       <c r="Z10">
         <v>0</v>
       </c>
-      <c r="AB10" s="31"/>
+      <c r="AB10" s="36"/>
       <c r="AC10" s="4">
         <v>9</v>
       </c>
@@ -54197,7 +54125,7 @@
       <c r="Z11">
         <v>0</v>
       </c>
-      <c r="AB11" s="31"/>
+      <c r="AB11" s="36"/>
       <c r="AC11" s="4">
         <v>10</v>
       </c>
@@ -54278,7 +54206,7 @@
       <c r="Z12">
         <v>0</v>
       </c>
-      <c r="AB12" s="31"/>
+      <c r="AB12" s="36"/>
       <c r="AC12" s="4">
         <v>11</v>
       </c>
@@ -54351,7 +54279,7 @@
       <c r="Z13">
         <v>0</v>
       </c>
-      <c r="AB13" s="31"/>
+      <c r="AB13" s="36"/>
       <c r="AC13" s="4">
         <v>12</v>
       </c>
@@ -55488,7 +55416,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="22"/>
-        <v>261.42001342773438</v>
+        <v>261.42001342773437</v>
       </c>
       <c r="F55">
         <f t="shared" si="22"/>
@@ -55629,11 +55557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55721,7 +55649,7 @@
       <c r="Z1" t="s">
         <v>181</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="36" t="s">
         <v>170</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -55808,7 +55736,7 @@
       <c r="Z2">
         <v>0</v>
       </c>
-      <c r="AB2" s="31"/>
+      <c r="AB2" s="36"/>
       <c r="AC2" s="4">
         <v>1</v>
       </c>
@@ -55886,7 +55814,7 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AB3" s="31"/>
+      <c r="AB3" s="36"/>
       <c r="AC3" s="4">
         <v>2</v>
       </c>
@@ -55964,7 +55892,7 @@
       <c r="Z4">
         <v>0</v>
       </c>
-      <c r="AB4" s="31"/>
+      <c r="AB4" s="36"/>
       <c r="AC4" s="4">
         <v>3</v>
       </c>
@@ -56042,7 +55970,7 @@
       <c r="Z5">
         <v>0</v>
       </c>
-      <c r="AB5" s="31"/>
+      <c r="AB5" s="36"/>
       <c r="AC5" s="4">
         <v>4</v>
       </c>
@@ -56120,7 +56048,7 @@
       <c r="Z6">
         <v>0.42134857177734403</v>
       </c>
-      <c r="AB6" s="31"/>
+      <c r="AB6" s="36"/>
       <c r="AC6" s="4">
         <v>5</v>
       </c>
@@ -56198,7 +56126,7 @@
       <c r="Z7">
         <v>0</v>
       </c>
-      <c r="AB7" s="31"/>
+      <c r="AB7" s="36"/>
       <c r="AC7" s="4">
         <v>6</v>
       </c>
@@ -56276,7 +56204,7 @@
       <c r="Z8">
         <v>0</v>
       </c>
-      <c r="AB8" s="31"/>
+      <c r="AB8" s="36"/>
       <c r="AC8" s="4">
         <v>7</v>
       </c>
@@ -56354,7 +56282,7 @@
       <c r="Z9">
         <v>0</v>
       </c>
-      <c r="AB9" s="31"/>
+      <c r="AB9" s="36"/>
       <c r="AC9" s="4">
         <v>8</v>
       </c>
@@ -56432,7 +56360,7 @@
       <c r="Z10">
         <v>0</v>
       </c>
-      <c r="AB10" s="31"/>
+      <c r="AB10" s="36"/>
       <c r="AC10" s="4">
         <v>9</v>
       </c>
@@ -56510,7 +56438,7 @@
       <c r="Z11">
         <v>0</v>
       </c>
-      <c r="AB11" s="31"/>
+      <c r="AB11" s="36"/>
       <c r="AC11" s="4">
         <v>10</v>
       </c>
@@ -56588,7 +56516,7 @@
       <c r="Z12">
         <v>0</v>
       </c>
-      <c r="AB12" s="31"/>
+      <c r="AB12" s="36"/>
       <c r="AC12" s="4">
         <v>11</v>
       </c>
@@ -56659,7 +56587,7 @@
       <c r="Z13">
         <v>0</v>
       </c>
-      <c r="AB13" s="31"/>
+      <c r="AB13" s="36"/>
       <c r="AC13" s="4">
         <v>12</v>
       </c>
@@ -56693,7 +56621,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>157</v>
       </c>
@@ -56730,8 +56666,25 @@
       <c r="N17" s="29" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q17">
+        <v>0.49</v>
+      </c>
+      <c r="S17">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="T17">
+        <f>S17*Q18</f>
+        <v>18</v>
+      </c>
+      <c r="U17">
+        <f>T17/(N12)</f>
+        <v>1.1550204112564162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -56777,8 +56730,15 @@
         <f>L18-M18</f>
         <v>4.7051303500467156E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q18">
+        <f>K2</f>
+        <v>1.9354838709677418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -56825,7 +56785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>3</v>
       </c>
@@ -56872,7 +56832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -56919,7 +56879,7 @@
         <v>9.9475983006414026E-14</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5</v>
       </c>
@@ -56966,7 +56926,7 @@
         <v>-13.800205728408798</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>6</v>
       </c>
@@ -57013,7 +56973,7 @@
         <v>13.799999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>7</v>
       </c>
@@ -57060,7 +57020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>8</v>
       </c>
@@ -57107,7 +57067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>9</v>
       </c>
@@ -57154,7 +57114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>10</v>
       </c>
@@ -57201,7 +57161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>11</v>
       </c>
@@ -57248,7 +57208,7 @@
         <v>9.9475983006414026E-14</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>12</v>
       </c>
@@ -57295,10 +57255,10 @@
         <v>1.5867710509809285E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>182</v>
       </c>
@@ -57314,13 +57274,13 @@
       <c r="M31" t="s">
         <v>185</v>
       </c>
-      <c r="O31" s="35" t="s">
+      <c r="O31" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F32" s="28" t="s">
         <v>157</v>
       </c>
@@ -57349,13 +57309,13 @@
         <f>M32+K32</f>
         <v>-1168315.7553601502</v>
       </c>
-      <c r="O32" s="32" t="s">
+      <c r="O32" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="P32" s="32" t="s">
+      <c r="P32" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="Q32" s="32" t="s">
+      <c r="Q32" s="31" t="s">
         <v>205</v>
       </c>
     </row>
@@ -57683,7 +57643,7 @@
         <f t="shared" si="15"/>
         <v>3433278.8793816604</v>
       </c>
-      <c r="O44" s="34">
+      <c r="O44" s="33">
         <v>12</v>
       </c>
       <c r="P44" s="1">
@@ -57700,23 +57660,23 @@
         <f>SUM(I33:I44)</f>
         <v>-1168476.1597231412</v>
       </c>
-      <c r="O45" s="33" t="s">
+      <c r="O45" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="P45" s="33">
+      <c r="P45" s="32">
         <f>SUM(P33:P44)</f>
         <v>288611.20286606194</v>
       </c>
-      <c r="Q45" s="33">
+      <c r="Q45" s="32">
         <f>SUM(Q33:Q44)</f>
         <v>1457087.3625892024</v>
       </c>
     </row>
     <row r="46" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="P46" s="37" t="s">
+      <c r="P46" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="Q46" s="36">
+      <c r="Q46" s="34">
         <f>P45-Q45-K32-M32</f>
         <v>-160.40436299005523</v>
       </c>
@@ -57896,7 +57856,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="21"/>
-        <v>261.42001342773438</v>
+        <v>261.42001342773437</v>
       </c>
       <c r="F55">
         <f t="shared" si="21"/>
@@ -58038,7 +57998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -58313,7 +58273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ217"/>
   <sheetViews>
     <sheetView topLeftCell="A160" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -66958,7 +66918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -76101,7 +76061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -77250,7 +77210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -77565,7 +77525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -78521,7 +78481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -79104,7 +79064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -80262,7 +80222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Начальное приближение по темп.xlsx
+++ b/Начальное приближение по темп.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,6 @@
     <sheet name="dHf_298" sheetId="10" r:id="rId10"/>
     <sheet name="Проверка энтальпий" sheetId="11" r:id="rId11"/>
     <sheet name="Проверка профили" sheetId="12" r:id="rId12"/>
-    <sheet name="Проверка профили (2)" sheetId="15" r:id="rId13"/>
-    <sheet name="Теплоемкость" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="198">
   <si>
     <t>CritT</t>
   </si>
@@ -655,39 +653,6 @@
   <si>
     <t>Tbr</t>
   </si>
-  <si>
-    <t>Condenced phase</t>
-  </si>
-  <si>
-    <t>Gas phase</t>
-  </si>
-  <si>
-    <t>Cp, J/mole K</t>
-  </si>
-  <si>
-    <t>Lj</t>
-  </si>
-  <si>
-    <t>Vj</t>
-  </si>
-  <si>
-    <t>Global Heat Balance</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>Out</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>eps</t>
-  </si>
 </sst>
 </file>
 
@@ -697,7 +662,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,37 +724,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,14 +767,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -909,34 +839,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -968,16 +876,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1149,11 +1049,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60199424"/>
-        <c:axId val="60200000"/>
+        <c:axId val="60665216"/>
+        <c:axId val="60665792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60199424"/>
+        <c:axId val="60665216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1212,13 +1112,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60200000"/>
+        <c:crossAx val="60665792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60200000"/>
+        <c:axId val="60665792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1275,7 +1175,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60199424"/>
+        <c:crossAx val="60665216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2592,11 +2492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146558912"/>
-        <c:axId val="146559488"/>
+        <c:axId val="150096704"/>
+        <c:axId val="150097280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146558912"/>
+        <c:axId val="150096704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2653,12 +2553,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146559488"/>
+        <c:crossAx val="150097280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146559488"/>
+        <c:axId val="150097280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2715,7 +2615,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146558912"/>
+        <c:crossAx val="150096704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3091,11 +2991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60201728"/>
-        <c:axId val="60202304"/>
+        <c:axId val="60667520"/>
+        <c:axId val="60668096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60201728"/>
+        <c:axId val="60667520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3152,13 +3052,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60202304"/>
+        <c:crossAx val="60668096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60202304"/>
+        <c:axId val="60668096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3215,7 +3115,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60201728"/>
+        <c:crossAx val="60667520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3870,11 +3770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112789184"/>
-        <c:axId val="112789760"/>
+        <c:axId val="146211392"/>
+        <c:axId val="146211968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112789184"/>
+        <c:axId val="146211392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3931,12 +3831,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112789760"/>
+        <c:crossAx val="146211968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112789760"/>
+        <c:axId val="146211968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3994,7 +3894,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112789184"/>
+        <c:crossAx val="146211392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4274,11 +4174,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112792064"/>
-        <c:axId val="112792640"/>
+        <c:axId val="146214272"/>
+        <c:axId val="146214848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112792064"/>
+        <c:axId val="146214272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4335,12 +4235,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112792640"/>
+        <c:crossAx val="146214848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112792640"/>
+        <c:axId val="146214848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4397,7 +4297,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112792064"/>
+        <c:crossAx val="146214272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4605,11 +4505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112794368"/>
-        <c:axId val="112794944"/>
+        <c:axId val="146216576"/>
+        <c:axId val="146217152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112794368"/>
+        <c:axId val="146216576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -4668,13 +4568,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112794944"/>
+        <c:crossAx val="146217152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112794944"/>
+        <c:axId val="146217152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4731,7 +4631,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112794368"/>
+        <c:crossAx val="146216576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5076,11 +4976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112845952"/>
-        <c:axId val="112846528"/>
+        <c:axId val="146268160"/>
+        <c:axId val="146268736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112845952"/>
+        <c:axId val="146268160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5137,13 +5037,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112846528"/>
+        <c:crossAx val="146268736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112846528"/>
+        <c:axId val="146268736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5200,7 +5100,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112845952"/>
+        <c:crossAx val="146268160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5439,11 +5339,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112848832"/>
-        <c:axId val="112849408"/>
+        <c:axId val="146271040"/>
+        <c:axId val="146271616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112848832"/>
+        <c:axId val="146271040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -5502,13 +5402,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112849408"/>
+        <c:crossAx val="146271616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112849408"/>
+        <c:axId val="146271616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="270"/>
@@ -5566,7 +5466,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112848832"/>
+        <c:crossAx val="146271040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6919,11 +6819,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112851136"/>
-        <c:axId val="112851712"/>
+        <c:axId val="146273344"/>
+        <c:axId val="146273920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112851136"/>
+        <c:axId val="146273344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6980,12 +6880,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112851712"/>
+        <c:crossAx val="146273920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112851712"/>
+        <c:axId val="146273920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7042,7 +6942,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112851136"/>
+        <c:crossAx val="146273344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8426,11 +8326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146556032"/>
-        <c:axId val="146556608"/>
+        <c:axId val="150093824"/>
+        <c:axId val="150094400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146556032"/>
+        <c:axId val="150093824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8487,12 +8387,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146556608"/>
+        <c:crossAx val="150094400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146556608"/>
+        <c:axId val="150094400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8549,7 +8449,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146556032"/>
+        <c:crossAx val="150093824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14216,7 +14116,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14252,7 +14152,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14288,7 +14188,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14324,7 +14224,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14365,7 +14265,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14403,7 +14303,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14441,7 +14341,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14477,7 +14377,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14513,7 +14413,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14554,7 +14454,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -49832,7 +49732,7 @@
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J2"/>
+      <selection activeCell="B2" sqref="B2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53219,8 +53119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53307,7 +53207,7 @@
       <c r="Z1" t="s">
         <v>181</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AB1" s="31" t="s">
         <v>170</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -53396,7 +53296,7 @@
       <c r="Z2">
         <v>0</v>
       </c>
-      <c r="AB2" s="36"/>
+      <c r="AB2" s="31"/>
       <c r="AC2" s="4">
         <v>1</v>
       </c>
@@ -53440,11 +53340,11 @@
         <v>2</v>
       </c>
       <c r="N3" s="14">
-        <f t="shared" ref="N3:N12" si="2">(D3+O4+N2)/(I3+1)-O3</f>
+        <f>(D3+O4+N2)/(I3+1)-O3</f>
         <v>13.5</v>
       </c>
       <c r="O3" s="14">
-        <f t="shared" ref="O3:O11" si="3">O4/(I3+1)</f>
+        <f t="shared" ref="O3:O11" si="2">O4/(I3+1)</f>
         <v>18</v>
       </c>
       <c r="P3">
@@ -53462,7 +53362,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V13" si="4">$N$32*O34</f>
+        <f t="shared" ref="V3:V13" si="3">$N$32*O34</f>
         <v>-151903.04926292301</v>
       </c>
       <c r="W3">
@@ -53477,7 +53377,7 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AB3" s="36"/>
+      <c r="AB3" s="31"/>
       <c r="AC3" s="4">
         <v>2</v>
       </c>
@@ -53502,7 +53402,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F12" si="5">F3+D4-B4</f>
+        <f t="shared" ref="F4:F12" si="4">F3+D4-B4</f>
         <v>13.5</v>
       </c>
       <c r="G4">
@@ -53521,11 +53421,11 @@
         <v>3</v>
       </c>
       <c r="N4" s="14">
+        <f t="shared" ref="N4:N11" si="5">(D4+O5+N3)/(I4+1)-O4</f>
+        <v>13.5</v>
+      </c>
+      <c r="O4" s="14">
         <f t="shared" si="2"/>
-        <v>13.5</v>
-      </c>
-      <c r="O4" s="14">
-        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P4">
@@ -53543,7 +53443,7 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-142046.057217397</v>
       </c>
       <c r="W4">
@@ -53558,7 +53458,7 @@
       <c r="Z4">
         <v>0</v>
       </c>
-      <c r="AB4" s="36"/>
+      <c r="AB4" s="31"/>
       <c r="AC4" s="4">
         <v>3</v>
       </c>
@@ -53583,7 +53483,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
       <c r="G5">
@@ -53602,11 +53502,11 @@
         <v>4</v>
       </c>
       <c r="N5" s="14">
+        <f>(D5+O6+N4)/(I5+1)-O5</f>
+        <v>13.5</v>
+      </c>
+      <c r="O5" s="14">
         <f t="shared" si="2"/>
-        <v>13.5</v>
-      </c>
-      <c r="O5" s="14">
-        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P5">
@@ -53624,7 +53524,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-174396.57018223699</v>
       </c>
       <c r="W5">
@@ -53639,7 +53539,7 @@
       <c r="Z5">
         <v>0</v>
       </c>
-      <c r="AB5" s="36"/>
+      <c r="AB5" s="31"/>
       <c r="AC5" s="4">
         <v>4</v>
       </c>
@@ -53683,11 +53583,11 @@
         <v>5</v>
       </c>
       <c r="N6" s="14">
+        <f>(D6+O7+N5)/(I6+1)-O6</f>
+        <v>27.299999999999997</v>
+      </c>
+      <c r="O6" s="14">
         <f t="shared" si="2"/>
-        <v>27.299999999999997</v>
-      </c>
-      <c r="O6" s="14">
-        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P6">
@@ -53705,7 +53605,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-180095.61847186901</v>
       </c>
       <c r="W6">
@@ -53720,7 +53620,7 @@
       <c r="Z6">
         <v>0.42134857177734403</v>
       </c>
-      <c r="AB6" s="36"/>
+      <c r="AB6" s="31"/>
       <c r="AC6" s="4">
         <v>5</v>
       </c>
@@ -53764,11 +53664,11 @@
         <v>6</v>
       </c>
       <c r="N7" s="14">
+        <f t="shared" si="5"/>
+        <v>27.299999999999997</v>
+      </c>
+      <c r="O7" s="14">
         <f t="shared" si="2"/>
-        <v>27.299999999999997</v>
-      </c>
-      <c r="O7" s="14">
-        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P7">
@@ -53786,7 +53686,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-124860.05035202</v>
       </c>
       <c r="W7">
@@ -53801,7 +53701,7 @@
       <c r="Z7">
         <v>0</v>
       </c>
-      <c r="AB7" s="36"/>
+      <c r="AB7" s="31"/>
       <c r="AC7" s="4">
         <v>6</v>
       </c>
@@ -53826,7 +53726,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27.3</v>
       </c>
       <c r="G8">
@@ -53845,11 +53745,11 @@
         <v>7</v>
       </c>
       <c r="N8" s="14">
+        <f t="shared" si="5"/>
+        <v>27.299999999999997</v>
+      </c>
+      <c r="O8" s="14">
         <f t="shared" si="2"/>
-        <v>27.299999999999997</v>
-      </c>
-      <c r="O8" s="14">
-        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P8">
@@ -53867,7 +53767,7 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-187560.92594549301</v>
       </c>
       <c r="W8">
@@ -53882,7 +53782,7 @@
       <c r="Z8">
         <v>0</v>
       </c>
-      <c r="AB8" s="36"/>
+      <c r="AB8" s="31"/>
       <c r="AC8" s="4">
         <v>7</v>
       </c>
@@ -53907,7 +53807,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27.3</v>
       </c>
       <c r="G9">
@@ -53926,11 +53826,11 @@
         <v>8</v>
       </c>
       <c r="N9" s="14">
+        <f t="shared" si="5"/>
+        <v>27.299999999999997</v>
+      </c>
+      <c r="O9" s="14">
         <f t="shared" si="2"/>
-        <v>27.299999999999997</v>
-      </c>
-      <c r="O9" s="14">
-        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P9">
@@ -53948,7 +53848,7 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-176105.92935862599</v>
       </c>
       <c r="W9">
@@ -53963,7 +53863,7 @@
       <c r="Z9">
         <v>0</v>
       </c>
-      <c r="AB9" s="36"/>
+      <c r="AB9" s="31"/>
       <c r="AC9" s="4">
         <v>8</v>
       </c>
@@ -53988,7 +53888,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27.3</v>
       </c>
       <c r="G10">
@@ -54007,11 +53907,11 @@
         <v>9</v>
       </c>
       <c r="N10" s="14">
+        <f>(D10+O11+N9)/(I10+1)-O10</f>
+        <v>27.299999999999997</v>
+      </c>
+      <c r="O10" s="14">
         <f t="shared" si="2"/>
-        <v>27.299999999999997</v>
-      </c>
-      <c r="O10" s="14">
-        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P10">
@@ -54029,7 +53929,7 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>112909.518763106</v>
       </c>
       <c r="W10">
@@ -54044,7 +53944,7 @@
       <c r="Z10">
         <v>0</v>
       </c>
-      <c r="AB10" s="36"/>
+      <c r="AB10" s="31"/>
       <c r="AC10" s="4">
         <v>9</v>
       </c>
@@ -54069,7 +53969,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27.3</v>
       </c>
       <c r="G11">
@@ -54088,11 +53988,11 @@
         <v>10</v>
       </c>
       <c r="N11" s="14">
+        <f t="shared" si="5"/>
+        <v>27.299999999999997</v>
+      </c>
+      <c r="O11" s="14">
         <f t="shared" si="2"/>
-        <v>27.299999999999997</v>
-      </c>
-      <c r="O11" s="14">
-        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P11">
@@ -54110,7 +54010,7 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-201321.171371234</v>
       </c>
       <c r="W11">
@@ -54125,7 +54025,7 @@
       <c r="Z11">
         <v>0</v>
       </c>
-      <c r="AB11" s="36"/>
+      <c r="AB11" s="31"/>
       <c r="AC11" s="4">
         <v>10</v>
       </c>
@@ -54150,7 +54050,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27.3</v>
       </c>
       <c r="G12">
@@ -54169,7 +54069,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" si="2"/>
+        <f>(D12+O13+N11)/(I12+1)-O12</f>
         <v>27.299999999999997</v>
       </c>
       <c r="O12" s="14">
@@ -54191,7 +54091,7 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-195151.325047191</v>
       </c>
       <c r="W12">
@@ -54206,7 +54106,7 @@
       <c r="Z12">
         <v>0</v>
       </c>
-      <c r="AB12" s="36"/>
+      <c r="AB12" s="31"/>
       <c r="AC12" s="4">
         <v>11</v>
       </c>
@@ -54264,7 +54164,7 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-196738.49100297401</v>
       </c>
       <c r="W13">
@@ -54279,7 +54179,7 @@
       <c r="Z13">
         <v>0</v>
       </c>
-      <c r="AB13" s="36"/>
+      <c r="AB13" s="31"/>
       <c r="AC13" s="4">
         <v>12</v>
       </c>
@@ -55553,2722 +55453,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF58"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L1" t="s">
-        <v>166</v>
-      </c>
-      <c r="M1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N1" t="s">
-        <v>201</v>
-      </c>
-      <c r="O1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>171</v>
-      </c>
-      <c r="R1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S1" t="s">
-        <v>172</v>
-      </c>
-      <c r="T1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U1" t="s">
-        <v>187</v>
-      </c>
-      <c r="V1" t="s">
-        <v>177</v>
-      </c>
-      <c r="W1" t="s">
-        <v>178</v>
-      </c>
-      <c r="X1" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB1" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4.5</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>13.5</v>
-      </c>
-      <c r="F2">
-        <v>13.5</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>(B2+C2)/(F2+G2)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J2">
-        <f>I2/(I2+1)*(D2+G3+0)</f>
-        <v>4.5</v>
-      </c>
-      <c r="K2" s="17">
-        <v>1.9354838709677418</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>13.5</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <f>($L$2*$D$2+($L$2+1)*$D$13+$Q$14)/($L$2+$K$2+1)</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="T2">
-        <f>((K2+1)*$D$2+$L$2*$D$13+$S$14)/($K$2+$L$2+1)</f>
-        <v>4.5</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>44109.933751360797</v>
-      </c>
-      <c r="W2">
-        <v>-74957.287137243504</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>13.500299833946301</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>2.7741825834638801E-21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f>F2+D3-B3</f>
-        <v>13.5</v>
-      </c>
-      <c r="G3">
-        <f>$C$2+$B$2+$E$2-C3</f>
-        <v>18</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I13" si="0">(B3+C3)/(F3+G3)</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J13" si="1">I3/(I3+1)*(D3+G4+F2)</f>
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>10.5871286239064</v>
-      </c>
-      <c r="O3">
-        <v>18.0036364680095</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <f>(P3+$L$2)*D3+($L$2+1)*B3-C3</f>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f>($K$2+1-P3)*D3+($L$2+1)*B3+C3</f>
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>74704.964333387499</v>
-      </c>
-      <c r="W3">
-        <v>-115062.508816715</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>20.737343306692999</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>18.000346885249801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F12" si="2">F3+D4-B4</f>
-        <v>13.5</v>
-      </c>
-      <c r="G4">
-        <f>$C$2+$B$2+$E$2-C4</f>
-        <v>18</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>10.084610931869699</v>
-      </c>
-      <c r="O4">
-        <v>15.0907650919159</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q12" si="3">(P4+$L$2)*D4+($L$2+1)*B4-C4</f>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f t="shared" ref="S4:S12" si="4">($K$2+1-P4)*D4+($L$2+1)*B4+C4</f>
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>81125.085358871307</v>
-      </c>
-      <c r="W4">
-        <v>-124314.79450897699</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="4">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>20.928700985846302</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>25.2373903579965</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>13.5</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G13" si="5">$C$2+$B$2+$E$2-C5</f>
-        <v>18</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>9.4336680886470408</v>
-      </c>
-      <c r="O5">
-        <v>14.588247399879201</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>90689.3236803818</v>
-      </c>
-      <c r="W5">
-        <v>-126730.65569331701</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="4">
-        <v>4</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>19.550301112881002</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>25.428748037149798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>13.8</v>
-      </c>
-      <c r="F6">
-        <f>F5+D6-B6</f>
-        <v>27.3</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <v>16.992712484235899</v>
-      </c>
-      <c r="O6">
-        <v>13.9373045566565</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="3"/>
-        <v>55.2</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="4"/>
-        <v>26.70967741935484</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>112220.73257347</v>
-      </c>
-      <c r="W6">
-        <v>-129962.38367809499</v>
-      </c>
-      <c r="X6">
-        <v>128619.236172658</v>
-      </c>
-      <c r="Y6">
-        <v>-127001.378460454</v>
-      </c>
-      <c r="Z6">
-        <v>0.42134857177734403</v>
-      </c>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>26.036399214896399</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>24.050348164184602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>F6+D7-B7</f>
-        <v>27.3</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
-      <c r="N7">
-        <v>16.714178575616501</v>
-      </c>
-      <c r="O7">
-        <v>7.69634895224541</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>115336.227008503</v>
-      </c>
-      <c r="W7">
-        <v>-136227.783942215</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="4">
-        <v>6</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>26.207099493930599</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>16.7362405377912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>27.3</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>16.490714312245199</v>
-      </c>
-      <c r="O8">
-        <v>7.4178150436259296</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>117859.169485223</v>
-      </c>
-      <c r="W8">
-        <v>-138535.34709400899</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="4">
-        <v>7</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>26.116418529036</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>16.906940816825401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>27.3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>8</v>
-      </c>
-      <c r="N9">
-        <v>16.275180320984699</v>
-      </c>
-      <c r="O9">
-        <v>7.19435078025462</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>120373.405186045</v>
-      </c>
-      <c r="W9">
-        <v>-140636.568809497</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="4">
-        <v>8</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>26.099089973248098</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>16.816259851930798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>27.3</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>9</v>
-      </c>
-      <c r="N10">
-        <v>16.068194067167099</v>
-      </c>
-      <c r="O10">
-        <v>6.9788167889941599</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>122922.58340464</v>
-      </c>
-      <c r="W10">
-        <v>-142755.24254854201</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="4">
-        <v>9</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>26.2015883534268</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>16.7989312961429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>27.3</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>10</v>
-      </c>
-      <c r="N11">
-        <v>15.853168160007399</v>
-      </c>
-      <c r="O11">
-        <v>6.7718305351765897</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>125798.613191856</v>
-      </c>
-      <c r="W11">
-        <v>-144747.91685770499</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="4">
-        <v>10</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>26.189796836678799</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>16.901429676321602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>27.3</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <v>15.584140180189401</v>
-      </c>
-      <c r="O12">
-        <v>6.5568046280169101</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>129814.86789733</v>
-      </c>
-      <c r="W12">
-        <v>-146570.67205274099</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="4">
-        <v>11</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>25.511424209470999</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>16.8896381595736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f>B13</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>0.34065934065934067</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>6.9368852459016397</v>
-      </c>
-      <c r="M13">
-        <v>12</v>
-      </c>
-      <c r="N13">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="O13" s="17">
-        <f>N13*$K$2</f>
-        <v>18</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>135332.544162159</v>
-      </c>
-      <c r="W13">
-        <v>-148267.69118361</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="4">
-        <v>12</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>9.3001586771051894</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>16.2112655323659</v>
-      </c>
-      <c r="AF13">
-        <f>AE13/AD13</f>
-        <v>1.7431170902787105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="O14">
-        <f>O13/N13</f>
-        <v>1.9354838709677418</v>
-      </c>
-      <c r="Q14">
-        <f>SUM(Q3:Q12)</f>
-        <v>55.2</v>
-      </c>
-      <c r="S14">
-        <f>SUM(S3:S12)</f>
-        <v>26.70967741935484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="S16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N17" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="P17" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q17">
-        <v>0.49</v>
-      </c>
-      <c r="S17">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="T17">
-        <f>S17*Q18</f>
-        <v>18</v>
-      </c>
-      <c r="U17">
-        <f>T17/(N12)</f>
-        <v>1.1550204112564162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4">
-        <f>D2+G3</f>
-        <v>18</v>
-      </c>
-      <c r="C18" s="4">
-        <f>E2+B2</f>
-        <v>18</v>
-      </c>
-      <c r="D18" s="4">
-        <f>B18-C18</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <f>D2+O3</f>
-        <v>18.0036364680095</v>
-      </c>
-      <c r="H18" s="1">
-        <f>N2+B2+C2+O2</f>
-        <v>18</v>
-      </c>
-      <c r="I18" s="1">
-        <f>G18-H18</f>
-        <v>3.6364680094997937E-3</v>
-      </c>
-      <c r="K18" s="4">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1">
-        <f>D2+AE3</f>
-        <v>18.000346885249801</v>
-      </c>
-      <c r="M18" s="1">
-        <f>AD2+B2+C2</f>
-        <v>18.000299833946301</v>
-      </c>
-      <c r="N18" s="1">
-        <f>L18-M18</f>
-        <v>4.7051303500467156E-5</v>
-      </c>
-      <c r="P18" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q18">
-        <f>K2</f>
-        <v>1.9354838709677418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4">
-        <f>D3+$E$2+G4</f>
-        <v>31.5</v>
-      </c>
-      <c r="C19" s="4">
-        <f>B3+C3+G3+F3</f>
-        <v>31.5</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" ref="D19:D29" si="6">B19-C19</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1">
-        <f>D3+N2+O4</f>
-        <v>28.590765091915898</v>
-      </c>
-      <c r="H19" s="1">
-        <f>B3+C3+O3+N3</f>
-        <v>28.590765091915898</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" ref="I19:I29" si="7">G19-H19</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>2</v>
-      </c>
-      <c r="L19" s="1">
-        <f>D2+AD2+AE4</f>
-        <v>38.737690191942804</v>
-      </c>
-      <c r="M19" s="1">
-        <f>B3+C3+AE3+AD3</f>
-        <v>38.737690191942804</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" ref="N19:N29" si="8">L19-M19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4">
-        <f>D4+F3+G5</f>
-        <v>31.5</v>
-      </c>
-      <c r="C20" s="4">
-        <f>B4+C4+F4+G4</f>
-        <v>31.5</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" ref="G20:G28" si="9">D4+N3+O5</f>
-        <v>25.175376023785603</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" ref="H20:H28" si="10">B4+C4+N4+O4</f>
-        <v>25.175376023785599</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>3</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" ref="L20:L28" si="11">D3+AD3+AE5</f>
-        <v>46.166091343842794</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" ref="M20:M28" si="12">B4+C4+AD4+AE4</f>
-        <v>46.166091343842801</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4">
-        <f>D5+F4+G6</f>
-        <v>31.5</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" ref="C21:C28" si="13">B5+C5+F5+G5</f>
-        <v>31.5</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>4</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="9"/>
-        <v>24.021915488526197</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" si="10"/>
-        <v>24.02191548852624</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="7"/>
-        <v>-4.2632564145606011E-14</v>
-      </c>
-      <c r="K21" s="4">
-        <v>4</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="11"/>
-        <v>44.979049150030903</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="12"/>
-        <v>44.979049150030804</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="8"/>
-        <v>9.9475983006414026E-14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>5</v>
-      </c>
-      <c r="B22" s="4">
-        <f>D6+F5+G7</f>
-        <v>45.3</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="13"/>
-        <v>45.3</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>5</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="9"/>
-        <v>30.930017040892452</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="10"/>
-        <v>30.930017040892398</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="7"/>
-        <v>5.3290705182007514E-14</v>
-      </c>
-      <c r="K22" s="4">
-        <v>5</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="11"/>
-        <v>36.286541650672206</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="12"/>
-        <v>50.086747379081004</v>
-      </c>
-      <c r="N22" s="1">
-        <f>L22-M22</f>
-        <v>-13.800205728408798</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4">
-        <f t="shared" ref="B23:B28" si="14">D7+F6+G8</f>
-        <v>45.3</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="13"/>
-        <v>45.3</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>6</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="9"/>
-        <v>24.410527527861827</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="10"/>
-        <v>24.410527527861909</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="7"/>
-        <v>-8.1712414612411521E-14</v>
-      </c>
-      <c r="K23" s="4">
-        <v>6</v>
-      </c>
-      <c r="L23" s="1">
-        <f t="shared" si="11"/>
-        <v>56.7433400317218</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="shared" si="12"/>
-        <v>42.943340031721803</v>
-      </c>
-      <c r="N23" s="1">
-        <f>L23-M23</f>
-        <v>13.799999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>7</v>
-      </c>
-      <c r="B24" s="4">
-        <f t="shared" si="14"/>
-        <v>45.3</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="13"/>
-        <v>45.3</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>7</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="9"/>
-        <v>23.908529355871121</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="10"/>
-        <v>23.908529355871128</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
-        <v>7</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="11"/>
-        <v>43.023359345861394</v>
-      </c>
-      <c r="M24" s="1">
-        <f t="shared" si="12"/>
-        <v>43.023359345861401</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>8</v>
-      </c>
-      <c r="B25" s="4">
-        <f t="shared" si="14"/>
-        <v>45.3</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" si="13"/>
-        <v>45.3</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>8</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="9"/>
-        <v>23.469531101239358</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" si="10"/>
-        <v>23.469531101239319</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="7"/>
-        <v>3.907985046680551E-14</v>
-      </c>
-      <c r="K25" s="4">
-        <v>8</v>
-      </c>
-      <c r="L25" s="1">
-        <f t="shared" si="11"/>
-        <v>42.9153498251789</v>
-      </c>
-      <c r="M25" s="1">
-        <f t="shared" si="12"/>
-        <v>42.915349825178893</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>9</v>
-      </c>
-      <c r="B26" s="4">
-        <f t="shared" si="14"/>
-        <v>45.3</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="13"/>
-        <v>45.3</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>9</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="9"/>
-        <v>23.04701085616129</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="10"/>
-        <v>23.047010856161258</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="7"/>
-        <v>3.1974423109204508E-14</v>
-      </c>
-      <c r="K26" s="4">
-        <v>9</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="11"/>
-        <v>43.000519649569696</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="12"/>
-        <v>43.000519649569696</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>10</v>
-      </c>
-      <c r="B27" s="4">
-        <f t="shared" si="14"/>
-        <v>45.3</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" si="13"/>
-        <v>45.3</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>10</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="9"/>
-        <v>22.624998695184008</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" si="10"/>
-        <v>22.62499869518399</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
-        <v>10</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" si="11"/>
-        <v>43.0912265130004</v>
-      </c>
-      <c r="M27" s="1">
-        <f t="shared" si="12"/>
-        <v>43.0912265130004</v>
-      </c>
-      <c r="N27" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>11</v>
-      </c>
-      <c r="B28" s="4">
-        <f t="shared" si="14"/>
-        <v>45.3</v>
-      </c>
-      <c r="C28" s="4">
-        <f t="shared" si="13"/>
-        <v>45.3</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>11</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="9"/>
-        <v>33.853168160007399</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="10"/>
-        <v>22.14094480820631</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="7"/>
-        <v>11.712223351801089</v>
-      </c>
-      <c r="K28" s="4">
-        <v>11</v>
-      </c>
-      <c r="L28" s="1">
-        <f t="shared" si="11"/>
-        <v>42.401062369044695</v>
-      </c>
-      <c r="M28" s="1">
-        <f t="shared" si="12"/>
-        <v>42.401062369044595</v>
-      </c>
-      <c r="N28" s="1">
-        <f t="shared" si="8"/>
-        <v>9.9475983006414026E-14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>12</v>
-      </c>
-      <c r="B29" s="4">
-        <f>D13+F12</f>
-        <v>27.3</v>
-      </c>
-      <c r="C29" s="4">
-        <f>B13+C13+G13</f>
-        <v>27.3</v>
-      </c>
-      <c r="D29" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>12</v>
-      </c>
-      <c r="G29" s="1">
-        <f>D13+N12</f>
-        <v>15.584140180189401</v>
-      </c>
-      <c r="H29" s="1">
-        <f>B13+C13+O13</f>
-        <v>27.3</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="7"/>
-        <v>-11.7158598198106</v>
-      </c>
-      <c r="K29" s="4">
-        <v>12</v>
-      </c>
-      <c r="L29" s="1">
-        <f>D13+AD12</f>
-        <v>25.511424209470999</v>
-      </c>
-      <c r="M29" s="1">
-        <f>B13+C13+AE13</f>
-        <v>25.511265532365901</v>
-      </c>
-      <c r="N29" s="1">
-        <f t="shared" si="8"/>
-        <v>1.5867710509809285E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J30" s="15"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>182</v>
-      </c>
-      <c r="J31" t="s">
-        <v>184</v>
-      </c>
-      <c r="K31" t="s">
-        <v>185</v>
-      </c>
-      <c r="L31" t="s">
-        <v>184</v>
-      </c>
-      <c r="M31" t="s">
-        <v>185</v>
-      </c>
-      <c r="O31" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F32" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="J32" t="s">
-        <v>183</v>
-      </c>
-      <c r="K32" s="1">
-        <v>-2865522.3873577602</v>
-      </c>
-      <c r="L32" t="s">
-        <v>186</v>
-      </c>
-      <c r="M32" s="1">
-        <v>1697206.63199761</v>
-      </c>
-      <c r="N32" s="14">
-        <f>M32+K32</f>
-        <v>-1168315.7553601502</v>
-      </c>
-      <c r="O32" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="P32" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q32" s="31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <f>D2*(Z2*Y2+(1-Z2)*X2)+O3*W3</f>
-        <v>-2071543.5798332747</v>
-      </c>
-      <c r="H33" s="1">
-        <f>N2*V2+B2*V2+C2*W2+O2*W2+U2</f>
-        <v>793978.80752449436</v>
-      </c>
-      <c r="I33" s="1">
-        <f>G33-H33</f>
-        <v>-2865522.3873577691</v>
-      </c>
-      <c r="O33" s="4">
-        <v>1</v>
-      </c>
-      <c r="P33" s="1">
-        <f>D2*(Z2*Y2+(1-Z2)*X2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="1">
-        <f>C2*W2+B2*V2+U2</f>
-        <v>198494.70188112359</v>
-      </c>
-    </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F34" s="4">
-        <v>2</v>
-      </c>
-      <c r="G34" s="1">
-        <f>D3*(Z3*Y3+(1-Z3)*X3)+N2*V2+O4*W4</f>
-        <v>-1280521.2557413979</v>
-      </c>
-      <c r="H34" s="1">
-        <f>B3*V3+C3*W3+O3*W3+N3*V3+U3</f>
-        <v>-1280632.5135913612</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" ref="I34:I44" si="15">G34-H34</f>
-        <v>111.25784996338189</v>
-      </c>
-      <c r="O34" s="4">
-        <v>2</v>
-      </c>
-      <c r="P34" s="1">
-        <f t="shared" ref="P34:P44" si="16">D3*(Z3*Y3+(1-Z3)*X3)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1">
-        <f t="shared" ref="Q34:Q44" si="17">C3*W3+B3*V3+U3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F35" s="4">
-        <v>3</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" ref="G35:G43" si="18">D4*(Z4*Y4+(1-Z4)*X4)+N3*V3+O5*W5</f>
-        <v>-1057867.0921611045</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" ref="H35:H42" si="19">B4*V4+C4*W4+O4*W4+N4*V4+U4</f>
-        <v>-1057890.4387258324</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="15"/>
-        <v>23.346564727835357</v>
-      </c>
-      <c r="O35" s="4">
-        <v>3</v>
-      </c>
-      <c r="P35" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F36" s="4">
-        <v>4</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="18"/>
-        <v>-993210.39957171748</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="19"/>
-        <v>-993245.17961841787</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="15"/>
-        <v>34.780046700383537</v>
-      </c>
-      <c r="O36" s="4">
-        <v>4</v>
-      </c>
-      <c r="P36" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F37" s="4">
-        <v>5</v>
-      </c>
-      <c r="G37" s="1">
-        <f>D6*(Z6*Y6+(1-Z6)*X6)+N5*V5+O7*W7</f>
-        <v>95687.619440281647</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="19"/>
-        <v>95609.321160648251</v>
-      </c>
-      <c r="I37" s="1">
-        <f>G37-H37</f>
-        <v>78.298279633396305</v>
-      </c>
-      <c r="O37" s="4">
-        <v>5</v>
-      </c>
-      <c r="P37" s="1">
-        <f t="shared" si="16"/>
-        <v>288611.20286606194</v>
-      </c>
-      <c r="Q37" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F38" s="4">
-        <v>6</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="18"/>
-        <v>879305.06164342223</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="19"/>
-        <v>879293.73224758159</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="15"/>
-        <v>11.329395840642974</v>
-      </c>
-      <c r="O38" s="4">
-        <v>6</v>
-      </c>
-      <c r="P38" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F39" s="4">
-        <v>7</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="18"/>
-        <v>915961.48591102473</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="19"/>
-        <v>915952.31131141994</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="15"/>
-        <v>9.1745996047975495</v>
-      </c>
-      <c r="O39" s="4">
-        <v>7</v>
-      </c>
-      <c r="P39" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F40" s="4">
-        <v>8</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="18"/>
-        <v>947319.2096446011</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="19"/>
-        <v>947310.06670689979</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" si="15"/>
-        <v>9.1429377013118938</v>
-      </c>
-      <c r="O40" s="4">
-        <v>8</v>
-      </c>
-      <c r="P40" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F41" s="4">
-        <v>9</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="18"/>
-        <v>978890.51197362819</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="19"/>
-        <v>978881.24196859088</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" si="15"/>
-        <v>9.2700050373096019</v>
-      </c>
-      <c r="O41" s="4">
-        <v>9</v>
-      </c>
-      <c r="P41" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F42" s="4">
-        <v>10</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="18"/>
-        <v>1014108.6645363284</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="19"/>
-        <v>1014098.2059460095</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" si="15"/>
-        <v>10.458590318914503</v>
-      </c>
-      <c r="O42" s="4">
-        <v>10</v>
-      </c>
-      <c r="P42" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F43" s="4">
-        <v>11</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="18"/>
-        <v>-674511.87207876146</v>
-      </c>
-      <c r="H43" s="1">
-        <f>B12*V12+C12*W12+O12*W12+N12*V12+U12</f>
-        <v>1062017.8379377988</v>
-      </c>
-      <c r="I43" s="1">
-        <f t="shared" si="15"/>
-        <v>-1736529.7100165603</v>
-      </c>
-      <c r="O43" s="4">
-        <v>11</v>
-      </c>
-      <c r="P43" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F44" s="4">
-        <v>12</v>
-      </c>
-      <c r="G44" s="1">
-        <f>D13*(Z13*Y13+(1-Z13)*X13)+N12*V12</f>
-        <v>2023053.0987847596</v>
-      </c>
-      <c r="H44" s="1">
-        <f>B13*V13+C13*W13+O13*W13+U13</f>
-        <v>-1410225.780596901</v>
-      </c>
-      <c r="I44" s="1">
-        <f t="shared" si="15"/>
-        <v>3433278.8793816604</v>
-      </c>
-      <c r="O44" s="33">
-        <v>12</v>
-      </c>
-      <c r="P44" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="1">
-        <f t="shared" si="17"/>
-        <v>1258592.6607080789</v>
-      </c>
-    </row>
-    <row r="45" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="I45" s="14">
-        <f>SUM(I33:I44)</f>
-        <v>-1168476.1597231412</v>
-      </c>
-      <c r="O45" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="P45" s="32">
-        <f>SUM(P33:P44)</f>
-        <v>288611.20286606194</v>
-      </c>
-      <c r="Q45" s="32">
-        <f>SUM(Q33:Q44)</f>
-        <v>1457087.3625892024</v>
-      </c>
-    </row>
-    <row r="46" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="P46" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q46" s="34">
-        <f>P45-Q45-K32-M32</f>
-        <v>-160.40436299005523</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="4">
-        <v>-82.45</v>
-      </c>
-      <c r="C51" s="4">
-        <v>32.28</v>
-      </c>
-      <c r="D51" s="4">
-        <v>96.75</v>
-      </c>
-      <c r="E51" s="4">
-        <v>134.9</v>
-      </c>
-      <c r="F51" s="4">
-        <v>152</v>
-      </c>
-      <c r="G51" s="4">
-        <v>187.2</v>
-      </c>
-      <c r="H51" s="4">
-        <v>196.5</v>
-      </c>
-      <c r="I51" s="4">
-        <v>234.7</v>
-      </c>
-      <c r="J51" s="4">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <f>B51+273.15</f>
-        <v>190.7</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:J52" si="20">C51+273.15</f>
-        <v>305.42999999999995</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="20"/>
-        <v>369.9</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="20"/>
-        <v>408.04999999999995</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="20"/>
-        <v>425.15</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="20"/>
-        <v>460.34999999999997</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="20"/>
-        <v>469.65</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="20"/>
-        <v>507.84999999999997</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="20"/>
-        <v>540.15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="4">
-        <v>-161.52500000000001</v>
-      </c>
-      <c r="C54" s="4">
-        <v>-88.599996948242193</v>
-      </c>
-      <c r="D54" s="4">
-        <v>-42.101995849609402</v>
-      </c>
-      <c r="E54" s="4">
-        <v>-11.7299865722656</v>
-      </c>
-      <c r="F54" s="4">
-        <v>-0.50198974609372704</v>
-      </c>
-      <c r="G54" s="4">
-        <v>27.878015136718801</v>
-      </c>
-      <c r="H54" s="4">
-        <v>36.059014892578098</v>
-      </c>
-      <c r="I54" s="4">
-        <v>68.730004882812494</v>
-      </c>
-      <c r="J54" s="4">
-        <v>98.429010009765605</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <f>B54+273.15</f>
-        <v>111.62499999999997</v>
-      </c>
-      <c r="C55">
-        <f t="shared" ref="C55:J55" si="21">C54+273.15</f>
-        <v>184.55000305175778</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="21"/>
-        <v>231.04800415039057</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="21"/>
-        <v>261.42001342773437</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="21"/>
-        <v>272.64801025390625</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="21"/>
-        <v>301.02801513671875</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="21"/>
-        <v>309.20901489257807</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="21"/>
-        <v>341.8800048828125</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="21"/>
-        <v>371.57901000976557</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>197</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <f>B54/B51</f>
-        <v>1.9590661006670709</v>
-      </c>
-      <c r="C57">
-        <f t="shared" ref="C57:J58" si="22">C54/C51</f>
-        <v>-2.7447334866246034</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="22"/>
-        <v>-0.43516274779958036</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="22"/>
-        <v>-8.6953199201375828E-2</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="22"/>
-        <v>-3.3025641190376777E-3</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="22"/>
-        <v>0.14892102102948079</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="22"/>
-        <v>0.18350643711235673</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="22"/>
-        <v>0.29284194666728802</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="22"/>
-        <v>0.36864797756466516</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="4">
-        <f>B55/B52</f>
-        <v>0.58534347142108012</v>
-      </c>
-      <c r="C58" s="4">
-        <f t="shared" si="22"/>
-        <v>0.60423011181533515</v>
-      </c>
-      <c r="D58" s="4">
-        <f t="shared" si="22"/>
-        <v>0.62462288226653306</v>
-      </c>
-      <c r="E58" s="4">
-        <f t="shared" si="22"/>
-        <v>0.64065681516415729</v>
-      </c>
-      <c r="F58" s="4">
-        <f t="shared" si="22"/>
-        <v>0.64129838940116723</v>
-      </c>
-      <c r="G58" s="4">
-        <f t="shared" si="22"/>
-        <v>0.65391118743720811</v>
-      </c>
-      <c r="H58" s="4">
-        <f t="shared" si="22"/>
-        <v>0.65838180537118718</v>
-      </c>
-      <c r="I58" s="4">
-        <f t="shared" si="22"/>
-        <v>0.67319091244031215</v>
-      </c>
-      <c r="J58" s="4">
-        <f t="shared" si="22"/>
-        <v>0.687918189409915</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="AB1:AB13"/>
-    <mergeCell ref="O31:Q31"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2">
-        <v>34.92</v>
-      </c>
-      <c r="C2">
-        <v>52.49</v>
-      </c>
-      <c r="D2">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="E2">
-        <v>96.65</v>
-      </c>
-      <c r="F2">
-        <v>98.49</v>
-      </c>
-      <c r="G2">
-        <v>118.9</v>
-      </c>
-      <c r="H2">
-        <v>120.07</v>
-      </c>
-      <c r="I2">
-        <v>142.6</v>
-      </c>
-      <c r="J2">
-        <v>165.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="str">
-        <f>CONCATENATE(B2,B3)</f>
-        <v>34.92,</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:J4" si="0">CONCATENATE(C2,C3)</f>
-        <v>52.49,</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>73.6,</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>96.65,</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>98.49,</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>118.9,</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>120.07,</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="0"/>
-        <v>142.6,</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v>165.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>74.48</v>
-      </c>
-      <c r="D8">
-        <v>119.6</v>
-      </c>
-      <c r="E8">
-        <v>129.69999999999999</v>
-      </c>
-      <c r="F8">
-        <v>132.41999999999999</v>
-      </c>
-      <c r="G8">
-        <v>164.85</v>
-      </c>
-      <c r="H8">
-        <v>167.19</v>
-      </c>
-      <c r="I8">
-        <v>197.66</v>
-      </c>
-      <c r="J8">
-        <v>224.721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="str">
-        <f>CONCATENATE(B8,B9)</f>
-        <v>0,</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" ref="C10" si="1">CONCATENATE(C8,C9)</f>
-        <v>74.48,</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" ref="D10" si="2">CONCATENATE(D8,D9)</f>
-        <v>119.6,</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" ref="E10" si="3">CONCATENATE(E8,E9)</f>
-        <v>129.7,</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" ref="F10" si="4">CONCATENATE(F8,F9)</f>
-        <v>132.42,</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" ref="G10" si="5">CONCATENATE(G8,G9)</f>
-        <v>164.85,</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" ref="H10" si="6">CONCATENATE(H8,H9)</f>
-        <v>167.19,</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" ref="I10" si="7">CONCATENATE(I8,I9)</f>
-        <v>197.66,</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" ref="J10" si="8">CONCATENATE(J8,J9)</f>
-        <v>224.721</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -79067,7 +76251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:J20"/>
     </sheetView>
   </sheetViews>

--- a/Начальное приближение по темп.xlsx
+++ b/Начальное приближение по темп.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E08536A-FFC4-4544-9262-3327B4BFC604}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,8 +20,9 @@
     <sheet name="dHf_298" sheetId="10" r:id="rId10"/>
     <sheet name="Проверка энтальпий" sheetId="11" r:id="rId11"/>
     <sheet name="Проверка профили" sheetId="12" r:id="rId12"/>
+    <sheet name="Лист4" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="198">
   <si>
     <t>CritT</t>
   </si>
@@ -657,7 +659,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -898,7 +900,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1035,7 +1037,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-87B7-4437-B1D8-9822BC74DF63}"/>
             </c:ext>
@@ -1189,14 +1191,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1232,7 +1234,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1380,7 +1382,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1515,7 +1517,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1650,7 +1652,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1785,7 +1787,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -1920,7 +1922,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2055,7 +2057,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2196,7 +2198,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2337,7 +2339,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2478,7 +2480,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-A7EA-4199-997F-625499281357}"/>
             </c:ext>
@@ -2660,14 +2662,1249 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UniSim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист4!$M$2:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист4!$AD$2:$AD$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13.4982019279072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.800576995992198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.198150474979101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.774814507136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.257355643670401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.873471181250501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.057153260008501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.092422771373901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.214133520568399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.203097608745601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.517547548452399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3008579707604007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A53-4504-8790-B1E2AE0E8411}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Calc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист4!$M$2:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист4!$N$2:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.322076055184702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.065777042467694</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.406106766416997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.715513790071597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.468159470664602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.550342733754601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.989148261254499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.499614341478296</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.958744928028697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A53-4504-8790-B1E2AE0E8411}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1205048192"/>
+        <c:axId val="1654272256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1205048192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tray</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> No</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654272256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1654272256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Liquid</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1205048192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UniSim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист4!$M$2:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист4!$AE$2:$AE$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.6853584055969199E-21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.997549685555601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.2999247536406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.6974982326274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.274162264784302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.756703401318699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.5726132104901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.756295289248101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.7915648006135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.913275549807999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.9022396379852</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.216689577692001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A53-4504-8790-B1E2AE0E8411}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист4!$M$2:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист4!$O$2:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.822076055184702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.565777042467701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.906106766417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.4155137900716</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.168159470664602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.2503427337546</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.689148261254498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.199614341478298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.6587449280287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A53-4504-8790-B1E2AE0E8411}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1205048192"/>
+        <c:axId val="1654272256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1205048192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tray</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> No</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654272256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1654272256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vapor</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1205048192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2703,7 +3940,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2848,7 +4085,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0A6E-40F1-B6EF-BC66DFBFC52A}"/>
             </c:ext>
@@ -2977,7 +4214,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0A6E-40F1-B6EF-BC66DFBFC52A}"/>
             </c:ext>
@@ -3160,14 +4397,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3203,7 +4440,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3309,7 +4546,7 @@
             <c:numRef>
               <c:f>Лист2!$D$161:$D$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.99999606178854739</c:v>
@@ -3351,7 +4588,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3444,7 +4681,7 @@
             <c:numRef>
               <c:f>Лист2!$F$161:$F$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.9380855625060907E-6</c:v>
@@ -3486,7 +4723,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3579,7 +4816,7 @@
             <c:numRef>
               <c:f>Лист2!$G$161:$G$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0123141803303958E-10</c:v>
@@ -3621,7 +4858,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3714,7 +4951,7 @@
             <c:numRef>
               <c:f>Лист2!$H$161:$H$172</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.4658773176560385E-11</c:v>
@@ -3756,7 +4993,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ED2B-49A6-BE51-597FFE0198A0}"/>
             </c:ext>
@@ -3939,14 +5176,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3982,7 +5219,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4160,7 +5397,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-29C4-4B53-8FBB-0EF90FDC155E}"/>
             </c:ext>
@@ -4311,14 +5548,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4354,7 +5591,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4491,7 +5728,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-115A-4A6F-873B-035203F4A5F8}"/>
             </c:ext>
@@ -4645,14 +5882,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4688,7 +5925,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4833,7 +6070,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5E0F-4AAC-A196-D98AEB11FE60}"/>
             </c:ext>
@@ -4962,7 +6199,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5E0F-4AAC-A196-D98AEB11FE60}"/>
             </c:ext>
@@ -5145,14 +6382,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5188,7 +6425,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5325,7 +6562,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4E9E-4361-8923-8243C29C8350}"/>
             </c:ext>
@@ -5480,14 +6717,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5523,7 +6760,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5571,6 +6808,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5707,7 +6964,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -5842,7 +7099,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -5977,7 +7234,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6112,7 +7369,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6247,7 +7504,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6382,7 +7639,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6523,7 +7780,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6664,7 +7921,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6805,7 +8062,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -6987,14 +8244,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7030,7 +8287,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7078,6 +8335,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7214,7 +8491,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7349,7 +8626,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7484,7 +8761,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7619,7 +8896,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7754,7 +9031,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -7889,7 +9166,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8030,7 +9307,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8171,7 +9448,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8312,7 +9589,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-31E9-4770-B6E2-4272ECF191B3}"/>
             </c:ext>
@@ -8494,14 +9771,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8577,6 +9854,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9453,6 +10810,1038 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14116,7 +16505,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4ECAB0-E5DF-456A-8482-FE48ED2AE7BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14152,7 +16541,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B497BA-5A36-4451-8ED0-A11120A05A09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14188,7 +16577,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3960BC85-8BF4-479F-ABC4-17BA12DEE5E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14224,7 +16613,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322F50C0-F094-4C74-81DD-029F255D6F55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14265,7 +16654,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396B5A90-0526-4FB8-933D-4213F1AA9AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14303,7 +16692,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8ADED4-D531-4F59-8B13-BDCE2E48BAB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14341,7 +16730,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14E6E67-66FC-456E-A5A4-C8ADFCEA3BD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14377,7 +16766,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B1F823-F12F-4D98-A409-855942E745A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14413,7 +16802,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F265A3-A489-4E54-B4DC-06F4401CD7A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14454,7 +16843,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F7CE71-387D-4AFD-90A0-BF36E45A2C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14467,6 +16856,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A39076-AFD4-4FB6-8AC4-A5F99C88AD1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898FD5BF-DFCA-4565-9050-AC78CDBCCB4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14518,7 +16984,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14551,9 +17017,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14586,6 +17069,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -14761,7 +17261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49728,7 +52228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50054,7 +52554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -53116,11 +55616,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53988,7 +56488,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="14">
-        <f t="shared" si="5"/>
+        <f>(D11+O12+N10)/(I11+1)-O11</f>
         <v>27.299999999999997</v>
       </c>
       <c r="O11" s="14">
@@ -55316,7 +57816,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="22"/>
-        <v>261.42001342773437</v>
+        <v>261.42001342773438</v>
       </c>
       <c r="F55">
         <f t="shared" si="22"/>
@@ -55456,8 +57956,2338 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A035F8-5618-4490-9EC9-C2D4C8269984}">
+  <dimension ref="A1:AE58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>171</v>
+      </c>
+      <c r="R1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" t="s">
+        <v>187</v>
+      </c>
+      <c r="V1" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB1" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4.5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>13.5</v>
+      </c>
+      <c r="F2">
+        <v>13.5</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>(B2+C2)/(F2+G2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J2">
+        <f>I2/(I2+1)*(D2+G3+0)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K2" s="17">
+        <v>1.9354838709677418</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="14">
+        <f>L2*B2</f>
+        <v>13.5</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f>($L$2*$D$2+($L$2+1)*$D$13+$Q$14)/($L$2+$K$2+1)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="T2">
+        <f>((K2+1)*$D$2+$L$2*$D$13+$S$14)/($K$2+$L$2+1)</f>
+        <v>4.5</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>$N$32*O33</f>
+        <v>-426718.55465678498</v>
+      </c>
+      <c r="W2">
+        <v>-80393.924284719804</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>13.4982019279072</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>2.6853584055969199E-21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>F2+D3-B3</f>
+        <v>13.5</v>
+      </c>
+      <c r="G3">
+        <f>$C$2+$B$2+$E$2-C3</f>
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="0">(B3+C3)/(F3+G3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J13" si="1">I3/(I3+1)*(D3+G4+F2)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="14">
+        <f>(D3+O4+N2)/(I3+1)-O3</f>
+        <v>33.322076055184702</v>
+      </c>
+      <c r="O3">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f>(P3+$L$2)*D3+($L$2+1)*B3-C3</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>($K$2+1-P3)*D3+($L$2+1)*B3+C3</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V13" si="2">$N$32*O34</f>
+        <v>-151903.04926292301</v>
+      </c>
+      <c r="W3">
+        <v>-117212.229408257</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>20.800576995992198</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>17.997549685555601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F12" si="3">F3+D4-B4</f>
+        <v>13.5</v>
+      </c>
+      <c r="G4">
+        <f>$C$2+$B$2+$E$2-C4</f>
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" s="14">
+        <f>(D4+O5+N3)/(I4+1)-O4</f>
+        <v>29.065777042467694</v>
+      </c>
+      <c r="O4">
+        <v>37.822076055184702</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q12" si="4">(P4+$L$2)*D4+($L$2+1)*B4-C4</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S12" si="5">($K$2+1-P4)*D4+($L$2+1)*B4+C4</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>-142046.057217397</v>
+      </c>
+      <c r="W4">
+        <v>-126583.937339793</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>21.198150474979101</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>25.2999247536406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G13" si="6">$C$2+$B$2+$E$2-C5</f>
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="14">
+        <f>(D5+O6+N4)/(I5+1)-O5</f>
+        <v>27.406106766416997</v>
+      </c>
+      <c r="O5">
+        <v>33.565777042467701</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>-174396.57018223699</v>
+      </c>
+      <c r="W5">
+        <v>-129569.65281685301</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>20.774814507136</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>25.6974982326274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>13.8</v>
+      </c>
+      <c r="F6">
+        <f>F5+D6-B6</f>
+        <v>27.3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="14">
+        <f>(D6+O7+N5)/(I6+1)-O6</f>
+        <v>32.715513790071597</v>
+      </c>
+      <c r="O6">
+        <v>31.906106766417</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>55.2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>26.70967741935484</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>-180095.61847186901</v>
+      </c>
+      <c r="W6">
+        <v>-133313.79523258199</v>
+      </c>
+      <c r="X6">
+        <v>-204729.639128804</v>
+      </c>
+      <c r="Y6">
+        <v>-128586.68658062301</v>
+      </c>
+      <c r="Z6">
+        <v>0.42134857177734403</v>
+      </c>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>19.257355643670401</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>25.274162264784302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>F6+D7-B7</f>
+        <v>27.3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="14">
+        <f t="shared" ref="N4:N9" si="7">(D7+O8+N6)/(I7+1)-O7</f>
+        <v>30.468159470664602</v>
+      </c>
+      <c r="O7">
+        <v>23.4155137900716</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>-124860.05035202</v>
+      </c>
+      <c r="W7">
+        <v>-141277.38461197601</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="4">
+        <v>6</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>25.873471181250501</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>23.756703401318699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>27.3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" s="14">
+        <f t="shared" si="7"/>
+        <v>29.550342733754601</v>
+      </c>
+      <c r="O8">
+        <v>21.168159470664602</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>-187560.92594549301</v>
+      </c>
+      <c r="W8">
+        <v>-144743.49106657901</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="4">
+        <v>7</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>26.057153260008501</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>16.5726132104901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>27.3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14">
+        <f t="shared" si="7"/>
+        <v>28.989148261254499</v>
+      </c>
+      <c r="O9">
+        <v>20.2503427337546</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>-176105.92935862599</v>
+      </c>
+      <c r="W9">
+        <v>-146562.49602046399</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="4">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>26.092422771373901</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>16.756295289248101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>27.3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" s="14">
+        <f>(D10+O11+N9)/(I10+1)-O10</f>
+        <v>28.499614341478296</v>
+      </c>
+      <c r="O10">
+        <v>19.689148261254498</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>112909.518763106</v>
+      </c>
+      <c r="W10">
+        <v>-147421.37476595899</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="4">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>26.214133520568399</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>16.7915648006135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>27.3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" s="14">
+        <f>(D11+O12+N10)/(I11+1)-O11</f>
+        <v>27.958744928028697</v>
+      </c>
+      <c r="O11">
+        <v>19.199614341478298</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>-201321.171371234</v>
+      </c>
+      <c r="W11">
+        <v>-147918.920130657</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="4">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>26.203097608745601</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>16.913275549807999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>27.3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" s="14">
+        <f>(D12+O13+N11)/(I12+1)-O12</f>
+        <v>27.299999999999994</v>
+      </c>
+      <c r="O12">
+        <v>18.6587449280287</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>-195151.325047191</v>
+      </c>
+      <c r="W12">
+        <v>-148547.87614082301</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="4">
+        <v>11</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>25.517547548452399</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>16.9022396379852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>B13</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.34065934065934067</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>6.9368852459016397</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13" s="14">
+        <f>B13</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O13">
+        <v>18</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>-196738.49100297401</v>
+      </c>
+      <c r="W13">
+        <v>-150008.51962527301</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>9.3008579707604007</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>16.216689577692001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <f>SUM(Q3:Q12)</f>
+        <v>55.2</v>
+      </c>
+      <c r="S14">
+        <f>SUM(S3:S12)</f>
+        <v>26.70967741935484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <f>D2+G3</f>
+        <v>18</v>
+      </c>
+      <c r="C18" s="4">
+        <f>E2+B2</f>
+        <v>18</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <f>D2+O3</f>
+        <v>18</v>
+      </c>
+      <c r="H18" s="1">
+        <f>N2+B2+C2+O2</f>
+        <v>18</v>
+      </c>
+      <c r="I18" s="1">
+        <f>G18-H18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <f>D2+AE3</f>
+        <v>17.997549685555601</v>
+      </c>
+      <c r="M18" s="1">
+        <f>AD2+B2+C2</f>
+        <v>17.9982019279072</v>
+      </c>
+      <c r="N18" s="1">
+        <f>L18-M18</f>
+        <v>-6.5224235159888622E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4">
+        <f>D3+$E$2+G4</f>
+        <v>31.5</v>
+      </c>
+      <c r="C19" s="4">
+        <f>B3+C3+G3+F3</f>
+        <v>31.5</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:D29" si="8">B19-C19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <f>D3+N2+O4</f>
+        <v>51.322076055184702</v>
+      </c>
+      <c r="H19" s="1">
+        <f>B3+C3+O3+N3</f>
+        <v>51.322076055184702</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" ref="I19:I29" si="9">G19-H19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <f>D2+AD2+AE4</f>
+        <v>38.798126681547799</v>
+      </c>
+      <c r="M19" s="1">
+        <f>B3+C3+AE3+AD3</f>
+        <v>38.798126681547799</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" ref="N19:N29" si="10">L19-M19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4">
+        <f>D4+F3+G5</f>
+        <v>31.5</v>
+      </c>
+      <c r="C20" s="4">
+        <f>B4+C4+F4+G4</f>
+        <v>31.5</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ref="G20:G28" si="11">D4+N3+O5</f>
+        <v>66.887853097652396</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" ref="H20:H28" si="12">B4+C4+N4+O4</f>
+        <v>66.887853097652396</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" ref="L20:L28" si="13">D3+AD3+AE5</f>
+        <v>46.498075228619598</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" ref="M20:M28" si="14">B4+C4+AD4+AE4</f>
+        <v>46.498075228619697</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="10"/>
+        <v>-9.9475983006414026E-14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4">
+        <f>D5+F4+G6</f>
+        <v>31.5</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ref="C21:C28" si="15">B5+C5+F5+G5</f>
+        <v>31.5</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="11"/>
+        <v>60.971883808884698</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="12"/>
+        <v>60.971883808884698</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="13"/>
+        <v>46.472312739763403</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="14"/>
+        <v>46.472312739763396</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4">
+        <f>D6+F5+G7</f>
+        <v>45.3</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="15"/>
+        <v>45.3</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="11"/>
+        <v>64.621620556488594</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="12"/>
+        <v>64.621620556488594</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="13"/>
+        <v>44.531517908454703</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="14"/>
+        <v>44.531517908454703</v>
+      </c>
+      <c r="N22" s="1">
+        <f>L22-M22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" ref="B23:B28" si="16">D7+F6+G8</f>
+        <v>45.3</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="15"/>
+        <v>45.3</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="11"/>
+        <v>53.883673260736202</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="12"/>
+        <v>53.883673260736202</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>6</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="13"/>
+        <v>49.629968854160509</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="14"/>
+        <v>49.630174582569197</v>
+      </c>
+      <c r="N23" s="1">
+        <f>L23-M23</f>
+        <v>-2.0572840868737785E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="16"/>
+        <v>45.3</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="15"/>
+        <v>45.3</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="11"/>
+        <v>50.718502204419202</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="12"/>
+        <v>50.718502204419202</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>7</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="13"/>
+        <v>42.629766470498602</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="14"/>
+        <v>42.629766470498602</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="16"/>
+        <v>45.3</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="15"/>
+        <v>45.3</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>8</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="11"/>
+        <v>49.239490995009099</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="12"/>
+        <v>49.239490995009099</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>8</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="13"/>
+        <v>42.848718060622005</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="14"/>
+        <v>42.848718060622005</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="16"/>
+        <v>45.3</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="15"/>
+        <v>45.3</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>9</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="11"/>
+        <v>48.188762602732794</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="12"/>
+        <v>48.188762602732794</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>9</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="13"/>
+        <v>43.005698321181896</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="14"/>
+        <v>43.005698321181896</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>10</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="16"/>
+        <v>45.3</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="15"/>
+        <v>45.3</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>10</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="11"/>
+        <v>47.158359269506995</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="12"/>
+        <v>47.158359269506995</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>10</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="13"/>
+        <v>43.1163731585536</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="14"/>
+        <v>43.1163731585536</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="16"/>
+        <v>45.3</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="15"/>
+        <v>45.3</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="11"/>
+        <v>45.958744928028693</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="12"/>
+        <v>45.958744928028693</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>11</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="13"/>
+        <v>42.419787186437603</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="14"/>
+        <v>42.419787186437603</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4">
+        <f>D13+F12</f>
+        <v>27.3</v>
+      </c>
+      <c r="C29" s="4">
+        <f>B13+C13+G13</f>
+        <v>27.3</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1">
+        <f>D13+N12</f>
+        <v>27.299999999999994</v>
+      </c>
+      <c r="H29" s="1">
+        <f>B13+C13+O13</f>
+        <v>27.3</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>12</v>
+      </c>
+      <c r="L29" s="1">
+        <f>D13+AD12</f>
+        <v>25.517547548452399</v>
+      </c>
+      <c r="M29" s="1">
+        <f>B13+C13+AE13</f>
+        <v>25.516689577692002</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="10"/>
+        <v>8.5797076039639819E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>182</v>
+      </c>
+      <c r="J31" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31" t="s">
+        <v>185</v>
+      </c>
+      <c r="L31" t="s">
+        <v>184</v>
+      </c>
+      <c r="M31" t="s">
+        <v>185</v>
+      </c>
+      <c r="N31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F32" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" t="s">
+        <v>183</v>
+      </c>
+      <c r="K32" s="1">
+        <v>7680933.9838221297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" s="1">
+        <v>-3497963.20746064</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <f>D2*(Z2*Y2+(1-Z2)*X2)+O3*W3</f>
+        <v>-2109820.1293486259</v>
+      </c>
+      <c r="H33" s="1">
+        <f>N2*V2+B2*V2+C2*W2+O2*W2+U2</f>
+        <v>-7680933.9838221297</v>
+      </c>
+      <c r="I33" s="1">
+        <f>G33-H33</f>
+        <v>5571113.8544735033</v>
+      </c>
+      <c r="N33">
+        <v>-426718.55465678498</v>
+      </c>
+      <c r="O33">
+        <v>-426718.55465678498</v>
+      </c>
+    </row>
+    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <f>D3*(Z3*Y3+(1-Z3)*X3)+N2*V2+O4*W4</f>
+        <v>-10548367.793296982</v>
+      </c>
+      <c r="H34" s="1">
+        <f>B3*V3+C3*W3+O3*W3+N3*V3+U3</f>
+        <v>-7171545.0899022147</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" ref="I34:I44" si="17">G34-H34</f>
+        <v>-3376822.7033947669</v>
+      </c>
+      <c r="N34">
+        <v>-151903.04926292301</v>
+      </c>
+      <c r="O34">
+        <v>-151903.04926292301</v>
+      </c>
+    </row>
+    <row r="35" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ref="G35:G43" si="18">D4*(Z4*Y4+(1-Z4)*X4)+N3*V3+O5*W5</f>
+        <v>-9410831.0384740233</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" ref="H35:H42" si="19">B4*V4+C4*W4+O4*W4+N4*V4+U4</f>
+        <v>-8916346.3342728559</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="17"/>
+        <v>-494484.70420116745</v>
+      </c>
+      <c r="N35">
+        <v>-142046.057217397</v>
+      </c>
+      <c r="O35">
+        <v>-142046.057217397</v>
+      </c>
+    </row>
+    <row r="36" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F36" s="4">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="18"/>
+        <v>-8382203.2129694857</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="19"/>
+        <v>-9128637.1000317559</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="17"/>
+        <v>746433.88706227019</v>
+      </c>
+      <c r="N36">
+        <v>-174396.57018223699</v>
+      </c>
+      <c r="O36">
+        <v>-174396.57018223699</v>
+      </c>
+    </row>
+    <row r="37" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F37" s="4">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="18"/>
+        <v>-10470140.994258001</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="19"/>
+        <v>-10145444.87377492</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="17"/>
+        <v>-324696.12048308179</v>
+      </c>
+      <c r="N37">
+        <v>-180095.61847186901</v>
+      </c>
+      <c r="O37">
+        <v>-180095.61847186901</v>
+      </c>
+    </row>
+    <row r="38" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F38" s="4">
+        <v>6</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="18"/>
+        <v>-8955873.9908859655</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="19"/>
+        <v>-7112338.4732475309</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="17"/>
+        <v>-1843535.5176384347</v>
+      </c>
+      <c r="N38">
+        <v>-124860.05035202</v>
+      </c>
+      <c r="O38">
+        <v>-124860.05035202</v>
+      </c>
+    </row>
+    <row r="39" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F39" s="4">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="18"/>
+        <v>-6772196.7019694978</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="19"/>
+        <v>-8606442.9463877454</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="17"/>
+        <v>1834246.2444182476</v>
+      </c>
+      <c r="N39">
+        <v>-187560.92594549301</v>
+      </c>
+      <c r="O39">
+        <v>-187560.92594549301</v>
+      </c>
+    </row>
+    <row r="40" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F40" s="4">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="18"/>
+        <v>-8445090.9497946128</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="19"/>
+        <v>-8073101.67219216</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="17"/>
+        <v>-371989.27760245278</v>
+      </c>
+      <c r="N40">
+        <v>-176105.92935862599</v>
+      </c>
+      <c r="O40">
+        <v>-176105.92935862599</v>
+      </c>
+    </row>
+    <row r="41" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F41" s="4">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="18"/>
+        <v>-7945147.1161797652</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="19"/>
+        <v>315276.43558549928</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="17"/>
+        <v>-8260423.5517652649</v>
+      </c>
+      <c r="N41">
+        <v>112909.518763106</v>
+      </c>
+      <c r="O41">
+        <v>112909.518763106</v>
+      </c>
+    </row>
+    <row r="42" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F42" s="4">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="18"/>
+        <v>446160.80971841188</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="19"/>
+        <v>-8468673.4992968291</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="17"/>
+        <v>8914834.3090152405</v>
+      </c>
+      <c r="N42">
+        <v>-201321.171371234</v>
+      </c>
+      <c r="O42">
+        <v>-201321.171371234</v>
+      </c>
+    </row>
+    <row r="43" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F43" s="4">
+        <v>11</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="18"/>
+        <v>-8328840.6322351992</v>
+      </c>
+      <c r="H43" s="1">
+        <f>B12*V12+C12*W12+O12*W12+N12*V12+U12</f>
+        <v>-8099348.1043003295</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="17"/>
+        <v>-229492.52793486975</v>
+      </c>
+      <c r="N43">
+        <v>-195151.325047191</v>
+      </c>
+      <c r="O43">
+        <v>-195151.325047191</v>
+      </c>
+    </row>
+    <row r="44" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F44" s="4">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1">
+        <f>D13*(Z13*Y13+(1-Z13)*X13)+N12*V12</f>
+        <v>-5327631.1737883128</v>
+      </c>
+      <c r="H44" s="1">
+        <f>B13*V13+C13*W13+O13*W13+U13</f>
+        <v>-4529821.3195825722</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="17"/>
+        <v>-797809.85420574062</v>
+      </c>
+      <c r="N44">
+        <v>-196738.49100297401</v>
+      </c>
+      <c r="O44">
+        <v>-196738.49100297401</v>
+      </c>
+    </row>
+    <row r="45" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="I45" s="14">
+        <f>SUM(I33:I44)</f>
+        <v>1367374.0377434827</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>-82.45</v>
+      </c>
+      <c r="C51" s="4">
+        <v>32.28</v>
+      </c>
+      <c r="D51" s="4">
+        <v>96.75</v>
+      </c>
+      <c r="E51" s="4">
+        <v>134.9</v>
+      </c>
+      <c r="F51" s="4">
+        <v>152</v>
+      </c>
+      <c r="G51" s="4">
+        <v>187.2</v>
+      </c>
+      <c r="H51" s="4">
+        <v>196.5</v>
+      </c>
+      <c r="I51" s="4">
+        <v>234.7</v>
+      </c>
+      <c r="J51" s="4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f>B51+273.15</f>
+        <v>190.7</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:J52" si="20">C51+273.15</f>
+        <v>305.42999999999995</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="20"/>
+        <v>369.9</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="20"/>
+        <v>408.04999999999995</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="20"/>
+        <v>425.15</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="20"/>
+        <v>460.34999999999997</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="20"/>
+        <v>469.65</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="20"/>
+        <v>507.84999999999997</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="20"/>
+        <v>540.15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="4">
+        <v>-161.52500000000001</v>
+      </c>
+      <c r="C54" s="4">
+        <v>-88.599996948242193</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-42.101995849609402</v>
+      </c>
+      <c r="E54" s="4">
+        <v>-11.7299865722656</v>
+      </c>
+      <c r="F54" s="4">
+        <v>-0.50198974609372704</v>
+      </c>
+      <c r="G54" s="4">
+        <v>27.878015136718801</v>
+      </c>
+      <c r="H54" s="4">
+        <v>36.059014892578098</v>
+      </c>
+      <c r="I54" s="4">
+        <v>68.730004882812494</v>
+      </c>
+      <c r="J54" s="4">
+        <v>98.429010009765605</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>B54+273.15</f>
+        <v>111.62499999999997</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:J55" si="21">C54+273.15</f>
+        <v>184.55000305175778</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="21"/>
+        <v>231.04800415039057</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="21"/>
+        <v>261.42001342773438</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="21"/>
+        <v>272.64801025390625</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="21"/>
+        <v>301.02801513671875</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="21"/>
+        <v>309.20901489257807</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="21"/>
+        <v>341.8800048828125</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="21"/>
+        <v>371.57901000976557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f>B54/B51</f>
+        <v>1.9590661006670709</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:J58" si="22">C54/C51</f>
+        <v>-2.7447334866246034</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="22"/>
+        <v>-0.43516274779958036</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="22"/>
+        <v>-8.6953199201375828E-2</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="22"/>
+        <v>-3.3025641190376777E-3</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="22"/>
+        <v>0.14892102102948079</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="22"/>
+        <v>0.18350643711235673</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="22"/>
+        <v>0.29284194666728802</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="22"/>
+        <v>0.36864797756466516</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <f>B55/B52</f>
+        <v>0.58534347142108012</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="22"/>
+        <v>0.60423011181533515</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="22"/>
+        <v>0.62462288226653306</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="22"/>
+        <v>0.64065681516415729</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="22"/>
+        <v>0.64129838940116723</v>
+      </c>
+      <c r="G58" s="4">
+        <f t="shared" si="22"/>
+        <v>0.65391118743720811</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="22"/>
+        <v>0.65838180537118718</v>
+      </c>
+      <c r="I58" s="4">
+        <f t="shared" si="22"/>
+        <v>0.67319091244031215</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="22"/>
+        <v>0.687918189409915</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AB1:AB13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ217"/>
   <sheetViews>
     <sheetView topLeftCell="A160" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -64102,7 +68932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -73245,7 +78075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -74394,7 +79224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -74709,7 +79539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -75665,7 +80495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -76248,10 +81078,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:J20"/>
     </sheetView>
   </sheetViews>
@@ -77406,7 +82236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
